--- a/runs/run443/NotionalETEOutput443.xlsx
+++ b/runs/run443/NotionalETEOutput443.xlsx
@@ -49,13 +49,13 @@
     <t>tUp</t>
   </si>
   <si>
-    <t>Missile_SOMERSAULT3_State_Update</t>
+    <t>Missile_SOMERSAULT2_State_Update</t>
   </si>
   <si>
-    <t>MISSILE_SOMERSAULT3_39.MISSILE_SOMERSAULT3_39</t>
+    <t>MISSILE_SOMERSAULT2_65.MISSILE_SOMERSAULT2_65</t>
   </si>
   <si>
-    <t>MISSILE_SOMERSAULT3</t>
+    <t>MISSILE_SOMERSAULT2</t>
   </si>
 </sst>
 </file>
@@ -471,19 +471,19 @@
         <v>152.142</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>181.5502325633583</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>-82.29750246215953</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>870.0197713002331</v>
       </c>
       <c r="I2">
-        <v>-966.1007139609754</v>
+        <v>-1355.426695718143</v>
       </c>
       <c r="J2">
-        <v>1911.497653994978</v>
+        <v>2118.98490766384</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -506,22 +506,22 @@
         <v>153.142</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>181.5502325633583</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>-82.29750246215953</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>870.0197713002331</v>
       </c>
       <c r="I3">
-        <v>-947.0273133949631</v>
+        <v>-1328.666963599425</v>
       </c>
       <c r="J3">
-        <v>1864.99895560753</v>
+        <v>2067.438917061608</v>
       </c>
       <c r="K3">
-        <v>159.5357997867696</v>
+        <v>311.9953523268823</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -541,22 +541,22 @@
         <v>154.142</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>181.5502325633583</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>-82.29750246215953</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>870.0197713002331</v>
       </c>
       <c r="I4">
-        <v>-927.4842478872197</v>
+        <v>-1301.248297695785</v>
       </c>
       <c r="J4">
-        <v>1818.500257220084</v>
+        <v>2015.892926459376</v>
       </c>
       <c r="K4">
-        <v>311.1164133103176</v>
+        <v>608.4331862513928</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -576,22 +576,22 @@
         <v>155.142</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>181.5502325633583</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>-82.29750246215953</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>870.0197713002331</v>
       </c>
       <c r="I5">
-        <v>-907.4599523706385</v>
+        <v>-1273.154472368978</v>
       </c>
       <c r="J5">
-        <v>1772.001558832636</v>
+        <v>1964.346935857144</v>
       </c>
       <c r="K5">
-        <v>454.7418405706453</v>
+        <v>889.3135017735339</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -611,22 +611,22 @@
         <v>156.142</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>181.5502325633583</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>-82.29750246215953</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>870.0197713002331</v>
       </c>
       <c r="I6">
-        <v>-886.9425769989757</v>
+        <v>-1244.368862439344</v>
       </c>
       <c r="J6">
-        <v>1725.502860445189</v>
+        <v>1912.800945254912</v>
       </c>
       <c r="K6">
-        <v>590.4120815677517</v>
+        <v>1154.636298893303</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -646,22 +646,22 @@
         <v>157.142</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>181.5502325633583</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>-82.29750246215953</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>870.0197713002331</v>
       </c>
       <c r="I7">
-        <v>-865.9199801344247</v>
+        <v>-1214.874433347467</v>
       </c>
       <c r="J7">
-        <v>1679.004162057742</v>
+        <v>1861.25495465268</v>
       </c>
       <c r="K7">
-        <v>718.1271363016378</v>
+        <v>1404.401577610704</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -681,22 +681,22 @@
         <v>158.142</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <v>181.5502325633583</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>-82.29750246215953</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>870.0197713002331</v>
       </c>
       <c r="I8">
-        <v>-844.3797211625186</v>
+        <v>-1184.653731073581</v>
       </c>
       <c r="J8">
-        <v>1632.505463670295</v>
+        <v>1809.708964050448</v>
       </c>
       <c r="K8">
-        <v>837.8870047723029</v>
+        <v>1638.609337925733</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -716,22 +716,22 @@
         <v>159.142</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>181.5502325633583</v>
       </c>
       <c r="G9">
-        <v>-85.71037317337272</v>
+        <v>-82.29750246215953</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>870.0197713002331</v>
       </c>
       <c r="I9">
-        <v>-822.3090531301044</v>
+        <v>-1153.688871808736</v>
       </c>
       <c r="J9">
-        <v>1586.006765282847</v>
+        <v>1758.162973448216</v>
       </c>
       <c r="K9">
-        <v>949.6916869797471</v>
+        <v>1857.259579838392</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -751,22 +751,22 @@
         <v>160.142</v>
       </c>
       <c r="F10">
-        <v>293.4121614433469</v>
+        <v>181.5502325633583</v>
       </c>
       <c r="G10">
-        <v>-71.55717797416698</v>
+        <v>-68.70786828336547</v>
       </c>
       <c r="H10">
-        <v>769.755444841705</v>
+        <v>870.0197713002331</v>
       </c>
       <c r="I10">
-        <v>-799.6949152020343</v>
+        <v>-1121.961531371644</v>
       </c>
       <c r="J10">
-        <v>1539.5080668954</v>
+        <v>1706.616982845984</v>
       </c>
       <c r="K10">
-        <v>1053.54118292397</v>
+        <v>2060.352303348679</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -786,22 +786,22 @@
         <v>161.142</v>
       </c>
       <c r="F11">
-        <v>227.7220657037173</v>
+        <v>140.9041594763648</v>
       </c>
       <c r="G11">
-        <v>-57.40398277496123</v>
+        <v>-55.11823410457141</v>
       </c>
       <c r="H11">
-        <v>948.3335283176275</v>
+        <v>1071.858503830285</v>
       </c>
       <c r="I11">
-        <v>-776.5239249321107</v>
+        <v>-1089.452934364905</v>
       </c>
       <c r="J11">
-        <v>1493.009368507953</v>
+        <v>1655.070992243753</v>
       </c>
       <c r="K11">
-        <v>1149.435492604972</v>
+        <v>2247.887508456596</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -821,22 +821,22 @@
         <v>162.142</v>
       </c>
       <c r="F12">
-        <v>189.1324298276166</v>
+        <v>117.0266305648914</v>
       </c>
       <c r="G12">
-        <v>-43.2507875757555</v>
+        <v>-41.52859992577737</v>
       </c>
       <c r="H12">
-        <v>1054.703767665796</v>
+        <v>1192.083975349848</v>
       </c>
       <c r="I12">
-        <v>-752.7823703437106</v>
+        <v>-1056.143843064237</v>
       </c>
       <c r="J12">
-        <v>1446.510670120506</v>
+        <v>1603.525001641521</v>
       </c>
       <c r="K12">
-        <v>1237.374616022754</v>
+        <v>2419.865195162144</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -856,22 +856,22 @@
         <v>163.142</v>
       </c>
       <c r="F13">
-        <v>164.7718205836948</v>
+        <v>101.9533825718186</v>
       </c>
       <c r="G13">
-        <v>-29.09759237654976</v>
+        <v>-27.93896574698331</v>
       </c>
       <c r="H13">
-        <v>1130.719388438296</v>
+        <v>1278.0009941159</v>
       </c>
       <c r="I13">
-        <v>-728.4562018154004</v>
+        <v>-1022.014546034091</v>
       </c>
       <c r="J13">
-        <v>1400.011971733059</v>
+        <v>1551.979011039289</v>
       </c>
       <c r="K13">
-        <v>1317.358553177315</v>
+        <v>2576.285363465321</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -891,22 +891,22 @@
         <v>164.142</v>
       </c>
       <c r="F14">
-        <v>147.7828305825021</v>
+        <v>91.44136060735528</v>
       </c>
       <c r="G14">
-        <v>-14.94439717734402</v>
+        <v>-14.34933156818926</v>
       </c>
       <c r="H14">
-        <v>1189.912711608443</v>
+        <v>1344.904530598948</v>
       </c>
       <c r="I14">
-        <v>-703.5310237667455</v>
+        <v>-987.0448464629553</v>
       </c>
       <c r="J14">
-        <v>1353.513273345612</v>
+        <v>1500.433020437057</v>
       </c>
       <c r="K14">
-        <v>1389.387304068655</v>
+        <v>2717.148013366127</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -926,22 +926,22 @@
         <v>165.142</v>
       </c>
       <c r="F15">
-        <v>135.10853527941</v>
+        <v>83.59907742272549</v>
       </c>
       <c r="G15">
-        <v>-0.7912019781382864</v>
+        <v>-0.7596973893952172</v>
       </c>
       <c r="H15">
-        <v>1238.396634737457</v>
+        <v>1399.703716489887</v>
       </c>
       <c r="I15">
-        <v>-677.9920861393859</v>
+        <v>-951.2140502114146</v>
       </c>
       <c r="J15">
-        <v>1307.014574958165</v>
+        <v>1448.887029834825</v>
       </c>
       <c r="K15">
-        <v>1453.460868696773</v>
+        <v>2842.453144864562</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -961,22 +961,22 @@
         <v>166.142</v>
       </c>
       <c r="F16">
-        <v>125.1990062652588</v>
+        <v>77.46750711472424</v>
       </c>
       <c r="G16">
-        <v>13.36199322106746</v>
+        <v>12.82993678939884</v>
       </c>
       <c r="H16">
-        <v>1279.458978472878</v>
+        <v>1446.11462679282</v>
       </c>
       <c r="I16">
-        <v>-651.8242756683444</v>
+        <v>-914.5009535659077</v>
       </c>
       <c r="J16">
-        <v>1260.515876570717</v>
+        <v>1397.341039232593</v>
       </c>
       <c r="K16">
-        <v>1509.579247061671</v>
+        <v>2952.200757960627</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -996,22 +996,22 @@
         <v>167.142</v>
       </c>
       <c r="F17">
-        <v>117.1814757563438</v>
+        <v>72.50662028127788</v>
       </c>
       <c r="G17">
-        <v>27.5151884202732</v>
+        <v>26.41957096819289</v>
       </c>
       <c r="H17">
-        <v>1315.073083096035</v>
+        <v>1486.367638794149</v>
       </c>
       <c r="I17">
-        <v>-625.0121069383976</v>
+        <v>-876.8838306909346</v>
       </c>
       <c r="J17">
-        <v>1214.01717818327</v>
+        <v>1345.795048630361</v>
       </c>
       <c r="K17">
-        <v>1557.742439163348</v>
+        <v>3046.39085265432</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1031,22 +1031,22 @@
         <v>168.142</v>
       </c>
       <c r="F18">
-        <v>110.5240686277825</v>
+        <v>68.38731654651214</v>
       </c>
       <c r="G18">
-        <v>41.66838361947892</v>
+        <v>40.00920514698694</v>
       </c>
       <c r="H18">
-        <v>1346.516813330913</v>
+        <v>1521.907065206911</v>
       </c>
       <c r="I18">
-        <v>-597.5397132202188</v>
+        <v>-838.3404207722841</v>
       </c>
       <c r="J18">
-        <v>1167.518479795823</v>
+        <v>1294.249058028129</v>
       </c>
       <c r="K18">
-        <v>1597.950445001805</v>
+        <v>3125.023428945645</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1066,22 +1066,22 @@
         <v>169.142</v>
       </c>
       <c r="F19">
-        <v>104.8824169939751</v>
+        <v>64.8965165703941</v>
       </c>
       <c r="G19">
-        <v>55.82157881868468</v>
+        <v>53.598839325781</v>
       </c>
       <c r="H19">
-        <v>1374.665279277707</v>
+        <v>1553.722003405261</v>
       </c>
       <c r="I19">
-        <v>-569.3908370808686</v>
+        <v>-798.8479148436734</v>
       </c>
       <c r="J19">
-        <v>1121.019781408376</v>
+        <v>1242.703067425897</v>
       </c>
       <c r="K19">
-        <v>1630.20326457704</v>
+        <v>3188.098486834598</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1101,22 +1101,22 @@
         <v>170.142</v>
       </c>
       <c r="F20">
-        <v>100.02268451305</v>
+        <v>61.88953295469273</v>
       </c>
       <c r="G20">
-        <v>69.97477401789041</v>
+        <v>67.18847350457504</v>
       </c>
       <c r="H20">
-        <v>1400.14411156981</v>
+        <v>1582.519575403379</v>
       </c>
       <c r="I20">
-        <v>-540.548820763078</v>
+        <v>-758.3829422890099</v>
       </c>
       <c r="J20">
-        <v>1074.521083020929</v>
+        <v>1191.157076823665</v>
       </c>
       <c r="K20">
-        <v>1654.500897889055</v>
+        <v>3235.616026321181</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1136,22 +1136,22 @@
         <v>171.142</v>
       </c>
       <c r="F21">
-        <v>95.77988694639633</v>
+        <v>59.26428088212671</v>
       </c>
       <c r="G21">
-        <v>84.12796921709614</v>
+        <v>80.77810768336909</v>
       </c>
       <c r="H21">
-        <v>1423.416115640818</v>
+        <v>1608.822869255</v>
       </c>
       <c r="I21">
-        <v>-510.9965963276304</v>
+        <v>-716.9215570122802</v>
       </c>
       <c r="J21">
-        <v>1028.022384633482</v>
+        <v>1139.611086221433</v>
       </c>
       <c r="K21">
-        <v>1670.843344937849</v>
+        <v>3267.576047405393</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1171,22 +1171,22 @@
         <v>172.142</v>
       </c>
       <c r="F22">
-        <v>92.03389770139229</v>
+        <v>56.94643142672288</v>
       </c>
       <c r="G22">
-        <v>98.28116441630189</v>
+        <v>94.36774186216316</v>
       </c>
       <c r="H22">
-        <v>1444.833290699882</v>
+        <v>1633.029733748977</v>
       </c>
       <c r="I22">
-        <v>-480.7166755530077</v>
+        <v>-674.4392232668857</v>
       </c>
       <c r="J22">
-        <v>981.5236862460346</v>
+        <v>1088.065095619202</v>
       </c>
       <c r="K22">
-        <v>1679.230605723422</v>
+        <v>3283.978550087235</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -1206,22 +1206,22 @@
         <v>173.142</v>
       </c>
       <c r="F23">
-        <v>88.6949217115816</v>
+        <v>54.88042344500994</v>
       </c>
       <c r="G23">
-        <v>112.4343596155076</v>
+        <v>107.9573760409572</v>
       </c>
       <c r="H23">
-        <v>1464.669602897505</v>
+        <v>1655.449820436594</v>
       </c>
       <c r="I23">
-        <v>-449.6911395863262</v>
+        <v>-630.9108011360414</v>
       </c>
       <c r="J23">
-        <v>935.0249878585873</v>
+        <v>1036.51910501697</v>
       </c>
       <c r="K23">
-        <v>1679.662680245774</v>
+        <v>3284.823534366706</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -1241,22 +1241,22 @@
         <v>174.142</v>
       </c>
       <c r="F24">
-        <v>85.69432446359988</v>
+        <v>53.02378899086774</v>
       </c>
       <c r="G24">
-        <v>126.5875548147134</v>
+        <v>121.5470102197513</v>
       </c>
       <c r="H24">
-        <v>1483.142471678473</v>
+        <v>1676.328868684679</v>
       </c>
       <c r="I24">
-        <v>-417.9016283394351</v>
+        <v>-586.3105316556392</v>
       </c>
       <c r="J24">
-        <v>888.5262894711401</v>
+        <v>984.9731144147378</v>
       </c>
       <c r="K24">
-        <v>1672.139568504905</v>
+        <v>3270.111000243806</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1276,22 +1276,22 @@
         <v>175.142</v>
       </c>
       <c r="F25">
-        <v>82.97863261923654</v>
+        <v>51.34344117062314</v>
       </c>
       <c r="G25">
-        <v>140.7407500139191</v>
+        <v>135.1366443985453</v>
       </c>
       <c r="H25">
-        <v>1500.427334735227</v>
+        <v>1695.865167783785</v>
       </c>
       <c r="I25">
-        <v>-385.329329623903</v>
+        <v>-540.6120215707773</v>
       </c>
       <c r="J25">
-        <v>842.027591083693</v>
+        <v>933.427123812506</v>
       </c>
       <c r="K25">
-        <v>1656.661270500815</v>
+        <v>3239.840947718537</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -1311,22 +1311,22 @@
         <v>176.142</v>
       </c>
       <c r="F26">
-        <v>80.50548811690952</v>
+        <v>49.81317072323763</v>
       </c>
       <c r="G26">
-        <v>154.8939452131249</v>
+        <v>148.7262785773394</v>
       </c>
       <c r="H26">
-        <v>1516.667805889469</v>
+        <v>1714.221037942428</v>
       </c>
       <c r="I26">
-        <v>-351.9549680184665</v>
+        <v>-493.7882277169343</v>
       </c>
       <c r="J26">
-        <v>795.5288926962457</v>
+        <v>881.881133210274</v>
       </c>
       <c r="K26">
-        <v>1633.227786233504</v>
+        <v>3194.013376790896</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -1346,22 +1346,22 @@
         <v>177.142</v>
       </c>
       <c r="F27">
-        <v>78.24084677606483</v>
+        <v>48.41191264286207</v>
       </c>
       <c r="G27">
-        <v>169.0471404123306</v>
+        <v>162.3159127561334</v>
       </c>
       <c r="H27">
-        <v>1531.982935188696</v>
+        <v>1731.531036045898</v>
       </c>
       <c r="I27">
-        <v>-317.7587934623459</v>
+        <v>-445.8114410165409</v>
       </c>
       <c r="J27">
-        <v>749.0301943087985</v>
+        <v>830.3351426080419</v>
       </c>
       <c r="K27">
-        <v>1601.839115702973</v>
+        <v>3132.628287460885</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -1381,22 +1381,22 @@
         <v>178.142</v>
       </c>
       <c r="F28">
-        <v>76.15699335222941</v>
+        <v>47.12251798428954</v>
       </c>
       <c r="G28">
-        <v>183.2003356115363</v>
+        <v>175.9055469349275</v>
       </c>
       <c r="H28">
-        <v>1546.472509897251</v>
+        <v>1747.907947126751</v>
       </c>
       <c r="I28">
-        <v>-282.7205695676847</v>
+        <v>-396.653270081485</v>
       </c>
       <c r="J28">
-        <v>702.5314959213515</v>
+        <v>778.7891520058103</v>
       </c>
       <c r="K28">
-        <v>1562.495258909221</v>
+        <v>3055.685679728504</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -1416,22 +1416,22 @@
         <v>179.142</v>
       </c>
       <c r="F29">
-        <v>74.23110619747636</v>
+        <v>45.93086573948745</v>
       </c>
       <c r="G29">
-        <v>197.3535308107421</v>
+        <v>189.4951811137215</v>
       </c>
       <c r="H29">
-        <v>1560.220998415519</v>
+        <v>1763.447241998316</v>
       </c>
       <c r="I29">
-        <v>-246.8195616441919</v>
+        <v>-346.2846244118408</v>
       </c>
       <c r="J29">
-        <v>656.0327975339043</v>
+        <v>727.2431614035781</v>
       </c>
       <c r="K29">
-        <v>1515.196215852247</v>
+        <v>2963.185553593752</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -1451,22 +1451,22 @@
         <v>180.142</v>
       </c>
       <c r="F30">
-        <v>72.44420042328295</v>
+        <v>44.82520891436548</v>
       </c>
       <c r="G30">
-        <v>211.5067260099478</v>
+        <v>203.0848152925155</v>
       </c>
       <c r="H30">
-        <v>1573.300533797368</v>
+        <v>1778.230449389553</v>
       </c>
       <c r="I30">
-        <v>-210.0345244289049</v>
+        <v>-294.675697180886</v>
       </c>
       <c r="J30">
-        <v>609.534099146457</v>
+        <v>675.6971708013461</v>
       </c>
       <c r="K30">
-        <v>1459.941986532053</v>
+        <v>2855.127909056629</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -1486,22 +1486,22 @@
         <v>181.142</v>
       </c>
       <c r="F31">
-        <v>70.78033707670106</v>
+        <v>43.79568520260239</v>
       </c>
       <c r="G31">
-        <v>225.6599212091535</v>
+        <v>216.6744494713096</v>
       </c>
       <c r="H31">
-        <v>1585.773204526294</v>
+        <v>1792.327745105747</v>
       </c>
       <c r="I31">
-        <v>-172.3436895138052</v>
+        <v>-241.7959475962116</v>
       </c>
       <c r="J31">
-        <v>563.03540075901</v>
+        <v>624.1511801991144</v>
       </c>
       <c r="K31">
-        <v>1396.732570948639</v>
+        <v>2731.512746117136</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -1521,22 +1521,22 @@
         <v>182.142</v>
       </c>
       <c r="F32">
-        <v>69.2260227061428</v>
+        <v>42.83394546399271</v>
       </c>
       <c r="G32">
-        <v>239.8131164083593</v>
+        <v>230.2640836501037</v>
       </c>
       <c r="H32">
-        <v>1597.692837031539</v>
+        <v>1805.79996672586</v>
       </c>
       <c r="I32">
-        <v>-133.7247524638536</v>
+        <v>-187.6140828264923</v>
       </c>
       <c r="J32">
-        <v>516.5367023715627</v>
+        <v>572.6051895968824</v>
       </c>
       <c r="K32">
-        <v>1325.567969102003</v>
+        <v>2592.340064775272</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1556,22 +1556,22 @@
         <v>183.142</v>
       </c>
       <c r="F33">
-        <v>67.76974744666876</v>
+        <v>41.93286791242427</v>
       </c>
       <c r="G33">
-        <v>253.966311607565</v>
+        <v>243.8537178288977</v>
       </c>
       <c r="H33">
-        <v>1609.10639953647</v>
+        <v>1818.700200308881</v>
       </c>
       <c r="I33">
-        <v>-94.15485961781729</v>
+        <v>-132.0980394832198</v>
       </c>
       <c r="J33">
-        <v>470.0380039841157</v>
+        <v>521.0591989946506</v>
       </c>
       <c r="K33">
-        <v>1246.448180992146</v>
+        <v>2437.609865031039</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1591,22 +1591,22 @@
         <v>184.142</v>
       </c>
       <c r="F34">
-        <v>66.40162539649442</v>
+        <v>41.08633559705476</v>
       </c>
       <c r="G34">
-        <v>268.1195068067707</v>
+        <v>257.4433520076918</v>
       </c>
       <c r="H34">
-        <v>1620.055119848337</v>
+        <v>1831.075043781044</v>
       </c>
       <c r="I34">
-        <v>-53.6105945640812</v>
+        <v>-75.21496464644251</v>
       </c>
       <c r="J34">
-        <v>423.5393055966684</v>
+        <v>469.5132083924187</v>
       </c>
       <c r="K34">
-        <v>1159.373206619068</v>
+        <v>2267.322146884434</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1626,22 +1626,22 @@
         <v>185.142</v>
       </c>
       <c r="F35">
-        <v>65.11311156151491</v>
+        <v>40.2890612603303</v>
       </c>
       <c r="G35">
-        <v>282.2727020059765</v>
+        <v>271.0329861864859</v>
       </c>
       <c r="H35">
-        <v>1630.575384306307</v>
+        <v>1842.965622976132</v>
       </c>
       <c r="I35">
-        <v>-12.06796428343693</v>
+        <v>-16.93119642327914</v>
       </c>
       <c r="J35">
-        <v>377.0406072092212</v>
+        <v>417.9672177901867</v>
       </c>
       <c r="K35">
-        <v>1064.34304598277</v>
+        <v>2081.476910335458</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1661,22 +1661,22 @@
         <v>186.142</v>
       </c>
       <c r="F36">
-        <v>63.89677682736545</v>
+        <v>39.53644810082987</v>
       </c>
       <c r="G36">
-        <v>296.4258972051823</v>
+        <v>284.6226203652799</v>
       </c>
       <c r="H36">
-        <v>1640.699467370274</v>
+        <v>1854.408416256729</v>
       </c>
       <c r="I36">
-        <v>30.49761504934926</v>
+        <v>42.78775597229624</v>
       </c>
       <c r="J36">
-        <v>330.5419088217742</v>
+        <v>366.4212271879549</v>
       </c>
       <c r="K36">
-        <v>961.3576990832508</v>
+        <v>1880.074155384113</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1696,22 +1696,22 @@
         <v>187.142</v>
       </c>
       <c r="F37">
-        <v>62.74612741068609</v>
+        <v>38.82447805783844</v>
       </c>
       <c r="G37">
-        <v>310.5790924043879</v>
+        <v>298.2122545440739</v>
       </c>
       <c r="H37">
-        <v>1650.456128752365</v>
+        <v>1865.435929424949</v>
       </c>
       <c r="I37">
-        <v>74.11133261359031</v>
+        <v>103.9772326301838</v>
       </c>
       <c r="J37">
-        <v>284.043210434327</v>
+        <v>314.8752365857229</v>
       </c>
       <c r="K37">
-        <v>850.4171659205108</v>
+        <v>1663.113882030397</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -1731,22 +1731,22 @@
         <v>188.142</v>
       </c>
       <c r="F38">
-        <v>61.65545876334308</v>
+        <v>38.14962141385806</v>
       </c>
       <c r="G38">
-        <v>324.7322876035937</v>
+        <v>311.801888722868</v>
       </c>
       <c r="H38">
-        <v>1659.87110594012</v>
+        <v>1876.07725239912</v>
       </c>
       <c r="I38">
-        <v>118.7989978489667</v>
+        <v>166.673443857486</v>
       </c>
       <c r="J38">
-        <v>237.5445120468799</v>
+        <v>263.3292459834911</v>
       </c>
       <c r="K38">
-        <v>731.5214464945502</v>
+        <v>1430.596090274311</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -1766,22 +1766,22 @@
         <v>189.142</v>
       </c>
       <c r="F39">
-        <v>60.61973642286582</v>
+        <v>37.50876307022386</v>
       </c>
       <c r="G39">
-        <v>338.8854828027995</v>
+        <v>325.391522901662</v>
       </c>
       <c r="H39">
-        <v>1668.967523359887</v>
+        <v>1886.358521672668</v>
       </c>
       <c r="I39">
-        <v>164.5870557288657</v>
+        <v>230.9134916068033</v>
       </c>
       <c r="J39">
-        <v>191.0458136594327</v>
+        <v>211.7832553812592</v>
       </c>
       <c r="K39">
-        <v>604.670540805368</v>
+        <v>1182.520780115853</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -1801,22 +1801,22 @@
         <v>190.142</v>
       </c>
       <c r="F40">
-        <v>59.63449812779856</v>
+        <v>36.89914198049161</v>
       </c>
       <c r="G40">
-        <v>353.0386780020052</v>
+        <v>338.9811570804561</v>
       </c>
       <c r="H40">
-        <v>1677.766234558001</v>
+        <v>1896.303307066026</v>
       </c>
       <c r="I40">
-        <v>211.5026024098167</v>
+        <v>296.7353914321878</v>
       </c>
       <c r="J40">
-        <v>144.5471152719854</v>
+        <v>160.2372647790271</v>
       </c>
       <c r="K40">
-        <v>469.8644488529652</v>
+        <v>918.8879515550249</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -1836,22 +1836,22 @@
         <v>191.142</v>
       </c>
       <c r="F41">
-        <v>58.69577285496449</v>
+        <v>36.31830105434263</v>
       </c>
       <c r="G41">
-        <v>367.1918732012109</v>
+        <v>352.5707912592501</v>
       </c>
       <c r="H41">
-        <v>1686.286110142036</v>
+        <v>1905.932937173616</v>
       </c>
       <c r="I41">
-        <v>259.5734012662739</v>
+        <v>364.1780949857339</v>
       </c>
       <c r="J41">
-        <v>98.0484168845384</v>
+        <v>108.6912741767954</v>
       </c>
       <c r="K41">
-        <v>327.1031706373419</v>
+        <v>639.697604591827</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -1871,22 +1871,22 @@
         <v>192.142</v>
       </c>
       <c r="F42">
-        <v>57.80001342763735</v>
+        <v>35.7640454585552</v>
       </c>
       <c r="G42">
-        <v>381.3450684004166</v>
+        <v>366.1604254380442</v>
       </c>
       <c r="H42">
-        <v>1694.54428148314</v>
+        <v>1915.266774809571</v>
       </c>
       <c r="I42">
-        <v>308.8278993202484</v>
+        <v>433.2815130681379</v>
       </c>
       <c r="J42">
-        <v>51.54971849709115</v>
+        <v>57.14528357456337</v>
       </c>
       <c r="K42">
-        <v>176.3867061584973</v>
+        <v>344.9497392262577</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -1906,22 +1906,22 @@
         <v>193.142</v>
       </c>
       <c r="F43">
-        <v>56.94404008646202</v>
+        <v>35.23440770123128</v>
       </c>
       <c r="G43">
-        <v>395.4982635996224</v>
+        <v>379.7500596168383</v>
       </c>
       <c r="H43">
-        <v>1702.556348093046</v>
+        <v>1924.322451396603</v>
       </c>
       <c r="I43">
-        <v>359.2952440754943</v>
+        <v>504.0865392468417</v>
       </c>
       <c r="J43">
-        <v>5.051020109643901</v>
+        <v>5.599292972331371</v>
       </c>
       <c r="K43">
-        <v>17.71505541643188</v>
+        <v>34.64435545831807</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -1941,22 +1941,22 @@
         <v>194.142</v>
       </c>
       <c r="F44">
-        <v>56.12499297659348</v>
+        <v>34.72761823297779</v>
       </c>
       <c r="G44">
-        <v>409.6514587988281</v>
+        <v>393.3396937956323</v>
       </c>
       <c r="H44">
-        <v>1710.336554985534</v>
+        <v>1933.116067429631</v>
       </c>
       <c r="I44">
-        <v>411.0053007662318</v>
+        <v>576.6350740557658</v>
       </c>
       <c r="J44">
-        <v>-41.44767827780313</v>
+        <v>-45.94669762990039</v>
       </c>
       <c r="K44">
-        <v>-148.9117815888539</v>
+        <v>-291.2185467119912</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -1976,22 +1976,22 @@
         <v>195.142</v>
       </c>
       <c r="F45">
-        <v>55.34029193294135</v>
+        <v>34.24208056382682</v>
       </c>
       <c r="G45">
-        <v>423.8046539980338</v>
+        <v>406.9293279744263</v>
       </c>
       <c r="H45">
-        <v>1717.897945089302</v>
+        <v>1941.662364741169</v>
       </c>
       <c r="I45">
-        <v>463.9886700305992</v>
+        <v>650.9700497909319</v>
       </c>
       <c r="J45">
-        <v>-87.94637666525037</v>
+        <v>-97.49268823213239</v>
       </c>
       <c r="K45">
-        <v>-323.4938048573611</v>
+        <v>-632.6389672846718</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -2011,22 +2011,22 @@
         <v>196.142</v>
       </c>
       <c r="F46">
-        <v>54.58760227496148</v>
+        <v>33.77635009859296</v>
       </c>
       <c r="G46">
-        <v>437.9578491972396</v>
+        <v>420.5189621532204</v>
       </c>
       <c r="H46">
-        <v>1725.252490808566</v>
+        <v>1949.974875198313</v>
       </c>
       <c r="I46">
-        <v>518.2767060192961</v>
+        <v>727.1354559166531</v>
       </c>
       <c r="J46">
-        <v>-134.4450750526976</v>
+        <v>-149.0386788343644</v>
       </c>
       <c r="K46">
-        <v>-506.0310143890894</v>
+        <v>-989.6169062597239</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -2046,22 +2046,22 @@
         <v>197.142</v>
       </c>
       <c r="F47">
-        <v>53.86480557795556</v>
+        <v>33.32911605146983</v>
       </c>
       <c r="G47">
-        <v>452.1110443964453</v>
+        <v>434.1085963320144</v>
       </c>
       <c r="H47">
-        <v>1732.41120806385</v>
+        <v>1958.066049597899</v>
       </c>
       <c r="I47">
-        <v>573.9015349501371</v>
+        <v>805.1763650973314</v>
       </c>
       <c r="J47">
-        <v>-180.9437734401449</v>
+        <v>-200.5846694365964</v>
       </c>
       <c r="K47">
-        <v>-696.5234101840384</v>
+        <v>-1362.152363637146</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -2081,22 +2081,22 @@
         <v>198.142</v>
       </c>
       <c r="F48">
-        <v>53.16997458741739</v>
+        <v>32.89918592415713</v>
       </c>
       <c r="G48">
-        <v>466.2642395956511</v>
+        <v>447.6982305108085</v>
       </c>
       <c r="H48">
-        <v>1739.384255540225</v>
+        <v>1965.947369842292</v>
       </c>
       <c r="I48">
-        <v>630.8960741194956</v>
+        <v>885.1389598702634</v>
       </c>
       <c r="J48">
-        <v>-227.4424718275917</v>
+        <v>-252.1306600388279</v>
       </c>
       <c r="K48">
-        <v>-894.9709922422069</v>
+        <v>-1750.245339416936</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -2116,22 +2116,22 @@
         <v>199.142</v>
       </c>
       <c r="F49">
-        <v>52.50135159995418</v>
+        <v>32.4854721289483</v>
       </c>
       <c r="G49">
-        <v>480.4174347948568</v>
+        <v>461.2878646896025</v>
       </c>
       <c r="H49">
-        <v>1746.181021387419</v>
+        <v>1973.629446932598</v>
       </c>
       <c r="I49">
-        <v>689.2940513818855</v>
+        <v>967.0705599752416</v>
       </c>
       <c r="J49">
-        <v>-273.9411702150389</v>
+        <v>-303.6766506410599</v>
       </c>
       <c r="K49">
-        <v>-1101.373760563597</v>
+        <v>-2153.895833599098</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -2151,22 +2151,22 @@
         <v>200.142</v>
       </c>
       <c r="F50">
-        <v>51.85732975861127</v>
+        <v>32.08698041511979</v>
       </c>
       <c r="G50">
-        <v>494.5706299940626</v>
+        <v>474.8774988683966</v>
       </c>
       <c r="H50">
-        <v>1752.810199228718</v>
+        <v>1981.122106878097</v>
       </c>
       <c r="I50">
-        <v>749.1300251092075</v>
+        <v>1051.019650357114</v>
       </c>
       <c r="J50">
-        <v>-320.4398686024862</v>
+        <v>-355.2226412432919</v>
       </c>
       <c r="K50">
-        <v>-1315.731715148209</v>
+        <v>-2573.103846183632</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -2186,22 +2186,22 @@
         <v>201.142</v>
       </c>
       <c r="F51">
-        <v>51.23643680946821</v>
+        <v>31.70279981824416</v>
       </c>
       <c r="G51">
-        <v>508.7238251932683</v>
+        <v>488.4671330471906</v>
       </c>
       <c r="H51">
-        <v>1759.279855022697</v>
+        <v>1988.434466267027</v>
       </c>
       <c r="I51">
-        <v>810.4394046414783</v>
+        <v>1137.035909857894</v>
       </c>
       <c r="J51">
-        <v>-366.9385669899334</v>
+        <v>-406.7686318455239</v>
       </c>
       <c r="K51">
-        <v>-1538.044855996042</v>
+        <v>-3007.869377170537</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -2221,22 +2221,22 @@
         <v>202.142</v>
       </c>
       <c r="F52">
-        <v>50.63732094575685</v>
+        <v>31.33209390116787</v>
       </c>
       <c r="G52">
-        <v>522.877020392474</v>
+        <v>502.0567672259847</v>
       </c>
       <c r="H52">
-        <v>1765.597486067747</v>
+        <v>1995.574998956736</v>
       </c>
       <c r="I52">
-        <v>873.258471241137</v>
+        <v>1225.170240615373</v>
       </c>
       <c r="J52">
-        <v>-413.4372653773806</v>
+        <v>-458.3146224477559</v>
       </c>
       <c r="K52">
-        <v>-1768.313183107095</v>
+        <v>-3458.192426559811</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -2256,22 +2256,22 @@
         <v>203.142</v>
       </c>
       <c r="F53">
-        <v>50.05873842972954</v>
+        <v>30.97409309498066</v>
       </c>
       <c r="G53">
-        <v>537.0302155916797</v>
+        <v>515.6464014047788</v>
       </c>
       <c r="H53">
-        <v>1771.770073232002</v>
+        <v>2002.551595106804</v>
       </c>
       <c r="I53">
-        <v>937.6243995633293</v>
+        <v>1315.474798185655</v>
       </c>
       <c r="J53">
-        <v>-459.9359637648275</v>
+        <v>-509.8606130499874</v>
       </c>
       <c r="K53">
-        <v>-2006.536696481367</v>
+        <v>-3924.072994351453</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -2291,22 +2291,22 @@
         <v>204.142</v>
       </c>
       <c r="F54">
-        <v>49.49954273435704</v>
+        <v>30.62808798038724</v>
       </c>
       <c r="G54">
-        <v>551.1834107908854</v>
+        <v>529.2360355835727</v>
       </c>
       <c r="H54">
-        <v>1777.804127321151</v>
+        <v>2009.371613586484</v>
       </c>
       <c r="I54">
-        <v>1003.575279654889</v>
+        <v>1408.003022407438</v>
       </c>
       <c r="J54">
-        <v>-506.4346621522747</v>
+        <v>-561.4066036522195</v>
       </c>
       <c r="K54">
-        <v>-2252.715396118862</v>
+        <v>-4405.511080545469</v>
       </c>
     </row>
   </sheetData>

--- a/runs/run443/NotionalETEOutput443.xlsx
+++ b/runs/run443/NotionalETEOutput443.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="647" uniqueCount="19">
   <si>
     <t>uniqueid</t>
   </si>
@@ -49,13 +49,28 @@
     <t>tUp</t>
   </si>
   <si>
-    <t>Missile_SOMERSAULT2_State_Update</t>
+    <t>Missile_HELLMASKER_State_Update</t>
   </si>
   <si>
-    <t>MISSILE_SOMERSAULT2_65.MISSILE_SOMERSAULT2_65</t>
+    <t>Missile_SOMERSAULT_State_Update</t>
   </si>
   <si>
-    <t>MISSILE_SOMERSAULT2</t>
+    <t>MISSILE_HELLMASKER_392.MISSILE_HELLMASKER_392</t>
+  </si>
+  <si>
+    <t>MISSILE_SOMERSAULT_298.MISSILE_SOMERSAULT_298</t>
+  </si>
+  <si>
+    <t>MISSILE_HELLMASKER_71.MISSILE_HELLMASKER_71</t>
+  </si>
+  <si>
+    <t>MISSILE_HELLMASKER_200.MISSILE_HELLMASKER_200</t>
+  </si>
+  <si>
+    <t>MISSILE_HELLMASKER</t>
+  </si>
+  <si>
+    <t>MISSILE_SOMERSAULT</t>
   </si>
 </sst>
 </file>
@@ -413,7 +428,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K54"/>
+  <dimension ref="A1:K213"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -462,28 +477,28 @@
         <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E2">
         <v>152.142</v>
       </c>
       <c r="F2">
-        <v>181.5502325633583</v>
+        <v>313.0411665869849</v>
       </c>
       <c r="G2">
-        <v>-82.29750246215953</v>
+        <v>-81.55521289619892</v>
       </c>
       <c r="H2">
-        <v>870.0197713002331</v>
+        <v>973.2423144387834</v>
       </c>
       <c r="I2">
-        <v>-1355.426695718143</v>
+        <v>-1446.313488061337</v>
       </c>
       <c r="J2">
-        <v>2118.98490766384</v>
+        <v>970.2799799933287</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -497,31 +512,31 @@
         <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D3" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E3">
         <v>153.142</v>
       </c>
       <c r="F3">
-        <v>181.5502325633583</v>
+        <v>313.0411665869849</v>
       </c>
       <c r="G3">
-        <v>-82.29750246215953</v>
+        <v>-81.55521289619892</v>
       </c>
       <c r="H3">
-        <v>870.0197713002331</v>
+        <v>973.2423144387834</v>
       </c>
       <c r="I3">
-        <v>-1328.666963599425</v>
+        <v>-1417.75940865411</v>
       </c>
       <c r="J3">
-        <v>2067.438917061608</v>
+        <v>946.6771489635362</v>
       </c>
       <c r="K3">
-        <v>311.9953523268823</v>
+        <v>289.507094417267</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -532,31 +547,31 @@
         <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D4" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E4">
         <v>154.142</v>
       </c>
       <c r="F4">
-        <v>181.5502325633583</v>
+        <v>313.0411665869849</v>
       </c>
       <c r="G4">
-        <v>-82.29750246215953</v>
+        <v>-81.55521289619892</v>
       </c>
       <c r="H4">
-        <v>870.0197713002331</v>
+        <v>973.2423144387834</v>
       </c>
       <c r="I4">
-        <v>-1301.248297695785</v>
+        <v>-1388.502211310751</v>
       </c>
       <c r="J4">
-        <v>2015.892926459376</v>
+        <v>923.0743179337438</v>
       </c>
       <c r="K4">
-        <v>608.4331862513928</v>
+        <v>564.5780380540092</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -567,31 +582,31 @@
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D5" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E5">
         <v>155.142</v>
       </c>
       <c r="F5">
-        <v>181.5502325633583</v>
+        <v>313.0411665869849</v>
       </c>
       <c r="G5">
-        <v>-82.29750246215953</v>
+        <v>-81.55521289619892</v>
       </c>
       <c r="H5">
-        <v>870.0197713002331</v>
+        <v>973.2423144387834</v>
       </c>
       <c r="I5">
-        <v>-1273.154472368978</v>
+        <v>-1358.524582398941</v>
       </c>
       <c r="J5">
-        <v>1964.346935857144</v>
+        <v>899.4714869039514</v>
       </c>
       <c r="K5">
-        <v>889.3135017735339</v>
+        <v>825.2128309102287</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -602,31 +617,31 @@
         <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D6" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E6">
         <v>156.142</v>
       </c>
       <c r="F6">
-        <v>181.5502325633583</v>
+        <v>313.0411665869849</v>
       </c>
       <c r="G6">
-        <v>-82.29750246215953</v>
+        <v>-81.55521289619892</v>
       </c>
       <c r="H6">
-        <v>870.0197713002331</v>
+        <v>973.2423144387834</v>
       </c>
       <c r="I6">
-        <v>-1244.368862439344</v>
+        <v>-1327.80878195409</v>
       </c>
       <c r="J6">
-        <v>1912.800945254912</v>
+        <v>875.868655874159</v>
       </c>
       <c r="K6">
-        <v>1154.636298893303</v>
+        <v>1071.411472985924</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -637,31 +652,31 @@
         <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D7" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E7">
         <v>157.142</v>
       </c>
       <c r="F7">
-        <v>181.5502325633583</v>
+        <v>313.0411665869849</v>
       </c>
       <c r="G7">
-        <v>-82.29750246215953</v>
+        <v>-81.55521289619892</v>
       </c>
       <c r="H7">
-        <v>870.0197713002331</v>
+        <v>973.2423144387834</v>
       </c>
       <c r="I7">
-        <v>-1214.874433347467</v>
+        <v>-1296.336633181302</v>
       </c>
       <c r="J7">
-        <v>1861.25495465268</v>
+        <v>852.2658248443665</v>
       </c>
       <c r="K7">
-        <v>1404.401577610704</v>
+        <v>1303.173964281096</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -672,31 +687,31 @@
         <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D8" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E8">
         <v>158.142</v>
       </c>
       <c r="F8">
-        <v>181.5502325633583</v>
+        <v>313.0411665869849</v>
       </c>
       <c r="G8">
-        <v>-82.29750246215953</v>
+        <v>-81.55521289619892</v>
       </c>
       <c r="H8">
-        <v>870.0197713002331</v>
+        <v>973.2423144387834</v>
       </c>
       <c r="I8">
-        <v>-1184.653731073581</v>
+        <v>-1264.089511698831</v>
       </c>
       <c r="J8">
-        <v>1809.708964050448</v>
+        <v>828.6629938145741</v>
       </c>
       <c r="K8">
-        <v>1638.609337925733</v>
+        <v>1520.500304795745</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -707,31 +722,31 @@
         <v>11</v>
       </c>
       <c r="C9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D9" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E9">
         <v>159.142</v>
       </c>
       <c r="F9">
-        <v>181.5502325633583</v>
+        <v>313.0411665869849</v>
       </c>
       <c r="G9">
-        <v>-82.29750246215953</v>
+        <v>-81.55521289619892</v>
       </c>
       <c r="H9">
-        <v>870.0197713002331</v>
+        <v>973.2423144387834</v>
       </c>
       <c r="I9">
-        <v>-1153.688871808736</v>
+        <v>-1231.048334516661</v>
       </c>
       <c r="J9">
-        <v>1758.162973448216</v>
+        <v>805.0601627847817</v>
       </c>
       <c r="K9">
-        <v>1857.259579838392</v>
+        <v>1723.39049452987</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -742,31 +757,31 @@
         <v>11</v>
       </c>
       <c r="C10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D10" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E10">
         <v>160.142</v>
       </c>
       <c r="F10">
-        <v>181.5502325633583</v>
+        <v>313.0411665869849</v>
       </c>
       <c r="G10">
-        <v>-68.70786828336547</v>
+        <v>-68.08815161882164</v>
       </c>
       <c r="H10">
-        <v>870.0197713002331</v>
+        <v>973.2423144387834</v>
       </c>
       <c r="I10">
-        <v>-1121.961531371644</v>
+        <v>-1197.193548743707</v>
       </c>
       <c r="J10">
-        <v>1706.616982845984</v>
+        <v>781.4573317549894</v>
       </c>
       <c r="K10">
-        <v>2060.352303348679</v>
+        <v>1911.844533483471</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -777,31 +792,31 @@
         <v>11</v>
       </c>
       <c r="C11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D11" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E11">
         <v>161.142</v>
       </c>
       <c r="F11">
-        <v>140.9041594763648</v>
+        <v>242.9564635454074</v>
       </c>
       <c r="G11">
-        <v>-55.11823410457141</v>
+        <v>-54.62109034144435</v>
       </c>
       <c r="H11">
-        <v>1071.858503830285</v>
+        <v>1199.027982386725</v>
       </c>
       <c r="I11">
-        <v>-1089.452934364905</v>
+        <v>-1162.505120016925</v>
       </c>
       <c r="J11">
-        <v>1655.070992243753</v>
+        <v>757.854500725197</v>
       </c>
       <c r="K11">
-        <v>2247.887508456596</v>
+        <v>2085.862421656549</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -812,31 +827,31 @@
         <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D12" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E12">
         <v>162.142</v>
       </c>
       <c r="F12">
-        <v>117.0266305648914</v>
+        <v>201.7852163367125</v>
       </c>
       <c r="G12">
-        <v>-41.52859992577737</v>
+        <v>-41.15402906406707</v>
       </c>
       <c r="H12">
-        <v>1192.083975349848</v>
+        <v>1333.517473333955</v>
       </c>
       <c r="I12">
-        <v>-1056.143843064237</v>
+        <v>-1126.962520645515</v>
       </c>
       <c r="J12">
-        <v>1603.525001641521</v>
+        <v>734.2516696954045</v>
       </c>
       <c r="K12">
-        <v>2419.865195162144</v>
+        <v>2245.444159049103</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -847,31 +862,31 @@
         <v>11</v>
       </c>
       <c r="C13" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D13" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E13">
         <v>163.142</v>
       </c>
       <c r="F13">
-        <v>101.9533825718186</v>
+        <v>175.7949046230673</v>
       </c>
       <c r="G13">
-        <v>-27.93896574698331</v>
+        <v>-27.68696778668978</v>
       </c>
       <c r="H13">
-        <v>1278.0009941159</v>
+        <v>1429.628022716742</v>
       </c>
       <c r="I13">
-        <v>-1022.014546034091</v>
+        <v>-1090.544717463176</v>
       </c>
       <c r="J13">
-        <v>1551.979011039289</v>
+        <v>710.6488386656121</v>
       </c>
       <c r="K13">
-        <v>2576.285363465321</v>
+        <v>2390.589745661134</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -882,31 +897,31 @@
         <v>11</v>
       </c>
       <c r="C14" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D14" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E14">
         <v>164.142</v>
       </c>
       <c r="F14">
-        <v>91.44136060735528</v>
+        <v>157.6693667348402</v>
       </c>
       <c r="G14">
-        <v>-14.34933156818926</v>
+        <v>-14.21990650931249</v>
       </c>
       <c r="H14">
-        <v>1344.904530598948</v>
+        <v>1504.469256029855</v>
       </c>
       <c r="I14">
-        <v>-987.0448464629553</v>
+        <v>-1053.230159381237</v>
       </c>
       <c r="J14">
-        <v>1500.433020437057</v>
+        <v>687.0460076358196</v>
       </c>
       <c r="K14">
-        <v>2717.148013366127</v>
+        <v>2521.299181492641</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -917,31 +932,31 @@
         <v>11</v>
       </c>
       <c r="C15" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D15" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E15">
         <v>165.142</v>
       </c>
       <c r="F15">
-        <v>83.59907742272549</v>
+        <v>144.1471726722947</v>
       </c>
       <c r="G15">
-        <v>-0.7596973893952172</v>
+        <v>-0.7528452319352158</v>
       </c>
       <c r="H15">
-        <v>1399.703716489887</v>
+        <v>1565.770031328505</v>
       </c>
       <c r="I15">
-        <v>-951.2140502114146</v>
+        <v>-1014.996764635294</v>
       </c>
       <c r="J15">
-        <v>1448.887029834825</v>
+        <v>663.4431766060272</v>
       </c>
       <c r="K15">
-        <v>2842.453144864562</v>
+        <v>2637.572466543624</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -952,31 +967,31 @@
         <v>11</v>
       </c>
       <c r="C16" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D16" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E16">
         <v>166.142</v>
       </c>
       <c r="F16">
-        <v>77.46750711472424</v>
+        <v>133.5747052338023</v>
       </c>
       <c r="G16">
-        <v>12.82993678939884</v>
+        <v>12.71421604544207</v>
       </c>
       <c r="H16">
-        <v>1446.11462679282</v>
+        <v>1617.687313266745</v>
       </c>
       <c r="I16">
-        <v>-914.5009535659077</v>
+        <v>-975.8219077178102</v>
       </c>
       <c r="J16">
-        <v>1397.341039232593</v>
+        <v>639.8403455762349</v>
       </c>
       <c r="K16">
-        <v>2952.200757960627</v>
+        <v>2739.409600814084</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -987,31 +1002,31 @@
         <v>11</v>
       </c>
       <c r="C17" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D17" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E17">
         <v>167.142</v>
       </c>
       <c r="F17">
-        <v>72.50662028127788</v>
+        <v>125.0208092694657</v>
       </c>
       <c r="G17">
-        <v>26.41957096819289</v>
+        <v>26.18127732281936</v>
       </c>
       <c r="H17">
-        <v>1486.367638794149</v>
+        <v>1662.716099801972</v>
       </c>
       <c r="I17">
-        <v>-876.8838306909346</v>
+        <v>-935.6824059889407</v>
       </c>
       <c r="J17">
-        <v>1345.795048630361</v>
+        <v>616.2375145464425</v>
       </c>
       <c r="K17">
-        <v>3046.39085265432</v>
+        <v>2826.81058430402</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1022,31 +1037,31 @@
         <v>11</v>
       </c>
       <c r="C18" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D18" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E18">
         <v>168.142</v>
       </c>
       <c r="F18">
-        <v>68.38731654651214</v>
+        <v>117.9180276951862</v>
       </c>
       <c r="G18">
-        <v>40.00920514698694</v>
+        <v>39.64833860019664</v>
       </c>
       <c r="H18">
-        <v>1521.907065206911</v>
+        <v>1702.472062547613</v>
       </c>
       <c r="I18">
-        <v>-838.3404207722841</v>
+        <v>-894.5545059576626</v>
       </c>
       <c r="J18">
-        <v>1294.249058028129</v>
+        <v>592.6346835166501</v>
       </c>
       <c r="K18">
-        <v>3125.023428945645</v>
+        <v>2899.775417013433</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1057,31 +1072,31 @@
         <v>11</v>
       </c>
       <c r="C19" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D19" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E19">
         <v>169.142</v>
       </c>
       <c r="F19">
-        <v>64.8965165703941</v>
+        <v>111.898954728896</v>
       </c>
       <c r="G19">
-        <v>53.598839325781</v>
+        <v>53.11539987757394</v>
       </c>
       <c r="H19">
-        <v>1553.722003405261</v>
+        <v>1738.061649252769</v>
       </c>
       <c r="I19">
-        <v>-798.8479148436734</v>
+        <v>-852.4138692250882</v>
       </c>
       <c r="J19">
-        <v>1242.703067425897</v>
+        <v>569.0318524868576</v>
       </c>
       <c r="K19">
-        <v>3188.098486834598</v>
+        <v>2958.304098942322</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1092,31 +1107,31 @@
         <v>11</v>
       </c>
       <c r="C20" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D20" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E20">
         <v>170.142</v>
       </c>
       <c r="F20">
-        <v>61.88953295469273</v>
+        <v>106.7141105914003</v>
       </c>
       <c r="G20">
-        <v>67.18847350457504</v>
+        <v>66.58246115495122</v>
       </c>
       <c r="H20">
-        <v>1582.519575403379</v>
+        <v>1770.275877648728</v>
       </c>
       <c r="I20">
-        <v>-758.3829422890099</v>
+        <v>-809.2355580816491</v>
       </c>
       <c r="J20">
-        <v>1191.157076823665</v>
+        <v>545.4290214570652</v>
       </c>
       <c r="K20">
-        <v>3235.616026321181</v>
+        <v>3002.396630090688</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1127,31 +1142,31 @@
         <v>11</v>
       </c>
       <c r="C21" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D21" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E21">
         <v>171.142</v>
       </c>
       <c r="F21">
-        <v>59.26428088212671</v>
+        <v>102.1874737494774</v>
       </c>
       <c r="G21">
-        <v>80.77810768336909</v>
+        <v>80.04952243232849</v>
       </c>
       <c r="H21">
-        <v>1608.822869255</v>
+        <v>1799.699896998606</v>
       </c>
       <c r="I21">
-        <v>-716.9215570122802</v>
+        <v>-764.9940207496209</v>
       </c>
       <c r="J21">
-        <v>1139.611086221433</v>
+        <v>521.8261904272728</v>
       </c>
       <c r="K21">
-        <v>3267.576047405393</v>
+        <v>3032.05301045853</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1162,31 +1177,31 @@
         <v>11</v>
       </c>
       <c r="C22" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D22" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E22">
         <v>172.142</v>
       </c>
       <c r="F22">
-        <v>56.94643142672288</v>
+        <v>98.19088125136864</v>
       </c>
       <c r="G22">
-        <v>94.36774186216316</v>
+        <v>93.5165837097058</v>
       </c>
       <c r="H22">
-        <v>1633.029733748977</v>
+        <v>1826.778758425187</v>
       </c>
       <c r="I22">
-        <v>-674.4392232668857</v>
+        <v>-719.6630762622591</v>
       </c>
       <c r="J22">
-        <v>1088.065095619202</v>
+        <v>498.2233593974805</v>
       </c>
       <c r="K22">
-        <v>3283.978550087235</v>
+        <v>3047.273240045848</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -1197,31 +1212,31 @@
         <v>11</v>
       </c>
       <c r="C23" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D23" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E23">
         <v>173.142</v>
       </c>
       <c r="F23">
-        <v>54.88042344500994</v>
+        <v>94.62853082282959</v>
       </c>
       <c r="G23">
-        <v>107.9573760409572</v>
+        <v>106.9836449870831</v>
       </c>
       <c r="H23">
-        <v>1655.449820436594</v>
+        <v>1851.858851749002</v>
       </c>
       <c r="I23">
-        <v>-630.9108011360414</v>
+        <v>-673.2158989706004</v>
       </c>
       <c r="J23">
-        <v>1036.51910501697</v>
+        <v>474.620528367688</v>
       </c>
       <c r="K23">
-        <v>3284.823534366706</v>
+        <v>3048.057318852642</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -1232,31 +1247,31 @@
         <v>11</v>
       </c>
       <c r="C24" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D24" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E24">
         <v>174.142</v>
       </c>
       <c r="F24">
-        <v>53.02378899086774</v>
+        <v>91.42719636434887</v>
       </c>
       <c r="G24">
-        <v>121.5470102197513</v>
+        <v>120.4507062644604</v>
       </c>
       <c r="H24">
-        <v>1676.328868684679</v>
+        <v>1875.215071814987</v>
       </c>
       <c r="I24">
-        <v>-586.3105316556392</v>
+        <v>-625.6250026687543</v>
       </c>
       <c r="J24">
-        <v>984.9731144147378</v>
+        <v>451.0176973378956</v>
       </c>
       <c r="K24">
-        <v>3270.111000243806</v>
+        <v>3034.405246878914</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1267,31 +1282,31 @@
         <v>11</v>
       </c>
       <c r="C25" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D25" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E25">
         <v>175.142</v>
       </c>
       <c r="F25">
-        <v>51.34344117062314</v>
+        <v>88.52982722031491</v>
       </c>
       <c r="G25">
-        <v>135.1366443985453</v>
+        <v>133.9177675418377</v>
       </c>
       <c r="H25">
-        <v>1695.865167783785</v>
+        <v>1897.069233729453</v>
       </c>
       <c r="I25">
-        <v>-540.6120215707773</v>
+        <v>-576.8622243282966</v>
       </c>
       <c r="J25">
-        <v>933.427123812506</v>
+        <v>427.4148663081032</v>
       </c>
       <c r="K25">
-        <v>3239.840947718537</v>
+        <v>3006.317024124661</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -1302,31 +1317,31 @@
         <v>11</v>
       </c>
       <c r="C26" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D26" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E26">
         <v>176.142</v>
       </c>
       <c r="F26">
-        <v>49.81317072323763</v>
+        <v>85.89123161358128</v>
       </c>
       <c r="G26">
-        <v>148.7262785773394</v>
+        <v>147.384828819215</v>
       </c>
       <c r="H26">
-        <v>1714.221037942428</v>
+        <v>1917.602916004324</v>
       </c>
       <c r="I26">
-        <v>-493.7882277169343</v>
+        <v>-526.8987074321388</v>
       </c>
       <c r="J26">
-        <v>881.881133210274</v>
+        <v>403.8120352783108</v>
       </c>
       <c r="K26">
-        <v>3194.013376790896</v>
+        <v>2963.792650589885</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -1337,31 +1352,31 @@
         <v>11</v>
       </c>
       <c r="C27" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D27" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E27">
         <v>177.142</v>
       </c>
       <c r="F27">
-        <v>48.41191264286207</v>
+        <v>83.47508783906355</v>
       </c>
       <c r="G27">
-        <v>162.3159127561334</v>
+        <v>160.8518900965922</v>
       </c>
       <c r="H27">
-        <v>1731.531036045898</v>
+        <v>1936.966639879214</v>
       </c>
       <c r="I27">
-        <v>-445.8114410165409</v>
+        <v>-475.7048848980061</v>
       </c>
       <c r="J27">
-        <v>830.3351426080419</v>
+        <v>380.2092042485183</v>
       </c>
       <c r="K27">
-        <v>3132.628287460885</v>
+        <v>2906.832126274586</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -1372,31 +1387,31 @@
         <v>11</v>
       </c>
       <c r="C28" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D28" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E28">
         <v>178.142</v>
       </c>
       <c r="F28">
-        <v>47.12251798428954</v>
+        <v>81.25182652779141</v>
       </c>
       <c r="G28">
-        <v>175.9055469349275</v>
+        <v>174.3189513739695</v>
       </c>
       <c r="H28">
-        <v>1747.907947126751</v>
+        <v>1955.286571643371</v>
       </c>
       <c r="I28">
-        <v>-396.653270081485</v>
+        <v>-423.2504615814236</v>
       </c>
       <c r="J28">
-        <v>778.7891520058103</v>
+        <v>356.606373218726</v>
       </c>
       <c r="K28">
-        <v>3055.685679728504</v>
+        <v>2835.435451178763</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -1407,31 +1422,31 @@
         <v>11</v>
       </c>
       <c r="C29" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D29" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E29">
         <v>179.142</v>
       </c>
       <c r="F29">
-        <v>45.93086573948745</v>
+        <v>79.19709928447234</v>
       </c>
       <c r="G29">
-        <v>189.4951811137215</v>
+        <v>187.7860126513468</v>
       </c>
       <c r="H29">
-        <v>1763.447241998316</v>
+        <v>1972.669509140235</v>
       </c>
       <c r="I29">
-        <v>-346.2846244118408</v>
+        <v>-369.5043963478543</v>
       </c>
       <c r="J29">
-        <v>727.2431614035781</v>
+        <v>333.0035421889335</v>
       </c>
       <c r="K29">
-        <v>2963.185553593752</v>
+        <v>2749.602625302416</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -1442,31 +1457,31 @@
         <v>11</v>
       </c>
       <c r="C30" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D30" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E30">
         <v>180.142</v>
       </c>
       <c r="F30">
-        <v>44.82520891436548</v>
+        <v>77.29065114891155</v>
       </c>
       <c r="G30">
-        <v>203.0848152925155</v>
+        <v>201.2530739287241</v>
       </c>
       <c r="H30">
-        <v>1778.230449389553</v>
+        <v>1989.206653985546</v>
       </c>
       <c r="I30">
-        <v>-294.675697180886</v>
+        <v>-314.4348837033818</v>
       </c>
       <c r="J30">
-        <v>675.6971708013461</v>
+        <v>309.4007111591411</v>
       </c>
       <c r="K30">
-        <v>2855.127909056629</v>
+        <v>2649.333648645545</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -1477,31 +1492,31 @@
         <v>11</v>
       </c>
       <c r="C31" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D31" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E31">
         <v>181.142</v>
       </c>
       <c r="F31">
-        <v>43.79568520260239</v>
+        <v>75.51547686679208</v>
       </c>
       <c r="G31">
-        <v>216.6744494713096</v>
+        <v>214.7201352061014</v>
       </c>
       <c r="H31">
-        <v>1792.327745105747</v>
+        <v>2004.976507916167</v>
       </c>
       <c r="I31">
-        <v>-241.7959475962116</v>
+        <v>-258.009334973062</v>
       </c>
       <c r="J31">
-        <v>624.1511801991144</v>
+        <v>285.7978801293488</v>
       </c>
       <c r="K31">
-        <v>2731.512746117136</v>
+        <v>2534.628521208152</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -1512,31 +1527,31 @@
         <v>11</v>
       </c>
       <c r="C32" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D32" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E32">
         <v>182.142</v>
       </c>
       <c r="F32">
-        <v>42.83394546399271</v>
+        <v>73.85718028696057</v>
       </c>
       <c r="G32">
-        <v>230.2640836501037</v>
+        <v>228.1871964834787</v>
       </c>
       <c r="H32">
-        <v>1805.79996672586</v>
+        <v>2020.047126519001</v>
       </c>
       <c r="I32">
-        <v>-187.6140828264923</v>
+        <v>-200.1943590158111</v>
       </c>
       <c r="J32">
-        <v>572.6051895968824</v>
+        <v>262.1950490995563</v>
       </c>
       <c r="K32">
-        <v>2592.340064775272</v>
+        <v>2405.487242990234</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1547,31 +1562,31 @@
         <v>11</v>
       </c>
       <c r="C33" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D33" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E33">
         <v>183.142</v>
       </c>
       <c r="F33">
-        <v>41.93286791242427</v>
+        <v>72.30348154504411</v>
       </c>
       <c r="G33">
-        <v>243.8537178288977</v>
+        <v>241.6542577608559</v>
       </c>
       <c r="H33">
-        <v>1818.700200308881</v>
+        <v>2034.477894190381</v>
       </c>
       <c r="I33">
-        <v>-132.0980394832198</v>
+        <v>-140.9557424644151</v>
       </c>
       <c r="J33">
-        <v>521.0591989946506</v>
+        <v>238.5922180697639</v>
       </c>
       <c r="K33">
-        <v>2437.609865031039</v>
+        <v>2261.909813991793</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1582,31 +1597,31 @@
         <v>11</v>
       </c>
       <c r="C34" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D34" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E34">
         <v>184.142</v>
       </c>
       <c r="F34">
-        <v>41.08633559705476</v>
+        <v>70.84383338147387</v>
       </c>
       <c r="G34">
-        <v>257.4433520076918</v>
+        <v>255.1213190382332</v>
       </c>
       <c r="H34">
-        <v>1831.075043781044</v>
+        <v>2048.320937416474</v>
       </c>
       <c r="I34">
-        <v>-75.21496464644251</v>
+        <v>-80.25842947896885</v>
       </c>
       <c r="J34">
-        <v>469.5132083924187</v>
+        <v>214.9893870399715</v>
       </c>
       <c r="K34">
-        <v>2267.322146884434</v>
+        <v>2103.896234212828</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1617,31 +1632,31 @@
         <v>11</v>
       </c>
       <c r="C35" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D35" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E35">
         <v>185.142</v>
       </c>
       <c r="F35">
-        <v>40.2890612603303</v>
+        <v>69.46911914985762</v>
       </c>
       <c r="G35">
-        <v>271.0329861864859</v>
+        <v>268.5883803156105</v>
       </c>
       <c r="H35">
-        <v>1842.965622976132</v>
+        <v>2061.622261360585</v>
       </c>
       <c r="I35">
-        <v>-16.93119642327914</v>
+        <v>-18.06650100176029</v>
       </c>
       <c r="J35">
-        <v>417.9672177901867</v>
+        <v>191.386556010179</v>
       </c>
       <c r="K35">
-        <v>2081.476910335458</v>
+        <v>1931.44650365334</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1652,31 +1667,31 @@
         <v>11</v>
       </c>
       <c r="C36" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D36" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E36">
         <v>186.142</v>
       </c>
       <c r="F36">
-        <v>39.53644810082987</v>
+        <v>68.17141273487681</v>
       </c>
       <c r="G36">
-        <v>284.6226203652799</v>
+        <v>282.0554415929878</v>
       </c>
       <c r="H36">
-        <v>1854.408416256729</v>
+        <v>2074.422672320681</v>
       </c>
       <c r="I36">
-        <v>42.78775597229624</v>
+        <v>45.65684649867465</v>
       </c>
       <c r="J36">
-        <v>366.4212271879549</v>
+        <v>167.7837249803867</v>
       </c>
       <c r="K36">
-        <v>1880.074155384113</v>
+        <v>1744.560622313328</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1687,31 +1702,31 @@
         <v>11</v>
       </c>
       <c r="C37" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D37" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E37">
         <v>187.142</v>
       </c>
       <c r="F37">
-        <v>38.82447805783844</v>
+        <v>66.94378592500618</v>
       </c>
       <c r="G37">
-        <v>298.2122545440739</v>
+        <v>295.5225028703651</v>
       </c>
       <c r="H37">
-        <v>1865.435929424949</v>
+        <v>2086.758532714179</v>
       </c>
       <c r="I37">
-        <v>103.9772326301838</v>
+        <v>110.949322806903</v>
       </c>
       <c r="J37">
-        <v>314.8752365857229</v>
+        <v>144.1808939505943</v>
       </c>
       <c r="K37">
-        <v>1663.113882030397</v>
+        <v>1543.238590192793</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -1722,31 +1737,31 @@
         <v>11</v>
       </c>
       <c r="C38" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D38" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E38">
         <v>188.142</v>
       </c>
       <c r="F38">
-        <v>38.14962141385806</v>
+        <v>65.78015254306122</v>
       </c>
       <c r="G38">
-        <v>311.801888722868</v>
+        <v>308.9895641477424</v>
       </c>
       <c r="H38">
-        <v>1876.07725239912</v>
+        <v>2098.662383800914</v>
       </c>
       <c r="I38">
-        <v>166.673443857486</v>
+        <v>177.8495662762452</v>
       </c>
       <c r="J38">
-        <v>263.3292459834911</v>
+        <v>120.5780629208019</v>
       </c>
       <c r="K38">
-        <v>1430.596090274311</v>
+        <v>1327.480407291734</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -1757,31 +1772,31 @@
         <v>11</v>
       </c>
       <c r="C39" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D39" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E39">
         <v>189.142</v>
       </c>
       <c r="F39">
-        <v>37.50876307022386</v>
+        <v>64.67514132563829</v>
       </c>
       <c r="G39">
-        <v>325.391522901662</v>
+        <v>322.4566254251197</v>
       </c>
       <c r="H39">
-        <v>1886.358521672668</v>
+        <v>2110.163463009956</v>
       </c>
       <c r="I39">
-        <v>230.9134916068033</v>
+        <v>246.3971666939239</v>
       </c>
       <c r="J39">
-        <v>211.7832553812592</v>
+        <v>96.97523189100946</v>
       </c>
       <c r="K39">
-        <v>1182.520780115853</v>
+        <v>1097.286073610151</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -1792,31 +1807,31 @@
         <v>11</v>
       </c>
       <c r="C40" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D40" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E40">
         <v>190.142</v>
       </c>
       <c r="F40">
-        <v>36.89914198049161</v>
+        <v>63.62399149007301</v>
       </c>
       <c r="G40">
-        <v>338.9811570804561</v>
+        <v>335.9236867024969</v>
       </c>
       <c r="H40">
-        <v>1896.303307066026</v>
+        <v>2121.288136577275</v>
       </c>
       <c r="I40">
-        <v>296.7353914321878</v>
+        <v>316.6326887092525</v>
       </c>
       <c r="J40">
-        <v>160.2372647790271</v>
+        <v>73.372400861217</v>
       </c>
       <c r="K40">
-        <v>918.8879515550249</v>
+        <v>852.6555891480447</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -1827,31 +1842,31 @@
         <v>11</v>
       </c>
       <c r="C41" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D41" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E41">
         <v>191.142</v>
       </c>
       <c r="F41">
-        <v>36.31830105434263</v>
+        <v>62.62246635537132</v>
       </c>
       <c r="G41">
-        <v>352.5707912592501</v>
+        <v>349.3907479798742</v>
       </c>
       <c r="H41">
-        <v>1905.932937173616</v>
+        <v>2132.060263605024</v>
       </c>
       <c r="I41">
-        <v>364.1780949857339</v>
+        <v>388.597695838712</v>
       </c>
       <c r="J41">
-        <v>108.6912741767954</v>
+        <v>49.76956983142466</v>
       </c>
       <c r="K41">
-        <v>639.697604591827</v>
+        <v>593.5889539054153</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -1862,31 +1877,31 @@
         <v>11</v>
       </c>
       <c r="C42" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D42" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E42">
         <v>192.142</v>
       </c>
       <c r="F42">
-        <v>35.7640454585552</v>
+        <v>61.66678144192945</v>
       </c>
       <c r="G42">
-        <v>366.1604254380442</v>
+        <v>362.8578092572515</v>
       </c>
       <c r="H42">
-        <v>1915.266774809571</v>
+        <v>2142.501504187221</v>
       </c>
       <c r="I42">
-        <v>433.2815130681379</v>
+        <v>462.3347750621435</v>
       </c>
       <c r="J42">
-        <v>57.14528357456337</v>
+        <v>26.16673880163221</v>
       </c>
       <c r="K42">
-        <v>344.9497392262577</v>
+        <v>320.0861678822616</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -1897,31 +1912,31 @@
         <v>11</v>
       </c>
       <c r="C43" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D43" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E43">
         <v>193.142</v>
       </c>
       <c r="F43">
-        <v>35.23440770123128</v>
+        <v>60.75354426740074</v>
       </c>
       <c r="G43">
-        <v>379.7500596168383</v>
+        <v>376.3248705346288</v>
       </c>
       <c r="H43">
-        <v>1924.322451396603</v>
+        <v>2152.631581607416</v>
       </c>
       <c r="I43">
-        <v>504.0865392468417</v>
+        <v>537.8875620245823</v>
       </c>
       <c r="J43">
-        <v>5.599292972331371</v>
+        <v>2.563907771839756</v>
       </c>
       <c r="K43">
-        <v>34.64435545831807</v>
+        <v>32.14723107858442</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -1932,31 +1947,31 @@
         <v>11</v>
       </c>
       <c r="C44" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D44" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E44">
         <v>194.142</v>
       </c>
       <c r="F44">
-        <v>34.72761823297779</v>
+        <v>59.87970365526765</v>
       </c>
       <c r="G44">
-        <v>393.3396937956323</v>
+        <v>389.7919318120061</v>
       </c>
       <c r="H44">
-        <v>1933.116067429631</v>
+        <v>2162.468506586121</v>
       </c>
       <c r="I44">
-        <v>576.6350740557658</v>
+        <v>615.3007668586811</v>
       </c>
       <c r="J44">
-        <v>-45.94669762990039</v>
+        <v>-21.03892325795259</v>
       </c>
       <c r="K44">
-        <v>-291.2185467119912</v>
+        <v>-270.2278565056154</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -1967,31 +1982,31 @@
         <v>11</v>
       </c>
       <c r="C45" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D45" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E45">
         <v>195.142</v>
       </c>
       <c r="F45">
-        <v>34.24208056382682</v>
+        <v>59.04250682975599</v>
       </c>
       <c r="G45">
-        <v>406.9293279744263</v>
+        <v>403.2589930893834</v>
       </c>
       <c r="H45">
-        <v>1941.662364741169</v>
+        <v>2172.028769984425</v>
       </c>
       <c r="I45">
-        <v>650.9700497909319</v>
+        <v>694.6202006429774</v>
       </c>
       <c r="J45">
-        <v>-97.49268823213239</v>
+        <v>-44.64175428774504</v>
       </c>
       <c r="K45">
-        <v>-632.6389672846718</v>
+        <v>-587.0390948703398</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -2002,31 +2017,31 @@
         <v>11</v>
       </c>
       <c r="C46" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D46" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E46">
         <v>196.142</v>
       </c>
       <c r="F46">
-        <v>33.77635009859296</v>
+        <v>58.23946292232928</v>
       </c>
       <c r="G46">
-        <v>420.5189621532204</v>
+        <v>416.7260543667607</v>
       </c>
       <c r="H46">
-        <v>1949.974875198313</v>
+        <v>2181.327509142982</v>
       </c>
       <c r="I46">
-        <v>727.1354559166531</v>
+        <v>775.8928025116714</v>
       </c>
       <c r="J46">
-        <v>-149.0386788343644</v>
+        <v>-68.24458531753749</v>
       </c>
       <c r="K46">
-        <v>-989.6169062597239</v>
+        <v>-918.2864840155885</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -2037,31 +2052,31 @@
         <v>11</v>
       </c>
       <c r="C47" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D47" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E47">
         <v>197.142</v>
       </c>
       <c r="F47">
-        <v>33.32911605146983</v>
+        <v>57.46831178761519</v>
       </c>
       <c r="G47">
-        <v>434.1085963320144</v>
+        <v>430.1931156441379</v>
       </c>
       <c r="H47">
-        <v>1958.066049597899</v>
+        <v>2190.378652069783</v>
       </c>
       <c r="I47">
-        <v>805.1763650973314</v>
+        <v>859.1666674319594</v>
       </c>
       <c r="J47">
-        <v>-200.5846694365964</v>
+        <v>-91.84741634732994</v>
       </c>
       <c r="K47">
-        <v>-1362.152363637146</v>
+        <v>-1263.97002394136</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -2072,31 +2087,31 @@
         <v>11</v>
       </c>
       <c r="C48" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D48" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E48">
         <v>198.142</v>
       </c>
       <c r="F48">
-        <v>32.89918592415713</v>
+        <v>56.72699723954437</v>
       </c>
       <c r="G48">
-        <v>447.6982305108085</v>
+        <v>443.6601769215152</v>
       </c>
       <c r="H48">
-        <v>1965.947369842292</v>
+        <v>2199.195042924926</v>
       </c>
       <c r="I48">
-        <v>885.1389598702634</v>
+        <v>944.4910746653578</v>
       </c>
       <c r="J48">
-        <v>-252.1306600388279</v>
+        <v>-115.4502473771222</v>
       </c>
       <c r="K48">
-        <v>-1750.245339416936</v>
+        <v>-1624.089714647653</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -2107,31 +2122,31 @@
         <v>11</v>
       </c>
       <c r="C49" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D49" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E49">
         <v>199.142</v>
       </c>
       <c r="F49">
-        <v>32.4854721289483</v>
+        <v>56.01364398597525</v>
       </c>
       <c r="G49">
-        <v>461.2878646896025</v>
+        <v>457.1272381988925</v>
       </c>
       <c r="H49">
-        <v>1973.629446932598</v>
+        <v>2207.788551640129</v>
       </c>
       <c r="I49">
-        <v>967.0705599752416</v>
+        <v>1031.916516929864</v>
       </c>
       <c r="J49">
-        <v>-303.6766506410599</v>
+        <v>-139.0530784069146</v>
       </c>
       <c r="K49">
-        <v>-2153.895833599098</v>
+        <v>-1998.645556134471</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -2142,31 +2157,31 @@
         <v>11</v>
       </c>
       <c r="C50" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D50" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E50">
         <v>200.142</v>
       </c>
       <c r="F50">
-        <v>32.08698041511979</v>
+        <v>55.32653767269311</v>
       </c>
       <c r="G50">
-        <v>474.8774988683966</v>
+        <v>470.5942994762698</v>
       </c>
       <c r="H50">
-        <v>1981.122106878097</v>
+        <v>2216.17017002078</v>
       </c>
       <c r="I50">
-        <v>1051.019650357114</v>
+        <v>1121.494730280202</v>
       </c>
       <c r="J50">
-        <v>-355.2226412432919</v>
+        <v>-162.6559094367071</v>
       </c>
       <c r="K50">
-        <v>-2573.103846183632</v>
+        <v>-2387.637548401814</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -2177,31 +2192,31 @@
         <v>11</v>
       </c>
       <c r="C51" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D51" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E51">
         <v>201.142</v>
       </c>
       <c r="F51">
-        <v>31.70279981824416</v>
+        <v>54.66410755333724</v>
       </c>
       <c r="G51">
-        <v>488.4671330471906</v>
+        <v>484.061360753647</v>
       </c>
       <c r="H51">
-        <v>1988.434466267027</v>
+        <v>2224.350096282749</v>
       </c>
       <c r="I51">
-        <v>1137.035909857894</v>
+        <v>1213.278724723846</v>
       </c>
       <c r="J51">
-        <v>-406.7686318455239</v>
+        <v>-186.2587404664995</v>
       </c>
       <c r="K51">
-        <v>-3007.869377170537</v>
+        <v>-2791.06569144968</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -2212,31 +2227,31 @@
         <v>11</v>
       </c>
       <c r="C52" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D52" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E52">
         <v>202.142</v>
       </c>
       <c r="F52">
-        <v>31.33209390116787</v>
+        <v>54.02491138650356</v>
       </c>
       <c r="G52">
-        <v>502.0567672259847</v>
+        <v>497.5284220310244</v>
       </c>
       <c r="H52">
-        <v>1995.574998956736</v>
+        <v>2232.337809654909</v>
       </c>
       <c r="I52">
-        <v>1225.170240615373</v>
+        <v>1307.32281559094</v>
       </c>
       <c r="J52">
-        <v>-458.3146224477559</v>
+        <v>-209.861571496292</v>
       </c>
       <c r="K52">
-        <v>-3458.192426559811</v>
+        <v>-3208.92998527807</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -2247,31 +2262,31 @@
         <v>11</v>
       </c>
       <c r="C53" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D53" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E53">
         <v>203.142</v>
       </c>
       <c r="F53">
-        <v>30.97409309498066</v>
+        <v>53.40762222952705</v>
       </c>
       <c r="G53">
-        <v>515.6464014047788</v>
+        <v>510.9954833084016</v>
       </c>
       <c r="H53">
-        <v>2002.551595106804</v>
+        <v>2240.142136416184</v>
       </c>
       <c r="I53">
-        <v>1315.474798185655</v>
+        <v>1403.682655676656</v>
       </c>
       <c r="J53">
-        <v>-509.8606130499874</v>
+        <v>-233.4644025260842</v>
       </c>
       <c r="K53">
-        <v>-3924.072994351453</v>
+        <v>-3641.23042988698</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -2282,31 +2297,5596 @@
         <v>11</v>
       </c>
       <c r="C54" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D54" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E54">
         <v>204.142</v>
       </c>
       <c r="F54">
-        <v>30.62808798038724</v>
+        <v>52.8110168537692</v>
       </c>
       <c r="G54">
-        <v>529.2360355835727</v>
+        <v>524.4625445857789</v>
       </c>
       <c r="H54">
-        <v>2009.371613586484</v>
+        <v>2247.771308520812</v>
       </c>
       <c r="I54">
-        <v>1408.003022407438</v>
+        <v>1502.415268175057</v>
       </c>
       <c r="J54">
-        <v>-561.4066036522195</v>
+        <v>-257.0672335558767</v>
       </c>
       <c r="K54">
-        <v>-4405.511080545469</v>
+        <v>-4087.967025276417</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11">
+      <c r="A55">
+        <v>443</v>
+      </c>
+      <c r="B55" t="s">
+        <v>12</v>
+      </c>
+      <c r="C55" t="s">
+        <v>14</v>
+      </c>
+      <c r="D55" t="s">
+        <v>18</v>
+      </c>
+      <c r="E55">
+        <v>152.142</v>
+      </c>
+      <c r="F55">
+        <v>232.3102938129604</v>
+      </c>
+      <c r="G55">
+        <v>-124.124970775103</v>
+      </c>
+      <c r="H55">
+        <v>867.8969067102798</v>
+      </c>
+      <c r="I55">
+        <v>-1323.541479673765</v>
+      </c>
+      <c r="J55">
+        <v>2077.260651075325</v>
+      </c>
+      <c r="K55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11">
+      <c r="A56">
+        <v>443</v>
+      </c>
+      <c r="B56" t="s">
+        <v>12</v>
+      </c>
+      <c r="C56" t="s">
+        <v>14</v>
+      </c>
+      <c r="D56" t="s">
+        <v>18</v>
+      </c>
+      <c r="E56">
+        <v>153.142</v>
+      </c>
+      <c r="F56">
+        <v>232.3102938129604</v>
+      </c>
+      <c r="G56">
+        <v>-124.124970775103</v>
+      </c>
+      <c r="H56">
+        <v>867.8969067102798</v>
+      </c>
+      <c r="I56">
+        <v>-1297.411246621717</v>
+      </c>
+      <c r="J56">
+        <v>2026.729636148578</v>
+      </c>
+      <c r="K56">
+        <v>389.5677539972946</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11">
+      <c r="A57">
+        <v>443</v>
+      </c>
+      <c r="B57" t="s">
+        <v>12</v>
+      </c>
+      <c r="C57" t="s">
+        <v>14</v>
+      </c>
+      <c r="D57" t="s">
+        <v>18</v>
+      </c>
+      <c r="E57">
+        <v>154.142</v>
+      </c>
+      <c r="F57">
+        <v>232.3102938129604</v>
+      </c>
+      <c r="G57">
+        <v>-124.124970775103</v>
+      </c>
+      <c r="H57">
+        <v>867.8969067102798</v>
+      </c>
+      <c r="I57">
+        <v>-1270.637580620136</v>
+      </c>
+      <c r="J57">
+        <v>1976.19862122183</v>
+      </c>
+      <c r="K57">
+        <v>759.7098740658066</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11">
+      <c r="A58">
+        <v>443</v>
+      </c>
+      <c r="B58" t="s">
+        <v>12</v>
+      </c>
+      <c r="C58" t="s">
+        <v>14</v>
+      </c>
+      <c r="D58" t="s">
+        <v>18</v>
+      </c>
+      <c r="E58">
+        <v>155.142</v>
+      </c>
+      <c r="F58">
+        <v>232.3102938129604</v>
+      </c>
+      <c r="G58">
+        <v>-124.124970775103</v>
+      </c>
+      <c r="H58">
+        <v>867.8969067102798</v>
+      </c>
+      <c r="I58">
+        <v>-1243.204637724587</v>
+      </c>
+      <c r="J58">
+        <v>1925.667606295082</v>
+      </c>
+      <c r="K58">
+        <v>1110.426360205539</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11">
+      <c r="A59">
+        <v>443</v>
+      </c>
+      <c r="B59" t="s">
+        <v>12</v>
+      </c>
+      <c r="C59" t="s">
+        <v>14</v>
+      </c>
+      <c r="D59" t="s">
+        <v>18</v>
+      </c>
+      <c r="E59">
+        <v>156.142</v>
+      </c>
+      <c r="F59">
+        <v>232.3102938129604</v>
+      </c>
+      <c r="G59">
+        <v>-124.124970775103</v>
+      </c>
+      <c r="H59">
+        <v>867.8969067102798</v>
+      </c>
+      <c r="I59">
+        <v>-1215.09618384808</v>
+      </c>
+      <c r="J59">
+        <v>1875.136591368334</v>
+      </c>
+      <c r="K59">
+        <v>1441.717212416489</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11">
+      <c r="A60">
+        <v>443</v>
+      </c>
+      <c r="B60" t="s">
+        <v>12</v>
+      </c>
+      <c r="C60" t="s">
+        <v>14</v>
+      </c>
+      <c r="D60" t="s">
+        <v>18</v>
+      </c>
+      <c r="E60">
+        <v>157.142</v>
+      </c>
+      <c r="F60">
+        <v>232.3102938129604</v>
+      </c>
+      <c r="G60">
+        <v>-124.124970775103</v>
+      </c>
+      <c r="H60">
+        <v>867.8969067102798</v>
+      </c>
+      <c r="I60">
+        <v>-1186.295585154166</v>
+      </c>
+      <c r="J60">
+        <v>1824.605576441586</v>
+      </c>
+      <c r="K60">
+        <v>1753.58243069866</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11">
+      <c r="A61">
+        <v>443</v>
+      </c>
+      <c r="B61" t="s">
+        <v>12</v>
+      </c>
+      <c r="C61" t="s">
+        <v>14</v>
+      </c>
+      <c r="D61" t="s">
+        <v>18</v>
+      </c>
+      <c r="E61">
+        <v>158.142</v>
+      </c>
+      <c r="F61">
+        <v>232.3102938129604</v>
+      </c>
+      <c r="G61">
+        <v>-124.124970775103</v>
+      </c>
+      <c r="H61">
+        <v>867.8969067102798</v>
+      </c>
+      <c r="I61">
+        <v>-1156.785798213481</v>
+      </c>
+      <c r="J61">
+        <v>1774.074561514838</v>
+      </c>
+      <c r="K61">
+        <v>2046.022015052049</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11">
+      <c r="A62">
+        <v>443</v>
+      </c>
+      <c r="B62" t="s">
+        <v>12</v>
+      </c>
+      <c r="C62" t="s">
+        <v>14</v>
+      </c>
+      <c r="D62" t="s">
+        <v>18</v>
+      </c>
+      <c r="E62">
+        <v>159.142</v>
+      </c>
+      <c r="F62">
+        <v>232.3102938129604</v>
+      </c>
+      <c r="G62">
+        <v>-124.124970775103</v>
+      </c>
+      <c r="H62">
+        <v>867.8969067102798</v>
+      </c>
+      <c r="I62">
+        <v>-1126.549359917887</v>
+      </c>
+      <c r="J62">
+        <v>1723.543546588091</v>
+      </c>
+      <c r="K62">
+        <v>2319.035965476657</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11">
+      <c r="A63">
+        <v>443</v>
+      </c>
+      <c r="B63" t="s">
+        <v>12</v>
+      </c>
+      <c r="C63" t="s">
+        <v>14</v>
+      </c>
+      <c r="D63" t="s">
+        <v>18</v>
+      </c>
+      <c r="E63">
+        <v>160.142</v>
+      </c>
+      <c r="F63">
+        <v>232.3102938129604</v>
+      </c>
+      <c r="G63">
+        <v>-103.6284442120672</v>
+      </c>
+      <c r="H63">
+        <v>867.8969067102798</v>
+      </c>
+      <c r="I63">
+        <v>-1095.568377146278</v>
+      </c>
+      <c r="J63">
+        <v>1673.012531661343</v>
+      </c>
+      <c r="K63">
+        <v>2572.624281972483</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11">
+      <c r="A64">
+        <v>443</v>
+      </c>
+      <c r="B64" t="s">
+        <v>12</v>
+      </c>
+      <c r="C64" t="s">
+        <v>14</v>
+      </c>
+      <c r="D64" t="s">
+        <v>18</v>
+      </c>
+      <c r="E64">
+        <v>161.142</v>
+      </c>
+      <c r="F64">
+        <v>180.2998884950425</v>
+      </c>
+      <c r="G64">
+        <v>-83.13191764903146</v>
+      </c>
+      <c r="H64">
+        <v>1069.243148940337</v>
+      </c>
+      <c r="I64">
+        <v>-1063.824516175899</v>
+      </c>
+      <c r="J64">
+        <v>1622.481516734595</v>
+      </c>
+      <c r="K64">
+        <v>2806.786964539529</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11">
+      <c r="A65">
+        <v>443</v>
+      </c>
+      <c r="B65" t="s">
+        <v>12</v>
+      </c>
+      <c r="C65" t="s">
+        <v>14</v>
+      </c>
+      <c r="D65" t="s">
+        <v>18</v>
+      </c>
+      <c r="E65">
+        <v>162.142</v>
+      </c>
+      <c r="F65">
+        <v>149.7463844943466</v>
+      </c>
+      <c r="G65">
+        <v>-62.63539108599574</v>
+      </c>
+      <c r="H65">
+        <v>1189.175268050313</v>
+      </c>
+      <c r="I65">
+        <v>-1031.298991832941</v>
+      </c>
+      <c r="J65">
+        <v>1571.950501807847</v>
+      </c>
+      <c r="K65">
+        <v>3021.524013177794</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11">
+      <c r="A66">
+        <v>443</v>
+      </c>
+      <c r="B66" t="s">
+        <v>12</v>
+      </c>
+      <c r="C66" t="s">
+        <v>14</v>
+      </c>
+      <c r="D66" t="s">
+        <v>18</v>
+      </c>
+      <c r="E66">
+        <v>163.142</v>
+      </c>
+      <c r="F66">
+        <v>130.4587712506438</v>
+      </c>
+      <c r="G66">
+        <v>-42.13886452295999</v>
+      </c>
+      <c r="H66">
+        <v>1274.882647676165</v>
+      </c>
+      <c r="I66">
+        <v>-997.9725563759713</v>
+      </c>
+      <c r="J66">
+        <v>1521.419486881099</v>
+      </c>
+      <c r="K66">
+        <v>3216.835427887278</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11">
+      <c r="A67">
+        <v>443</v>
+      </c>
+      <c r="B67" t="s">
+        <v>12</v>
+      </c>
+      <c r="C67" t="s">
+        <v>14</v>
+      </c>
+      <c r="D67" t="s">
+        <v>18</v>
+      </c>
+      <c r="E67">
+        <v>164.142</v>
+      </c>
+      <c r="F67">
+        <v>117.0076680675039</v>
+      </c>
+      <c r="G67">
+        <v>-21.64233795992425</v>
+      </c>
+      <c r="H67">
+        <v>1341.622938273053</v>
+      </c>
+      <c r="I67">
+        <v>-963.8254881056323</v>
+      </c>
+      <c r="J67">
+        <v>1470.888471954351</v>
+      </c>
+      <c r="K67">
+        <v>3392.721208667982</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11">
+      <c r="A68">
+        <v>443</v>
+      </c>
+      <c r="B68" t="s">
+        <v>12</v>
+      </c>
+      <c r="C68" t="s">
+        <v>14</v>
+      </c>
+      <c r="D68" t="s">
+        <v>18</v>
+      </c>
+      <c r="E68">
+        <v>165.142</v>
+      </c>
+      <c r="F68">
+        <v>106.9727422783013</v>
+      </c>
+      <c r="G68">
+        <v>-1.145811396888519</v>
+      </c>
+      <c r="H68">
+        <v>1396.288413120722</v>
+      </c>
+      <c r="I68">
+        <v>-928.8375796938631</v>
+      </c>
+      <c r="J68">
+        <v>1420.357457027604</v>
+      </c>
+      <c r="K68">
+        <v>3549.181355519903</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11">
+      <c r="A69">
+        <v>443</v>
+      </c>
+      <c r="B69" t="s">
+        <v>12</v>
+      </c>
+      <c r="C69" t="s">
+        <v>14</v>
+      </c>
+      <c r="D69" t="s">
+        <v>18</v>
+      </c>
+      <c r="E69">
+        <v>166.142</v>
+      </c>
+      <c r="F69">
+        <v>99.12683164698612</v>
+      </c>
+      <c r="G69">
+        <v>19.35071516614723</v>
+      </c>
+      <c r="H69">
+        <v>1442.586079930438</v>
+      </c>
+      <c r="I69">
+        <v>-892.9881262257395</v>
+      </c>
+      <c r="J69">
+        <v>1369.826442100856</v>
+      </c>
+      <c r="K69">
+        <v>3686.215868443044</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11">
+      <c r="A70">
+        <v>443</v>
+      </c>
+      <c r="B70" t="s">
+        <v>12</v>
+      </c>
+      <c r="C70" t="s">
+        <v>14</v>
+      </c>
+      <c r="D70" t="s">
+        <v>18</v>
+      </c>
+      <c r="E70">
+        <v>167.142</v>
+      </c>
+      <c r="F70">
+        <v>92.77891866676681</v>
+      </c>
+      <c r="G70">
+        <v>39.84724172918298</v>
+      </c>
+      <c r="H70">
+        <v>1482.740873826116</v>
+      </c>
+      <c r="I70">
+        <v>-856.2559129468556</v>
+      </c>
+      <c r="J70">
+        <v>1319.295427174108</v>
+      </c>
+      <c r="K70">
+        <v>3803.824747437403</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11">
+      <c r="A71">
+        <v>443</v>
+      </c>
+      <c r="B71" t="s">
+        <v>12</v>
+      </c>
+      <c r="C71" t="s">
+        <v>14</v>
+      </c>
+      <c r="D71" t="s">
+        <v>18</v>
+      </c>
+      <c r="E71">
+        <v>168.142</v>
+      </c>
+      <c r="F71">
+        <v>87.50788900507642</v>
+      </c>
+      <c r="G71">
+        <v>60.3437682922187</v>
+      </c>
+      <c r="H71">
+        <v>1518.193583370632</v>
+      </c>
+      <c r="I71">
+        <v>-818.619202708996</v>
+      </c>
+      <c r="J71">
+        <v>1268.76441224736</v>
+      </c>
+      <c r="K71">
+        <v>3902.007992502983</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11">
+      <c r="A72">
+        <v>443</v>
+      </c>
+      <c r="B72" t="s">
+        <v>12</v>
+      </c>
+      <c r="C72" t="s">
+        <v>14</v>
+      </c>
+      <c r="D72" t="s">
+        <v>18</v>
+      </c>
+      <c r="E72">
+        <v>169.142</v>
+      </c>
+      <c r="F72">
+        <v>83.04108796249857</v>
+      </c>
+      <c r="G72">
+        <v>80.84029485525447</v>
+      </c>
+      <c r="H72">
+        <v>1549.930892521964</v>
+      </c>
+      <c r="I72">
+        <v>-780.0557231066674</v>
+      </c>
+      <c r="J72">
+        <v>1218.233397320612</v>
+      </c>
+      <c r="K72">
+        <v>3980.765603639781</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11">
+      <c r="A73">
+        <v>443</v>
+      </c>
+      <c r="B73" t="s">
+        <v>12</v>
+      </c>
+      <c r="C73" t="s">
+        <v>14</v>
+      </c>
+      <c r="D73" t="s">
+        <v>18</v>
+      </c>
+      <c r="E73">
+        <v>170.142</v>
+      </c>
+      <c r="F73">
+        <v>79.19337464706364</v>
+      </c>
+      <c r="G73">
+        <v>101.3368214182902</v>
+      </c>
+      <c r="H73">
+        <v>1578.65819790329</v>
+      </c>
+      <c r="I73">
+        <v>-740.5426532968821</v>
+      </c>
+      <c r="J73">
+        <v>1167.702382393865</v>
+      </c>
+      <c r="K73">
+        <v>4040.097580847798</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11">
+      <c r="A74">
+        <v>443</v>
+      </c>
+      <c r="B74" t="s">
+        <v>12</v>
+      </c>
+      <c r="C74" t="s">
+        <v>14</v>
+      </c>
+      <c r="D74" t="s">
+        <v>18</v>
+      </c>
+      <c r="E74">
+        <v>171.142</v>
+      </c>
+      <c r="F74">
+        <v>75.83412210466848</v>
+      </c>
+      <c r="G74">
+        <v>121.8333479813259</v>
+      </c>
+      <c r="H74">
+        <v>1604.897311223664</v>
+      </c>
+      <c r="I74">
+        <v>-700.0566104943888</v>
+      </c>
+      <c r="J74">
+        <v>1117.171367467117</v>
+      </c>
+      <c r="K74">
+        <v>4080.003924127034</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11">
+      <c r="A75">
+        <v>443</v>
+      </c>
+      <c r="B75" t="s">
+        <v>12</v>
+      </c>
+      <c r="C75" t="s">
+        <v>14</v>
+      </c>
+      <c r="D75" t="s">
+        <v>18</v>
+      </c>
+      <c r="E75">
+        <v>172.142</v>
+      </c>
+      <c r="F75">
+        <v>72.86821960817258</v>
+      </c>
+      <c r="G75">
+        <v>142.3298745443617</v>
+      </c>
+      <c r="H75">
+        <v>1629.045110513421</v>
+      </c>
+      <c r="I75">
+        <v>-658.5736361343601</v>
+      </c>
+      <c r="J75">
+        <v>1066.640352540369</v>
+      </c>
+      <c r="K75">
+        <v>4100.484633477489</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11">
+      <c r="A76">
+        <v>443</v>
+      </c>
+      <c r="B76" t="s">
+        <v>12</v>
+      </c>
+      <c r="C76" t="s">
+        <v>14</v>
+      </c>
+      <c r="D76" t="s">
+        <v>18</v>
+      </c>
+      <c r="E76">
+        <v>173.142</v>
+      </c>
+      <c r="F76">
+        <v>70.2245715418769</v>
+      </c>
+      <c r="G76">
+        <v>162.8264011073974</v>
+      </c>
+      <c r="H76">
+        <v>1651.410491768238</v>
+      </c>
+      <c r="I76">
+        <v>-616.0691816943524</v>
+      </c>
+      <c r="J76">
+        <v>1016.109337613621</v>
+      </c>
+      <c r="K76">
+        <v>4101.539708899163</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11">
+      <c r="A77">
+        <v>443</v>
+      </c>
+      <c r="B77" t="s">
+        <v>12</v>
+      </c>
+      <c r="C77" t="s">
+        <v>14</v>
+      </c>
+      <c r="D77" t="s">
+        <v>18</v>
+      </c>
+      <c r="E77">
+        <v>174.142</v>
+      </c>
+      <c r="F77">
+        <v>67.84883624561657</v>
+      </c>
+      <c r="G77">
+        <v>183.3229276704332</v>
+      </c>
+      <c r="H77">
+        <v>1672.238594746274</v>
+      </c>
+      <c r="I77">
+        <v>-572.5180941671408</v>
+      </c>
+      <c r="J77">
+        <v>965.5783226868731</v>
+      </c>
+      <c r="K77">
+        <v>4083.169150392056</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11">
+      <c r="A78">
+        <v>443</v>
+      </c>
+      <c r="B78" t="s">
+        <v>12</v>
+      </c>
+      <c r="C78" t="s">
+        <v>14</v>
+      </c>
+      <c r="D78" t="s">
+        <v>18</v>
+      </c>
+      <c r="E78">
+        <v>175.142</v>
+      </c>
+      <c r="F78">
+        <v>65.69867598243565</v>
+      </c>
+      <c r="G78">
+        <v>203.8194542334689</v>
+      </c>
+      <c r="H78">
+        <v>1691.727224908484</v>
+      </c>
+      <c r="I78">
+        <v>-527.894601175837</v>
+      </c>
+      <c r="J78">
+        <v>915.0473077601255</v>
+      </c>
+      <c r="K78">
+        <v>4045.372957956168</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11">
+      <c r="A79">
+        <v>443</v>
+      </c>
+      <c r="B79" t="s">
+        <v>12</v>
+      </c>
+      <c r="C79" t="s">
+        <v>14</v>
+      </c>
+      <c r="D79" t="s">
+        <v>18</v>
+      </c>
+      <c r="E79">
+        <v>176.142</v>
+      </c>
+      <c r="F79">
+        <v>63.7405535816761</v>
+      </c>
+      <c r="G79">
+        <v>224.3159807965047</v>
+      </c>
+      <c r="H79">
+        <v>1710.038306399025</v>
+      </c>
+      <c r="I79">
+        <v>-482.1722957224834</v>
+      </c>
+      <c r="J79">
+        <v>864.5162928333775</v>
+      </c>
+      <c r="K79">
+        <v>3988.151131591499</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11">
+      <c r="A80">
+        <v>443</v>
+      </c>
+      <c r="B80" t="s">
+        <v>12</v>
+      </c>
+      <c r="C80" t="s">
+        <v>14</v>
+      </c>
+      <c r="D80" t="s">
+        <v>18</v>
+      </c>
+      <c r="E80">
+        <v>177.142</v>
+      </c>
+      <c r="F80">
+        <v>61.94751442241074</v>
+      </c>
+      <c r="G80">
+        <v>244.8125073595404</v>
+      </c>
+      <c r="H80">
+        <v>1727.306067781863</v>
+      </c>
+      <c r="I80">
+        <v>-435.3241205610908</v>
+      </c>
+      <c r="J80">
+        <v>813.9852779066296</v>
+      </c>
+      <c r="K80">
+        <v>3911.503671298049</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11">
+      <c r="A81">
+        <v>443</v>
+      </c>
+      <c r="B81" t="s">
+        <v>12</v>
+      </c>
+      <c r="C81" t="s">
+        <v>14</v>
+      </c>
+      <c r="D81" t="s">
+        <v>18</v>
+      </c>
+      <c r="E81">
+        <v>178.142</v>
+      </c>
+      <c r="F81">
+        <v>60.29761484506203</v>
+      </c>
+      <c r="G81">
+        <v>265.3090339225761</v>
+      </c>
+      <c r="H81">
+        <v>1743.643018891951</v>
+      </c>
+      <c r="I81">
+        <v>-387.3223521858798</v>
+      </c>
+      <c r="J81">
+        <v>763.4542629798819</v>
+      </c>
+      <c r="K81">
+        <v>3815.430577075818</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11">
+      <c r="A82">
+        <v>443</v>
+      </c>
+      <c r="B82" t="s">
+        <v>12</v>
+      </c>
+      <c r="C82" t="s">
+        <v>14</v>
+      </c>
+      <c r="D82" t="s">
+        <v>18</v>
+      </c>
+      <c r="E82">
+        <v>179.142</v>
+      </c>
+      <c r="F82">
+        <v>58.77278571538169</v>
+      </c>
+      <c r="G82">
+        <v>285.8055604856119</v>
+      </c>
+      <c r="H82">
+        <v>1759.14439759204</v>
+      </c>
+      <c r="I82">
+        <v>-338.138584425246</v>
+      </c>
+      <c r="J82">
+        <v>712.923248053134</v>
+      </c>
+      <c r="K82">
+        <v>3699.931848924806</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11">
+      <c r="A83">
+        <v>443</v>
+      </c>
+      <c r="B83" t="s">
+        <v>12</v>
+      </c>
+      <c r="C83" t="s">
+        <v>14</v>
+      </c>
+      <c r="D83" t="s">
+        <v>18</v>
+      </c>
+      <c r="E83">
+        <v>180.142</v>
+      </c>
+      <c r="F83">
+        <v>57.35799566926732</v>
+      </c>
+      <c r="G83">
+        <v>306.3020870486476</v>
+      </c>
+      <c r="H83">
+        <v>1773.891533679461</v>
+      </c>
+      <c r="I83">
+        <v>-287.7437116317433</v>
+      </c>
+      <c r="J83">
+        <v>662.392233126386</v>
+      </c>
+      <c r="K83">
+        <v>3565.007486845012</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11">
+      <c r="A84">
+        <v>443</v>
+      </c>
+      <c r="B84" t="s">
+        <v>12</v>
+      </c>
+      <c r="C84" t="s">
+        <v>14</v>
+      </c>
+      <c r="D84" t="s">
+        <v>18</v>
+      </c>
+      <c r="E84">
+        <v>181.142</v>
+      </c>
+      <c r="F84">
+        <v>56.04062497472069</v>
+      </c>
+      <c r="G84">
+        <v>326.7986136116833</v>
+      </c>
+      <c r="H84">
+        <v>1787.954431729214</v>
+      </c>
+      <c r="I84">
+        <v>-236.1079114581336</v>
+      </c>
+      <c r="J84">
+        <v>611.8612181996384</v>
+      </c>
+      <c r="K84">
+        <v>3410.657490836439</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11">
+      <c r="A85">
+        <v>443</v>
+      </c>
+      <c r="B85" t="s">
+        <v>12</v>
+      </c>
+      <c r="C85" t="s">
+        <v>14</v>
+      </c>
+      <c r="D85" t="s">
+        <v>18</v>
+      </c>
+      <c r="E85">
+        <v>182.142</v>
+      </c>
+      <c r="F85">
+        <v>54.80999013557201</v>
+      </c>
+      <c r="G85">
+        <v>347.2951401747191</v>
+      </c>
+      <c r="H85">
+        <v>1801.393780875426</v>
+      </c>
+      <c r="I85">
+        <v>-183.200627209314</v>
+      </c>
+      <c r="J85">
+        <v>561.3302032728905</v>
+      </c>
+      <c r="K85">
+        <v>3236.881860899084</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11">
+      <c r="A86">
+        <v>443</v>
+      </c>
+      <c r="B86" t="s">
+        <v>12</v>
+      </c>
+      <c r="C86" t="s">
+        <v>14</v>
+      </c>
+      <c r="D86" t="s">
+        <v>18</v>
+      </c>
+      <c r="E86">
+        <v>183.142</v>
+      </c>
+      <c r="F86">
+        <v>53.65697816859436</v>
+      </c>
+      <c r="G86">
+        <v>367.7916667377548</v>
+      </c>
+      <c r="H86">
+        <v>1814.262537646105</v>
+      </c>
+      <c r="I86">
+        <v>-128.9905497596758</v>
+      </c>
+      <c r="J86">
+        <v>510.7991883461428</v>
+      </c>
+      <c r="K86">
+        <v>3043.680597032948</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11">
+      <c r="A87">
+        <v>443</v>
+      </c>
+      <c r="B87" t="s">
+        <v>12</v>
+      </c>
+      <c r="C87" t="s">
+        <v>14</v>
+      </c>
+      <c r="D87" t="s">
+        <v>18</v>
+      </c>
+      <c r="E87">
+        <v>184.142</v>
+      </c>
+      <c r="F87">
+        <v>52.57376187011329</v>
+      </c>
+      <c r="G87">
+        <v>388.2881933007906</v>
+      </c>
+      <c r="H87">
+        <v>1826.607186267668</v>
+      </c>
+      <c r="I87">
+        <v>-73.44559902519697</v>
+      </c>
+      <c r="J87">
+        <v>460.2681734193948</v>
+      </c>
+      <c r="K87">
+        <v>2831.053699238031</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11">
+      <c r="A88">
+        <v>443</v>
+      </c>
+      <c r="B88" t="s">
+        <v>12</v>
+      </c>
+      <c r="C88" t="s">
+        <v>14</v>
+      </c>
+      <c r="D88" t="s">
+        <v>18</v>
+      </c>
+      <c r="E88">
+        <v>185.142</v>
+      </c>
+      <c r="F88">
+        <v>51.55357570566233</v>
+      </c>
+      <c r="G88">
+        <v>408.7847198638264</v>
+      </c>
+      <c r="H88">
+        <v>1838.468752226092</v>
+      </c>
+      <c r="I88">
+        <v>-16.53290497929954</v>
+      </c>
+      <c r="J88">
+        <v>409.7371584926469</v>
+      </c>
+      <c r="K88">
+        <v>2599.001167514333</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11">
+      <c r="A89">
+        <v>443</v>
+      </c>
+      <c r="B89" t="s">
+        <v>12</v>
+      </c>
+      <c r="C89" t="s">
+        <v>14</v>
+      </c>
+      <c r="D89" t="s">
+        <v>18</v>
+      </c>
+      <c r="E89">
+        <v>186.142</v>
+      </c>
+      <c r="F89">
+        <v>50.59053764317994</v>
+      </c>
+      <c r="G89">
+        <v>429.2812464268621</v>
+      </c>
+      <c r="H89">
+        <v>1849.883624876069</v>
+      </c>
+      <c r="I89">
+        <v>41.78121179875982</v>
+      </c>
+      <c r="J89">
+        <v>359.2061435658993</v>
+      </c>
+      <c r="K89">
+        <v>2347.523001861854</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11">
+      <c r="A90">
+        <v>443</v>
+      </c>
+      <c r="B90" t="s">
+        <v>12</v>
+      </c>
+      <c r="C90" t="s">
+        <v>14</v>
+      </c>
+      <c r="D90" t="s">
+        <v>18</v>
+      </c>
+      <c r="E90">
+        <v>187.142</v>
+      </c>
+      <c r="F90">
+        <v>49.67950620280079</v>
+      </c>
+      <c r="G90">
+        <v>449.7777729898978</v>
+      </c>
+      <c r="H90">
+        <v>1860.884230704948</v>
+      </c>
+      <c r="I90">
+        <v>101.5312600544751</v>
+      </c>
+      <c r="J90">
+        <v>308.6751286391513</v>
+      </c>
+      <c r="K90">
+        <v>2076.619202280594</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11">
+      <c r="A91">
+        <v>443</v>
+      </c>
+      <c r="B91" t="s">
+        <v>12</v>
+      </c>
+      <c r="C91" t="s">
+        <v>14</v>
+      </c>
+      <c r="D91" t="s">
+        <v>18</v>
+      </c>
+      <c r="E91">
+        <v>188.142</v>
+      </c>
+      <c r="F91">
+        <v>48.81596478491801</v>
+      </c>
+      <c r="G91">
+        <v>470.2742995529335</v>
+      </c>
+      <c r="H91">
+        <v>1871.499588651108</v>
+      </c>
+      <c r="I91">
+        <v>162.7525982794514</v>
+      </c>
+      <c r="J91">
+        <v>258.1441137124036</v>
+      </c>
+      <c r="K91">
+        <v>1786.289768770554</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11">
+      <c r="A92">
+        <v>443</v>
+      </c>
+      <c r="B92" t="s">
+        <v>12</v>
+      </c>
+      <c r="C92" t="s">
+        <v>14</v>
+      </c>
+      <c r="D92" t="s">
+        <v>18</v>
+      </c>
+      <c r="E92">
+        <v>189.142</v>
+      </c>
+      <c r="F92">
+        <v>47.9959273330233</v>
+      </c>
+      <c r="G92">
+        <v>490.7708261159693</v>
+      </c>
+      <c r="H92">
+        <v>1881.75577143444</v>
+      </c>
+      <c r="I92">
+        <v>225.4814556356187</v>
+      </c>
+      <c r="J92">
+        <v>207.6130987856557</v>
+      </c>
+      <c r="K92">
+        <v>1476.534701331731</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11">
+      <c r="A93">
+        <v>443</v>
+      </c>
+      <c r="B93" t="s">
+        <v>12</v>
+      </c>
+      <c r="C93" t="s">
+        <v>14</v>
+      </c>
+      <c r="D93" t="s">
+        <v>18</v>
+      </c>
+      <c r="E93">
+        <v>190.142</v>
+      </c>
+      <c r="F93">
+        <v>47.21586083313131</v>
+      </c>
+      <c r="G93">
+        <v>511.267352679005</v>
+      </c>
+      <c r="H93">
+        <v>1891.676291364572</v>
+      </c>
+      <c r="I93">
+        <v>289.7549533946917</v>
+      </c>
+      <c r="J93">
+        <v>157.0820838589078</v>
+      </c>
+      <c r="K93">
+        <v>1147.353999964128</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11">
+      <c r="A94">
+        <v>443</v>
+      </c>
+      <c r="B94" t="s">
+        <v>12</v>
+      </c>
+      <c r="C94" t="s">
+        <v>14</v>
+      </c>
+      <c r="D94" t="s">
+        <v>18</v>
+      </c>
+      <c r="E94">
+        <v>191.142</v>
+      </c>
+      <c r="F94">
+        <v>46.47262121119819</v>
+      </c>
+      <c r="G94">
+        <v>531.7638792420407</v>
+      </c>
+      <c r="H94">
+        <v>1901.282424993755</v>
+      </c>
+      <c r="I94">
+        <v>355.6111269055471</v>
+      </c>
+      <c r="J94">
+        <v>106.5510689321601</v>
+      </c>
+      <c r="K94">
+        <v>798.7476646677447</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11">
+      <c r="A95">
+        <v>443</v>
+      </c>
+      <c r="B95" t="s">
+        <v>12</v>
+      </c>
+      <c r="C95" t="s">
+        <v>14</v>
+      </c>
+      <c r="D95" t="s">
+        <v>18</v>
+      </c>
+      <c r="E95">
+        <v>192.142</v>
+      </c>
+      <c r="F95">
+        <v>45.76339997536241</v>
+      </c>
+      <c r="G95">
+        <v>552.2604058050765</v>
+      </c>
+      <c r="H95">
+        <v>1910.593487890493</v>
+      </c>
+      <c r="I95">
+        <v>423.0889481025401</v>
+      </c>
+      <c r="J95">
+        <v>56.02005400541216</v>
+      </c>
+      <c r="K95">
+        <v>430.7156954425793</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11">
+      <c r="A96">
+        <v>443</v>
+      </c>
+      <c r="B96" t="s">
+        <v>12</v>
+      </c>
+      <c r="C96" t="s">
+        <v>14</v>
+      </c>
+      <c r="D96" t="s">
+        <v>18</v>
+      </c>
+      <c r="E96">
+        <v>193.142</v>
+      </c>
+      <c r="F96">
+        <v>45.08567953798751</v>
+      </c>
+      <c r="G96">
+        <v>572.7569323681123</v>
+      </c>
+      <c r="H96">
+        <v>1919.627068456493</v>
+      </c>
+      <c r="I96">
+        <v>492.2283485680512</v>
+      </c>
+      <c r="J96">
+        <v>5.489039078664242</v>
+      </c>
+      <c r="K96">
+        <v>43.25809228863312</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11">
+      <c r="A97">
+        <v>443</v>
+      </c>
+      <c r="B97" t="s">
+        <v>12</v>
+      </c>
+      <c r="C97" t="s">
+        <v>14</v>
+      </c>
+      <c r="D97" t="s">
+        <v>18</v>
+      </c>
+      <c r="E97">
+        <v>194.142</v>
+      </c>
+      <c r="F97">
+        <v>44.43719559715755</v>
+      </c>
+      <c r="G97">
+        <v>593.253458931148</v>
+      </c>
+      <c r="H97">
+        <v>1928.399227901165</v>
+      </c>
+      <c r="I97">
+        <v>563.0702431629429</v>
+      </c>
+      <c r="J97">
+        <v>-45.04197584808345</v>
+      </c>
+      <c r="K97">
+        <v>-363.6251447940929</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11">
+      <c r="A98">
+        <v>443</v>
+      </c>
+      <c r="B98" t="s">
+        <v>12</v>
+      </c>
+      <c r="C98" t="s">
+        <v>14</v>
+      </c>
+      <c r="D98" t="s">
+        <v>18</v>
+      </c>
+      <c r="E98">
+        <v>195.142</v>
+      </c>
+      <c r="F98">
+        <v>43.81590529647804</v>
+      </c>
+      <c r="G98">
+        <v>613.7499854941836</v>
+      </c>
+      <c r="H98">
+        <v>1936.924672086674</v>
+      </c>
+      <c r="I98">
+        <v>635.6565542388862</v>
+      </c>
+      <c r="J98">
+        <v>-95.57299077483137</v>
+      </c>
+      <c r="K98">
+        <v>-789.9340158056011</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11">
+      <c r="A99">
+        <v>443</v>
+      </c>
+      <c r="B99" t="s">
+        <v>12</v>
+      </c>
+      <c r="C99" t="s">
+        <v>14</v>
+      </c>
+      <c r="D99" t="s">
+        <v>18</v>
+      </c>
+      <c r="E99">
+        <v>196.142</v>
+      </c>
+      <c r="F99">
+        <v>43.21996014296045</v>
+      </c>
+      <c r="G99">
+        <v>634.2465120572195</v>
+      </c>
+      <c r="H99">
+        <v>1945.216899862109</v>
+      </c>
+      <c r="I99">
+        <v>710.0302364468934</v>
+      </c>
+      <c r="J99">
+        <v>-146.1040057015793</v>
+      </c>
+      <c r="K99">
+        <v>-1235.668520745891</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11">
+      <c r="A100">
+        <v>443</v>
+      </c>
+      <c r="B100" t="s">
+        <v>12</v>
+      </c>
+      <c r="C100" t="s">
+        <v>14</v>
+      </c>
+      <c r="D100" t="s">
+        <v>18</v>
+      </c>
+      <c r="E100">
+        <v>197.142</v>
+      </c>
+      <c r="F100">
+        <v>42.64768286507773</v>
+      </c>
+      <c r="G100">
+        <v>654.7430386202552</v>
+      </c>
+      <c r="H100">
+        <v>1953.288331644124</v>
+      </c>
+      <c r="I100">
+        <v>786.2353021567395</v>
+      </c>
+      <c r="J100">
+        <v>-196.6350206283272</v>
+      </c>
+      <c r="K100">
+        <v>-1700.828659614962</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11">
+      <c r="A101">
+        <v>443</v>
+      </c>
+      <c r="B101" t="s">
+        <v>12</v>
+      </c>
+      <c r="C101" t="s">
+        <v>14</v>
+      </c>
+      <c r="D101" t="s">
+        <v>18</v>
+      </c>
+      <c r="E101">
+        <v>198.142</v>
+      </c>
+      <c r="F101">
+        <v>42.09754755109404</v>
+      </c>
+      <c r="G101">
+        <v>675.2395651832909</v>
+      </c>
+      <c r="H101">
+        <v>1961.150421319027</v>
+      </c>
+      <c r="I101">
+        <v>864.3168475023153</v>
+      </c>
+      <c r="J101">
+        <v>-247.1660355550747</v>
+      </c>
+      <c r="K101">
+        <v>-2185.41443241281</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11">
+      <c r="A102">
+        <v>443</v>
+      </c>
+      <c r="B102" t="s">
+        <v>12</v>
+      </c>
+      <c r="C102" t="s">
+        <v>14</v>
+      </c>
+      <c r="D102" t="s">
+        <v>18</v>
+      </c>
+      <c r="E102">
+        <v>199.142</v>
+      </c>
+      <c r="F102">
+        <v>41.56816253206963</v>
+      </c>
+      <c r="G102">
+        <v>695.7360917463268</v>
+      </c>
+      <c r="H102">
+        <v>1968.813753996884</v>
+      </c>
+      <c r="I102">
+        <v>944.3210790683223</v>
+      </c>
+      <c r="J102">
+        <v>-297.6970504818226</v>
+      </c>
+      <c r="K102">
+        <v>-2689.425839139442</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11">
+      <c r="A103">
+        <v>443</v>
+      </c>
+      <c r="B103" t="s">
+        <v>12</v>
+      </c>
+      <c r="C103" t="s">
+        <v>14</v>
+      </c>
+      <c r="D103" t="s">
+        <v>18</v>
+      </c>
+      <c r="E103">
+        <v>200.142</v>
+      </c>
+      <c r="F103">
+        <v>41.05825557235684</v>
+      </c>
+      <c r="G103">
+        <v>716.2326183093625</v>
+      </c>
+      <c r="H103">
+        <v>1976.288131711326</v>
+      </c>
+      <c r="I103">
+        <v>1026.295341234098</v>
+      </c>
+      <c r="J103">
+        <v>-348.2280654085705</v>
+      </c>
+      <c r="K103">
+        <v>-3212.862879794856</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11">
+      <c r="A104">
+        <v>443</v>
+      </c>
+      <c r="B104" t="s">
+        <v>12</v>
+      </c>
+      <c r="C104" t="s">
+        <v>14</v>
+      </c>
+      <c r="D104" t="s">
+        <v>18</v>
+      </c>
+      <c r="E104">
+        <v>201.142</v>
+      </c>
+      <c r="F104">
+        <v>40.56666100881769</v>
+      </c>
+      <c r="G104">
+        <v>736.7291448723981</v>
+      </c>
+      <c r="H104">
+        <v>1983.582648805946</v>
+      </c>
+      <c r="I104">
+        <v>1110.288144190768</v>
+      </c>
+      <c r="J104">
+        <v>-398.7590803353185</v>
+      </c>
+      <c r="K104">
+        <v>-3755.725554379051</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11">
+      <c r="A105">
+        <v>443</v>
+      </c>
+      <c r="B105" t="s">
+        <v>12</v>
+      </c>
+      <c r="C105" t="s">
+        <v>14</v>
+      </c>
+      <c r="D105" t="s">
+        <v>18</v>
+      </c>
+      <c r="E105">
+        <v>202.142</v>
+      </c>
+      <c r="F105">
+        <v>40.09230854284581</v>
+      </c>
+      <c r="G105">
+        <v>757.2256714354339</v>
+      </c>
+      <c r="H105">
+        <v>1990.705758461719</v>
+      </c>
+      <c r="I105">
+        <v>1196.349192648285</v>
+      </c>
+      <c r="J105">
+        <v>-449.2900952620664</v>
+      </c>
+      <c r="K105">
+        <v>-4318.013862892026</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11">
+      <c r="A106">
+        <v>443</v>
+      </c>
+      <c r="B106" t="s">
+        <v>12</v>
+      </c>
+      <c r="C106" t="s">
+        <v>14</v>
+      </c>
+      <c r="D106" t="s">
+        <v>18</v>
+      </c>
+      <c r="E106">
+        <v>203.142</v>
+      </c>
+      <c r="F106">
+        <v>39.6342134399293</v>
+      </c>
+      <c r="G106">
+        <v>777.7221979984697</v>
+      </c>
+      <c r="H106">
+        <v>1997.665331586088</v>
+      </c>
+      <c r="I106">
+        <v>1284.529415249353</v>
+      </c>
+      <c r="J106">
+        <v>-499.8211101888138</v>
+      </c>
+      <c r="K106">
+        <v>-4899.727805333778</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11">
+      <c r="A107">
+        <v>443</v>
+      </c>
+      <c r="B107" t="s">
+        <v>12</v>
+      </c>
+      <c r="C107" t="s">
+        <v>14</v>
+      </c>
+      <c r="D107" t="s">
+        <v>18</v>
+      </c>
+      <c r="E107">
+        <v>204.142</v>
+      </c>
+      <c r="F107">
+        <v>39.1914679325451</v>
+      </c>
+      <c r="G107">
+        <v>798.2187245615054</v>
+      </c>
+      <c r="H107">
+        <v>2004.468709092526</v>
+      </c>
+      <c r="I107">
+        <v>1374.880994707657</v>
+      </c>
+      <c r="J107">
+        <v>-550.3521251155618</v>
+      </c>
+      <c r="K107">
+        <v>-5500.867381704315</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11">
+      <c r="A108">
+        <v>443</v>
+      </c>
+      <c r="B108" t="s">
+        <v>11</v>
+      </c>
+      <c r="C108" t="s">
+        <v>15</v>
+      </c>
+      <c r="D108" t="s">
+        <v>17</v>
+      </c>
+      <c r="E108">
+        <v>152.142</v>
+      </c>
+      <c r="F108">
+        <v>233.0837610382167</v>
+      </c>
+      <c r="G108">
+        <v>-121.1973651376183</v>
+      </c>
+      <c r="H108">
+        <v>936.3797094269843</v>
+      </c>
+      <c r="I108">
+        <v>-2103.34821095944</v>
+      </c>
+      <c r="J108">
+        <v>1234.16900264948</v>
+      </c>
+      <c r="K108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11">
+      <c r="A109">
+        <v>443</v>
+      </c>
+      <c r="B109" t="s">
+        <v>11</v>
+      </c>
+      <c r="C109" t="s">
+        <v>15</v>
+      </c>
+      <c r="D109" t="s">
+        <v>17</v>
+      </c>
+      <c r="E109">
+        <v>153.142</v>
+      </c>
+      <c r="F109">
+        <v>233.0837610382167</v>
+      </c>
+      <c r="G109">
+        <v>-121.1973651376183</v>
+      </c>
+      <c r="H109">
+        <v>936.3797094269843</v>
+      </c>
+      <c r="I109">
+        <v>-2061.822516611329</v>
+      </c>
+      <c r="J109">
+        <v>1204.146861584647</v>
+      </c>
+      <c r="K109">
+        <v>145.5548090396401</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11">
+      <c r="A110">
+        <v>443</v>
+      </c>
+      <c r="B110" t="s">
+        <v>11</v>
+      </c>
+      <c r="C110" t="s">
+        <v>15</v>
+      </c>
+      <c r="D110" t="s">
+        <v>17</v>
+      </c>
+      <c r="E110">
+        <v>154.142</v>
+      </c>
+      <c r="F110">
+        <v>233.0837610382167</v>
+      </c>
+      <c r="G110">
+        <v>-121.1973651376183</v>
+      </c>
+      <c r="H110">
+        <v>936.3797094269843</v>
+      </c>
+      <c r="I110">
+        <v>-2019.274290242835</v>
+      </c>
+      <c r="J110">
+        <v>1174.124720519814</v>
+      </c>
+      <c r="K110">
+        <v>283.8515881012715</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11">
+      <c r="A111">
+        <v>443</v>
+      </c>
+      <c r="B111" t="s">
+        <v>11</v>
+      </c>
+      <c r="C111" t="s">
+        <v>15</v>
+      </c>
+      <c r="D111" t="s">
+        <v>17</v>
+      </c>
+      <c r="E111">
+        <v>155.142</v>
+      </c>
+      <c r="F111">
+        <v>233.0837610382167</v>
+      </c>
+      <c r="G111">
+        <v>-121.1973651376183</v>
+      </c>
+      <c r="H111">
+        <v>936.3797094269843</v>
+      </c>
+      <c r="I111">
+        <v>-1975.678352943667</v>
+      </c>
+      <c r="J111">
+        <v>1144.102579454981</v>
+      </c>
+      <c r="K111">
+        <v>414.8903371848951</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11">
+      <c r="A112">
+        <v>443</v>
+      </c>
+      <c r="B112" t="s">
+        <v>11</v>
+      </c>
+      <c r="C112" t="s">
+        <v>15</v>
+      </c>
+      <c r="D112" t="s">
+        <v>17</v>
+      </c>
+      <c r="E112">
+        <v>156.142</v>
+      </c>
+      <c r="F112">
+        <v>233.0837610382167</v>
+      </c>
+      <c r="G112">
+        <v>-121.1973651376183</v>
+      </c>
+      <c r="H112">
+        <v>936.3797094269843</v>
+      </c>
+      <c r="I112">
+        <v>-1931.008905796034</v>
+      </c>
+      <c r="J112">
+        <v>1114.080438390148</v>
+      </c>
+      <c r="K112">
+        <v>538.6710562905101</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11">
+      <c r="A113">
+        <v>443</v>
+      </c>
+      <c r="B113" t="s">
+        <v>11</v>
+      </c>
+      <c r="C113" t="s">
+        <v>15</v>
+      </c>
+      <c r="D113" t="s">
+        <v>17</v>
+      </c>
+      <c r="E113">
+        <v>157.142</v>
+      </c>
+      <c r="F113">
+        <v>233.0837610382167</v>
+      </c>
+      <c r="G113">
+        <v>-121.1973651376183</v>
+      </c>
+      <c r="H113">
+        <v>936.3797094269843</v>
+      </c>
+      <c r="I113">
+        <v>-1885.239514607528</v>
+      </c>
+      <c r="J113">
+        <v>1084.058297325315</v>
+      </c>
+      <c r="K113">
+        <v>655.1937454181177</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11">
+      <c r="A114">
+        <v>443</v>
+      </c>
+      <c r="B114" t="s">
+        <v>11</v>
+      </c>
+      <c r="C114" t="s">
+        <v>15</v>
+      </c>
+      <c r="D114" t="s">
+        <v>17</v>
+      </c>
+      <c r="E114">
+        <v>158.142</v>
+      </c>
+      <c r="F114">
+        <v>233.0837610382167</v>
+      </c>
+      <c r="G114">
+        <v>-121.1973651376183</v>
+      </c>
+      <c r="H114">
+        <v>936.3797094269843</v>
+      </c>
+      <c r="I114">
+        <v>-1838.343094268073</v>
+      </c>
+      <c r="J114">
+        <v>1054.036156260481</v>
+      </c>
+      <c r="K114">
+        <v>764.4584045677168</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11">
+      <c r="A115">
+        <v>443</v>
+      </c>
+      <c r="B115" t="s">
+        <v>11</v>
+      </c>
+      <c r="C115" t="s">
+        <v>15</v>
+      </c>
+      <c r="D115" t="s">
+        <v>17</v>
+      </c>
+      <c r="E115">
+        <v>159.142</v>
+      </c>
+      <c r="F115">
+        <v>233.0837610382167</v>
+      </c>
+      <c r="G115">
+        <v>-121.1973651376183</v>
+      </c>
+      <c r="H115">
+        <v>936.3797094269843</v>
+      </c>
+      <c r="I115">
+        <v>-1790.291892721675</v>
+      </c>
+      <c r="J115">
+        <v>1024.014015195648</v>
+      </c>
+      <c r="K115">
+        <v>866.4650337393078</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11">
+      <c r="A116">
+        <v>443</v>
+      </c>
+      <c r="B116" t="s">
+        <v>11</v>
+      </c>
+      <c r="C116" t="s">
+        <v>15</v>
+      </c>
+      <c r="D116" t="s">
+        <v>17</v>
+      </c>
+      <c r="E116">
+        <v>160.142</v>
+      </c>
+      <c r="F116">
+        <v>233.0837610382167</v>
+      </c>
+      <c r="G116">
+        <v>-101.1842686720085</v>
+      </c>
+      <c r="H116">
+        <v>936.3797094269843</v>
+      </c>
+      <c r="I116">
+        <v>-1741.057474543491</v>
+      </c>
+      <c r="J116">
+        <v>993.9918741308155</v>
+      </c>
+      <c r="K116">
+        <v>961.2136329328904</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11">
+      <c r="A117">
+        <v>443</v>
+      </c>
+      <c r="B117" t="s">
+        <v>11</v>
+      </c>
+      <c r="C117" t="s">
+        <v>15</v>
+      </c>
+      <c r="D117" t="s">
+        <v>17</v>
+      </c>
+      <c r="E117">
+        <v>161.142</v>
+      </c>
+      <c r="F117">
+        <v>180.9001892917888</v>
+      </c>
+      <c r="G117">
+        <v>-81.17117220639868</v>
+      </c>
+      <c r="H117">
+        <v>1153.613501062715</v>
+      </c>
+      <c r="I117">
+        <v>-1690.610704112504</v>
+      </c>
+      <c r="J117">
+        <v>963.9697330659825</v>
+      </c>
+      <c r="K117">
+        <v>1048.704202148465</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11">
+      <c r="A118">
+        <v>443</v>
+      </c>
+      <c r="B118" t="s">
+        <v>11</v>
+      </c>
+      <c r="C118" t="s">
+        <v>15</v>
+      </c>
+      <c r="D118" t="s">
+        <v>17</v>
+      </c>
+      <c r="E118">
+        <v>162.142</v>
+      </c>
+      <c r="F118">
+        <v>150.2449587013091</v>
+      </c>
+      <c r="G118">
+        <v>-61.15807574078886</v>
+      </c>
+      <c r="H118">
+        <v>1283.009057118833</v>
+      </c>
+      <c r="I118">
+        <v>-1638.921728369831</v>
+      </c>
+      <c r="J118">
+        <v>933.9475920011495</v>
+      </c>
+      <c r="K118">
+        <v>1128.936741386031</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11">
+      <c r="A119">
+        <v>443</v>
+      </c>
+      <c r="B119" t="s">
+        <v>11</v>
+      </c>
+      <c r="C119" t="s">
+        <v>15</v>
+      </c>
+      <c r="D119" t="s">
+        <v>17</v>
+      </c>
+      <c r="E119">
+        <v>163.142</v>
+      </c>
+      <c r="F119">
+        <v>130.8931281710944</v>
+      </c>
+      <c r="G119">
+        <v>-41.14497927517903</v>
+      </c>
+      <c r="H119">
+        <v>1375.479315520842</v>
+      </c>
+      <c r="I119">
+        <v>-1585.95995915248</v>
+      </c>
+      <c r="J119">
+        <v>903.9254509363163</v>
+      </c>
+      <c r="K119">
+        <v>1201.91125064559</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11">
+      <c r="A120">
+        <v>443</v>
+      </c>
+      <c r="B120" t="s">
+        <v>11</v>
+      </c>
+      <c r="C120" t="s">
+        <v>15</v>
+      </c>
+      <c r="D120" t="s">
+        <v>17</v>
+      </c>
+      <c r="E120">
+        <v>164.142</v>
+      </c>
+      <c r="F120">
+        <v>117.3972401130145</v>
+      </c>
+      <c r="G120">
+        <v>-21.13188280956919</v>
+      </c>
+      <c r="H120">
+        <v>1447.485856197508</v>
+      </c>
+      <c r="I120">
+        <v>-1531.694055092087</v>
+      </c>
+      <c r="J120">
+        <v>873.9033098714832</v>
+      </c>
+      <c r="K120">
+        <v>1267.62772992714</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11">
+      <c r="A121">
+        <v>443</v>
+      </c>
+      <c r="B121" t="s">
+        <v>11</v>
+      </c>
+      <c r="C121" t="s">
+        <v>15</v>
+      </c>
+      <c r="D121" t="s">
+        <v>17</v>
+      </c>
+      <c r="E121">
+        <v>165.142</v>
+      </c>
+      <c r="F121">
+        <v>107.3289034659526</v>
+      </c>
+      <c r="G121">
+        <v>-1.118786343959381</v>
+      </c>
+      <c r="H121">
+        <v>1506.464798348106</v>
+      </c>
+      <c r="I121">
+        <v>-1476.091903067923</v>
+      </c>
+      <c r="J121">
+        <v>843.8811688066503</v>
+      </c>
+      <c r="K121">
+        <v>1326.086179230682</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11">
+      <c r="A122">
+        <v>443</v>
+      </c>
+      <c r="B122" t="s">
+        <v>11</v>
+      </c>
+      <c r="C122" t="s">
+        <v>15</v>
+      </c>
+      <c r="D122" t="s">
+        <v>17</v>
+      </c>
+      <c r="E122">
+        <v>166.142</v>
+      </c>
+      <c r="F122">
+        <v>99.45687020947949</v>
+      </c>
+      <c r="G122">
+        <v>18.89431012165045</v>
+      </c>
+      <c r="H122">
+        <v>1556.415657095551</v>
+      </c>
+      <c r="I122">
+        <v>-1419.120599203206</v>
+      </c>
+      <c r="J122">
+        <v>813.8590277418172</v>
+      </c>
+      <c r="K122">
+        <v>1377.286598556215</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11">
+      <c r="A123">
+        <v>443</v>
+      </c>
+      <c r="B123" t="s">
+        <v>11</v>
+      </c>
+      <c r="C123" t="s">
+        <v>15</v>
+      </c>
+      <c r="D123" t="s">
+        <v>17</v>
+      </c>
+      <c r="E123">
+        <v>167.142</v>
+      </c>
+      <c r="F123">
+        <v>93.0878221234567</v>
+      </c>
+      <c r="G123">
+        <v>38.90740658726028</v>
+      </c>
+      <c r="H123">
+        <v>1599.7389296518</v>
+      </c>
+      <c r="I123">
+        <v>-1360.746429393459</v>
+      </c>
+      <c r="J123">
+        <v>783.8368866769842</v>
+      </c>
+      <c r="K123">
+        <v>1421.228987903741</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11">
+      <c r="A124">
+        <v>443</v>
+      </c>
+      <c r="B124" t="s">
+        <v>11</v>
+      </c>
+      <c r="C124" t="s">
+        <v>15</v>
+      </c>
+      <c r="D124" t="s">
+        <v>17</v>
+      </c>
+      <c r="E124">
+        <v>168.142</v>
+      </c>
+      <c r="F124">
+        <v>87.79924279308932</v>
+      </c>
+      <c r="G124">
+        <v>58.9205030528701</v>
+      </c>
+      <c r="H124">
+        <v>1637.989092320918</v>
+      </c>
+      <c r="I124">
+        <v>-1300.934849355398</v>
+      </c>
+      <c r="J124">
+        <v>753.8147456121511</v>
+      </c>
+      <c r="K124">
+        <v>1457.913347273259</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11">
+      <c r="A125">
+        <v>443</v>
+      </c>
+      <c r="B125" t="s">
+        <v>11</v>
+      </c>
+      <c r="C125" t="s">
+        <v>15</v>
+      </c>
+      <c r="D125" t="s">
+        <v>17</v>
+      </c>
+      <c r="E125">
+        <v>169.142</v>
+      </c>
+      <c r="F125">
+        <v>83.31756972675622</v>
+      </c>
+      <c r="G125">
+        <v>78.93359951847995</v>
+      </c>
+      <c r="H125">
+        <v>1672.230684947126</v>
+      </c>
+      <c r="I125">
+        <v>-1239.650464184544</v>
+      </c>
+      <c r="J125">
+        <v>723.7926045473181</v>
+      </c>
+      <c r="K125">
+        <v>1487.339676664768</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11">
+      <c r="A126">
+        <v>443</v>
+      </c>
+      <c r="B126" t="s">
+        <v>11</v>
+      </c>
+      <c r="C126" t="s">
+        <v>15</v>
+      </c>
+      <c r="D126" t="s">
+        <v>17</v>
+      </c>
+      <c r="E126">
+        <v>170.142</v>
+      </c>
+      <c r="F126">
+        <v>79.45704561377622</v>
+      </c>
+      <c r="G126">
+        <v>98.94669598408976</v>
+      </c>
+      <c r="H126">
+        <v>1703.224764609822</v>
+      </c>
+      <c r="I126">
+        <v>-1176.857007409458</v>
+      </c>
+      <c r="J126">
+        <v>693.7704634824851</v>
+      </c>
+      <c r="K126">
+        <v>1509.507976078269</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11">
+      <c r="A127">
+        <v>443</v>
+      </c>
+      <c r="B127" t="s">
+        <v>11</v>
+      </c>
+      <c r="C127" t="s">
+        <v>15</v>
+      </c>
+      <c r="D127" t="s">
+        <v>17</v>
+      </c>
+      <c r="E127">
+        <v>171.142</v>
+      </c>
+      <c r="F127">
+        <v>76.0866085831681</v>
+      </c>
+      <c r="G127">
+        <v>118.9597924496996</v>
+      </c>
+      <c r="H127">
+        <v>1731.53431741107</v>
+      </c>
+      <c r="I127">
+        <v>-1112.517319530208</v>
+      </c>
+      <c r="J127">
+        <v>663.748322417652</v>
+      </c>
+      <c r="K127">
+        <v>1524.418245513762</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11">
+      <c r="A128">
+        <v>443</v>
+      </c>
+      <c r="B128" t="s">
+        <v>11</v>
+      </c>
+      <c r="C128" t="s">
+        <v>15</v>
+      </c>
+      <c r="D128" t="s">
+        <v>17</v>
+      </c>
+      <c r="E128">
+        <v>172.142</v>
+      </c>
+      <c r="F128">
+        <v>73.11083124067768</v>
+      </c>
+      <c r="G128">
+        <v>138.9728889153094</v>
+      </c>
+      <c r="H128">
+        <v>1757.587537681149</v>
+      </c>
+      <c r="I128">
+        <v>-1046.593326028358</v>
+      </c>
+      <c r="J128">
+        <v>633.726181352819</v>
+      </c>
+      <c r="K128">
+        <v>1532.070484971247</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11">
+      <c r="A129">
+        <v>443</v>
+      </c>
+      <c r="B129" t="s">
+        <v>11</v>
+      </c>
+      <c r="C129" t="s">
+        <v>15</v>
+      </c>
+      <c r="D129" t="s">
+        <v>17</v>
+      </c>
+      <c r="E129">
+        <v>173.142</v>
+      </c>
+      <c r="F129">
+        <v>70.4583812607826</v>
+      </c>
+      <c r="G129">
+        <v>158.9859853809192</v>
+      </c>
+      <c r="H129">
+        <v>1781.717695351593</v>
+      </c>
+      <c r="I129">
+        <v>-979.0460148354862</v>
+      </c>
+      <c r="J129">
+        <v>603.704040287986</v>
+      </c>
+      <c r="K129">
+        <v>1532.464694450724</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11">
+      <c r="A130">
+        <v>443</v>
+      </c>
+      <c r="B130" t="s">
+        <v>11</v>
+      </c>
+      <c r="C130" t="s">
+        <v>15</v>
+      </c>
+      <c r="D130" t="s">
+        <v>17</v>
+      </c>
+      <c r="E130">
+        <v>174.142</v>
+      </c>
+      <c r="F130">
+        <v>68.0747360550758</v>
+      </c>
+      <c r="G130">
+        <v>178.9990818465291</v>
+      </c>
+      <c r="H130">
+        <v>1804.189273327845</v>
+      </c>
+      <c r="I130">
+        <v>-909.8354132468775</v>
+      </c>
+      <c r="J130">
+        <v>573.6818992231529</v>
+      </c>
+      <c r="K130">
+        <v>1525.600873952192</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11">
+      <c r="A131">
+        <v>443</v>
+      </c>
+      <c r="B131" t="s">
+        <v>11</v>
+      </c>
+      <c r="C131" t="s">
+        <v>15</v>
+      </c>
+      <c r="D131" t="s">
+        <v>17</v>
+      </c>
+      <c r="E131">
+        <v>175.142</v>
+      </c>
+      <c r="F131">
+        <v>65.91741692491003</v>
+      </c>
+      <c r="G131">
+        <v>199.0121783121389</v>
+      </c>
+      <c r="H131">
+        <v>1825.215685229221</v>
+      </c>
+      <c r="I131">
+        <v>-838.9205642667346</v>
+      </c>
+      <c r="J131">
+        <v>543.6597581583198</v>
+      </c>
+      <c r="K131">
+        <v>1511.479023475652</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11">
+      <c r="A132">
+        <v>443</v>
+      </c>
+      <c r="B132" t="s">
+        <v>11</v>
+      </c>
+      <c r="C132" t="s">
+        <v>15</v>
+      </c>
+      <c r="D132" t="s">
+        <v>17</v>
+      </c>
+      <c r="E132">
+        <v>176.142</v>
+      </c>
+      <c r="F132">
+        <v>63.95277503904644</v>
+      </c>
+      <c r="G132">
+        <v>219.0252747777488</v>
+      </c>
+      <c r="H132">
+        <v>1844.971632085166</v>
+      </c>
+      <c r="I132">
+        <v>-766.2595023709208</v>
+      </c>
+      <c r="J132">
+        <v>513.6376170934868</v>
+      </c>
+      <c r="K132">
+        <v>1490.099143021105</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11">
+      <c r="A133">
+        <v>443</v>
+      </c>
+      <c r="B133" t="s">
+        <v>11</v>
+      </c>
+      <c r="C133" t="s">
+        <v>15</v>
+      </c>
+      <c r="D133" t="s">
+        <v>17</v>
+      </c>
+      <c r="E133">
+        <v>177.142</v>
+      </c>
+      <c r="F133">
+        <v>62.15376603229595</v>
+      </c>
+      <c r="G133">
+        <v>239.0383712433585</v>
+      </c>
+      <c r="H133">
+        <v>1863.601933980588</v>
+      </c>
+      <c r="I133">
+        <v>-691.809228672874</v>
+      </c>
+      <c r="J133">
+        <v>483.6154760286537</v>
+      </c>
+      <c r="K133">
+        <v>1461.461232588549</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11">
+      <c r="A134">
+        <v>443</v>
+      </c>
+      <c r="B134" t="s">
+        <v>11</v>
+      </c>
+      <c r="C134" t="s">
+        <v>15</v>
+      </c>
+      <c r="D134" t="s">
+        <v>17</v>
+      </c>
+      <c r="E134">
+        <v>178.142</v>
+      </c>
+      <c r="F134">
+        <v>60.49837318460136</v>
+      </c>
+      <c r="G134">
+        <v>259.0514677089684</v>
+      </c>
+      <c r="H134">
+        <v>1881.227978520108</v>
+      </c>
+      <c r="I134">
+        <v>-615.525685478009</v>
+      </c>
+      <c r="J134">
+        <v>453.5933349638208</v>
+      </c>
+      <c r="K134">
+        <v>1425.565292177985</v>
+      </c>
+    </row>
+    <row r="135" spans="1:11">
+      <c r="A135">
+        <v>443</v>
+      </c>
+      <c r="B135" t="s">
+        <v>11</v>
+      </c>
+      <c r="C135" t="s">
+        <v>15</v>
+      </c>
+      <c r="D135" t="s">
+        <v>17</v>
+      </c>
+      <c r="E135">
+        <v>179.142</v>
+      </c>
+      <c r="F135">
+        <v>58.96846720130182</v>
+      </c>
+      <c r="G135">
+        <v>279.0645641745783</v>
+      </c>
+      <c r="H135">
+        <v>1897.952518463367</v>
+      </c>
+      <c r="I135">
+        <v>-537.3637302115424</v>
+      </c>
+      <c r="J135">
+        <v>423.5711938989876</v>
+      </c>
+      <c r="K135">
+        <v>1382.411321789412</v>
+      </c>
+    </row>
+    <row r="136" spans="1:11">
+      <c r="A136">
+        <v>443</v>
+      </c>
+      <c r="B136" t="s">
+        <v>11</v>
+      </c>
+      <c r="C136" t="s">
+        <v>15</v>
+      </c>
+      <c r="D136" t="s">
+        <v>17</v>
+      </c>
+      <c r="E136">
+        <v>180.142</v>
+      </c>
+      <c r="F136">
+        <v>57.54896667200856</v>
+      </c>
+      <c r="G136">
+        <v>299.077660640188</v>
+      </c>
+      <c r="H136">
+        <v>1913.863301066293</v>
+      </c>
+      <c r="I136">
+        <v>-457.2771087043196</v>
+      </c>
+      <c r="J136">
+        <v>393.5490528341546</v>
+      </c>
+      <c r="K136">
+        <v>1331.999321422832</v>
+      </c>
+    </row>
+    <row r="137" spans="1:11">
+      <c r="A137">
+        <v>443</v>
+      </c>
+      <c r="B137" t="s">
+        <v>11</v>
+      </c>
+      <c r="C137" t="s">
+        <v>15</v>
+      </c>
+      <c r="D137" t="s">
+        <v>17</v>
+      </c>
+      <c r="E137">
+        <v>181.142</v>
+      </c>
+      <c r="F137">
+        <v>56.22720984786336</v>
+      </c>
+      <c r="G137">
+        <v>319.0907571057979</v>
+      </c>
+      <c r="H137">
+        <v>1929.035854727583</v>
+      </c>
+      <c r="I137">
+        <v>-375.2184278208225</v>
+      </c>
+      <c r="J137">
+        <v>363.5269117693216</v>
+      </c>
+      <c r="K137">
+        <v>1274.329291078244</v>
+      </c>
+    </row>
+    <row r="138" spans="1:11">
+      <c r="A138">
+        <v>443</v>
+      </c>
+      <c r="B138" t="s">
+        <v>11</v>
+      </c>
+      <c r="C138" t="s">
+        <v>15</v>
+      </c>
+      <c r="D138" t="s">
+        <v>17</v>
+      </c>
+      <c r="E138">
+        <v>182.142</v>
+      </c>
+      <c r="F138">
+        <v>54.99247766245112</v>
+      </c>
+      <c r="G138">
+        <v>339.1038535714077</v>
+      </c>
+      <c r="H138">
+        <v>1943.535657355199</v>
+      </c>
+      <c r="I138">
+        <v>-291.1391274131715</v>
+      </c>
+      <c r="J138">
+        <v>333.5047707044885</v>
+      </c>
+      <c r="K138">
+        <v>1209.401230755647</v>
+      </c>
+    </row>
+    <row r="139" spans="1:11">
+      <c r="A139">
+        <v>443</v>
+      </c>
+      <c r="B139" t="s">
+        <v>11</v>
+      </c>
+      <c r="C139" t="s">
+        <v>15</v>
+      </c>
+      <c r="D139" t="s">
+        <v>17</v>
+      </c>
+      <c r="E139">
+        <v>183.142</v>
+      </c>
+      <c r="F139">
+        <v>53.83562679125554</v>
+      </c>
+      <c r="G139">
+        <v>359.1169500370175</v>
+      </c>
+      <c r="H139">
+        <v>1957.419844097251</v>
+      </c>
+      <c r="I139">
+        <v>-204.9894515845196</v>
+      </c>
+      <c r="J139">
+        <v>303.4826296396556</v>
+      </c>
+      <c r="K139">
+        <v>1137.215140455042</v>
+      </c>
+    </row>
+    <row r="140" spans="1:11">
+      <c r="A140">
+        <v>443</v>
+      </c>
+      <c r="B140" t="s">
+        <v>11</v>
+      </c>
+      <c r="C140" t="s">
+        <v>15</v>
+      </c>
+      <c r="D140" t="s">
+        <v>17</v>
+      </c>
+      <c r="E140">
+        <v>184.142</v>
+      </c>
+      <c r="F140">
+        <v>52.74880397026105</v>
+      </c>
+      <c r="G140">
+        <v>379.1300465026274</v>
+      </c>
+      <c r="H140">
+        <v>1970.73856709288</v>
+      </c>
+      <c r="I140">
+        <v>-116.7184192448355</v>
+      </c>
+      <c r="J140">
+        <v>273.4604885748225</v>
+      </c>
+      <c r="K140">
+        <v>1057.771020176429</v>
+      </c>
+    </row>
+    <row r="141" spans="1:11">
+      <c r="A141">
+        <v>443</v>
+      </c>
+      <c r="B141" t="s">
+        <v>11</v>
+      </c>
+      <c r="C141" t="s">
+        <v>15</v>
+      </c>
+      <c r="D141" t="s">
+        <v>17</v>
+      </c>
+      <c r="E141">
+        <v>185.142</v>
+      </c>
+      <c r="F141">
+        <v>51.7252211394424</v>
+      </c>
+      <c r="G141">
+        <v>399.1431429682372</v>
+      </c>
+      <c r="H141">
+        <v>1983.536089010084</v>
+      </c>
+      <c r="I141">
+        <v>-26.27379394164779</v>
+      </c>
+      <c r="J141">
+        <v>243.4383475099894</v>
+      </c>
+      <c r="K141">
+        <v>971.0688699198073</v>
+      </c>
+    </row>
+    <row r="142" spans="1:11">
+      <c r="A142">
+        <v>443</v>
+      </c>
+      <c r="B142" t="s">
+        <v>11</v>
+      </c>
+      <c r="C142" t="s">
+        <v>15</v>
+      </c>
+      <c r="D142" t="s">
+        <v>17</v>
+      </c>
+      <c r="E142">
+        <v>186.142</v>
+      </c>
+      <c r="F142">
+        <v>50.75897668276293</v>
+      </c>
+      <c r="G142">
+        <v>419.156239433847</v>
+      </c>
+      <c r="H142">
+        <v>1995.851670564173</v>
+      </c>
+      <c r="I142">
+        <v>66.39794705210164</v>
+      </c>
+      <c r="J142">
+        <v>213.4162064451564</v>
+      </c>
+      <c r="K142">
+        <v>877.1086896851781</v>
+      </c>
+    </row>
+    <row r="143" spans="1:11">
+      <c r="A143">
+        <v>443</v>
+      </c>
+      <c r="B143" t="s">
+        <v>11</v>
+      </c>
+      <c r="C143" t="s">
+        <v>15</v>
+      </c>
+      <c r="D143" t="s">
+        <v>17</v>
+      </c>
+      <c r="E143">
+        <v>187.142</v>
+      </c>
+      <c r="F143">
+        <v>49.84491200201914</v>
+      </c>
+      <c r="G143">
+        <v>439.1693358994568</v>
+      </c>
+      <c r="H143">
+        <v>2007.720296906685</v>
+      </c>
+      <c r="I143">
+        <v>161.3516444113836</v>
+      </c>
+      <c r="J143">
+        <v>183.3940653803233</v>
+      </c>
+      <c r="K143">
+        <v>775.8904794725406</v>
+      </c>
+    </row>
+    <row r="144" spans="1:11">
+      <c r="A144">
+        <v>443</v>
+      </c>
+      <c r="B144" t="s">
+        <v>11</v>
+      </c>
+      <c r="C144" t="s">
+        <v>15</v>
+      </c>
+      <c r="D144" t="s">
+        <v>17</v>
+      </c>
+      <c r="E144">
+        <v>188.142</v>
+      </c>
+      <c r="F144">
+        <v>48.97849545977824</v>
+      </c>
+      <c r="G144">
+        <v>459.1824323650667</v>
+      </c>
+      <c r="H144">
+        <v>2019.173276762052</v>
+      </c>
+      <c r="I144">
+        <v>258.643489212339</v>
+      </c>
+      <c r="J144">
+        <v>153.3719243154904</v>
+      </c>
+      <c r="K144">
+        <v>667.4142392818952</v>
+      </c>
+    </row>
+    <row r="145" spans="1:11">
+      <c r="A145">
+        <v>443</v>
+      </c>
+      <c r="B145" t="s">
+        <v>11</v>
+      </c>
+      <c r="C145" t="s">
+        <v>15</v>
+      </c>
+      <c r="D145" t="s">
+        <v>17</v>
+      </c>
+      <c r="E145">
+        <v>189.142</v>
+      </c>
+      <c r="F145">
+        <v>48.15572772812661</v>
+      </c>
+      <c r="G145">
+        <v>479.1955288306766</v>
+      </c>
+      <c r="H145">
+        <v>2030.238740160106</v>
+      </c>
+      <c r="I145">
+        <v>358.3310561846608</v>
+      </c>
+      <c r="J145">
+        <v>123.3497832506573</v>
+      </c>
+      <c r="K145">
+        <v>551.679969113241</v>
+      </c>
+    </row>
+    <row r="146" spans="1:11">
+      <c r="A146">
+        <v>443</v>
+      </c>
+      <c r="B146" t="s">
+        <v>11</v>
+      </c>
+      <c r="C146" t="s">
+        <v>15</v>
+      </c>
+      <c r="D146" t="s">
+        <v>17</v>
+      </c>
+      <c r="E146">
+        <v>190.142</v>
+      </c>
+      <c r="F146">
+        <v>47.37306403005935</v>
+      </c>
+      <c r="G146">
+        <v>499.2086252962863</v>
+      </c>
+      <c r="H146">
+        <v>2040.942054687119</v>
+      </c>
+      <c r="I146">
+        <v>460.4733377827971</v>
+      </c>
+      <c r="J146">
+        <v>93.32764218582419</v>
+      </c>
+      <c r="K146">
+        <v>428.687668966579</v>
+      </c>
+    </row>
+    <row r="147" spans="1:11">
+      <c r="A147">
+        <v>443</v>
+      </c>
+      <c r="B147" t="s">
+        <v>11</v>
+      </c>
+      <c r="C147" t="s">
+        <v>15</v>
+      </c>
+      <c r="D147" t="s">
+        <v>17</v>
+      </c>
+      <c r="E147">
+        <v>191.142</v>
+      </c>
+      <c r="F147">
+        <v>46.62734982347205</v>
+      </c>
+      <c r="G147">
+        <v>519.2217217618961</v>
+      </c>
+      <c r="H147">
+        <v>2051.306175755952</v>
+      </c>
+      <c r="I147">
+        <v>565.1307790961099</v>
+      </c>
+      <c r="J147">
+        <v>63.30550112099123</v>
+      </c>
+      <c r="K147">
+        <v>298.4373388419091</v>
+      </c>
+    </row>
+    <row r="148" spans="1:11">
+      <c r="A148">
+        <v>443</v>
+      </c>
+      <c r="B148" t="s">
+        <v>11</v>
+      </c>
+      <c r="C148" t="s">
+        <v>15</v>
+      </c>
+      <c r="D148" t="s">
+        <v>17</v>
+      </c>
+      <c r="E148">
+        <v>192.142</v>
+      </c>
+      <c r="F148">
+        <v>45.9157672657492</v>
+      </c>
+      <c r="G148">
+        <v>539.2348182275059</v>
+      </c>
+      <c r="H148">
+        <v>2061.35194306114</v>
+      </c>
+      <c r="I148">
+        <v>672.3653136186847</v>
+      </c>
+      <c r="J148">
+        <v>33.28336005615813</v>
+      </c>
+      <c r="K148">
+        <v>160.9289787392306</v>
+      </c>
+    </row>
+    <row r="149" spans="1:11">
+      <c r="A149">
+        <v>443</v>
+      </c>
+      <c r="B149" t="s">
+        <v>11</v>
+      </c>
+      <c r="C149" t="s">
+        <v>15</v>
+      </c>
+      <c r="D149" t="s">
+        <v>17</v>
+      </c>
+      <c r="E149">
+        <v>193.142</v>
+      </c>
+      <c r="F149">
+        <v>45.23579038705353</v>
+      </c>
+      <c r="G149">
+        <v>559.2479146931158</v>
+      </c>
+      <c r="H149">
+        <v>2071.098332845543</v>
+      </c>
+      <c r="I149">
+        <v>782.2403998999142</v>
+      </c>
+      <c r="J149">
+        <v>3.261218991325039</v>
+      </c>
+      <c r="K149">
+        <v>16.16258865854397</v>
+      </c>
+    </row>
+    <row r="150" spans="1:11">
+      <c r="A150">
+        <v>443</v>
+      </c>
+      <c r="B150" t="s">
+        <v>11</v>
+      </c>
+      <c r="C150" t="s">
+        <v>15</v>
+      </c>
+      <c r="D150" t="s">
+        <v>17</v>
+      </c>
+      <c r="E150">
+        <v>194.142</v>
+      </c>
+      <c r="F150">
+        <v>44.5851473465724</v>
+      </c>
+      <c r="G150">
+        <v>579.2610111587256</v>
+      </c>
+      <c r="H150">
+        <v>2080.562673654159</v>
+      </c>
+      <c r="I150">
+        <v>894.8210590975923</v>
+      </c>
+      <c r="J150">
+        <v>-26.76092207350791</v>
+      </c>
+      <c r="K150">
+        <v>-135.8618314001503</v>
+      </c>
+    </row>
+    <row r="151" spans="1:11">
+      <c r="A151">
+        <v>443</v>
+      </c>
+      <c r="B151" t="s">
+        <v>11</v>
+      </c>
+      <c r="C151" t="s">
+        <v>15</v>
+      </c>
+      <c r="D151" t="s">
+        <v>17</v>
+      </c>
+      <c r="E151">
+        <v>195.142</v>
+      </c>
+      <c r="F151">
+        <v>43.96178848630796</v>
+      </c>
+      <c r="G151">
+        <v>599.2741076243354</v>
+      </c>
+      <c r="H151">
+        <v>2089.760831738882</v>
+      </c>
+      <c r="I151">
+        <v>1010.173913455706</v>
+      </c>
+      <c r="J151">
+        <v>-56.78306313834101</v>
+      </c>
+      <c r="K151">
+        <v>-295.1442814368532</v>
+      </c>
+    </row>
+    <row r="152" spans="1:11">
+      <c r="A152">
+        <v>443</v>
+      </c>
+      <c r="B152" t="s">
+        <v>11</v>
+      </c>
+      <c r="C152" t="s">
+        <v>15</v>
+      </c>
+      <c r="D152" t="s">
+        <v>17</v>
+      </c>
+      <c r="E152">
+        <v>196.142</v>
+      </c>
+      <c r="F152">
+        <v>43.36385915879303</v>
+      </c>
+      <c r="G152">
+        <v>619.2872040899454</v>
+      </c>
+      <c r="H152">
+        <v>2098.70737109722</v>
+      </c>
+      <c r="I152">
+        <v>1128.36722572971</v>
+      </c>
+      <c r="J152">
+        <v>-86.8052042031741</v>
+      </c>
+      <c r="K152">
+        <v>-461.6847614515647</v>
+      </c>
+    </row>
+    <row r="153" spans="1:11">
+      <c r="A153">
+        <v>443</v>
+      </c>
+      <c r="B153" t="s">
+        <v>11</v>
+      </c>
+      <c r="C153" t="s">
+        <v>15</v>
+      </c>
+      <c r="D153" t="s">
+        <v>17</v>
+      </c>
+      <c r="E153">
+        <v>197.142</v>
+      </c>
+      <c r="F153">
+        <v>42.78967650809651</v>
+      </c>
+      <c r="G153">
+        <v>639.3003005555552</v>
+      </c>
+      <c r="H153">
+        <v>2107.415692198802</v>
+      </c>
+      <c r="I153">
+        <v>1249.470939582607</v>
+      </c>
+      <c r="J153">
+        <v>-116.8273452680072</v>
+      </c>
+      <c r="K153">
+        <v>-635.483271444284</v>
+      </c>
+    </row>
+    <row r="154" spans="1:11">
+      <c r="A154">
+        <v>443</v>
+      </c>
+      <c r="B154" t="s">
+        <v>11</v>
+      </c>
+      <c r="C154" t="s">
+        <v>15</v>
+      </c>
+      <c r="D154" t="s">
+        <v>17</v>
+      </c>
+      <c r="E154">
+        <v>198.142</v>
+      </c>
+      <c r="F154">
+        <v>42.23770954202439</v>
+      </c>
+      <c r="G154">
+        <v>659.3133970211649</v>
+      </c>
+      <c r="H154">
+        <v>2115.898152717275</v>
+      </c>
+      <c r="I154">
+        <v>1373.556720975757</v>
+      </c>
+      <c r="J154">
+        <v>-146.84948633284</v>
+      </c>
+      <c r="K154">
+        <v>-816.5398114150101</v>
+      </c>
+    </row>
+    <row r="155" spans="1:11">
+      <c r="A155">
+        <v>443</v>
+      </c>
+      <c r="B155" t="s">
+        <v>11</v>
+      </c>
+      <c r="C155" t="s">
+        <v>15</v>
+      </c>
+      <c r="D155" t="s">
+        <v>17</v>
+      </c>
+      <c r="E155">
+        <v>199.142</v>
+      </c>
+      <c r="F155">
+        <v>41.70656195813454</v>
+      </c>
+      <c r="G155">
+        <v>679.3264934867748</v>
+      </c>
+      <c r="H155">
+        <v>2124.166172997855</v>
+      </c>
+      <c r="I155">
+        <v>1500.698000578889</v>
+      </c>
+      <c r="J155">
+        <v>-176.8716273976731</v>
+      </c>
+      <c r="K155">
+        <v>-1004.854381363746</v>
+      </c>
+    </row>
+    <row r="156" spans="1:11">
+      <c r="A156">
+        <v>443</v>
+      </c>
+      <c r="B156" t="s">
+        <v>11</v>
+      </c>
+      <c r="C156" t="s">
+        <v>15</v>
+      </c>
+      <c r="D156" t="s">
+        <v>17</v>
+      </c>
+      <c r="E156">
+        <v>200.142</v>
+      </c>
+      <c r="F156">
+        <v>41.19495728492488</v>
+      </c>
+      <c r="G156">
+        <v>699.3395899523846</v>
+      </c>
+      <c r="H156">
+        <v>2132.230328519421</v>
+      </c>
+      <c r="I156">
+        <v>1630.970017224415</v>
+      </c>
+      <c r="J156">
+        <v>-206.8937684625062</v>
+      </c>
+      <c r="K156">
+        <v>-1200.426981290489</v>
+      </c>
+    </row>
+    <row r="157" spans="1:11">
+      <c r="A157">
+        <v>443</v>
+      </c>
+      <c r="B157" t="s">
+        <v>11</v>
+      </c>
+      <c r="C157" t="s">
+        <v>15</v>
+      </c>
+      <c r="D157" t="s">
+        <v>17</v>
+      </c>
+      <c r="E157">
+        <v>201.142</v>
+      </c>
+      <c r="F157">
+        <v>40.70172597823169</v>
+      </c>
+      <c r="G157">
+        <v>719.3526864179944</v>
+      </c>
+      <c r="H157">
+        <v>2140.100431229385</v>
+      </c>
+      <c r="I157">
+        <v>1764.449862431779</v>
+      </c>
+      <c r="J157">
+        <v>-236.9159095273393</v>
+      </c>
+      <c r="K157">
+        <v>-1403.257611195242</v>
+      </c>
+    </row>
+    <row r="158" spans="1:11">
+      <c r="A158">
+        <v>443</v>
+      </c>
+      <c r="B158" t="s">
+        <v>11</v>
+      </c>
+      <c r="C158" t="s">
+        <v>15</v>
+      </c>
+      <c r="D158" t="s">
+        <v>17</v>
+      </c>
+      <c r="E158">
+        <v>202.142</v>
+      </c>
+      <c r="F158">
+        <v>40.22579417593499</v>
+      </c>
+      <c r="G158">
+        <v>739.3657828836043</v>
+      </c>
+      <c r="H158">
+        <v>2147.785601320578</v>
+      </c>
+      <c r="I158">
+        <v>1901.216526028171</v>
+      </c>
+      <c r="J158">
+        <v>-266.9380505921724</v>
+      </c>
+      <c r="K158">
+        <v>-1613.346271078002</v>
+      </c>
+    </row>
+    <row r="159" spans="1:11">
+      <c r="A159">
+        <v>443</v>
+      </c>
+      <c r="B159" t="s">
+        <v>11</v>
+      </c>
+      <c r="C159" t="s">
+        <v>15</v>
+      </c>
+      <c r="D159" t="s">
+        <v>17</v>
+      </c>
+      <c r="E159">
+        <v>203.142</v>
+      </c>
+      <c r="F159">
+        <v>39.76617386489128</v>
+      </c>
+      <c r="G159">
+        <v>759.3788793492141</v>
+      </c>
+      <c r="H159">
+        <v>2155.294330767068</v>
+      </c>
+      <c r="I159">
+        <v>2041.350942892596</v>
+      </c>
+      <c r="J159">
+        <v>-296.9601916570052</v>
+      </c>
+      <c r="K159">
+        <v>-1830.692960938768</v>
+      </c>
+    </row>
+    <row r="160" spans="1:11">
+      <c r="A160">
+        <v>443</v>
+      </c>
+      <c r="B160" t="s">
+        <v>11</v>
+      </c>
+      <c r="C160" t="s">
+        <v>15</v>
+      </c>
+      <c r="D160" t="s">
+        <v>17</v>
+      </c>
+      <c r="E160">
+        <v>204.142</v>
+      </c>
+      <c r="F160">
+        <v>39.3219542552042</v>
+      </c>
+      <c r="G160">
+        <v>779.3919758148238</v>
+      </c>
+      <c r="H160">
+        <v>2162.634539728923</v>
+      </c>
+      <c r="I160">
+        <v>2184.936040851012</v>
+      </c>
+      <c r="J160">
+        <v>-326.9823327218383</v>
+      </c>
+      <c r="K160">
+        <v>-2055.297680777545</v>
+      </c>
+    </row>
+    <row r="161" spans="1:11">
+      <c r="A161">
+        <v>443</v>
+      </c>
+      <c r="B161" t="s">
+        <v>11</v>
+      </c>
+      <c r="C161" t="s">
+        <v>16</v>
+      </c>
+      <c r="D161" t="s">
+        <v>17</v>
+      </c>
+      <c r="E161">
+        <v>152.142</v>
+      </c>
+      <c r="F161">
+        <v>132.707547480024</v>
+      </c>
+      <c r="G161">
+        <v>-90.94865344012294</v>
+      </c>
+      <c r="H161">
+        <v>936.5625415472814</v>
+      </c>
+      <c r="I161">
+        <v>-1675.601478040587</v>
+      </c>
+      <c r="J161">
+        <v>1291.013830528549</v>
+      </c>
+      <c r="K161">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:11">
+      <c r="A162">
+        <v>443</v>
+      </c>
+      <c r="B162" t="s">
+        <v>11</v>
+      </c>
+      <c r="C162" t="s">
+        <v>16</v>
+      </c>
+      <c r="D162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E162">
+        <v>153.142</v>
+      </c>
+      <c r="F162">
+        <v>132.707547480024</v>
+      </c>
+      <c r="G162">
+        <v>-90.94865344012294</v>
+      </c>
+      <c r="H162">
+        <v>936.5625415472814</v>
+      </c>
+      <c r="I162">
+        <v>-1642.520643177483</v>
+      </c>
+      <c r="J162">
+        <v>1259.608893884077</v>
+      </c>
+      <c r="K162">
+        <v>333.7678932910207</v>
+      </c>
+    </row>
+    <row r="163" spans="1:11">
+      <c r="A163">
+        <v>443</v>
+      </c>
+      <c r="B163" t="s">
+        <v>11</v>
+      </c>
+      <c r="C163" t="s">
+        <v>16</v>
+      </c>
+      <c r="D163" t="s">
+        <v>17</v>
+      </c>
+      <c r="E163">
+        <v>154.142</v>
+      </c>
+      <c r="F163">
+        <v>132.707547480024</v>
+      </c>
+      <c r="G163">
+        <v>-90.94865344012294</v>
+      </c>
+      <c r="H163">
+        <v>936.5625415472814</v>
+      </c>
+      <c r="I163">
+        <v>-1608.625223189684</v>
+      </c>
+      <c r="J163">
+        <v>1228.203957239604</v>
+      </c>
+      <c r="K163">
+        <v>650.8925894854527</v>
+      </c>
+    </row>
+    <row r="164" spans="1:11">
+      <c r="A164">
+        <v>443</v>
+      </c>
+      <c r="B164" t="s">
+        <v>11</v>
+      </c>
+      <c r="C164" t="s">
+        <v>16</v>
+      </c>
+      <c r="D164" t="s">
+        <v>17</v>
+      </c>
+      <c r="E164">
+        <v>155.142</v>
+      </c>
+      <c r="F164">
+        <v>132.707547480024</v>
+      </c>
+      <c r="G164">
+        <v>-90.94865344012294</v>
+      </c>
+      <c r="H164">
+        <v>936.5625415472814</v>
+      </c>
+      <c r="I164">
+        <v>-1573.895159667901</v>
+      </c>
+      <c r="J164">
+        <v>1196.799020595132</v>
+      </c>
+      <c r="K164">
+        <v>951.3740885832985</v>
+      </c>
+    </row>
+    <row r="165" spans="1:11">
+      <c r="A165">
+        <v>443</v>
+      </c>
+      <c r="B165" t="s">
+        <v>11</v>
+      </c>
+      <c r="C165" t="s">
+        <v>16</v>
+      </c>
+      <c r="D165" t="s">
+        <v>17</v>
+      </c>
+      <c r="E165">
+        <v>156.142</v>
+      </c>
+      <c r="F165">
+        <v>132.707547480024</v>
+      </c>
+      <c r="G165">
+        <v>-90.94865344012294</v>
+      </c>
+      <c r="H165">
+        <v>936.5625415472814</v>
+      </c>
+      <c r="I165">
+        <v>-1538.309900282967</v>
+      </c>
+      <c r="J165">
+        <v>1165.39408395066</v>
+      </c>
+      <c r="K165">
+        <v>1235.212390584556</v>
+      </c>
+    </row>
+    <row r="166" spans="1:11">
+      <c r="A166">
+        <v>443</v>
+      </c>
+      <c r="B166" t="s">
+        <v>11</v>
+      </c>
+      <c r="C166" t="s">
+        <v>16</v>
+      </c>
+      <c r="D166" t="s">
+        <v>17</v>
+      </c>
+      <c r="E166">
+        <v>157.142</v>
+      </c>
+      <c r="F166">
+        <v>132.707547480024</v>
+      </c>
+      <c r="G166">
+        <v>-90.94865344012294</v>
+      </c>
+      <c r="H166">
+        <v>936.5625415472814</v>
+      </c>
+      <c r="I166">
+        <v>-1501.848386623516</v>
+      </c>
+      <c r="J166">
+        <v>1133.989147306187</v>
+      </c>
+      <c r="K166">
+        <v>1502.407495489228</v>
+      </c>
+    </row>
+    <row r="167" spans="1:11">
+      <c r="A167">
+        <v>443</v>
+      </c>
+      <c r="B167" t="s">
+        <v>11</v>
+      </c>
+      <c r="C167" t="s">
+        <v>16</v>
+      </c>
+      <c r="D167" t="s">
+        <v>17</v>
+      </c>
+      <c r="E167">
+        <v>158.142</v>
+      </c>
+      <c r="F167">
+        <v>132.707547480024</v>
+      </c>
+      <c r="G167">
+        <v>-90.94865344012294</v>
+      </c>
+      <c r="H167">
+        <v>936.5625415472814</v>
+      </c>
+      <c r="I167">
+        <v>-1464.489041734179</v>
+      </c>
+      <c r="J167">
+        <v>1102.584210661715</v>
+      </c>
+      <c r="K167">
+        <v>1752.959403297311</v>
+      </c>
+    </row>
+    <row r="168" spans="1:11">
+      <c r="A168">
+        <v>443</v>
+      </c>
+      <c r="B168" t="s">
+        <v>11</v>
+      </c>
+      <c r="C168" t="s">
+        <v>16</v>
+      </c>
+      <c r="D168" t="s">
+        <v>17</v>
+      </c>
+      <c r="E168">
+        <v>159.142</v>
+      </c>
+      <c r="F168">
+        <v>132.707547480024</v>
+      </c>
+      <c r="G168">
+        <v>-90.94865344012294</v>
+      </c>
+      <c r="H168">
+        <v>936.5625415472814</v>
+      </c>
+      <c r="I168">
+        <v>-1426.209757346909</v>
+      </c>
+      <c r="J168">
+        <v>1071.179274017242</v>
+      </c>
+      <c r="K168">
+        <v>1986.868114008808</v>
+      </c>
+    </row>
+    <row r="169" spans="1:11">
+      <c r="A169">
+        <v>443</v>
+      </c>
+      <c r="B169" t="s">
+        <v>11</v>
+      </c>
+      <c r="C169" t="s">
+        <v>16</v>
+      </c>
+      <c r="D169" t="s">
+        <v>17</v>
+      </c>
+      <c r="E169">
+        <v>160.142</v>
+      </c>
+      <c r="F169">
+        <v>132.707547480024</v>
+      </c>
+      <c r="G169">
+        <v>-75.93047072098774</v>
+      </c>
+      <c r="H169">
+        <v>936.5625415472814</v>
+      </c>
+      <c r="I169">
+        <v>-1386.987880797899</v>
+      </c>
+      <c r="J169">
+        <v>1039.77433737277</v>
+      </c>
+      <c r="K169">
+        <v>2204.133627623717</v>
+      </c>
+    </row>
+    <row r="170" spans="1:11">
+      <c r="A170">
+        <v>443</v>
+      </c>
+      <c r="B170" t="s">
+        <v>11</v>
+      </c>
+      <c r="C170" t="s">
+        <v>16</v>
+      </c>
+      <c r="D170" t="s">
+        <v>17</v>
+      </c>
+      <c r="E170">
+        <v>161.142</v>
+      </c>
+      <c r="F170">
+        <v>102.9965380370244</v>
+      </c>
+      <c r="G170">
+        <v>-60.91228800185255</v>
+      </c>
+      <c r="H170">
+        <v>1153.838749004634</v>
+      </c>
+      <c r="I170">
+        <v>-1346.800201622334</v>
+      </c>
+      <c r="J170">
+        <v>1008.369400728298</v>
+      </c>
+      <c r="K170">
+        <v>2404.755944142038</v>
+      </c>
+    </row>
+    <row r="171" spans="1:11">
+      <c r="A171">
+        <v>443</v>
+      </c>
+      <c r="B171" t="s">
+        <v>11</v>
+      </c>
+      <c r="C171" t="s">
+        <v>16</v>
+      </c>
+      <c r="D171" t="s">
+        <v>17</v>
+      </c>
+      <c r="E171">
+        <v>162.142</v>
+      </c>
+      <c r="F171">
+        <v>85.54281045438874</v>
+      </c>
+      <c r="G171">
+        <v>-45.89410528271737</v>
+      </c>
+      <c r="H171">
+        <v>1283.259570093337</v>
+      </c>
+      <c r="I171">
+        <v>-1305.622937819058</v>
+      </c>
+      <c r="J171">
+        <v>976.9644640838254</v>
+      </c>
+      <c r="K171">
+        <v>2588.735063563772</v>
+      </c>
+    </row>
+    <row r="172" spans="1:11">
+      <c r="A172">
+        <v>443</v>
+      </c>
+      <c r="B172" t="s">
+        <v>11</v>
+      </c>
+      <c r="C172" t="s">
+        <v>16</v>
+      </c>
+      <c r="D172" t="s">
+        <v>17</v>
+      </c>
+      <c r="E172">
+        <v>163.142</v>
+      </c>
+      <c r="F172">
+        <v>74.524737133988</v>
+      </c>
+      <c r="G172">
+        <v>-30.87592256358218</v>
+      </c>
+      <c r="H172">
+        <v>1375.747883706536</v>
+      </c>
+      <c r="I172">
+        <v>-1263.431721777013</v>
+      </c>
+      <c r="J172">
+        <v>945.559527439353</v>
+      </c>
+      <c r="K172">
+        <v>2756.07098588892</v>
+      </c>
+    </row>
+    <row r="173" spans="1:11">
+      <c r="A173">
+        <v>443</v>
+      </c>
+      <c r="B173" t="s">
+        <v>11</v>
+      </c>
+      <c r="C173" t="s">
+        <v>16</v>
+      </c>
+      <c r="D173" t="s">
+        <v>17</v>
+      </c>
+      <c r="E173">
+        <v>164.142</v>
+      </c>
+      <c r="F173">
+        <v>66.84077752532583</v>
+      </c>
+      <c r="G173">
+        <v>-15.85773984444698</v>
+      </c>
+      <c r="H173">
+        <v>1447.768483966483</v>
+      </c>
+      <c r="I173">
+        <v>-1220.201585855141</v>
+      </c>
+      <c r="J173">
+        <v>914.1545907948806</v>
+      </c>
+      <c r="K173">
+        <v>2906.76371111748</v>
+      </c>
+    </row>
+    <row r="174" spans="1:11">
+      <c r="A174">
+        <v>443</v>
+      </c>
+      <c r="B174" t="s">
+        <v>11</v>
+      </c>
+      <c r="C174" t="s">
+        <v>16</v>
+      </c>
+      <c r="D174" t="s">
+        <v>17</v>
+      </c>
+      <c r="E174">
+        <v>165.142</v>
+      </c>
+      <c r="F174">
+        <v>61.10831354892827</v>
+      </c>
+      <c r="G174">
+        <v>-0.8395571253118038</v>
+      </c>
+      <c r="H174">
+        <v>1506.758942006348</v>
+      </c>
+      <c r="I174">
+        <v>-1175.906947607189</v>
+      </c>
+      <c r="J174">
+        <v>882.7496541504083</v>
+      </c>
+      <c r="K174">
+        <v>3040.813239249452</v>
+      </c>
+    </row>
+    <row r="175" spans="1:11">
+      <c r="A175">
+        <v>443</v>
+      </c>
+      <c r="B175" t="s">
+        <v>11</v>
+      </c>
+      <c r="C175" t="s">
+        <v>16</v>
+      </c>
+      <c r="D175" t="s">
+        <v>17</v>
+      </c>
+      <c r="E175">
+        <v>166.142</v>
+      </c>
+      <c r="F175">
+        <v>56.62632723424696</v>
+      </c>
+      <c r="G175">
+        <v>14.17862559382339</v>
+      </c>
+      <c r="H175">
+        <v>1556.719553871384</v>
+      </c>
+      <c r="I175">
+        <v>-1130.5215946427</v>
+      </c>
+      <c r="J175">
+        <v>851.3447175059359</v>
+      </c>
+      <c r="K175">
+        <v>3158.219570284838</v>
+      </c>
+    </row>
+    <row r="176" spans="1:11">
+      <c r="A176">
+        <v>443</v>
+      </c>
+      <c r="B176" t="s">
+        <v>11</v>
+      </c>
+      <c r="C176" t="s">
+        <v>16</v>
+      </c>
+      <c r="D176" t="s">
+        <v>17</v>
+      </c>
+      <c r="E176">
+        <v>167.142</v>
+      </c>
+      <c r="F176">
+        <v>53.00007396154538</v>
+      </c>
+      <c r="G176">
+        <v>29.19680831295858</v>
+      </c>
+      <c r="H176">
+        <v>1600.051285480835</v>
+      </c>
+      <c r="I176">
+        <v>-1084.01866911522</v>
+      </c>
+      <c r="J176">
+        <v>819.9397808614636</v>
+      </c>
+      <c r="K176">
+        <v>3258.982704223635</v>
+      </c>
+    </row>
+    <row r="177" spans="1:11">
+      <c r="A177">
+        <v>443</v>
+      </c>
+      <c r="B177" t="s">
+        <v>11</v>
+      </c>
+      <c r="C177" t="s">
+        <v>16</v>
+      </c>
+      <c r="D177" t="s">
+        <v>17</v>
+      </c>
+      <c r="E177">
+        <v>168.142</v>
+      </c>
+      <c r="F177">
+        <v>49.98899163877675</v>
+      </c>
+      <c r="G177">
+        <v>44.21499103209376</v>
+      </c>
+      <c r="H177">
+        <v>1638.308916656877</v>
+      </c>
+      <c r="I177">
+        <v>-1036.370651828533</v>
+      </c>
+      <c r="J177">
+        <v>788.5348442169912</v>
+      </c>
+      <c r="K177">
+        <v>3343.102641065846</v>
+      </c>
+    </row>
+    <row r="178" spans="1:11">
+      <c r="A178">
+        <v>443</v>
+      </c>
+      <c r="B178" t="s">
+        <v>11</v>
+      </c>
+      <c r="C178" t="s">
+        <v>16</v>
+      </c>
+      <c r="D178" t="s">
+        <v>17</v>
+      </c>
+      <c r="E178">
+        <v>169.142</v>
+      </c>
+      <c r="F178">
+        <v>47.43732592602541</v>
+      </c>
+      <c r="G178">
+        <v>59.23317375122897</v>
+      </c>
+      <c r="H178">
+        <v>1672.55719509966</v>
+      </c>
+      <c r="I178">
+        <v>-987.5493459515332</v>
+      </c>
+      <c r="J178">
+        <v>757.1299075725188</v>
+      </c>
+      <c r="K178">
+        <v>3410.57938081147</v>
+      </c>
+    </row>
+    <row r="179" spans="1:11">
+      <c r="A179">
+        <v>443</v>
+      </c>
+      <c r="B179" t="s">
+        <v>11</v>
+      </c>
+      <c r="C179" t="s">
+        <v>16</v>
+      </c>
+      <c r="D179" t="s">
+        <v>17</v>
+      </c>
+      <c r="E179">
+        <v>170.142</v>
+      </c>
+      <c r="F179">
+        <v>45.23931485593172</v>
+      </c>
+      <c r="G179">
+        <v>74.25135647036416</v>
+      </c>
+      <c r="H179">
+        <v>1703.557326488215</v>
+      </c>
+      <c r="I179">
+        <v>-937.52586033209</v>
+      </c>
+      <c r="J179">
+        <v>725.7249709280466</v>
+      </c>
+      <c r="K179">
+        <v>3461.412923460506</v>
+      </c>
+    </row>
+    <row r="180" spans="1:11">
+      <c r="A180">
+        <v>443</v>
+      </c>
+      <c r="B180" t="s">
+        <v>11</v>
+      </c>
+      <c r="C180" t="s">
+        <v>16</v>
+      </c>
+      <c r="D180" t="s">
+        <v>17</v>
+      </c>
+      <c r="E180">
+        <v>171.142</v>
+      </c>
+      <c r="F180">
+        <v>43.32033761669574</v>
+      </c>
+      <c r="G180">
+        <v>89.26953918949933</v>
+      </c>
+      <c r="H180">
+        <v>1731.872406850036</v>
+      </c>
+      <c r="I180">
+        <v>-886.2705924000312</v>
+      </c>
+      <c r="J180">
+        <v>694.3200342835742</v>
+      </c>
+      <c r="K180">
+        <v>3495.603269012955</v>
+      </c>
+    </row>
+    <row r="181" spans="1:11">
+      <c r="A181">
+        <v>443</v>
+      </c>
+      <c r="B181" t="s">
+        <v>11</v>
+      </c>
+      <c r="C181" t="s">
+        <v>16</v>
+      </c>
+      <c r="D181" t="s">
+        <v>17</v>
+      </c>
+      <c r="E181">
+        <v>172.142</v>
+      </c>
+      <c r="F181">
+        <v>41.62606208583292</v>
+      </c>
+      <c r="G181">
+        <v>104.2877219086345</v>
+      </c>
+      <c r="H181">
+        <v>1757.930714122166</v>
+      </c>
+      <c r="I181">
+        <v>-833.753210649127</v>
+      </c>
+      <c r="J181">
+        <v>662.9150976391019</v>
+      </c>
+      <c r="K181">
+        <v>3513.150417468816</v>
+      </c>
+    </row>
+    <row r="182" spans="1:11">
+      <c r="A182">
+        <v>443</v>
+      </c>
+      <c r="B182" t="s">
+        <v>11</v>
+      </c>
+      <c r="C182" t="s">
+        <v>16</v>
+      </c>
+      <c r="D182" t="s">
+        <v>17</v>
+      </c>
+      <c r="E182">
+        <v>173.142</v>
+      </c>
+      <c r="F182">
+        <v>40.11587480346964</v>
+      </c>
+      <c r="G182">
+        <v>119.3059046277697</v>
+      </c>
+      <c r="H182">
+        <v>1782.065583308511</v>
+      </c>
+      <c r="I182">
+        <v>-779.942636687712</v>
+      </c>
+      <c r="J182">
+        <v>631.5101609946295</v>
+      </c>
+      <c r="K182">
+        <v>3514.05436882809</v>
+      </c>
+    </row>
+    <row r="183" spans="1:11">
+      <c r="A183">
+        <v>443</v>
+      </c>
+      <c r="B183" t="s">
+        <v>11</v>
+      </c>
+      <c r="C183" t="s">
+        <v>16</v>
+      </c>
+      <c r="D183" t="s">
+        <v>17</v>
+      </c>
+      <c r="E183">
+        <v>174.142</v>
+      </c>
+      <c r="F183">
+        <v>38.75873302789996</v>
+      </c>
+      <c r="G183">
+        <v>134.3240873469049</v>
+      </c>
+      <c r="H183">
+        <v>1804.541548955925</v>
+      </c>
+      <c r="I183">
+        <v>-724.8070268473178</v>
+      </c>
+      <c r="J183">
+        <v>600.105224350157</v>
+      </c>
+      <c r="K183">
+        <v>3498.315123090777</v>
+      </c>
+    </row>
+    <row r="184" spans="1:11">
+      <c r="A184">
+        <v>443</v>
+      </c>
+      <c r="B184" t="s">
+        <v>11</v>
+      </c>
+      <c r="C184" t="s">
+        <v>16</v>
+      </c>
+      <c r="D184" t="s">
+        <v>17</v>
+      </c>
+      <c r="E184">
+        <v>175.142</v>
+      </c>
+      <c r="F184">
+        <v>37.5304512736464</v>
+      </c>
+      <c r="G184">
+        <v>149.3422700660401</v>
+      </c>
+      <c r="H184">
+        <v>1825.572066353642</v>
+      </c>
+      <c r="I184">
+        <v>-668.3137533384343</v>
+      </c>
+      <c r="J184">
+        <v>568.7002877056847</v>
+      </c>
+      <c r="K184">
+        <v>3465.932680256877</v>
+      </c>
+    </row>
+    <row r="185" spans="1:11">
+      <c r="A185">
+        <v>443</v>
+      </c>
+      <c r="B185" t="s">
+        <v>11</v>
+      </c>
+      <c r="C185" t="s">
+        <v>16</v>
+      </c>
+      <c r="D185" t="s">
+        <v>17</v>
+      </c>
+      <c r="E185">
+        <v>176.142</v>
+      </c>
+      <c r="F185">
+        <v>36.41187138979625</v>
+      </c>
+      <c r="G185">
+        <v>164.3604527851753</v>
+      </c>
+      <c r="H185">
+        <v>1845.331870642224</v>
+      </c>
+      <c r="I185">
+        <v>-610.4293849422534</v>
+      </c>
+      <c r="J185">
+        <v>537.2953510612123</v>
+      </c>
+      <c r="K185">
+        <v>3416.907040326389</v>
+      </c>
+    </row>
+    <row r="186" spans="1:11">
+      <c r="A186">
+        <v>443</v>
+      </c>
+      <c r="B186" t="s">
+        <v>11</v>
+      </c>
+      <c r="C186" t="s">
+        <v>16</v>
+      </c>
+      <c r="D186" t="s">
+        <v>17</v>
+      </c>
+      <c r="E186">
+        <v>177.142</v>
+      </c>
+      <c r="F186">
+        <v>35.38759551524835</v>
+      </c>
+      <c r="G186">
+        <v>179.3786355043105</v>
+      </c>
+      <c r="H186">
+        <v>1863.965810183318</v>
+      </c>
+      <c r="I186">
+        <v>-551.1196672269591</v>
+      </c>
+      <c r="J186">
+        <v>505.8904144167399</v>
+      </c>
+      <c r="K186">
+        <v>3351.238203299314</v>
+      </c>
+    </row>
+    <row r="187" spans="1:11">
+      <c r="A187">
+        <v>443</v>
+      </c>
+      <c r="B187" t="s">
+        <v>11</v>
+      </c>
+      <c r="C187" t="s">
+        <v>16</v>
+      </c>
+      <c r="D187" t="s">
+        <v>17</v>
+      </c>
+      <c r="E187">
+        <v>178.142</v>
+      </c>
+      <c r="F187">
+        <v>34.44508830687401</v>
+      </c>
+      <c r="G187">
+        <v>194.3968182234457</v>
+      </c>
+      <c r="H187">
+        <v>1881.59529628299</v>
+      </c>
+      <c r="I187">
+        <v>-490.3495022768658</v>
+      </c>
+      <c r="J187">
+        <v>474.4854777722676</v>
+      </c>
+      <c r="K187">
+        <v>3268.926169175652</v>
+      </c>
+    </row>
+    <row r="188" spans="1:11">
+      <c r="A188">
+        <v>443</v>
+      </c>
+      <c r="B188" t="s">
+        <v>11</v>
+      </c>
+      <c r="C188" t="s">
+        <v>16</v>
+      </c>
+      <c r="D188" t="s">
+        <v>17</v>
+      </c>
+      <c r="E188">
+        <v>179.142</v>
+      </c>
+      <c r="F188">
+        <v>33.57402774901126</v>
+      </c>
+      <c r="G188">
+        <v>209.4150009425809</v>
+      </c>
+      <c r="H188">
+        <v>1898.323101763796</v>
+      </c>
+      <c r="I188">
+        <v>-428.0829279224023</v>
+      </c>
+      <c r="J188">
+        <v>443.0805411277952</v>
+      </c>
+      <c r="K188">
+        <v>3169.970937955402</v>
+      </c>
+    </row>
+    <row r="189" spans="1:11">
+      <c r="A189">
+        <v>443</v>
+      </c>
+      <c r="B189" t="s">
+        <v>11</v>
+      </c>
+      <c r="C189" t="s">
+        <v>16</v>
+      </c>
+      <c r="D189" t="s">
+        <v>17</v>
+      </c>
+      <c r="E189">
+        <v>180.142</v>
+      </c>
+      <c r="F189">
+        <v>32.76582715601406</v>
+      </c>
+      <c r="G189">
+        <v>224.433183661716</v>
+      </c>
+      <c r="H189">
+        <v>1914.236991014687</v>
+      </c>
+      <c r="I189">
+        <v>-364.2830964586585</v>
+      </c>
+      <c r="J189">
+        <v>411.6756044833228</v>
+      </c>
+      <c r="K189">
+        <v>3054.372509638565</v>
+      </c>
+    </row>
+    <row r="190" spans="1:11">
+      <c r="A190">
+        <v>443</v>
+      </c>
+      <c r="B190" t="s">
+        <v>11</v>
+      </c>
+      <c r="C190" t="s">
+        <v>16</v>
+      </c>
+      <c r="D190" t="s">
+        <v>17</v>
+      </c>
+      <c r="E190">
+        <v>181.142</v>
+      </c>
+      <c r="F190">
+        <v>32.01327749010861</v>
+      </c>
+      <c r="G190">
+        <v>239.4513663808513</v>
+      </c>
+      <c r="H190">
+        <v>1929.412507181602</v>
+      </c>
+      <c r="I190">
+        <v>-298.9122528398887</v>
+      </c>
+      <c r="J190">
+        <v>380.2706678388505</v>
+      </c>
+      <c r="K190">
+        <v>2922.130884225142</v>
+      </c>
+    </row>
+    <row r="191" spans="1:11">
+      <c r="A191">
+        <v>443</v>
+      </c>
+      <c r="B191" t="s">
+        <v>11</v>
+      </c>
+      <c r="C191" t="s">
+        <v>16</v>
+      </c>
+      <c r="D191" t="s">
+        <v>17</v>
+      </c>
+      <c r="E191">
+        <v>182.142</v>
+      </c>
+      <c r="F191">
+        <v>31.31027579067301</v>
+      </c>
+      <c r="G191">
+        <v>254.4695490999864</v>
+      </c>
+      <c r="H191">
+        <v>1943.915140957342</v>
+      </c>
+      <c r="I191">
+        <v>-231.9317123370802</v>
+      </c>
+      <c r="J191">
+        <v>348.8657311943781</v>
+      </c>
+      <c r="K191">
+        <v>2773.24606171513</v>
+      </c>
+    </row>
+    <row r="192" spans="1:11">
+      <c r="A192">
+        <v>443</v>
+      </c>
+      <c r="B192" t="s">
+        <v>11</v>
+      </c>
+      <c r="C192" t="s">
+        <v>16</v>
+      </c>
+      <c r="D192" t="s">
+        <v>17</v>
+      </c>
+      <c r="E192">
+        <v>183.142</v>
+      </c>
+      <c r="F192">
+        <v>30.65161625457894</v>
+      </c>
+      <c r="G192">
+        <v>269.4877318191216</v>
+      </c>
+      <c r="H192">
+        <v>1957.8020386459</v>
+      </c>
+      <c r="I192">
+        <v>-163.301837645357</v>
+      </c>
+      <c r="J192">
+        <v>317.4607945499058</v>
+      </c>
+      <c r="K192">
+        <v>2607.718042108532</v>
+      </c>
+    </row>
+    <row r="193" spans="1:11">
+      <c r="A193">
+        <v>443</v>
+      </c>
+      <c r="B193" t="s">
+        <v>11</v>
+      </c>
+      <c r="C193" t="s">
+        <v>16</v>
+      </c>
+      <c r="D193" t="s">
+        <v>17</v>
+      </c>
+      <c r="E193">
+        <v>184.142</v>
+      </c>
+      <c r="F193">
+        <v>30.03282758188434</v>
+      </c>
+      <c r="G193">
+        <v>284.5059145382568</v>
+      </c>
+      <c r="H193">
+        <v>1971.123362178833</v>
+      </c>
+      <c r="I193">
+        <v>-92.98201542767693</v>
+      </c>
+      <c r="J193">
+        <v>286.0558579054334</v>
+      </c>
+      <c r="K193">
+        <v>2425.546825405345</v>
+      </c>
+    </row>
+    <row r="194" spans="1:11">
+      <c r="A194">
+        <v>443</v>
+      </c>
+      <c r="B194" t="s">
+        <v>11</v>
+      </c>
+      <c r="C194" t="s">
+        <v>16</v>
+      </c>
+      <c r="D194" t="s">
+        <v>17</v>
+      </c>
+      <c r="E194">
+        <v>185.142</v>
+      </c>
+      <c r="F194">
+        <v>29.45004495251734</v>
+      </c>
+      <c r="G194">
+        <v>299.524097257392</v>
+      </c>
+      <c r="H194">
+        <v>1983.923382866613</v>
+      </c>
+      <c r="I194">
+        <v>-20.93063228093706</v>
+      </c>
+      <c r="J194">
+        <v>254.650921260961</v>
+      </c>
+      <c r="K194">
+        <v>2226.732411605572</v>
+      </c>
+    </row>
+    <row r="195" spans="1:11">
+      <c r="A195">
+        <v>443</v>
+      </c>
+      <c r="B195" t="s">
+        <v>11</v>
+      </c>
+      <c r="C195" t="s">
+        <v>16</v>
+      </c>
+      <c r="D195" t="s">
+        <v>17</v>
+      </c>
+      <c r="E195">
+        <v>186.142</v>
+      </c>
+      <c r="F195">
+        <v>28.89990824826587</v>
+      </c>
+      <c r="G195">
+        <v>314.5422799765272</v>
+      </c>
+      <c r="H195">
+        <v>1996.241369090373</v>
+      </c>
+      <c r="I195">
+        <v>52.89494988973445</v>
+      </c>
+      <c r="J195">
+        <v>223.2459846164887</v>
+      </c>
+      <c r="K195">
+        <v>2011.274800709212</v>
+      </c>
+    </row>
+    <row r="196" spans="1:11">
+      <c r="A196">
+        <v>443</v>
+      </c>
+      <c r="B196" t="s">
+        <v>11</v>
+      </c>
+      <c r="C196" t="s">
+        <v>16</v>
+      </c>
+      <c r="D196" t="s">
+        <v>17</v>
+      </c>
+      <c r="E196">
+        <v>187.142</v>
+      </c>
+      <c r="F196">
+        <v>28.37948039229126</v>
+      </c>
+      <c r="G196">
+        <v>329.5604626956624</v>
+      </c>
+      <c r="H196">
+        <v>2008.112312832651</v>
+      </c>
+      <c r="I196">
+        <v>128.5384191030684</v>
+      </c>
+      <c r="J196">
+        <v>191.8410479720163</v>
+      </c>
+      <c r="K196">
+        <v>1779.173992716264</v>
+      </c>
+    </row>
+    <row r="197" spans="1:11">
+      <c r="A197">
+        <v>443</v>
+      </c>
+      <c r="B197" t="s">
+        <v>11</v>
+      </c>
+      <c r="C197" t="s">
+        <v>16</v>
+      </c>
+      <c r="D197" t="s">
+        <v>17</v>
+      </c>
+      <c r="E197">
+        <v>188.142</v>
+      </c>
+      <c r="F197">
+        <v>27.88618127138828</v>
+      </c>
+      <c r="G197">
+        <v>344.5786454147976</v>
+      </c>
+      <c r="H197">
+        <v>2019.56752893104</v>
+      </c>
+      <c r="I197">
+        <v>206.0445391550658</v>
+      </c>
+      <c r="J197">
+        <v>160.436111327544</v>
+      </c>
+      <c r="K197">
+        <v>1530.429987626729</v>
+      </c>
+    </row>
+    <row r="198" spans="1:11">
+      <c r="A198">
+        <v>443</v>
+      </c>
+      <c r="B198" t="s">
+        <v>11</v>
+      </c>
+      <c r="C198" t="s">
+        <v>16</v>
+      </c>
+      <c r="D198" t="s">
+        <v>17</v>
+      </c>
+      <c r="E198">
+        <v>189.142</v>
+      </c>
+      <c r="F198">
+        <v>27.41773384576394</v>
+      </c>
+      <c r="G198">
+        <v>359.5968281339328</v>
+      </c>
+      <c r="H198">
+        <v>2030.635152907879</v>
+      </c>
+      <c r="I198">
+        <v>285.4591761090198</v>
+      </c>
+      <c r="J198">
+        <v>129.0311746830716</v>
+      </c>
+      <c r="K198">
+        <v>1265.042785440606</v>
+      </c>
+    </row>
+    <row r="199" spans="1:11">
+      <c r="A199">
+        <v>443</v>
+      </c>
+      <c r="B199" t="s">
+        <v>11</v>
+      </c>
+      <c r="C199" t="s">
+        <v>16</v>
+      </c>
+      <c r="D199" t="s">
+        <v>17</v>
+      </c>
+      <c r="E199">
+        <v>190.142</v>
+      </c>
+      <c r="F199">
+        <v>26.97211987673621</v>
+      </c>
+      <c r="G199">
+        <v>374.6150108530679</v>
+      </c>
+      <c r="H199">
+        <v>2041.34055730257</v>
+      </c>
+      <c r="I199">
+        <v>366.8293254378393</v>
+      </c>
+      <c r="J199">
+        <v>97.6262380385992</v>
+      </c>
+      <c r="K199">
+        <v>983.0123861578962</v>
+      </c>
+    </row>
+    <row r="200" spans="1:11">
+      <c r="A200">
+        <v>443</v>
+      </c>
+      <c r="B200" t="s">
+        <v>11</v>
+      </c>
+      <c r="C200" t="s">
+        <v>16</v>
+      </c>
+      <c r="D200" t="s">
+        <v>17</v>
+      </c>
+      <c r="E200">
+        <v>191.142</v>
+      </c>
+      <c r="F200">
+        <v>26.54754330805373</v>
+      </c>
+      <c r="G200">
+        <v>389.6331935722031</v>
+      </c>
+      <c r="H200">
+        <v>2051.706702010116</v>
+      </c>
+      <c r="I200">
+        <v>450.203139834715</v>
+      </c>
+      <c r="J200">
+        <v>66.22130139412693</v>
+      </c>
+      <c r="K200">
+        <v>684.3387897785997</v>
+      </c>
+    </row>
+    <row r="201" spans="1:11">
+      <c r="A201">
+        <v>443</v>
+      </c>
+      <c r="B201" t="s">
+        <v>11</v>
+      </c>
+      <c r="C201" t="s">
+        <v>16</v>
+      </c>
+      <c r="D201" t="s">
+        <v>17</v>
+      </c>
+      <c r="E201">
+        <v>192.142</v>
+      </c>
+      <c r="F201">
+        <v>26.14239978520883</v>
+      </c>
+      <c r="G201">
+        <v>404.6513762913383</v>
+      </c>
+      <c r="H201">
+        <v>2061.754430794091</v>
+      </c>
+      <c r="I201">
+        <v>535.6299577086128</v>
+      </c>
+      <c r="J201">
+        <v>34.81636474965451</v>
+      </c>
+      <c r="K201">
+        <v>369.0219963027149</v>
+      </c>
+    </row>
+    <row r="202" spans="1:11">
+      <c r="A202">
+        <v>443</v>
+      </c>
+      <c r="B202" t="s">
+        <v>11</v>
+      </c>
+      <c r="C202" t="s">
+        <v>16</v>
+      </c>
+      <c r="D202" t="s">
+        <v>17</v>
+      </c>
+      <c r="E202">
+        <v>193.142</v>
+      </c>
+      <c r="F202">
+        <v>25.75525113309819</v>
+      </c>
+      <c r="G202">
+        <v>419.6695590104736</v>
+      </c>
+      <c r="H202">
+        <v>2071.502723602547</v>
+      </c>
+      <c r="I202">
+        <v>623.1603323814232</v>
+      </c>
+      <c r="J202">
+        <v>3.411428105182094</v>
+      </c>
+      <c r="K202">
+        <v>37.06200573024299</v>
+      </c>
+    </row>
+    <row r="203" spans="1:11">
+      <c r="A203">
+        <v>443</v>
+      </c>
+      <c r="B203" t="s">
+        <v>11</v>
+      </c>
+      <c r="C203" t="s">
+        <v>16</v>
+      </c>
+      <c r="D203" t="s">
+        <v>17</v>
+      </c>
+      <c r="E203">
+        <v>194.142</v>
+      </c>
+      <c r="F203">
+        <v>25.38480386640491</v>
+      </c>
+      <c r="G203">
+        <v>434.6877417296087</v>
+      </c>
+      <c r="H203">
+        <v>2080.968912363953</v>
+      </c>
+      <c r="I203">
+        <v>712.8460620040828</v>
+      </c>
+      <c r="J203">
+        <v>-27.99350853929018</v>
+      </c>
+      <c r="K203">
+        <v>-311.5411819388152</v>
+      </c>
+    </row>
+    <row r="204" spans="1:11">
+      <c r="A204">
+        <v>443</v>
+      </c>
+      <c r="B204" t="s">
+        <v>11</v>
+      </c>
+      <c r="C204" t="s">
+        <v>16</v>
+      </c>
+      <c r="D204" t="s">
+        <v>17</v>
+      </c>
+      <c r="E204">
+        <v>195.142</v>
+      </c>
+      <c r="F204">
+        <v>25.02989100084465</v>
+      </c>
+      <c r="G204">
+        <v>449.7059244487439</v>
+      </c>
+      <c r="H204">
+        <v>2090.168866428158</v>
+      </c>
+      <c r="I204">
+        <v>804.7402202093424</v>
+      </c>
+      <c r="J204">
+        <v>-59.3984451837626</v>
+      </c>
+      <c r="K204">
+        <v>-676.7875667044616</v>
+      </c>
+    </row>
+    <row r="205" spans="1:11">
+      <c r="A205">
+        <v>443</v>
+      </c>
+      <c r="B205" t="s">
+        <v>11</v>
+      </c>
+      <c r="C205" t="s">
+        <v>16</v>
+      </c>
+      <c r="D205" t="s">
+        <v>17</v>
+      </c>
+      <c r="E205">
+        <v>196.142</v>
+      </c>
+      <c r="F205">
+        <v>24.68945658247315</v>
+      </c>
+      <c r="G205">
+        <v>464.7241071678791</v>
+      </c>
+      <c r="H205">
+        <v>2099.117152636352</v>
+      </c>
+      <c r="I205">
+        <v>898.8971875193319</v>
+      </c>
+      <c r="J205">
+        <v>-90.80338182823502</v>
+      </c>
+      <c r="K205">
+        <v>-1058.677148566696</v>
+      </c>
+    </row>
+    <row r="206" spans="1:11">
+      <c r="A206">
+        <v>443</v>
+      </c>
+      <c r="B206" t="s">
+        <v>11</v>
+      </c>
+      <c r="C206" t="s">
+        <v>16</v>
+      </c>
+      <c r="D206" t="s">
+        <v>17</v>
+      </c>
+      <c r="E206">
+        <v>197.142</v>
+      </c>
+      <c r="F206">
+        <v>24.36254246782137</v>
+      </c>
+      <c r="G206">
+        <v>479.7422898870143</v>
+      </c>
+      <c r="H206">
+        <v>2107.827174074662</v>
+      </c>
+      <c r="I206">
+        <v>995.372683526508</v>
+      </c>
+      <c r="J206">
+        <v>-122.2083184727074</v>
+      </c>
+      <c r="K206">
+        <v>-1457.209927525518</v>
+      </c>
+    </row>
+    <row r="207" spans="1:11">
+      <c r="A207">
+        <v>443</v>
+      </c>
+      <c r="B207" t="s">
+        <v>11</v>
+      </c>
+      <c r="C207" t="s">
+        <v>16</v>
+      </c>
+      <c r="D207" t="s">
+        <v>17</v>
+      </c>
+      <c r="E207">
+        <v>198.142</v>
+      </c>
+      <c r="F207">
+        <v>24.0482769778913</v>
+      </c>
+      <c r="G207">
+        <v>494.7604726061494</v>
+      </c>
+      <c r="H207">
+        <v>2116.311290829623</v>
+      </c>
+      <c r="I207">
+        <v>1094.223799867031</v>
+      </c>
+      <c r="J207">
+        <v>-153.6132551171796</v>
+      </c>
+      <c r="K207">
+        <v>-1872.385903580923</v>
+      </c>
+    </row>
+    <row r="208" spans="1:11">
+      <c r="A208">
+        <v>443</v>
+      </c>
+      <c r="B208" t="s">
+        <v>11</v>
+      </c>
+      <c r="C208" t="s">
+        <v>16</v>
+      </c>
+      <c r="D208" t="s">
+        <v>17</v>
+      </c>
+      <c r="E208">
+        <v>199.142</v>
+      </c>
+      <c r="F208">
+        <v>23.74586512005104</v>
+      </c>
+      <c r="G208">
+        <v>509.7786553252847</v>
+      </c>
+      <c r="H208">
+        <v>2124.580925476324</v>
+      </c>
+      <c r="I208">
+        <v>1195.509034006082</v>
+      </c>
+      <c r="J208">
+        <v>-185.018191761652</v>
+      </c>
+      <c r="K208">
+        <v>-2304.205076732919</v>
+      </c>
+    </row>
+    <row r="209" spans="1:11">
+      <c r="A209">
+        <v>443</v>
+      </c>
+      <c r="B209" t="s">
+        <v>11</v>
+      </c>
+      <c r="C209" t="s">
+        <v>16</v>
+      </c>
+      <c r="D209" t="s">
+        <v>17</v>
+      </c>
+      <c r="E209">
+        <v>200.142</v>
+      </c>
+      <c r="F209">
+        <v>23.45458012808696</v>
+      </c>
+      <c r="G209">
+        <v>524.7968380444198</v>
+      </c>
+      <c r="H209">
+        <v>2132.646655558549</v>
+      </c>
+      <c r="I209">
+        <v>1299.288323855099</v>
+      </c>
+      <c r="J209">
+        <v>-216.4231284061244</v>
+      </c>
+      <c r="K209">
+        <v>-2752.667446981502</v>
+      </c>
+    </row>
+    <row r="210" spans="1:11">
+      <c r="A210">
+        <v>443</v>
+      </c>
+      <c r="B210" t="s">
+        <v>11</v>
+      </c>
+      <c r="C210" t="s">
+        <v>16</v>
+      </c>
+      <c r="D210" t="s">
+        <v>17</v>
+      </c>
+      <c r="E210">
+        <v>201.142</v>
+      </c>
+      <c r="F210">
+        <v>23.17375611546564</v>
+      </c>
+      <c r="G210">
+        <v>539.815020763555</v>
+      </c>
+      <c r="H210">
+        <v>2140.518294939535</v>
+      </c>
+      <c r="I210">
+        <v>1405.623083241452</v>
+      </c>
+      <c r="J210">
+        <v>-247.8280650505968</v>
+      </c>
+      <c r="K210">
+        <v>-3217.773014326673</v>
+      </c>
+    </row>
+    <row r="211" spans="1:11">
+      <c r="A211">
+        <v>443</v>
+      </c>
+      <c r="B211" t="s">
+        <v>11</v>
+      </c>
+      <c r="C211" t="s">
+        <v>16</v>
+      </c>
+      <c r="D211" t="s">
+        <v>17</v>
+      </c>
+      <c r="E211">
+        <v>202.142</v>
+      </c>
+      <c r="F211">
+        <v>22.90278167276224</v>
+      </c>
+      <c r="G211">
+        <v>554.8332034826902</v>
+      </c>
+      <c r="H211">
+        <v>2148.204965592871</v>
+      </c>
+      <c r="I211">
+        <v>1514.576238251511</v>
+      </c>
+      <c r="J211">
+        <v>-279.2330016950692</v>
+      </c>
+      <c r="K211">
+        <v>-3699.52177876843</v>
+      </c>
+    </row>
+    <row r="212" spans="1:11">
+      <c r="A212">
+        <v>443</v>
+      </c>
+      <c r="B212" t="s">
+        <v>11</v>
+      </c>
+      <c r="C212" t="s">
+        <v>16</v>
+      </c>
+      <c r="D212" t="s">
+        <v>17</v>
+      </c>
+      <c r="E212">
+        <v>203.142</v>
+      </c>
+      <c r="F212">
+        <v>22.6410942691485</v>
+      </c>
+      <c r="G212">
+        <v>569.8513862018254</v>
+      </c>
+      <c r="H212">
+        <v>2155.715161150716</v>
+      </c>
+      <c r="I212">
+        <v>1626.212264468625</v>
+      </c>
+      <c r="J212">
+        <v>-310.6379383395413</v>
+      </c>
+      <c r="K212">
+        <v>-4197.913740306772</v>
+      </c>
+    </row>
+    <row r="213" spans="1:11">
+      <c r="A213">
+        <v>443</v>
+      </c>
+      <c r="B213" t="s">
+        <v>11</v>
+      </c>
+      <c r="C213" t="s">
+        <v>16</v>
+      </c>
+      <c r="D213" t="s">
+        <v>17</v>
+      </c>
+      <c r="E213">
+        <v>204.142</v>
+      </c>
+      <c r="F213">
+        <v>22.38817534128531</v>
+      </c>
+      <c r="G213">
+        <v>584.8695689209605</v>
+      </c>
+      <c r="H213">
+        <v>2163.056803319585</v>
+      </c>
+      <c r="I213">
+        <v>1740.597225128076</v>
+      </c>
+      <c r="J213">
+        <v>-342.0428749840138</v>
+      </c>
+      <c r="K213">
+        <v>-4712.948898941704</v>
       </c>
     </row>
   </sheetData>

--- a/runs/run443/NotionalETEOutput443.xlsx
+++ b/runs/run443/NotionalETEOutput443.xlsx
@@ -49,28 +49,28 @@
     <t>tUp</t>
   </si>
   <si>
-    <t>Missile_HELLMASKER_State_Update</t>
+    <t>Missile_HIGHWIND_State_Update</t>
   </si>
   <si>
-    <t>Missile_SOMERSAULT_State_Update</t>
+    <t>Missile_BRAVER_State_Update</t>
   </si>
   <si>
-    <t>MISSILE_HELLMASKER_392.MISSILE_HELLMASKER_392</t>
+    <t>MISSILE_HIGHWIND_363.MISSILE_HIGHWIND_363</t>
   </si>
   <si>
-    <t>MISSILE_SOMERSAULT_298.MISSILE_SOMERSAULT_298</t>
+    <t>MISSILE_HIGHWIND_62.MISSILE_HIGHWIND_62</t>
   </si>
   <si>
-    <t>MISSILE_HELLMASKER_71.MISSILE_HELLMASKER_71</t>
+    <t>MISSILE_BRAVER_193.MISSILE_BRAVER_193</t>
   </si>
   <si>
-    <t>MISSILE_HELLMASKER_200.MISSILE_HELLMASKER_200</t>
+    <t>MISSILE_BRAVER_249.MISSILE_BRAVER_249</t>
   </si>
   <si>
-    <t>MISSILE_HELLMASKER</t>
+    <t>MISSILE_HIGHWIND</t>
   </si>
   <si>
-    <t>MISSILE_SOMERSAULT</t>
+    <t>MISSILE_BRAVER</t>
   </si>
 </sst>
 </file>
@@ -486,22 +486,22 @@
         <v>152.142</v>
       </c>
       <c r="F2">
-        <v>313.0411665869849</v>
+        <v>1116578.999377201</v>
       </c>
       <c r="G2">
-        <v>-81.55521289619892</v>
+        <v>4841118.532271563</v>
       </c>
       <c r="H2">
-        <v>973.2423144387834</v>
+        <v>3985227.919123141</v>
       </c>
       <c r="I2">
-        <v>-1446.313488061337</v>
+        <v>1114861.576936758</v>
       </c>
       <c r="J2">
-        <v>970.2799799933287</v>
+        <v>4843220.242190544</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>3984367.056757778</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -521,22 +521,22 @@
         <v>153.142</v>
       </c>
       <c r="F3">
-        <v>313.0411665869849</v>
+        <v>1116578.999377201</v>
       </c>
       <c r="G3">
-        <v>-81.55521289619892</v>
+        <v>4841118.532271563</v>
       </c>
       <c r="H3">
-        <v>973.2423144387834</v>
+        <v>3985227.919123141</v>
       </c>
       <c r="I3">
-        <v>-1417.75940865411</v>
+        <v>1114891.190939053</v>
       </c>
       <c r="J3">
-        <v>946.6771489635362</v>
+        <v>4843171.59063277</v>
       </c>
       <c r="K3">
-        <v>289.507094417267</v>
+        <v>3984670.852500853</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -556,22 +556,22 @@
         <v>154.142</v>
       </c>
       <c r="F4">
-        <v>313.0411665869849</v>
+        <v>1116578.999377201</v>
       </c>
       <c r="G4">
-        <v>-81.55521289619892</v>
+        <v>4841118.532271563</v>
       </c>
       <c r="H4">
-        <v>973.2423144387834</v>
+        <v>3985227.919123141</v>
       </c>
       <c r="I4">
-        <v>-1388.502211310751</v>
+        <v>1114921.534158909</v>
       </c>
       <c r="J4">
-        <v>923.0743179337438</v>
+        <v>4843122.939074995</v>
       </c>
       <c r="K4">
-        <v>564.5780380540092</v>
+        <v>3984959.499595628</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -591,22 +591,22 @@
         <v>155.142</v>
       </c>
       <c r="F5">
-        <v>313.0411665869849</v>
+        <v>1116578.999377201</v>
       </c>
       <c r="G5">
-        <v>-81.55521289619892</v>
+        <v>4841118.532271563</v>
       </c>
       <c r="H5">
-        <v>973.2423144387834</v>
+        <v>3985227.919123141</v>
       </c>
       <c r="I5">
-        <v>-1358.524582398941</v>
+        <v>1114952.62455264</v>
       </c>
       <c r="J5">
-        <v>899.4714869039514</v>
+        <v>4843074.287517222</v>
       </c>
       <c r="K5">
-        <v>825.2128309102287</v>
+        <v>3985232.998042104</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -626,22 +626,22 @@
         <v>156.142</v>
       </c>
       <c r="F6">
-        <v>313.0411665869849</v>
+        <v>1116578.999377201</v>
       </c>
       <c r="G6">
-        <v>-81.55521289619892</v>
+        <v>4841118.532271563</v>
       </c>
       <c r="H6">
-        <v>973.2423144387834</v>
+        <v>3985227.919123141</v>
       </c>
       <c r="I6">
-        <v>-1327.80878195409</v>
+        <v>1114984.480518713</v>
       </c>
       <c r="J6">
-        <v>875.868655874159</v>
+        <v>4843025.635959448</v>
       </c>
       <c r="K6">
-        <v>1071.411472985924</v>
+        <v>3985491.347840281</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -661,22 +661,22 @@
         <v>157.142</v>
       </c>
       <c r="F7">
-        <v>313.0411665869849</v>
+        <v>1116578.999377201</v>
       </c>
       <c r="G7">
-        <v>-81.55521289619892</v>
+        <v>4841118.532271563</v>
       </c>
       <c r="H7">
-        <v>973.2423144387834</v>
+        <v>3985227.919123141</v>
       </c>
       <c r="I7">
-        <v>-1296.336633181302</v>
+        <v>1115017.120908645</v>
       </c>
       <c r="J7">
-        <v>852.2658248443665</v>
+        <v>4842976.984401675</v>
       </c>
       <c r="K7">
-        <v>1303.173964281096</v>
+        <v>3985734.548990158</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -696,22 +696,22 @@
         <v>158.142</v>
       </c>
       <c r="F8">
-        <v>313.0411665869849</v>
+        <v>1116578.999377201</v>
       </c>
       <c r="G8">
-        <v>-81.55521289619892</v>
+        <v>4841118.532271563</v>
       </c>
       <c r="H8">
-        <v>973.2423144387834</v>
+        <v>3985227.919123141</v>
       </c>
       <c r="I8">
-        <v>-1264.089511698831</v>
+        <v>1115050.565038149</v>
       </c>
       <c r="J8">
-        <v>828.6629938145741</v>
+        <v>4842928.332843901</v>
       </c>
       <c r="K8">
-        <v>1520.500304795745</v>
+        <v>3985962.601491735</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -731,22 +731,22 @@
         <v>159.142</v>
       </c>
       <c r="F9">
-        <v>313.0411665869849</v>
+        <v>1116578.999377201</v>
       </c>
       <c r="G9">
-        <v>-81.55521289619892</v>
+        <v>4841118.532271563</v>
       </c>
       <c r="H9">
-        <v>973.2423144387834</v>
+        <v>3985227.919123141</v>
       </c>
       <c r="I9">
-        <v>-1231.048334516661</v>
+        <v>1115084.832698575</v>
       </c>
       <c r="J9">
-        <v>805.0601627847817</v>
+        <v>4842879.681286127</v>
       </c>
       <c r="K9">
-        <v>1723.39049452987</v>
+        <v>3986175.505345014</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -766,22 +766,22 @@
         <v>160.142</v>
       </c>
       <c r="F10">
-        <v>313.0411665869849</v>
+        <v>1116578.999377201</v>
       </c>
       <c r="G10">
-        <v>-68.08815161882164</v>
+        <v>4841135.045070203</v>
       </c>
       <c r="H10">
-        <v>973.2423144387834</v>
+        <v>3985227.919123141</v>
       </c>
       <c r="I10">
-        <v>-1197.193548743707</v>
+        <v>1115119.944168613</v>
       </c>
       <c r="J10">
-        <v>781.4573317549894</v>
+        <v>4842831.029728353</v>
       </c>
       <c r="K10">
-        <v>1911.844533483471</v>
+        <v>3986373.260549993</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -801,22 +801,22 @@
         <v>161.142</v>
       </c>
       <c r="F11">
-        <v>242.9564635454074</v>
+        <v>1116530.318791827</v>
       </c>
       <c r="G11">
-        <v>-54.62109034144435</v>
+        <v>4841151.557868841</v>
       </c>
       <c r="H11">
-        <v>1199.027982386725</v>
+        <v>3985427.173509455</v>
       </c>
       <c r="I11">
-        <v>-1162.505120016925</v>
+        <v>1115155.920226298</v>
       </c>
       <c r="J11">
-        <v>757.854500725197</v>
+        <v>4842782.37817058</v>
       </c>
       <c r="K11">
-        <v>2085.862421656549</v>
+        <v>3986555.867106672</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -836,22 +836,22 @@
         <v>162.142</v>
       </c>
       <c r="F12">
-        <v>201.7852163367125</v>
+        <v>1116501.721390002</v>
       </c>
       <c r="G12">
-        <v>-41.15402906406707</v>
+        <v>4841168.07066748</v>
       </c>
       <c r="H12">
-        <v>1333.517473333955</v>
+        <v>3985545.859612199</v>
       </c>
       <c r="I12">
-        <v>-1126.962520645515</v>
+        <v>1115192.782161307</v>
       </c>
       <c r="J12">
-        <v>734.2516696954045</v>
+        <v>4842733.726612805</v>
       </c>
       <c r="K12">
-        <v>2245.444159049103</v>
+        <v>3986723.325015053</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -871,22 +871,22 @@
         <v>163.142</v>
       </c>
       <c r="F13">
-        <v>175.7949046230673</v>
+        <v>1116483.668611958</v>
       </c>
       <c r="G13">
-        <v>-27.68696778668978</v>
+        <v>4841184.583466119</v>
       </c>
       <c r="H13">
-        <v>1429.628022716742</v>
+        <v>3985630.676548144</v>
       </c>
       <c r="I13">
-        <v>-1090.544717463176</v>
+        <v>1115230.551787553</v>
       </c>
       <c r="J13">
-        <v>710.6488386656121</v>
+        <v>4842685.075055032</v>
       </c>
       <c r="K13">
-        <v>2390.589745661134</v>
+        <v>3986875.634275133</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -906,22 +906,22 @@
         <v>164.142</v>
       </c>
       <c r="F14">
-        <v>157.6693667348402</v>
+        <v>1116471.078677831</v>
       </c>
       <c r="G14">
-        <v>-14.21990650931249</v>
+        <v>4841201.096264758</v>
       </c>
       <c r="H14">
-        <v>1504.469256029855</v>
+        <v>3985696.723450723</v>
       </c>
       <c r="I14">
-        <v>-1053.230159381237</v>
+        <v>1115269.251456098</v>
       </c>
       <c r="J14">
-        <v>687.0460076358196</v>
+        <v>4842636.423497259</v>
       </c>
       <c r="K14">
-        <v>2521.299181492641</v>
+        <v>3987012.794886915</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -941,22 +941,22 @@
         <v>165.142</v>
       </c>
       <c r="F15">
-        <v>144.1471726722947</v>
+        <v>1116461.686209947</v>
       </c>
       <c r="G15">
-        <v>-0.7528452319352158</v>
+        <v>4841217.609063397</v>
       </c>
       <c r="H15">
-        <v>1565.770031328505</v>
+        <v>3985750.820987001</v>
       </c>
       <c r="I15">
-        <v>-1014.996764635294</v>
+        <v>1115308.904068378</v>
       </c>
       <c r="J15">
-        <v>663.4431766060272</v>
+        <v>4842587.771939484</v>
       </c>
       <c r="K15">
-        <v>2637.572466543624</v>
+        <v>3987134.806850397</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -976,22 +976,22 @@
         <v>166.142</v>
       </c>
       <c r="F16">
-        <v>133.5747052338023</v>
+        <v>1116454.342611681</v>
       </c>
       <c r="G16">
-        <v>12.71421604544207</v>
+        <v>4841234.121862035</v>
       </c>
       <c r="H16">
-        <v>1617.687313266745</v>
+        <v>3985796.637651299</v>
       </c>
       <c r="I16">
-        <v>-975.8219077178102</v>
+        <v>1115349.533089755</v>
       </c>
       <c r="J16">
-        <v>639.8403455762349</v>
+        <v>4842539.12038171</v>
       </c>
       <c r="K16">
-        <v>2739.409600814084</v>
+        <v>3987241.670165579</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -1011,22 +1011,22 @@
         <v>167.142</v>
       </c>
       <c r="F17">
-        <v>125.0208092694657</v>
+        <v>1116448.401105978</v>
       </c>
       <c r="G17">
-        <v>26.18127732281936</v>
+        <v>4841250.634660675</v>
       </c>
       <c r="H17">
-        <v>1662.716099801972</v>
+        <v>3985836.375263119</v>
       </c>
       <c r="I17">
-        <v>-935.6824059889407</v>
+        <v>1115391.162563406</v>
       </c>
       <c r="J17">
-        <v>616.2375145464425</v>
+        <v>4842490.468823937</v>
       </c>
       <c r="K17">
-        <v>2826.81058430402</v>
+        <v>3987333.384832462</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1046,22 +1046,22 @@
         <v>168.142</v>
       </c>
       <c r="F18">
-        <v>117.9180276951862</v>
+        <v>1116443.467539168</v>
       </c>
       <c r="G18">
-        <v>39.64833860019664</v>
+        <v>4841267.147459314</v>
       </c>
       <c r="H18">
-        <v>1702.472062547613</v>
+        <v>3985871.459642172</v>
       </c>
       <c r="I18">
-        <v>-894.5545059576626</v>
+        <v>1115433.817124547</v>
       </c>
       <c r="J18">
-        <v>592.6346835166501</v>
+        <v>4842441.817266163</v>
       </c>
       <c r="K18">
-        <v>2899.775417013433</v>
+        <v>3987409.950851046</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1081,22 +1081,22 @@
         <v>169.142</v>
       </c>
       <c r="F19">
-        <v>111.898954728896</v>
+        <v>1116439.286712501</v>
       </c>
       <c r="G19">
-        <v>53.11539987757394</v>
+        <v>4841283.660257952</v>
       </c>
       <c r="H19">
-        <v>1738.061649252769</v>
+        <v>3985902.867221416</v>
       </c>
       <c r="I19">
-        <v>-852.4138692250882</v>
+        <v>1115477.522015015</v>
       </c>
       <c r="J19">
-        <v>569.0318524868576</v>
+        <v>4842393.16570839</v>
       </c>
       <c r="K19">
-        <v>2958.304098942322</v>
+        <v>3987471.36822133</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1116,22 +1116,22 @@
         <v>170.142</v>
       </c>
       <c r="F20">
-        <v>106.7141105914003</v>
+        <v>1116435.685338211</v>
       </c>
       <c r="G20">
-        <v>66.58246115495122</v>
+        <v>4841300.173056592</v>
       </c>
       <c r="H20">
-        <v>1770.275877648728</v>
+        <v>3985931.296068862</v>
       </c>
       <c r="I20">
-        <v>-809.2355580816491</v>
+        <v>1115522.303098202</v>
       </c>
       <c r="J20">
-        <v>545.4290214570652</v>
+        <v>4842344.514150616</v>
       </c>
       <c r="K20">
-        <v>3002.396630090688</v>
+        <v>3987517.636943315</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1151,22 +1151,22 @@
         <v>171.142</v>
       </c>
       <c r="F21">
-        <v>102.1874737494774</v>
+        <v>1116432.541152366</v>
       </c>
       <c r="G21">
-        <v>80.04952243232849</v>
+        <v>4841316.685855231</v>
       </c>
       <c r="H21">
-        <v>1799.699896998606</v>
+        <v>3985957.262574938</v>
       </c>
       <c r="I21">
-        <v>-764.9940207496209</v>
+        <v>1115568.186874366</v>
       </c>
       <c r="J21">
-        <v>521.8261904272728</v>
+        <v>4842295.862592841</v>
       </c>
       <c r="K21">
-        <v>3032.05301045853</v>
+        <v>3987548.757017001</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1186,22 +1186,22 @@
         <v>172.142</v>
       </c>
       <c r="F22">
-        <v>98.19088125136864</v>
+        <v>1116429.765133437</v>
       </c>
       <c r="G22">
-        <v>93.5165837097058</v>
+        <v>4841333.198653869</v>
       </c>
       <c r="H22">
-        <v>1826.778758425187</v>
+        <v>3985981.159494368</v>
       </c>
       <c r="I22">
-        <v>-719.6630762622591</v>
+        <v>1115615.200496305</v>
       </c>
       <c r="J22">
-        <v>498.2233593974805</v>
+        <v>4842247.211035068</v>
       </c>
       <c r="K22">
-        <v>3047.273240045848</v>
+        <v>3987564.728442387</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -1221,22 +1221,22 @@
         <v>173.142</v>
       </c>
       <c r="F23">
-        <v>94.62853082282959</v>
+        <v>1116427.290737504</v>
       </c>
       <c r="G23">
-        <v>106.9836449870831</v>
+        <v>4841349.711452508</v>
       </c>
       <c r="H23">
-        <v>1851.858851749002</v>
+        <v>3986003.292513923</v>
       </c>
       <c r="I23">
-        <v>-673.2158989706004</v>
+        <v>1115663.371785432</v>
       </c>
       <c r="J23">
-        <v>474.620528367688</v>
+        <v>4842198.559477295</v>
       </c>
       <c r="K23">
-        <v>3048.057318852642</v>
+        <v>3987565.551219474</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -1256,22 +1256,22 @@
         <v>174.142</v>
       </c>
       <c r="F24">
-        <v>91.42719636434887</v>
+        <v>1116425.067101979</v>
       </c>
       <c r="G24">
-        <v>120.4507062644604</v>
+        <v>4841366.224251148</v>
       </c>
       <c r="H24">
-        <v>1875.215071814987</v>
+        <v>3986023.904226519</v>
       </c>
       <c r="I24">
-        <v>-625.6250026687543</v>
+        <v>1115712.729248238</v>
       </c>
       <c r="J24">
-        <v>451.0176973378956</v>
+        <v>4842149.907919521</v>
       </c>
       <c r="K24">
-        <v>3034.405246878914</v>
+        <v>3987551.225348261</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1291,22 +1291,22 @@
         <v>175.142</v>
       </c>
       <c r="F25">
-        <v>88.52982722031491</v>
+        <v>1116423.05459968</v>
       </c>
       <c r="G25">
-        <v>133.9177675418377</v>
+        <v>4841382.737049786</v>
       </c>
       <c r="H25">
-        <v>1897.069233729453</v>
+        <v>3986043.190382545</v>
       </c>
       <c r="I25">
-        <v>-576.8622243282966</v>
+        <v>1115763.302093157</v>
       </c>
       <c r="J25">
-        <v>427.4148663081032</v>
+        <v>4842101.256361747</v>
       </c>
       <c r="K25">
-        <v>3006.317024124661</v>
+        <v>3987521.750828749</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -1326,22 +1326,22 @@
         <v>176.142</v>
       </c>
       <c r="F26">
-        <v>85.89123161358128</v>
+        <v>1116421.22184056</v>
       </c>
       <c r="G26">
-        <v>147.384828819215</v>
+        <v>4841399.249848425</v>
       </c>
       <c r="H26">
-        <v>1917.602916004324</v>
+        <v>3986061.311223862</v>
       </c>
       <c r="I26">
-        <v>-526.8987074321388</v>
+        <v>1115815.120247856</v>
       </c>
       <c r="J26">
-        <v>403.8120352783108</v>
+        <v>4842052.604803973</v>
       </c>
       <c r="K26">
-        <v>2963.792650589885</v>
+        <v>3987477.127660938</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -1361,22 +1361,22 @@
         <v>177.142</v>
       </c>
       <c r="F27">
-        <v>83.47508783906355</v>
+        <v>1116419.543595691</v>
       </c>
       <c r="G27">
-        <v>160.8518900965922</v>
+        <v>4841415.762647064</v>
       </c>
       <c r="H27">
-        <v>1936.966639879214</v>
+        <v>3986078.399584485</v>
       </c>
       <c r="I27">
-        <v>-475.7048848980061</v>
+        <v>1115868.214376942</v>
       </c>
       <c r="J27">
-        <v>380.2092042485183</v>
+        <v>4842003.953246199</v>
       </c>
       <c r="K27">
-        <v>2906.832126274586</v>
+        <v>3987417.355844826</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -1396,22 +1396,22 @@
         <v>178.142</v>
       </c>
       <c r="F28">
-        <v>81.25182652779141</v>
+        <v>1116417.999326294</v>
       </c>
       <c r="G28">
-        <v>174.3189513739695</v>
+        <v>4841432.275445703</v>
       </c>
       <c r="H28">
-        <v>1955.286571643371</v>
+        <v>3986094.566805346</v>
       </c>
       <c r="I28">
-        <v>-423.2504615814236</v>
+        <v>1115922.615900113</v>
       </c>
       <c r="J28">
-        <v>356.606373218726</v>
+        <v>4841955.301688425</v>
       </c>
       <c r="K28">
-        <v>2835.435451178763</v>
+        <v>3987342.435380416</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -1431,22 +1431,22 @@
         <v>179.142</v>
       </c>
       <c r="F29">
-        <v>79.19709928447234</v>
+        <v>1116416.572120062</v>
       </c>
       <c r="G29">
-        <v>187.7860126513468</v>
+        <v>4841448.788244342</v>
       </c>
       <c r="H29">
-        <v>1972.669509140235</v>
+        <v>3986109.907134849</v>
       </c>
       <c r="I29">
-        <v>-369.5043963478543</v>
+        <v>1115978.357010742</v>
       </c>
       <c r="J29">
-        <v>333.0035421889335</v>
+        <v>4841906.650130652</v>
       </c>
       <c r="K29">
-        <v>2749.602625302416</v>
+        <v>3987252.366267707</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -1466,22 +1466,22 @@
         <v>180.142</v>
       </c>
       <c r="F30">
-        <v>77.29065114891155</v>
+        <v>1116415.24790797</v>
       </c>
       <c r="G30">
-        <v>201.2530739287241</v>
+        <v>4841465.301042981</v>
       </c>
       <c r="H30">
-        <v>1989.206653985546</v>
+        <v>3986124.501057826</v>
       </c>
       <c r="I30">
-        <v>-314.4348837033818</v>
+        <v>1116035.47069494</v>
       </c>
       <c r="J30">
-        <v>309.4007111591411</v>
+        <v>4841857.998572879</v>
       </c>
       <c r="K30">
-        <v>2649.333648645545</v>
+        <v>3987147.148506698</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -1501,22 +1501,22 @@
         <v>181.142</v>
       </c>
       <c r="F31">
-        <v>75.51547686679208</v>
+        <v>1116414.014878229</v>
       </c>
       <c r="G31">
-        <v>214.7201352061014</v>
+        <v>4841481.81384162</v>
       </c>
       <c r="H31">
-        <v>2004.976507916167</v>
+        <v>3986138.417851552</v>
       </c>
       <c r="I31">
-        <v>-258.009334973062</v>
+        <v>1116093.990751067</v>
       </c>
       <c r="J31">
-        <v>285.7978801293488</v>
+        <v>4841809.347015104</v>
       </c>
       <c r="K31">
-        <v>2534.628521208152</v>
+        <v>3987026.782097389</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -1536,22 +1536,22 @@
         <v>182.142</v>
       </c>
       <c r="F32">
-        <v>73.85718028696057</v>
+        <v>1116412.863031325</v>
       </c>
       <c r="G32">
-        <v>228.1871964834787</v>
+        <v>4841498.326640259</v>
       </c>
       <c r="H32">
-        <v>2020.047126519001</v>
+        <v>3986151.717574642</v>
       </c>
       <c r="I32">
-        <v>-200.1943590158111</v>
+        <v>1116153.951809739</v>
       </c>
       <c r="J32">
-        <v>262.1950490995563</v>
+        <v>4841760.69545733</v>
       </c>
       <c r="K32">
-        <v>2405.487242990234</v>
+        <v>3986891.267039781</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1571,22 +1571,22 @@
         <v>183.142</v>
       </c>
       <c r="F33">
-        <v>72.30348154504411</v>
+        <v>1116411.783837707</v>
       </c>
       <c r="G33">
-        <v>241.6542577608559</v>
+        <v>4841514.839438898</v>
       </c>
       <c r="H33">
-        <v>2034.477894190381</v>
+        <v>3986164.452633436</v>
       </c>
       <c r="I33">
-        <v>-140.9557424644151</v>
+        <v>1116215.389354318</v>
       </c>
       <c r="J33">
-        <v>238.5922180697639</v>
+        <v>4841712.043899557</v>
       </c>
       <c r="K33">
-        <v>2261.909813991793</v>
+        <v>3986740.603333874</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1606,22 +1606,22 @@
         <v>184.142</v>
       </c>
       <c r="F34">
-        <v>70.84383338147387</v>
+        <v>1116410.769971286</v>
       </c>
       <c r="G34">
-        <v>255.1213190382332</v>
+        <v>4841531.352237538</v>
       </c>
       <c r="H34">
-        <v>2048.320937416474</v>
+        <v>3986176.669029223</v>
       </c>
       <c r="I34">
-        <v>-80.25842947896885</v>
+        <v>1116278.33974191</v>
       </c>
       <c r="J34">
-        <v>214.9893870399715</v>
+        <v>4841663.392341783</v>
       </c>
       <c r="K34">
-        <v>2103.896234212828</v>
+        <v>3986574.790979668</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1641,22 +1641,22 @@
         <v>185.142</v>
       </c>
       <c r="F35">
-        <v>69.46911914985762</v>
+        <v>1116409.815099672</v>
       </c>
       <c r="G35">
-        <v>268.5883803156105</v>
+        <v>4841547.865036176</v>
       </c>
       <c r="H35">
-        <v>2061.622261360585</v>
+        <v>3986188.407361261</v>
       </c>
       <c r="I35">
-        <v>-18.06650100176029</v>
+        <v>1116342.840224884</v>
       </c>
       <c r="J35">
-        <v>191.386556010179</v>
+        <v>4841614.740784009</v>
       </c>
       <c r="K35">
-        <v>1931.44650365334</v>
+        <v>3986393.829977161</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1676,22 +1676,22 @@
         <v>186.142</v>
       </c>
       <c r="F36">
-        <v>68.17141273487681</v>
+        <v>1116408.913717413</v>
       </c>
       <c r="G36">
-        <v>282.0554415929878</v>
+        <v>4841564.377834815</v>
       </c>
       <c r="H36">
-        <v>2074.422672320681</v>
+        <v>3986199.703640841</v>
       </c>
       <c r="I36">
-        <v>45.65684649867465</v>
+        <v>1116408.928972912</v>
       </c>
       <c r="J36">
-        <v>167.7837249803867</v>
+        <v>4841566.089226236</v>
       </c>
       <c r="K36">
-        <v>1744.560622313328</v>
+        <v>3986197.720326357</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1711,22 +1711,22 @@
         <v>187.142</v>
       </c>
       <c r="F37">
-        <v>66.94378592500618</v>
+        <v>1116408.061012199</v>
       </c>
       <c r="G37">
-        <v>295.5225028703651</v>
+        <v>4841580.890633455</v>
       </c>
       <c r="H37">
-        <v>2086.758532714179</v>
+        <v>3986210.589957562</v>
       </c>
       <c r="I37">
-        <v>110.949322806903</v>
+        <v>1116476.645095559</v>
       </c>
       <c r="J37">
-        <v>144.1808939505943</v>
+        <v>4841517.437668462</v>
       </c>
       <c r="K37">
-        <v>1543.238590192793</v>
+        <v>3985986.462027251</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -1746,22 +1746,22 @@
         <v>188.142</v>
       </c>
       <c r="F38">
-        <v>65.78015254306122</v>
+        <v>1116407.252756592</v>
       </c>
       <c r="G38">
-        <v>308.9895641477424</v>
+        <v>4841597.403432093</v>
       </c>
       <c r="H38">
-        <v>2098.662383800914</v>
+        <v>3986221.095028874</v>
       </c>
       <c r="I38">
-        <v>177.8495662762452</v>
+        <v>1116546.028665429</v>
       </c>
       <c r="J38">
-        <v>120.5780629208019</v>
+        <v>4841468.786110688</v>
       </c>
       <c r="K38">
-        <v>1327.480407291734</v>
+        <v>3985760.055079847</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -1781,22 +1781,22 @@
         <v>189.142</v>
       </c>
       <c r="F39">
-        <v>64.67514132563829</v>
+        <v>1116406.485219732</v>
       </c>
       <c r="G39">
-        <v>322.4566254251197</v>
+        <v>4841613.916230732</v>
       </c>
       <c r="H39">
-        <v>2110.163463009956</v>
+        <v>3986231.244656619</v>
       </c>
       <c r="I39">
-        <v>246.3971666939239</v>
+        <v>1116617.120741874</v>
       </c>
       <c r="J39">
-        <v>96.97523189100946</v>
+        <v>4841420.134552914</v>
       </c>
       <c r="K39">
-        <v>1097.286073610151</v>
+        <v>3985518.499484143</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -1816,22 +1816,22 @@
         <v>190.142</v>
       </c>
       <c r="F40">
-        <v>63.62399149007301</v>
+        <v>1116405.755094796</v>
       </c>
       <c r="G40">
-        <v>335.9236867024969</v>
+        <v>4841630.429029372</v>
       </c>
       <c r="H40">
-        <v>2121.288136577275</v>
+        <v>3986241.062108829</v>
       </c>
       <c r="I40">
-        <v>316.6326887092525</v>
+        <v>1116689.9633953</v>
       </c>
       <c r="J40">
-        <v>73.372400861217</v>
+        <v>4841371.48299514</v>
       </c>
       <c r="K40">
-        <v>852.6555891480447</v>
+        <v>3985261.795240141</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -1851,22 +1851,22 @@
         <v>191.142</v>
       </c>
       <c r="F41">
-        <v>62.62246635537132</v>
+        <v>1116405.059439001</v>
       </c>
       <c r="G41">
-        <v>349.3907479798742</v>
+        <v>4841646.94182801</v>
       </c>
       <c r="H41">
-        <v>2132.060263605024</v>
+        <v>3986250.568441004</v>
       </c>
       <c r="I41">
-        <v>388.597695838712</v>
+        <v>1116764.599732051</v>
       </c>
       <c r="J41">
-        <v>49.76956983142466</v>
+        <v>4841322.831437367</v>
       </c>
       <c r="K41">
-        <v>593.5889539054153</v>
+        <v>3984989.942347838</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -1886,22 +1886,22 @@
         <v>192.142</v>
       </c>
       <c r="F42">
-        <v>61.66678144192945</v>
+        <v>1116404.395623661</v>
       </c>
       <c r="G42">
-        <v>362.8578092572515</v>
+        <v>4841663.454626649</v>
       </c>
       <c r="H42">
-        <v>2142.501504187221</v>
+        <v>3986259.782768041</v>
       </c>
       <c r="I42">
-        <v>462.3347750621435</v>
+        <v>1116841.073919931</v>
       </c>
       <c r="J42">
-        <v>26.16673880163221</v>
+        <v>4841274.179879594</v>
       </c>
       <c r="K42">
-        <v>320.0861678822616</v>
+        <v>3984702.940807236</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -1921,22 +1921,22 @@
         <v>193.142</v>
       </c>
       <c r="F43">
-        <v>60.75354426740074</v>
+        <v>1116403.761292368</v>
       </c>
       <c r="G43">
-        <v>376.3248705346288</v>
+        <v>4841679.967425288</v>
       </c>
       <c r="H43">
-        <v>2152.631581607416</v>
+        <v>3986268.722495607</v>
       </c>
       <c r="I43">
-        <v>537.8875620245823</v>
+        <v>1116919.431214333</v>
       </c>
       <c r="J43">
-        <v>2.563907771839756</v>
+        <v>4841225.528321818</v>
       </c>
       <c r="K43">
-        <v>32.14723107858442</v>
+        <v>3984400.790618335</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -1956,22 +1956,22 @@
         <v>194.142</v>
       </c>
       <c r="F44">
-        <v>59.87970365526765</v>
+        <v>1116403.154325788</v>
       </c>
       <c r="G44">
-        <v>389.7919318120061</v>
+        <v>4841696.480223927</v>
       </c>
       <c r="H44">
-        <v>2162.468506586121</v>
+        <v>3986277.403518045</v>
       </c>
       <c r="I44">
-        <v>615.3007668586811</v>
+        <v>1116999.717985021</v>
       </c>
       <c r="J44">
-        <v>-21.03892325795259</v>
+        <v>4841176.876764045</v>
       </c>
       <c r="K44">
-        <v>-270.2278565056154</v>
+        <v>3984083.491781134</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -1991,22 +1991,22 @@
         <v>195.142</v>
       </c>
       <c r="F45">
-        <v>59.04250682975599</v>
+        <v>1116402.572811852</v>
       </c>
       <c r="G45">
-        <v>403.2589930893834</v>
+        <v>4841712.993022566</v>
       </c>
       <c r="H45">
-        <v>2172.028769984425</v>
+        <v>3986285.840388435</v>
       </c>
       <c r="I45">
-        <v>694.6202006429774</v>
+        <v>1117081.981743576</v>
       </c>
       <c r="J45">
-        <v>-44.64175428774504</v>
+        <v>4841128.225206272</v>
       </c>
       <c r="K45">
-        <v>-587.0390948703398</v>
+        <v>3983751.044295635</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -2026,22 +2026,22 @@
         <v>196.142</v>
       </c>
       <c r="F46">
-        <v>58.23946292232928</v>
+        <v>1116402.015020411</v>
       </c>
       <c r="G46">
-        <v>416.7260543667607</v>
+        <v>4841729.505821204</v>
       </c>
       <c r="H46">
-        <v>2181.327509142982</v>
+        <v>3986294.046465382</v>
       </c>
       <c r="I46">
-        <v>775.8928025116714</v>
+        <v>1117166.271171503</v>
       </c>
       <c r="J46">
-        <v>-68.24458531753749</v>
+        <v>4841079.573648497</v>
       </c>
       <c r="K46">
-        <v>-918.2864840155885</v>
+        <v>3983403.448161835</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -2061,22 +2061,22 @@
         <v>197.142</v>
       </c>
       <c r="F47">
-        <v>57.46831178761519</v>
+        <v>1116401.479381577</v>
       </c>
       <c r="G47">
-        <v>430.1931156441379</v>
+        <v>4841746.018619844</v>
       </c>
       <c r="H47">
-        <v>2190.378652069783</v>
+        <v>3986302.034040261</v>
       </c>
       <c r="I47">
-        <v>859.1666674319594</v>
+        <v>1117252.636149049</v>
       </c>
       <c r="J47">
-        <v>-91.84741634732994</v>
+        <v>4841030.922090724</v>
       </c>
       <c r="K47">
-        <v>-1263.97002394136</v>
+        <v>3983040.703379736</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -2096,22 +2096,22 @@
         <v>198.142</v>
       </c>
       <c r="F48">
-        <v>56.72699723954437</v>
+        <v>1116400.964467129</v>
       </c>
       <c r="G48">
-        <v>443.6601769215152</v>
+        <v>4841762.531418483</v>
       </c>
       <c r="H48">
-        <v>2199.195042924926</v>
+        <v>3986309.81444796</v>
       </c>
       <c r="I48">
-        <v>944.4910746653578</v>
+        <v>1117341.127784712</v>
       </c>
       <c r="J48">
-        <v>-115.4502473771222</v>
+        <v>4840982.270532951</v>
       </c>
       <c r="K48">
-        <v>-1624.089714647653</v>
+        <v>3982662.809949338</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -2131,22 +2131,22 @@
         <v>199.142</v>
       </c>
       <c r="F49">
-        <v>56.01364398597525</v>
+        <v>1116400.468974497</v>
       </c>
       <c r="G49">
-        <v>457.1272381988925</v>
+        <v>4841779.044217121</v>
       </c>
       <c r="H49">
-        <v>2207.788551640129</v>
+        <v>3986317.398163618</v>
       </c>
       <c r="I49">
-        <v>1031.916516929864</v>
+        <v>1117431.798445493</v>
       </c>
       <c r="J49">
-        <v>-139.0530784069146</v>
+        <v>4840933.618975176</v>
       </c>
       <c r="K49">
-        <v>-1998.645556134471</v>
+        <v>3982269.76787064</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -2166,22 +2166,22 @@
         <v>200.142</v>
       </c>
       <c r="F50">
-        <v>55.32653767269311</v>
+        <v>1116399.991712897</v>
       </c>
       <c r="G50">
-        <v>470.5942994762698</v>
+        <v>4841795.557015761</v>
       </c>
       <c r="H50">
-        <v>2216.17017002078</v>
+        <v>3986324.794887431</v>
       </c>
       <c r="I50">
-        <v>1121.494730280202</v>
+        <v>1117524.701787879</v>
       </c>
       <c r="J50">
-        <v>-162.6559094367071</v>
+        <v>4840884.967417402</v>
       </c>
       <c r="K50">
-        <v>-2387.637548401814</v>
+        <v>3981861.577143643</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -2201,22 +2201,22 @@
         <v>201.142</v>
       </c>
       <c r="F51">
-        <v>54.66410755333724</v>
+        <v>1116399.531591293</v>
       </c>
       <c r="G51">
-        <v>484.061360753647</v>
+        <v>4841812.0698144</v>
       </c>
       <c r="H51">
-        <v>2224.350096282749</v>
+        <v>3986332.013619259</v>
       </c>
       <c r="I51">
-        <v>1213.278724723846</v>
+        <v>1117619.892789603</v>
       </c>
       <c r="J51">
-        <v>-186.2587404664995</v>
+        <v>4840836.315859629</v>
       </c>
       <c r="K51">
-        <v>-2791.06569144968</v>
+        <v>3981438.237768347</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -2236,22 +2236,22 @@
         <v>202.142</v>
       </c>
       <c r="F52">
-        <v>54.02491138650356</v>
+        <v>1116399.087607909</v>
       </c>
       <c r="G52">
-        <v>497.5284220310244</v>
+        <v>4841828.582613038</v>
       </c>
       <c r="H52">
-        <v>2232.337809654909</v>
+        <v>3986339.062724459</v>
       </c>
       <c r="I52">
-        <v>1307.32281559094</v>
+        <v>1117717.42778217</v>
       </c>
       <c r="J52">
-        <v>-209.861571496292</v>
+        <v>4840787.664301855</v>
       </c>
       <c r="K52">
-        <v>-3208.92998527807</v>
+        <v>3980999.749744751</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -2271,22 +2271,22 @@
         <v>203.142</v>
       </c>
       <c r="F53">
-        <v>53.40762222952705</v>
+        <v>1116398.658841057</v>
       </c>
       <c r="G53">
-        <v>510.9954833084016</v>
+        <v>4841845.095411677</v>
       </c>
       <c r="H53">
-        <v>2240.142136416184</v>
+        <v>3986345.949992165</v>
       </c>
       <c r="I53">
-        <v>1403.682655676656</v>
+        <v>1117817.364484198</v>
       </c>
       <c r="J53">
-        <v>-233.4644025260842</v>
+        <v>4840739.012744082</v>
       </c>
       <c r="K53">
-        <v>-3641.23042988698</v>
+        <v>3980546.113072856</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -2306,22 +2306,22 @@
         <v>204.142</v>
       </c>
       <c r="F54">
-        <v>52.8110168537692</v>
+        <v>1116398.244441086</v>
       </c>
       <c r="G54">
-        <v>524.4625445857789</v>
+        <v>4841861.608210317</v>
       </c>
       <c r="H54">
-        <v>2247.771308520812</v>
+        <v>3986352.682687024</v>
       </c>
       <c r="I54">
-        <v>1502.415268175057</v>
+        <v>1117919.762035574</v>
       </c>
       <c r="J54">
-        <v>-257.0672335558767</v>
+        <v>4840690.361186307</v>
       </c>
       <c r="K54">
-        <v>-4087.967025276417</v>
+        <v>3980077.327752661</v>
       </c>
     </row>
     <row r="55" spans="1:11">
@@ -2329,34 +2329,34 @@
         <v>443</v>
       </c>
       <c r="B55" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C55" t="s">
         <v>14</v>
       </c>
       <c r="D55" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E55">
         <v>152.142</v>
       </c>
       <c r="F55">
-        <v>232.3102938129604</v>
+        <v>1116578.810316505</v>
       </c>
       <c r="G55">
-        <v>-124.124970775103</v>
+        <v>4841120.138437768</v>
       </c>
       <c r="H55">
-        <v>867.8969067102798</v>
+        <v>3985230.673261457</v>
       </c>
       <c r="I55">
-        <v>-1323.541479673765</v>
+        <v>1114863.142213464</v>
       </c>
       <c r="J55">
-        <v>2077.260651075325</v>
+        <v>4843226.798173641</v>
       </c>
       <c r="K55">
-        <v>0</v>
+        <v>3984356.565916498</v>
       </c>
     </row>
     <row r="56" spans="1:11">
@@ -2364,34 +2364,34 @@
         <v>443</v>
       </c>
       <c r="B56" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C56" t="s">
         <v>14</v>
       </c>
       <c r="D56" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E56">
         <v>153.142</v>
       </c>
       <c r="F56">
-        <v>232.3102938129604</v>
+        <v>1116578.810316505</v>
       </c>
       <c r="G56">
-        <v>-124.124970775103</v>
+        <v>4841120.138437768</v>
       </c>
       <c r="H56">
-        <v>867.8969067102798</v>
+        <v>3985230.673261457</v>
       </c>
       <c r="I56">
-        <v>-1297.411246621717</v>
+        <v>1114892.756257337</v>
       </c>
       <c r="J56">
-        <v>2026.729636148578</v>
+        <v>4843178.14655001</v>
       </c>
       <c r="K56">
-        <v>389.5677539972946</v>
+        <v>3984660.360859678</v>
       </c>
     </row>
     <row r="57" spans="1:11">
@@ -2399,34 +2399,34 @@
         <v>443</v>
       </c>
       <c r="B57" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C57" t="s">
         <v>14</v>
       </c>
       <c r="D57" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E57">
         <v>154.142</v>
       </c>
       <c r="F57">
-        <v>232.3102938129604</v>
+        <v>1116578.810316505</v>
       </c>
       <c r="G57">
-        <v>-124.124970775103</v>
+        <v>4841120.138437768</v>
       </c>
       <c r="H57">
-        <v>867.8969067102798</v>
+        <v>3985230.673261457</v>
       </c>
       <c r="I57">
-        <v>-1270.637580620136</v>
+        <v>1114923.099519796</v>
       </c>
       <c r="J57">
-        <v>1976.19862122183</v>
+        <v>4843129.494926379</v>
       </c>
       <c r="K57">
-        <v>759.7098740658066</v>
+        <v>3984949.007194446</v>
       </c>
     </row>
     <row r="58" spans="1:11">
@@ -2434,34 +2434,34 @@
         <v>443</v>
       </c>
       <c r="B58" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C58" t="s">
         <v>14</v>
       </c>
       <c r="D58" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E58">
         <v>155.142</v>
       </c>
       <c r="F58">
-        <v>232.3102938129604</v>
+        <v>1116578.810316505</v>
       </c>
       <c r="G58">
-        <v>-124.124970775103</v>
+        <v>4841120.138437768</v>
       </c>
       <c r="H58">
-        <v>867.8969067102798</v>
+        <v>3985230.673261457</v>
       </c>
       <c r="I58">
-        <v>-1243.204637724587</v>
+        <v>1114954.189957178</v>
       </c>
       <c r="J58">
-        <v>1925.667606295082</v>
+        <v>4843080.843302749</v>
       </c>
       <c r="K58">
-        <v>1110.426360205539</v>
+        <v>3985222.5049208</v>
       </c>
     </row>
     <row r="59" spans="1:11">
@@ -2469,34 +2469,34 @@
         <v>443</v>
       </c>
       <c r="B59" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C59" t="s">
         <v>14</v>
       </c>
       <c r="D59" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E59">
         <v>156.142</v>
       </c>
       <c r="F59">
-        <v>232.3102938129604</v>
+        <v>1116578.810316505</v>
       </c>
       <c r="G59">
-        <v>-124.124970775103</v>
+        <v>4841120.138437768</v>
       </c>
       <c r="H59">
-        <v>867.8969067102798</v>
+        <v>3985230.673261457</v>
       </c>
       <c r="I59">
-        <v>-1215.09618384808</v>
+        <v>1114986.045967977</v>
       </c>
       <c r="J59">
-        <v>1875.136591368334</v>
+        <v>4843032.191679118</v>
       </c>
       <c r="K59">
-        <v>1441.717212416489</v>
+        <v>3985480.854038741</v>
       </c>
     </row>
     <row r="60" spans="1:11">
@@ -2504,34 +2504,34 @@
         <v>443</v>
       </c>
       <c r="B60" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C60" t="s">
         <v>14</v>
       </c>
       <c r="D60" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E60">
         <v>157.142</v>
       </c>
       <c r="F60">
-        <v>232.3102938129604</v>
+        <v>1116578.810316505</v>
       </c>
       <c r="G60">
-        <v>-124.124970775103</v>
+        <v>4841120.138437768</v>
       </c>
       <c r="H60">
-        <v>867.8969067102798</v>
+        <v>3985230.673261457</v>
       </c>
       <c r="I60">
-        <v>-1186.295585154166</v>
+        <v>1115018.686403736</v>
       </c>
       <c r="J60">
-        <v>1824.605576441586</v>
+        <v>4842983.540055488</v>
       </c>
       <c r="K60">
-        <v>1753.58243069866</v>
+        <v>3985724.05454827</v>
       </c>
     </row>
     <row r="61" spans="1:11">
@@ -2539,34 +2539,34 @@
         <v>443</v>
       </c>
       <c r="B61" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C61" t="s">
         <v>14</v>
       </c>
       <c r="D61" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E61">
         <v>158.142</v>
       </c>
       <c r="F61">
-        <v>232.3102938129604</v>
+        <v>1116578.810316505</v>
       </c>
       <c r="G61">
-        <v>-124.124970775103</v>
+        <v>4841120.138437768</v>
       </c>
       <c r="H61">
-        <v>867.8969067102798</v>
+        <v>3985230.673261457</v>
       </c>
       <c r="I61">
-        <v>-1156.785798213481</v>
+        <v>1115052.130580196</v>
       </c>
       <c r="J61">
-        <v>1774.074561514838</v>
+        <v>4842934.888431857</v>
       </c>
       <c r="K61">
-        <v>2046.022015052049</v>
+        <v>3985952.106449385</v>
       </c>
     </row>
     <row r="62" spans="1:11">
@@ -2574,34 +2574,34 @@
         <v>443</v>
       </c>
       <c r="B62" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C62" t="s">
         <v>14</v>
       </c>
       <c r="D62" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E62">
         <v>159.142</v>
       </c>
       <c r="F62">
-        <v>232.3102938129604</v>
+        <v>1116578.810316505</v>
       </c>
       <c r="G62">
-        <v>-124.124970775103</v>
+        <v>4841120.138437768</v>
       </c>
       <c r="H62">
-        <v>867.8969067102798</v>
+        <v>3985230.673261457</v>
       </c>
       <c r="I62">
-        <v>-1126.549359917887</v>
+        <v>1115086.398288734</v>
       </c>
       <c r="J62">
-        <v>1723.543546588091</v>
+        <v>4842886.236808226</v>
       </c>
       <c r="K62">
-        <v>2319.035965476657</v>
+        <v>3986165.009742088</v>
       </c>
     </row>
     <row r="63" spans="1:11">
@@ -2609,34 +2609,34 @@
         <v>443</v>
       </c>
       <c r="B63" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C63" t="s">
         <v>14</v>
       </c>
       <c r="D63" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E63">
         <v>160.142</v>
       </c>
       <c r="F63">
-        <v>232.3102938129604</v>
+        <v>1116578.810316505</v>
       </c>
       <c r="G63">
-        <v>-103.6284442120672</v>
+        <v>4841136.651241886</v>
       </c>
       <c r="H63">
-        <v>867.8969067102798</v>
+        <v>3985230.673261457</v>
       </c>
       <c r="I63">
-        <v>-1095.568377146278</v>
+        <v>1115121.509808069</v>
       </c>
       <c r="J63">
-        <v>1673.012531661343</v>
+        <v>4842837.585184596</v>
       </c>
       <c r="K63">
-        <v>2572.624281972483</v>
+        <v>3986362.764426377</v>
       </c>
     </row>
     <row r="64" spans="1:11">
@@ -2644,34 +2644,34 @@
         <v>443</v>
       </c>
       <c r="B64" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C64" t="s">
         <v>14</v>
       </c>
       <c r="D64" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E64">
         <v>161.142</v>
       </c>
       <c r="F64">
-        <v>180.2998884950425</v>
+        <v>1116530.129739374</v>
       </c>
       <c r="G64">
-        <v>-83.13191764903146</v>
+        <v>4841153.164046003</v>
       </c>
       <c r="H64">
-        <v>1069.243148940337</v>
+        <v>3985429.927785472</v>
       </c>
       <c r="I64">
-        <v>-1063.824516175899</v>
+        <v>1115157.485916265</v>
       </c>
       <c r="J64">
-        <v>1622.481516734595</v>
+        <v>4842788.933560967</v>
       </c>
       <c r="K64">
-        <v>2806.786964539529</v>
+        <v>3986545.370502253</v>
       </c>
     </row>
     <row r="65" spans="1:11">
@@ -2679,34 +2679,34 @@
         <v>443</v>
       </c>
       <c r="B65" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C65" t="s">
         <v>14</v>
       </c>
       <c r="D65" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E65">
         <v>162.142</v>
       </c>
       <c r="F65">
-        <v>149.7463844943466</v>
+        <v>1116501.532342391</v>
       </c>
       <c r="G65">
-        <v>-62.63539108599574</v>
+        <v>4841169.676850121</v>
       </c>
       <c r="H65">
-        <v>1189.175268050313</v>
+        <v>3985548.613970239</v>
       </c>
       <c r="I65">
-        <v>-1031.298991832941</v>
+        <v>1115194.347903029</v>
       </c>
       <c r="J65">
-        <v>1571.950501807847</v>
+        <v>4842740.281937335</v>
       </c>
       <c r="K65">
-        <v>3021.524013177794</v>
+        <v>3986712.827969716</v>
       </c>
     </row>
     <row r="66" spans="1:11">
@@ -2714,34 +2714,34 @@
         <v>443</v>
       </c>
       <c r="B66" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C66" t="s">
         <v>14</v>
       </c>
       <c r="D66" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E66">
         <v>163.142</v>
       </c>
       <c r="F66">
-        <v>130.4587712506438</v>
+        <v>1116483.479567404</v>
       </c>
       <c r="G66">
-        <v>-42.13886452295999</v>
+        <v>4841186.189654239</v>
       </c>
       <c r="H66">
-        <v>1274.882647676165</v>
+        <v>3985633.4309648</v>
       </c>
       <c r="I66">
-        <v>-997.9725563759713</v>
+        <v>1115232.117582303</v>
       </c>
       <c r="J66">
-        <v>1521.419486881099</v>
+        <v>4842691.630313705</v>
       </c>
       <c r="K66">
-        <v>3216.835427887278</v>
+        <v>3986865.136828767</v>
       </c>
     </row>
     <row r="67" spans="1:11">
@@ -2749,34 +2749,34 @@
         <v>443</v>
       </c>
       <c r="B67" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C67" t="s">
         <v>14</v>
       </c>
       <c r="D67" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E67">
         <v>164.142</v>
       </c>
       <c r="F67">
-        <v>117.0076680675039</v>
+        <v>1116470.889635409</v>
       </c>
       <c r="G67">
-        <v>-21.64233795992425</v>
+        <v>4841202.702458357</v>
       </c>
       <c r="H67">
-        <v>1341.622938273053</v>
+        <v>3985699.477913023</v>
       </c>
       <c r="I67">
-        <v>-963.8254881056323</v>
+        <v>1115270.817305183</v>
       </c>
       <c r="J67">
-        <v>1470.888471954351</v>
+        <v>4842642.978690075</v>
       </c>
       <c r="K67">
-        <v>3392.721208667982</v>
+        <v>3987002.297079404</v>
       </c>
     </row>
     <row r="68" spans="1:11">
@@ -2784,34 +2784,34 @@
         <v>443</v>
       </c>
       <c r="B68" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C68" t="s">
         <v>14</v>
       </c>
       <c r="D68" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E68">
         <v>165.142</v>
       </c>
       <c r="F68">
-        <v>106.9727422783013</v>
+        <v>1116461.497169115</v>
       </c>
       <c r="G68">
-        <v>-1.145811396888519</v>
+        <v>4841219.215262474</v>
       </c>
       <c r="H68">
-        <v>1396.288413120722</v>
+        <v>3985753.575486687</v>
       </c>
       <c r="I68">
-        <v>-928.8375796938631</v>
+        <v>1115310.469973135</v>
       </c>
       <c r="J68">
-        <v>1420.357457027604</v>
+        <v>4842594.327066444</v>
       </c>
       <c r="K68">
-        <v>3549.181355519903</v>
+        <v>3987124.308721629</v>
       </c>
     </row>
     <row r="69" spans="1:11">
@@ -2819,34 +2819,34 @@
         <v>443</v>
       </c>
       <c r="B69" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C69" t="s">
         <v>14</v>
       </c>
       <c r="D69" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E69">
         <v>166.142</v>
       </c>
       <c r="F69">
-        <v>99.12683164698612</v>
+        <v>1116454.153572092</v>
       </c>
       <c r="G69">
-        <v>19.35071516614723</v>
+        <v>4841235.728066591</v>
       </c>
       <c r="H69">
-        <v>1442.586079930438</v>
+        <v>3985799.392182648</v>
       </c>
       <c r="I69">
-        <v>-892.9881262257395</v>
+        <v>1115351.099051556</v>
       </c>
       <c r="J69">
-        <v>1369.826442100856</v>
+        <v>4842545.675442813</v>
       </c>
       <c r="K69">
-        <v>3686.215868443044</v>
+        <v>3987231.17175544</v>
       </c>
     </row>
     <row r="70" spans="1:11">
@@ -2854,34 +2854,34 @@
         <v>443</v>
       </c>
       <c r="B70" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C70" t="s">
         <v>14</v>
       </c>
       <c r="D70" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E70">
         <v>167.142</v>
       </c>
       <c r="F70">
-        <v>92.77891866676681</v>
+        <v>1116448.212067396</v>
       </c>
       <c r="G70">
-        <v>39.84724172918298</v>
+        <v>4841252.240870709</v>
       </c>
       <c r="H70">
-        <v>1482.740873826116</v>
+        <v>3985839.12982193</v>
       </c>
       <c r="I70">
-        <v>-856.2559129468556</v>
+        <v>1115392.728583656</v>
       </c>
       <c r="J70">
-        <v>1319.295427174108</v>
+        <v>4842497.023819183</v>
       </c>
       <c r="K70">
-        <v>3803.824747437403</v>
+        <v>3987322.886180838</v>
       </c>
     </row>
     <row r="71" spans="1:11">
@@ -2889,34 +2889,34 @@
         <v>443</v>
       </c>
       <c r="B71" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C71" t="s">
         <v>14</v>
       </c>
       <c r="D71" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E71">
         <v>168.142</v>
       </c>
       <c r="F71">
-        <v>87.50788900507642</v>
+        <v>1116443.278501421</v>
       </c>
       <c r="G71">
-        <v>60.3437682922187</v>
+        <v>4841268.753674827</v>
       </c>
       <c r="H71">
-        <v>1518.193583370632</v>
+        <v>3985874.21422523</v>
       </c>
       <c r="I71">
-        <v>-818.619202708996</v>
+        <v>1115435.383204684</v>
       </c>
       <c r="J71">
-        <v>1268.76441224736</v>
+        <v>4842448.372195552</v>
       </c>
       <c r="K71">
-        <v>3902.007992502983</v>
+        <v>3987399.451997824</v>
       </c>
     </row>
     <row r="72" spans="1:11">
@@ -2924,34 +2924,34 @@
         <v>443</v>
       </c>
       <c r="B72" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C72" t="s">
         <v>14</v>
       </c>
       <c r="D72" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E72">
         <v>169.142</v>
       </c>
       <c r="F72">
-        <v>83.04108796249857</v>
+        <v>1116439.097675462</v>
       </c>
       <c r="G72">
-        <v>80.84029485525447</v>
+        <v>4841285.266478944</v>
       </c>
       <c r="H72">
-        <v>1549.930892521964</v>
+        <v>3985905.621826179</v>
       </c>
       <c r="I72">
-        <v>-780.0557231066674</v>
+        <v>1115479.088156514</v>
       </c>
       <c r="J72">
-        <v>1218.233397320612</v>
+        <v>4842399.720571922</v>
       </c>
       <c r="K72">
-        <v>3980.765603639781</v>
+        <v>3987460.869206396</v>
       </c>
     </row>
     <row r="73" spans="1:11">
@@ -2959,34 +2959,34 @@
         <v>443</v>
       </c>
       <c r="B73" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C73" t="s">
         <v>14</v>
       </c>
       <c r="D73" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E73">
         <v>170.142</v>
       </c>
       <c r="F73">
-        <v>79.19337464706364</v>
+        <v>1116435.496301781</v>
       </c>
       <c r="G73">
-        <v>101.3368214182902</v>
+        <v>4841301.779283062</v>
       </c>
       <c r="H73">
-        <v>1578.65819790329</v>
+        <v>3985934.050693272</v>
       </c>
       <c r="I73">
-        <v>-740.5426532968821</v>
+        <v>1115523.869302575</v>
       </c>
       <c r="J73">
-        <v>1167.702382393865</v>
+        <v>4842351.068948291</v>
       </c>
       <c r="K73">
-        <v>4040.097580847798</v>
+        <v>3987507.137806555</v>
       </c>
     </row>
     <row r="74" spans="1:11">
@@ -2994,34 +2994,34 @@
         <v>443</v>
       </c>
       <c r="B74" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C74" t="s">
         <v>14</v>
       </c>
       <c r="D74" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E74">
         <v>171.142</v>
       </c>
       <c r="F74">
-        <v>75.83412210466848</v>
+        <v>1116432.352116469</v>
       </c>
       <c r="G74">
-        <v>121.8333479813259</v>
+        <v>4841318.29208718</v>
       </c>
       <c r="H74">
-        <v>1604.897311223664</v>
+        <v>3985960.017217292</v>
       </c>
       <c r="I74">
-        <v>-700.0566104943888</v>
+        <v>1115569.753143159</v>
       </c>
       <c r="J74">
-        <v>1117.171367467117</v>
+        <v>4842302.41732466</v>
       </c>
       <c r="K74">
-        <v>4080.003924127034</v>
+        <v>3987538.257798302</v>
       </c>
     </row>
     <row r="75" spans="1:11">
@@ -3029,34 +3029,34 @@
         <v>443</v>
       </c>
       <c r="B75" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C75" t="s">
         <v>14</v>
       </c>
       <c r="D75" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E75">
         <v>172.142</v>
       </c>
       <c r="F75">
-        <v>72.86821960817258</v>
+        <v>1116429.576098009</v>
       </c>
       <c r="G75">
-        <v>142.3298745443617</v>
+        <v>4841334.804891296</v>
       </c>
       <c r="H75">
-        <v>1629.045110513421</v>
+        <v>3985983.914153238</v>
       </c>
       <c r="I75">
-        <v>-658.5736361343601</v>
+        <v>1115616.766831106</v>
       </c>
       <c r="J75">
-        <v>1066.640352540369</v>
+        <v>4842253.76570103</v>
       </c>
       <c r="K75">
-        <v>4100.484633477489</v>
+        <v>3987554.229181635</v>
       </c>
     </row>
     <row r="76" spans="1:11">
@@ -3064,34 +3064,34 @@
         <v>443</v>
       </c>
       <c r="B76" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C76" t="s">
         <v>14</v>
       </c>
       <c r="D76" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E76">
         <v>173.142</v>
       </c>
       <c r="F76">
-        <v>70.2245715418769</v>
+        <v>1116427.101702495</v>
       </c>
       <c r="G76">
-        <v>162.8264011073974</v>
+        <v>4841351.317695414</v>
       </c>
       <c r="H76">
-        <v>1651.410491768238</v>
+        <v>3986006.047188089</v>
       </c>
       <c r="I76">
-        <v>-616.0691816943524</v>
+        <v>1115664.938187866</v>
       </c>
       <c r="J76">
-        <v>1016.109337613621</v>
+        <v>4842205.1140774</v>
       </c>
       <c r="K76">
-        <v>4101.539708899163</v>
+        <v>3987555.051956556</v>
       </c>
     </row>
     <row r="77" spans="1:11">
@@ -3099,34 +3099,34 @@
         <v>443</v>
       </c>
       <c r="B77" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C77" t="s">
         <v>14</v>
       </c>
       <c r="D77" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E77">
         <v>174.142</v>
       </c>
       <c r="F77">
-        <v>67.84883624561657</v>
+        <v>1116424.878067347</v>
       </c>
       <c r="G77">
-        <v>183.3229276704332</v>
+        <v>4841367.830499532</v>
       </c>
       <c r="H77">
-        <v>1672.238594746274</v>
+        <v>3986026.658914928</v>
       </c>
       <c r="I77">
-        <v>-572.5180941671408</v>
+        <v>1115714.29571997</v>
       </c>
       <c r="J77">
-        <v>965.5783226868731</v>
+        <v>4842156.462453769</v>
       </c>
       <c r="K77">
-        <v>4083.169150392056</v>
+        <v>3987540.726123063</v>
       </c>
     </row>
     <row r="78" spans="1:11">
@@ -3134,34 +3134,34 @@
         <v>443</v>
       </c>
       <c r="B78" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C78" t="s">
         <v>14</v>
       </c>
       <c r="D78" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E78">
         <v>175.142</v>
       </c>
       <c r="F78">
-        <v>65.69867598243565</v>
+        <v>1116422.86556539</v>
       </c>
       <c r="G78">
-        <v>203.8194542334689</v>
+        <v>4841384.343303649</v>
       </c>
       <c r="H78">
-        <v>1691.727224908484</v>
+        <v>3986045.945084284</v>
       </c>
       <c r="I78">
-        <v>-527.894601175837</v>
+        <v>1115764.868635894</v>
       </c>
       <c r="J78">
-        <v>915.0473077601255</v>
+        <v>4842107.810830139</v>
       </c>
       <c r="K78">
-        <v>4045.372957956168</v>
+        <v>3987511.251681157</v>
       </c>
     </row>
     <row r="79" spans="1:11">
@@ -3169,34 +3169,34 @@
         <v>443</v>
       </c>
       <c r="B79" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C79" t="s">
         <v>14</v>
       </c>
       <c r="D79" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E79">
         <v>176.142</v>
       </c>
       <c r="F79">
-        <v>63.7405535816761</v>
+        <v>1116421.032806579</v>
       </c>
       <c r="G79">
-        <v>224.3159807965047</v>
+        <v>4841400.856107767</v>
       </c>
       <c r="H79">
-        <v>1710.038306399025</v>
+        <v>3986064.065938123</v>
       </c>
       <c r="I79">
-        <v>-482.1722957224834</v>
+        <v>1115816.686863346</v>
       </c>
       <c r="J79">
-        <v>864.5162928333775</v>
+        <v>4842059.159206509</v>
       </c>
       <c r="K79">
-        <v>3988.151131591499</v>
+        <v>3987466.628630838</v>
       </c>
     </row>
     <row r="80" spans="1:11">
@@ -3204,34 +3204,34 @@
         <v>443</v>
       </c>
       <c r="B80" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C80" t="s">
         <v>14</v>
       </c>
       <c r="D80" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E80">
         <v>177.142</v>
       </c>
       <c r="F80">
-        <v>61.94751442241074</v>
+        <v>1116419.354561994</v>
       </c>
       <c r="G80">
-        <v>244.8125073595404</v>
+        <v>4841417.368911884</v>
       </c>
       <c r="H80">
-        <v>1727.306067781863</v>
+        <v>3986081.154310556</v>
       </c>
       <c r="I80">
-        <v>-435.3241205610908</v>
+        <v>1115869.781066978</v>
       </c>
       <c r="J80">
-        <v>813.9852779066296</v>
+        <v>4842010.507582877</v>
       </c>
       <c r="K80">
-        <v>3911.503671298049</v>
+        <v>3987406.856972107</v>
       </c>
     </row>
     <row r="81" spans="1:11">
@@ -3239,34 +3239,34 @@
         <v>443</v>
       </c>
       <c r="B81" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C81" t="s">
         <v>14</v>
       </c>
       <c r="D81" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E81">
         <v>178.142</v>
       </c>
       <c r="F81">
-        <v>60.29761484506203</v>
+        <v>1116417.810292859</v>
       </c>
       <c r="G81">
-        <v>265.3090339225761</v>
+        <v>4841433.881716001</v>
       </c>
       <c r="H81">
-        <v>1743.643018891951</v>
+        <v>3986097.32154259</v>
       </c>
       <c r="I81">
-        <v>-387.3223521858798</v>
+        <v>1115924.182666528</v>
       </c>
       <c r="J81">
-        <v>763.4542629798819</v>
+        <v>4841961.855959247</v>
       </c>
       <c r="K81">
-        <v>3815.430577075818</v>
+        <v>3987331.936704962</v>
       </c>
     </row>
     <row r="82" spans="1:11">
@@ -3274,34 +3274,34 @@
         <v>443</v>
       </c>
       <c r="B82" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C82" t="s">
         <v>14</v>
       </c>
       <c r="D82" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E82">
         <v>179.142</v>
       </c>
       <c r="F82">
-        <v>58.77278571538169</v>
+        <v>1116416.383086868</v>
       </c>
       <c r="G82">
-        <v>285.8055604856119</v>
+        <v>4841450.394520119</v>
       </c>
       <c r="H82">
-        <v>1759.14439759204</v>
+        <v>3986112.661882694</v>
       </c>
       <c r="I82">
-        <v>-338.138584425246</v>
+        <v>1115979.923855418</v>
       </c>
       <c r="J82">
-        <v>712.923248053134</v>
+        <v>4841913.204335617</v>
       </c>
       <c r="K82">
-        <v>3699.931848924806</v>
+        <v>3987241.867829405</v>
       </c>
     </row>
     <row r="83" spans="1:11">
@@ -3309,34 +3309,34 @@
         <v>443</v>
       </c>
       <c r="B83" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C83" t="s">
         <v>14</v>
       </c>
       <c r="D83" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E83">
         <v>180.142</v>
       </c>
       <c r="F83">
-        <v>57.35799566926732</v>
+        <v>1116415.058875001</v>
       </c>
       <c r="G83">
-        <v>306.3020870486476</v>
+        <v>4841466.907324236</v>
       </c>
       <c r="H83">
-        <v>1773.891533679461</v>
+        <v>3986127.255815757</v>
       </c>
       <c r="I83">
-        <v>-287.7437116317433</v>
+        <v>1116037.037619804</v>
       </c>
       <c r="J83">
-        <v>662.392233126386</v>
+        <v>4841864.552711986</v>
       </c>
       <c r="K83">
-        <v>3565.007486845012</v>
+        <v>3987136.650345434</v>
       </c>
     </row>
     <row r="84" spans="1:11">
@@ -3344,34 +3344,34 @@
         <v>443</v>
       </c>
       <c r="B84" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C84" t="s">
         <v>14</v>
       </c>
       <c r="D84" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E84">
         <v>181.142</v>
       </c>
       <c r="F84">
-        <v>56.04062497472069</v>
+        <v>1116413.825845469</v>
       </c>
       <c r="G84">
-        <v>326.7986136116833</v>
+        <v>4841483.420128354</v>
       </c>
       <c r="H84">
-        <v>1787.954431729214</v>
+        <v>3986141.172619102</v>
       </c>
       <c r="I84">
-        <v>-236.1079114581336</v>
+        <v>1116095.557758094</v>
       </c>
       <c r="J84">
-        <v>611.8612181996384</v>
+        <v>4841815.901088355</v>
       </c>
       <c r="K84">
-        <v>3410.657490836439</v>
+        <v>3987016.284253051</v>
       </c>
     </row>
     <row r="85" spans="1:11">
@@ -3379,34 +3379,34 @@
         <v>443</v>
       </c>
       <c r="B85" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C85" t="s">
         <v>14</v>
       </c>
       <c r="D85" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E85">
         <v>182.142</v>
       </c>
       <c r="F85">
-        <v>54.80999013557201</v>
+        <v>1116412.67399876</v>
       </c>
       <c r="G85">
-        <v>347.2951401747191</v>
+        <v>4841499.932932472</v>
       </c>
       <c r="H85">
-        <v>1801.393780875426</v>
+        <v>3986154.472351382</v>
       </c>
       <c r="I85">
-        <v>-183.200627209314</v>
+        <v>1116155.518900952</v>
       </c>
       <c r="J85">
-        <v>561.3302032728905</v>
+        <v>4841767.249464725</v>
       </c>
       <c r="K85">
-        <v>3236.881860899084</v>
+        <v>3986880.769552254</v>
       </c>
     </row>
     <row r="86" spans="1:11">
@@ -3414,34 +3414,34 @@
         <v>443</v>
       </c>
       <c r="B86" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C86" t="s">
         <v>14</v>
       </c>
       <c r="D86" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E86">
         <v>183.142</v>
       </c>
       <c r="F86">
-        <v>53.65697816859436</v>
+        <v>1116411.594805324</v>
       </c>
       <c r="G86">
-        <v>367.7916667377548</v>
+        <v>4841516.445736589</v>
       </c>
       <c r="H86">
-        <v>1814.262537646105</v>
+        <v>3986167.207418978</v>
       </c>
       <c r="I86">
-        <v>-128.9905497596758</v>
+        <v>1116216.95653179</v>
       </c>
       <c r="J86">
-        <v>510.7991883461428</v>
+        <v>4841718.597841094</v>
       </c>
       <c r="K86">
-        <v>3043.680597032948</v>
+        <v>3986730.106243045</v>
       </c>
     </row>
     <row r="87" spans="1:11">
@@ -3449,34 +3449,34 @@
         <v>443</v>
       </c>
       <c r="B87" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C87" t="s">
         <v>14</v>
       </c>
       <c r="D87" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E87">
         <v>184.142</v>
       </c>
       <c r="F87">
-        <v>52.57376187011329</v>
+        <v>1116410.580939075</v>
       </c>
       <c r="G87">
-        <v>388.2881933007906</v>
+        <v>4841532.958540707</v>
       </c>
       <c r="H87">
-        <v>1826.607186267668</v>
+        <v>3986179.423823207</v>
       </c>
       <c r="I87">
-        <v>-73.44559902519697</v>
+        <v>1116279.907007765</v>
       </c>
       <c r="J87">
-        <v>460.2681734193948</v>
+        <v>4841669.946217464</v>
       </c>
       <c r="K87">
-        <v>2831.053699238031</v>
+        <v>3986564.294325422</v>
       </c>
     </row>
     <row r="88" spans="1:11">
@@ -3484,34 +3484,34 @@
         <v>443</v>
       </c>
       <c r="B88" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C88" t="s">
         <v>14</v>
       </c>
       <c r="D88" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E88">
         <v>185.142</v>
       </c>
       <c r="F88">
-        <v>51.55357570566233</v>
+        <v>1116409.626067623</v>
       </c>
       <c r="G88">
-        <v>408.7847198638264</v>
+        <v>4841549.471344823</v>
       </c>
       <c r="H88">
-        <v>1838.468752226092</v>
+        <v>3986191.162163357</v>
       </c>
       <c r="I88">
-        <v>-16.53290497929954</v>
+        <v>1116344.407581299</v>
       </c>
       <c r="J88">
-        <v>409.7371584926469</v>
+        <v>4841621.294593833</v>
       </c>
       <c r="K88">
-        <v>2599.001167514333</v>
+        <v>3986383.333799386</v>
       </c>
     </row>
     <row r="89" spans="1:11">
@@ -3519,34 +3519,34 @@
         <v>443</v>
       </c>
       <c r="B89" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C89" t="s">
         <v>14</v>
       </c>
       <c r="D89" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E89">
         <v>186.142</v>
       </c>
       <c r="F89">
-        <v>50.59053764317994</v>
+        <v>1116408.724685517</v>
       </c>
       <c r="G89">
-        <v>429.2812464268621</v>
+        <v>4841565.984148941</v>
       </c>
       <c r="H89">
-        <v>1849.883624876069</v>
+        <v>3986202.458450744</v>
       </c>
       <c r="I89">
-        <v>41.78121179875982</v>
+        <v>1116410.496422115</v>
       </c>
       <c r="J89">
-        <v>359.2061435658993</v>
+        <v>4841572.642970202</v>
       </c>
       <c r="K89">
-        <v>2347.523001861854</v>
+        <v>3986187.224664938</v>
       </c>
     </row>
     <row r="90" spans="1:11">
@@ -3554,34 +3554,34 @@
         <v>443</v>
       </c>
       <c r="B90" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C90" t="s">
         <v>14</v>
       </c>
       <c r="D90" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E90">
         <v>187.142</v>
       </c>
       <c r="F90">
-        <v>49.67950620280079</v>
+        <v>1116407.871980447</v>
       </c>
       <c r="G90">
-        <v>449.7777729898978</v>
+        <v>4841582.496953059</v>
       </c>
       <c r="H90">
-        <v>1860.884230704948</v>
+        <v>3986213.344774988</v>
       </c>
       <c r="I90">
-        <v>101.5312600544751</v>
+        <v>1116478.212639836</v>
       </c>
       <c r="J90">
-        <v>308.6751286391513</v>
+        <v>4841523.991346573</v>
       </c>
       <c r="K90">
-        <v>2076.619202280594</v>
+        <v>3985975.966922076</v>
       </c>
     </row>
     <row r="91" spans="1:11">
@@ -3589,34 +3589,34 @@
         <v>443</v>
       </c>
       <c r="B91" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C91" t="s">
         <v>14</v>
       </c>
       <c r="D91" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E91">
         <v>188.142</v>
       </c>
       <c r="F91">
-        <v>48.81596478491801</v>
+        <v>1116407.063724977</v>
       </c>
       <c r="G91">
-        <v>470.2742995529335</v>
+        <v>4841599.009757176</v>
       </c>
       <c r="H91">
-        <v>1871.499588651108</v>
+        <v>3986223.84985356</v>
       </c>
       <c r="I91">
-        <v>162.7525982794514</v>
+        <v>1116547.596307121</v>
       </c>
       <c r="J91">
-        <v>258.1441137124036</v>
+        <v>4841475.339722943</v>
       </c>
       <c r="K91">
-        <v>1786.289768770554</v>
+        <v>3985749.560570802</v>
       </c>
     </row>
     <row r="92" spans="1:11">
@@ -3624,34 +3624,34 @@
         <v>443</v>
       </c>
       <c r="B92" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C92" t="s">
         <v>14</v>
       </c>
       <c r="D92" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E92">
         <v>189.142</v>
       </c>
       <c r="F92">
-        <v>47.9959273330233</v>
+        <v>1116406.296188247</v>
       </c>
       <c r="G92">
-        <v>490.7708261159693</v>
+        <v>4841615.522561294</v>
       </c>
       <c r="H92">
-        <v>1881.75577143444</v>
+        <v>3986233.999488319</v>
       </c>
       <c r="I92">
-        <v>225.4814556356187</v>
+        <v>1116618.688483381</v>
       </c>
       <c r="J92">
-        <v>207.6130987856557</v>
+        <v>4841426.688099311</v>
       </c>
       <c r="K92">
-        <v>1476.534701331731</v>
+        <v>3985508.005611114</v>
       </c>
     </row>
     <row r="93" spans="1:11">
@@ -3659,34 +3659,34 @@
         <v>443</v>
       </c>
       <c r="B93" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C93" t="s">
         <v>14</v>
       </c>
       <c r="D93" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E93">
         <v>190.142</v>
       </c>
       <c r="F93">
-        <v>47.21586083313131</v>
+        <v>1116405.566063435</v>
       </c>
       <c r="G93">
-        <v>511.267352679005</v>
+        <v>4841632.035365412</v>
       </c>
       <c r="H93">
-        <v>1891.676291364572</v>
+        <v>3986243.816947313</v>
       </c>
       <c r="I93">
-        <v>289.7549533946917</v>
+        <v>1116691.531239078</v>
       </c>
       <c r="J93">
-        <v>157.0820838589078</v>
+        <v>4841378.036475681</v>
       </c>
       <c r="K93">
-        <v>1147.353999964128</v>
+        <v>3985251.302043014</v>
       </c>
     </row>
     <row r="94" spans="1:11">
@@ -3694,34 +3694,34 @@
         <v>443</v>
       </c>
       <c r="B94" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C94" t="s">
         <v>14</v>
       </c>
       <c r="D94" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E94">
         <v>191.142</v>
       </c>
       <c r="F94">
-        <v>46.47262121119819</v>
+        <v>1116404.870407757</v>
       </c>
       <c r="G94">
-        <v>531.7638792420407</v>
+        <v>4841648.548169528</v>
       </c>
       <c r="H94">
-        <v>1901.282424993755</v>
+        <v>3986253.323286059</v>
       </c>
       <c r="I94">
-        <v>355.6111269055471</v>
+        <v>1116766.16768062</v>
       </c>
       <c r="J94">
-        <v>106.5510689321601</v>
+        <v>4841329.384852051</v>
       </c>
       <c r="K94">
-        <v>798.7476646677447</v>
+        <v>3984979.4498665</v>
       </c>
     </row>
     <row r="95" spans="1:11">
@@ -3729,34 +3729,34 @@
         <v>443</v>
       </c>
       <c r="B95" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C95" t="s">
         <v>14</v>
       </c>
       <c r="D95" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E95">
         <v>192.142</v>
       </c>
       <c r="F95">
-        <v>45.76339997536241</v>
+        <v>1116404.206592529</v>
       </c>
       <c r="G95">
-        <v>552.2604058050765</v>
+        <v>4841665.060973646</v>
       </c>
       <c r="H95">
-        <v>1910.593487890493</v>
+        <v>3986262.537619464</v>
       </c>
       <c r="I95">
-        <v>423.0889481025401</v>
+        <v>1116842.64197587</v>
       </c>
       <c r="J95">
-        <v>56.02005400541216</v>
+        <v>4841280.73322842</v>
       </c>
       <c r="K95">
-        <v>430.7156954425793</v>
+        <v>3984692.449081573</v>
       </c>
     </row>
     <row r="96" spans="1:11">
@@ -3764,34 +3764,34 @@
         <v>443</v>
       </c>
       <c r="B96" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C96" t="s">
         <v>14</v>
       </c>
       <c r="D96" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E96">
         <v>193.142</v>
       </c>
       <c r="F96">
-        <v>45.08567953798751</v>
+        <v>1116403.572261344</v>
       </c>
       <c r="G96">
-        <v>572.7569323681123</v>
+        <v>4841681.573777764</v>
       </c>
       <c r="H96">
-        <v>1919.627068456493</v>
+        <v>3986271.477353207</v>
       </c>
       <c r="I96">
-        <v>492.2283485680512</v>
+        <v>1116920.999380286</v>
       </c>
       <c r="J96">
-        <v>5.489039078664242</v>
+        <v>4841232.081604789</v>
       </c>
       <c r="K96">
-        <v>43.25809228863312</v>
+        <v>3984390.299688234</v>
       </c>
     </row>
     <row r="97" spans="1:11">
@@ -3799,34 +3799,34 @@
         <v>443</v>
       </c>
       <c r="B97" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C97" t="s">
         <v>14</v>
       </c>
       <c r="D97" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E97">
         <v>194.142</v>
       </c>
       <c r="F97">
-        <v>44.43719559715755</v>
+        <v>1116402.965294867</v>
       </c>
       <c r="G97">
-        <v>593.253458931148</v>
+        <v>4841698.086581881</v>
       </c>
       <c r="H97">
-        <v>1928.399227901165</v>
+        <v>3986280.158381646</v>
       </c>
       <c r="I97">
-        <v>563.0702431629429</v>
+        <v>1117001.286263698</v>
       </c>
       <c r="J97">
-        <v>-45.04197584808345</v>
+        <v>4841183.429981159</v>
       </c>
       <c r="K97">
-        <v>-363.6251447940929</v>
+        <v>3984073.001686481</v>
       </c>
     </row>
     <row r="98" spans="1:11">
@@ -3834,34 +3834,34 @@
         <v>443</v>
       </c>
       <c r="B98" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C98" t="s">
         <v>14</v>
       </c>
       <c r="D98" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E98">
         <v>195.142</v>
       </c>
       <c r="F98">
-        <v>43.81590529647804</v>
+        <v>1116402.383781029</v>
       </c>
       <c r="G98">
-        <v>613.7499854941836</v>
+        <v>4841714.599385999</v>
       </c>
       <c r="H98">
-        <v>1936.924672086674</v>
+        <v>3986288.595257866</v>
       </c>
       <c r="I98">
-        <v>635.6565542388862</v>
+        <v>1117083.550137752</v>
       </c>
       <c r="J98">
-        <v>-95.57299077483137</v>
+        <v>4841134.778357528</v>
       </c>
       <c r="K98">
-        <v>-789.9340158056011</v>
+        <v>3983740.555076316</v>
       </c>
     </row>
     <row r="99" spans="1:11">
@@ -3869,34 +3869,34 @@
         <v>443</v>
       </c>
       <c r="B99" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C99" t="s">
         <v>14</v>
       </c>
       <c r="D99" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E99">
         <v>196.142</v>
       </c>
       <c r="F99">
-        <v>43.21996014296045</v>
+        <v>1116401.825989682</v>
       </c>
       <c r="G99">
-        <v>634.2465120572195</v>
+        <v>4841731.112190116</v>
       </c>
       <c r="H99">
-        <v>1945.216899862109</v>
+        <v>3986296.801340484</v>
       </c>
       <c r="I99">
-        <v>710.0302364468934</v>
+        <v>1117167.839684023</v>
       </c>
       <c r="J99">
-        <v>-146.1040057015793</v>
+        <v>4841086.126733897</v>
       </c>
       <c r="K99">
-        <v>-1235.668520745891</v>
+        <v>3983392.959857737</v>
       </c>
     </row>
     <row r="100" spans="1:11">
@@ -3904,34 +3904,34 @@
         <v>443</v>
       </c>
       <c r="B100" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C100" t="s">
         <v>14</v>
       </c>
       <c r="D100" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E100">
         <v>197.142</v>
       </c>
       <c r="F100">
-        <v>42.64768286507773</v>
+        <v>1116401.290350939</v>
       </c>
       <c r="G100">
-        <v>654.7430386202552</v>
+        <v>4841747.624994234</v>
       </c>
       <c r="H100">
-        <v>1953.288331644124</v>
+        <v>3986304.788920883</v>
       </c>
       <c r="I100">
-        <v>786.2353021567395</v>
+        <v>1117254.204782826</v>
       </c>
       <c r="J100">
-        <v>-196.6350206283272</v>
+        <v>4841037.475110267</v>
       </c>
       <c r="K100">
-        <v>-1700.828659614962</v>
+        <v>3983030.216030746</v>
       </c>
     </row>
     <row r="101" spans="1:11">
@@ -3939,34 +3939,34 @@
         <v>443</v>
       </c>
       <c r="B101" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C101" t="s">
         <v>14</v>
       </c>
       <c r="D101" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E101">
         <v>198.142</v>
       </c>
       <c r="F101">
-        <v>42.09754755109404</v>
+        <v>1116400.775436579</v>
       </c>
       <c r="G101">
-        <v>675.2395651832909</v>
+        <v>4841764.137798351</v>
       </c>
       <c r="H101">
-        <v>1961.150421319027</v>
+        <v>3986312.569333959</v>
       </c>
       <c r="I101">
-        <v>864.3168475023153</v>
+        <v>1117342.696542732</v>
       </c>
       <c r="J101">
-        <v>-247.1660355550747</v>
+        <v>4840988.823486636</v>
       </c>
       <c r="K101">
-        <v>-2185.41443241281</v>
+        <v>3982652.323595341</v>
       </c>
     </row>
     <row r="102" spans="1:11">
@@ -3974,34 +3974,34 @@
         <v>443</v>
       </c>
       <c r="B102" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C102" t="s">
         <v>14</v>
       </c>
       <c r="D102" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E102">
         <v>199.142</v>
       </c>
       <c r="F102">
-        <v>41.56816253206963</v>
+        <v>1116400.279944031</v>
       </c>
       <c r="G102">
-        <v>695.7360917463268</v>
+        <v>4841780.650602468</v>
       </c>
       <c r="H102">
-        <v>1968.813753996884</v>
+        <v>3986320.153054858</v>
       </c>
       <c r="I102">
-        <v>944.3210790683223</v>
+        <v>1117433.367330815</v>
       </c>
       <c r="J102">
-        <v>-297.6970504818226</v>
+        <v>4840940.171863006</v>
       </c>
       <c r="K102">
-        <v>-2689.425839139442</v>
+        <v>3982259.282551523</v>
       </c>
     </row>
     <row r="103" spans="1:11">
@@ -4009,34 +4009,34 @@
         <v>443</v>
       </c>
       <c r="B103" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C103" t="s">
         <v>14</v>
       </c>
       <c r="D103" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E103">
         <v>200.142</v>
       </c>
       <c r="F103">
-        <v>41.05825557235684</v>
+        <v>1116399.802682511</v>
       </c>
       <c r="G103">
-        <v>716.2326183093625</v>
+        <v>4841797.163406586</v>
       </c>
       <c r="H103">
-        <v>1976.288131711326</v>
+        <v>3986327.549783783</v>
       </c>
       <c r="I103">
-        <v>1026.295341234098</v>
+        <v>1117526.270803639</v>
       </c>
       <c r="J103">
-        <v>-348.2280654085705</v>
+        <v>4840891.520239376</v>
       </c>
       <c r="K103">
-        <v>-3212.862879794856</v>
+        <v>3981851.092899293</v>
       </c>
     </row>
     <row r="104" spans="1:11">
@@ -4044,34 +4044,34 @@
         <v>443</v>
       </c>
       <c r="B104" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C104" t="s">
         <v>14</v>
       </c>
       <c r="D104" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E104">
         <v>201.142</v>
       </c>
       <c r="F104">
-        <v>40.56666100881769</v>
+        <v>1116399.342560985</v>
       </c>
       <c r="G104">
-        <v>736.7291448723981</v>
+        <v>4841813.676210704</v>
       </c>
       <c r="H104">
-        <v>1983.582648805946</v>
+        <v>3986334.768520599</v>
       </c>
       <c r="I104">
-        <v>1110.288144190768</v>
+        <v>1117621.461939012</v>
       </c>
       <c r="J104">
-        <v>-398.7590803353185</v>
+        <v>4840842.868615745</v>
       </c>
       <c r="K104">
-        <v>-3755.725554379051</v>
+        <v>3981427.75463865</v>
       </c>
     </row>
     <row r="105" spans="1:11">
@@ -4079,34 +4079,34 @@
         <v>443</v>
       </c>
       <c r="B105" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C105" t="s">
         <v>14</v>
       </c>
       <c r="D105" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E105">
         <v>202.142</v>
       </c>
       <c r="F105">
-        <v>40.09230854284581</v>
+        <v>1116398.898577677</v>
       </c>
       <c r="G105">
-        <v>757.2256714354339</v>
+        <v>4841830.189014821</v>
       </c>
       <c r="H105">
-        <v>1990.705758461719</v>
+        <v>3986341.81763067</v>
       </c>
       <c r="I105">
-        <v>1196.349192648285</v>
+        <v>1117718.997068519</v>
       </c>
       <c r="J105">
-        <v>-449.2900952620664</v>
+        <v>4840794.216992115</v>
       </c>
       <c r="K105">
-        <v>-4318.013862892026</v>
+        <v>3980989.267769592</v>
       </c>
     </row>
     <row r="106" spans="1:11">
@@ -4114,34 +4114,34 @@
         <v>443</v>
       </c>
       <c r="B106" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C106" t="s">
         <v>14</v>
       </c>
       <c r="D106" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E106">
         <v>203.142</v>
       </c>
       <c r="F106">
-        <v>39.6342134399293</v>
+        <v>1116398.469810897</v>
       </c>
       <c r="G106">
-        <v>777.7221979984697</v>
+        <v>4841846.701818939</v>
       </c>
       <c r="H106">
-        <v>1997.665331586088</v>
+        <v>3986348.704903136</v>
       </c>
       <c r="I106">
-        <v>1284.529415249353</v>
+        <v>1117818.933910859</v>
       </c>
       <c r="J106">
-        <v>-499.8211101888138</v>
+        <v>4840745.565368485</v>
       </c>
       <c r="K106">
-        <v>-4899.727805333778</v>
+        <v>3980535.632292123</v>
       </c>
     </row>
     <row r="107" spans="1:11">
@@ -4149,34 +4149,34 @@
         <v>443</v>
       </c>
       <c r="B107" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C107" t="s">
         <v>14</v>
       </c>
       <c r="D107" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E107">
         <v>204.142</v>
       </c>
       <c r="F107">
-        <v>39.1914679325451</v>
+        <v>1116398.055410996</v>
       </c>
       <c r="G107">
-        <v>798.2187245615054</v>
+        <v>4841863.214623056</v>
       </c>
       <c r="H107">
-        <v>2004.468709092526</v>
+        <v>3986355.437602649</v>
       </c>
       <c r="I107">
-        <v>1374.880994707657</v>
+        <v>1117921.331606002</v>
       </c>
       <c r="J107">
-        <v>-550.3521251155618</v>
+        <v>4840696.913744853</v>
       </c>
       <c r="K107">
-        <v>-5500.867381704315</v>
+        <v>3980066.848206241</v>
       </c>
     </row>
     <row r="108" spans="1:11">
@@ -4184,34 +4184,34 @@
         <v>443</v>
       </c>
       <c r="B108" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C108" t="s">
         <v>15</v>
       </c>
       <c r="D108" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E108">
         <v>152.142</v>
       </c>
       <c r="F108">
-        <v>233.0837610382167</v>
+        <v>1116578.614790748</v>
       </c>
       <c r="G108">
-        <v>-121.1973651376183</v>
+        <v>4841121.237949492</v>
       </c>
       <c r="H108">
-        <v>936.3797094269843</v>
+        <v>3985224.740477681</v>
       </c>
       <c r="I108">
-        <v>-2103.34821095944</v>
+        <v>1114863.055594644</v>
       </c>
       <c r="J108">
-        <v>1234.16900264948</v>
+        <v>4843224.85419313</v>
       </c>
       <c r="K108">
-        <v>0</v>
+        <v>3984362.538980709</v>
       </c>
     </row>
     <row r="109" spans="1:11">
@@ -4219,34 +4219,34 @@
         <v>443</v>
       </c>
       <c r="B109" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C109" t="s">
         <v>15</v>
       </c>
       <c r="D109" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E109">
         <v>153.142</v>
       </c>
       <c r="F109">
-        <v>233.0837610382167</v>
+        <v>1116578.614790748</v>
       </c>
       <c r="G109">
-        <v>-121.1973651376183</v>
+        <v>4841121.237949492</v>
       </c>
       <c r="H109">
-        <v>936.3797094269843</v>
+        <v>3985224.740477681</v>
       </c>
       <c r="I109">
-        <v>-2061.822516611329</v>
+        <v>1114892.669636216</v>
       </c>
       <c r="J109">
-        <v>1204.146861584647</v>
+        <v>4843176.202589027</v>
       </c>
       <c r="K109">
-        <v>145.5548090396401</v>
+        <v>3984666.334379317</v>
       </c>
     </row>
     <row r="110" spans="1:11">
@@ -4254,34 +4254,34 @@
         <v>443</v>
       </c>
       <c r="B110" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C110" t="s">
         <v>15</v>
       </c>
       <c r="D110" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E110">
         <v>154.142</v>
       </c>
       <c r="F110">
-        <v>233.0837610382167</v>
+        <v>1116578.614790748</v>
       </c>
       <c r="G110">
-        <v>-121.1973651376183</v>
+        <v>4841121.237949492</v>
       </c>
       <c r="H110">
-        <v>936.3797094269843</v>
+        <v>3985224.740477681</v>
       </c>
       <c r="I110">
-        <v>-2019.274290242835</v>
+        <v>1114923.012896317</v>
       </c>
       <c r="J110">
-        <v>1174.124720519814</v>
+        <v>4843127.550984924</v>
       </c>
       <c r="K110">
-        <v>283.8515881012715</v>
+        <v>3984954.981146802</v>
       </c>
     </row>
     <row r="111" spans="1:11">
@@ -4289,34 +4289,34 @@
         <v>443</v>
       </c>
       <c r="B111" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C111" t="s">
         <v>15</v>
       </c>
       <c r="D111" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E111">
         <v>155.142</v>
       </c>
       <c r="F111">
-        <v>233.0837610382167</v>
+        <v>1116578.614790748</v>
       </c>
       <c r="G111">
-        <v>-121.1973651376183</v>
+        <v>4841121.237949492</v>
       </c>
       <c r="H111">
-        <v>936.3797094269843</v>
+        <v>3985224.740477681</v>
       </c>
       <c r="I111">
-        <v>-1975.678352943667</v>
+        <v>1114954.103331283</v>
       </c>
       <c r="J111">
-        <v>1144.102579454981</v>
+        <v>4843078.899380821</v>
       </c>
       <c r="K111">
-        <v>414.8903371848951</v>
+        <v>3985228.479283165</v>
       </c>
     </row>
     <row r="112" spans="1:11">
@@ -4324,34 +4324,34 @@
         <v>443</v>
       </c>
       <c r="B112" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C112" t="s">
         <v>15</v>
       </c>
       <c r="D112" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E112">
         <v>156.142</v>
       </c>
       <c r="F112">
-        <v>233.0837610382167</v>
+        <v>1116578.614790748</v>
       </c>
       <c r="G112">
-        <v>-121.1973651376183</v>
+        <v>4841121.237949492</v>
       </c>
       <c r="H112">
-        <v>936.3797094269843</v>
+        <v>3985224.740477681</v>
       </c>
       <c r="I112">
-        <v>-1931.008905796034</v>
+        <v>1114985.959339608</v>
       </c>
       <c r="J112">
-        <v>1114.080438390148</v>
+        <v>4843030.247776719</v>
       </c>
       <c r="K112">
-        <v>538.6710562905101</v>
+        <v>3985486.828788405</v>
       </c>
     </row>
     <row r="113" spans="1:11">
@@ -4359,34 +4359,34 @@
         <v>443</v>
       </c>
       <c r="B113" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C113" t="s">
         <v>15</v>
       </c>
       <c r="D113" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E113">
         <v>157.142</v>
       </c>
       <c r="F113">
-        <v>233.0837610382167</v>
+        <v>1116578.614790748</v>
       </c>
       <c r="G113">
-        <v>-121.1973651376183</v>
+        <v>4841121.237949492</v>
       </c>
       <c r="H113">
-        <v>936.3797094269843</v>
+        <v>3985224.740477681</v>
       </c>
       <c r="I113">
-        <v>-1885.239514607528</v>
+        <v>1115018.599772831</v>
       </c>
       <c r="J113">
-        <v>1084.058297325315</v>
+        <v>4842981.596172616</v>
       </c>
       <c r="K113">
-        <v>655.1937454181177</v>
+        <v>3985730.029662522</v>
       </c>
     </row>
     <row r="114" spans="1:11">
@@ -4394,34 +4394,34 @@
         <v>443</v>
       </c>
       <c r="B114" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C114" t="s">
         <v>15</v>
       </c>
       <c r="D114" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E114">
         <v>158.142</v>
       </c>
       <c r="F114">
-        <v>233.0837610382167</v>
+        <v>1116578.614790748</v>
       </c>
       <c r="G114">
-        <v>-121.1973651376183</v>
+        <v>4841121.237949492</v>
       </c>
       <c r="H114">
-        <v>936.3797094269843</v>
+        <v>3985224.740477681</v>
       </c>
       <c r="I114">
-        <v>-1838.343094268073</v>
+        <v>1115052.043946692</v>
       </c>
       <c r="J114">
-        <v>1054.036156260481</v>
+        <v>4842932.944568513</v>
       </c>
       <c r="K114">
-        <v>764.4584045677168</v>
+        <v>3985958.081905517</v>
       </c>
     </row>
     <row r="115" spans="1:11">
@@ -4429,34 +4429,34 @@
         <v>443</v>
       </c>
       <c r="B115" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C115" t="s">
         <v>15</v>
       </c>
       <c r="D115" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E115">
         <v>159.142</v>
       </c>
       <c r="F115">
-        <v>233.0837610382167</v>
+        <v>1116578.614790748</v>
       </c>
       <c r="G115">
-        <v>-121.1973651376183</v>
+        <v>4841121.237949492</v>
       </c>
       <c r="H115">
-        <v>936.3797094269843</v>
+        <v>3985224.740477681</v>
       </c>
       <c r="I115">
-        <v>-1790.291892721675</v>
+        <v>1115086.311652568</v>
       </c>
       <c r="J115">
-        <v>1024.014015195648</v>
+        <v>4842884.292964411</v>
       </c>
       <c r="K115">
-        <v>866.4650337393078</v>
+        <v>3986170.985517389</v>
       </c>
     </row>
     <row r="116" spans="1:11">
@@ -4464,34 +4464,34 @@
         <v>443</v>
       </c>
       <c r="B116" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C116" t="s">
         <v>15</v>
       </c>
       <c r="D116" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E116">
         <v>160.142</v>
       </c>
       <c r="F116">
-        <v>233.0837610382167</v>
+        <v>1116578.614790748</v>
       </c>
       <c r="G116">
-        <v>-101.1842686720085</v>
+        <v>4841137.75075736</v>
       </c>
       <c r="H116">
-        <v>936.3797094269843</v>
+        <v>3985224.740477681</v>
       </c>
       <c r="I116">
-        <v>-1741.057474543491</v>
+        <v>1115121.423169174</v>
       </c>
       <c r="J116">
-        <v>993.9918741308155</v>
+        <v>4842835.641360308</v>
       </c>
       <c r="K116">
-        <v>961.2136329328904</v>
+        <v>3986368.740498138</v>
       </c>
     </row>
     <row r="117" spans="1:11">
@@ -4499,34 +4499,34 @@
         <v>443</v>
       </c>
       <c r="B117" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C117" t="s">
         <v>15</v>
       </c>
       <c r="D117" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E117">
         <v>161.142</v>
       </c>
       <c r="F117">
-        <v>180.9001892917888</v>
+        <v>1116529.934222141</v>
       </c>
       <c r="G117">
-        <v>-81.17117220639868</v>
+        <v>4841154.263565227</v>
       </c>
       <c r="H117">
-        <v>1153.613501062715</v>
+        <v>3985423.994705068</v>
       </c>
       <c r="I117">
-        <v>-1690.610704112504</v>
+        <v>1115157.399274576</v>
       </c>
       <c r="J117">
-        <v>963.9697330659825</v>
+        <v>4842786.989756206</v>
       </c>
       <c r="K117">
-        <v>1048.704202148465</v>
+        <v>3986551.346847764</v>
       </c>
     </row>
     <row r="118" spans="1:11">
@@ -4534,34 +4534,34 @@
         <v>443</v>
       </c>
       <c r="B118" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C118" t="s">
         <v>15</v>
       </c>
       <c r="D118" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E118">
         <v>162.142</v>
       </c>
       <c r="F118">
-        <v>150.2449587013091</v>
+        <v>1116501.336830165</v>
       </c>
       <c r="G118">
-        <v>-61.15807574078886</v>
+        <v>4841170.776373096</v>
       </c>
       <c r="H118">
-        <v>1283.009057118833</v>
+        <v>3985542.680713148</v>
       </c>
       <c r="I118">
-        <v>-1638.921728369831</v>
+        <v>1115194.261258475</v>
       </c>
       <c r="J118">
-        <v>933.9475920011495</v>
+        <v>4842738.338152102</v>
       </c>
       <c r="K118">
-        <v>1128.936741386031</v>
+        <v>3986718.804566268</v>
       </c>
     </row>
     <row r="119" spans="1:11">
@@ -4569,34 +4569,34 @@
         <v>443</v>
       </c>
       <c r="B119" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C119" t="s">
         <v>15</v>
       </c>
       <c r="D119" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E119">
         <v>163.142</v>
       </c>
       <c r="F119">
-        <v>130.8931281710944</v>
+        <v>1116483.28405834</v>
       </c>
       <c r="G119">
-        <v>-41.14497927517903</v>
+        <v>4841187.289180964</v>
       </c>
       <c r="H119">
-        <v>1375.479315520842</v>
+        <v>3985627.497581442</v>
       </c>
       <c r="I119">
-        <v>-1585.95995915248</v>
+        <v>1115232.030934816</v>
       </c>
       <c r="J119">
-        <v>903.9254509363163</v>
+        <v>4842689.686548</v>
       </c>
       <c r="K119">
-        <v>1201.91125064559</v>
+        <v>3986871.113653649</v>
       </c>
     </row>
     <row r="120" spans="1:11">
@@ -4604,34 +4604,34 @@
         <v>443</v>
       </c>
       <c r="B120" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C120" t="s">
         <v>15</v>
       </c>
       <c r="D120" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E120">
         <v>164.142</v>
       </c>
       <c r="F120">
-        <v>117.3972401130145</v>
+        <v>1116470.694128549</v>
       </c>
       <c r="G120">
-        <v>-21.13188280956919</v>
+        <v>4841203.801988832</v>
       </c>
       <c r="H120">
-        <v>1447.485856197508</v>
+        <v>3985693.544431342</v>
       </c>
       <c r="I120">
-        <v>-1531.694055092087</v>
+        <v>1115270.730654688</v>
       </c>
       <c r="J120">
-        <v>873.9033098714832</v>
+        <v>4842641.034943897</v>
       </c>
       <c r="K120">
-        <v>1267.62772992714</v>
+        <v>3987008.274109907</v>
       </c>
     </row>
     <row r="121" spans="1:11">
@@ -4639,34 +4639,34 @@
         <v>443</v>
       </c>
       <c r="B121" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C121" t="s">
         <v>15</v>
       </c>
       <c r="D121" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E121">
         <v>165.142</v>
       </c>
       <c r="F121">
-        <v>107.3289034659526</v>
+        <v>1116461.3016639</v>
       </c>
       <c r="G121">
-        <v>-1.118786343959381</v>
+        <v>4841220.314796699</v>
       </c>
       <c r="H121">
-        <v>1506.464798348106</v>
+        <v>3985747.641924471</v>
       </c>
       <c r="I121">
-        <v>-1476.091903067923</v>
+        <v>1115310.38331956</v>
       </c>
       <c r="J121">
-        <v>843.8811688066503</v>
+        <v>4842592.383339795</v>
       </c>
       <c r="K121">
-        <v>1326.086179230682</v>
+        <v>3987130.285935042</v>
       </c>
     </row>
     <row r="122" spans="1:11">
@@ -4674,34 +4674,34 @@
         <v>443</v>
       </c>
       <c r="B122" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C122" t="s">
         <v>15</v>
       </c>
       <c r="D122" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E122">
         <v>166.142</v>
       </c>
       <c r="F122">
-        <v>99.45687020947949</v>
+        <v>1116453.958068163</v>
       </c>
       <c r="G122">
-        <v>18.89431012165045</v>
+        <v>4841236.827604567</v>
       </c>
       <c r="H122">
-        <v>1556.415657095551</v>
+        <v>3985793.458552225</v>
       </c>
       <c r="I122">
-        <v>-1419.120599203206</v>
+        <v>1115351.012394824</v>
       </c>
       <c r="J122">
-        <v>813.8590277418172</v>
+        <v>4842543.731735691</v>
       </c>
       <c r="K122">
-        <v>1377.286598556215</v>
+        <v>3987237.149129055</v>
       </c>
     </row>
     <row r="123" spans="1:11">
@@ -4709,34 +4709,34 @@
         <v>443</v>
       </c>
       <c r="B123" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C123" t="s">
         <v>15</v>
       </c>
       <c r="D123" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E123">
         <v>167.142</v>
       </c>
       <c r="F123">
-        <v>93.0878221234567</v>
+        <v>1116448.016564507</v>
       </c>
       <c r="G123">
-        <v>38.90740658726028</v>
+        <v>4841253.340412435</v>
       </c>
       <c r="H123">
-        <v>1599.7389296518</v>
+        <v>3985833.19613235</v>
       </c>
       <c r="I123">
-        <v>-1360.746429393459</v>
+        <v>1115392.641923689</v>
       </c>
       <c r="J123">
-        <v>783.8368866769842</v>
+        <v>4842495.080131589</v>
       </c>
       <c r="K123">
-        <v>1421.228987903741</v>
+        <v>3987328.863691946</v>
       </c>
     </row>
     <row r="124" spans="1:11">
@@ -4744,34 +4744,34 @@
         <v>443</v>
       </c>
       <c r="B124" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C124" t="s">
         <v>15</v>
       </c>
       <c r="D124" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E124">
         <v>168.142</v>
       </c>
       <c r="F124">
-        <v>87.79924279308932</v>
+        <v>1116443.082999396</v>
       </c>
       <c r="G124">
-        <v>58.9205030528701</v>
+        <v>4841269.853220304</v>
       </c>
       <c r="H124">
-        <v>1637.989092320918</v>
+        <v>3985868.28048342</v>
       </c>
       <c r="I124">
-        <v>-1300.934849355398</v>
+        <v>1115435.296541403</v>
       </c>
       <c r="J124">
-        <v>753.8147456121511</v>
+        <v>4842446.428527487</v>
       </c>
       <c r="K124">
-        <v>1457.913347273259</v>
+        <v>3987405.429623713</v>
       </c>
     </row>
     <row r="125" spans="1:11">
@@ -4779,34 +4779,34 @@
         <v>443</v>
       </c>
       <c r="B125" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C125" t="s">
         <v>15</v>
       </c>
       <c r="D125" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E125">
         <v>169.142</v>
       </c>
       <c r="F125">
-        <v>83.31756972675622</v>
+        <v>1116438.902174169</v>
       </c>
       <c r="G125">
-        <v>78.93359951847995</v>
+        <v>4841286.366028171</v>
       </c>
       <c r="H125">
-        <v>1672.230684947126</v>
+        <v>3985899.688037613</v>
       </c>
       <c r="I125">
-        <v>-1239.650464184544</v>
+        <v>1115479.001489837</v>
       </c>
       <c r="J125">
-        <v>723.7926045473181</v>
+        <v>4842397.776923385</v>
       </c>
       <c r="K125">
-        <v>1487.339676664768</v>
+        <v>3987466.846924358</v>
       </c>
     </row>
     <row r="126" spans="1:11">
@@ -4814,34 +4814,34 @@
         <v>443</v>
       </c>
       <c r="B126" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C126" t="s">
         <v>15</v>
       </c>
       <c r="D126" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E126">
         <v>170.142</v>
       </c>
       <c r="F126">
-        <v>79.45704561377622</v>
+        <v>1116435.300801119</v>
       </c>
       <c r="G126">
-        <v>98.94669598408976</v>
+        <v>4841302.878836039</v>
       </c>
       <c r="H126">
-        <v>1703.224764609822</v>
+        <v>3985928.116862384</v>
       </c>
       <c r="I126">
-        <v>-1176.857007409458</v>
+        <v>1115523.782632419</v>
       </c>
       <c r="J126">
-        <v>693.7704634824851</v>
+        <v>4842349.125319281</v>
       </c>
       <c r="K126">
-        <v>1509.507976078269</v>
+        <v>3987513.115593879</v>
       </c>
     </row>
     <row r="127" spans="1:11">
@@ -4849,34 +4849,34 @@
         <v>443</v>
       </c>
       <c r="B127" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C127" t="s">
         <v>15</v>
       </c>
       <c r="D127" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E127">
         <v>171.142</v>
       </c>
       <c r="F127">
-        <v>76.0866085831681</v>
+        <v>1116432.156616358</v>
       </c>
       <c r="G127">
-        <v>118.9597924496996</v>
+        <v>4841319.391643907</v>
       </c>
       <c r="H127">
-        <v>1731.53431741107</v>
+        <v>3985954.083347748</v>
       </c>
       <c r="I127">
-        <v>-1112.517319530208</v>
+        <v>1115569.666469439</v>
       </c>
       <c r="J127">
-        <v>663.748322417652</v>
+        <v>4842300.473715179</v>
       </c>
       <c r="K127">
-        <v>1524.418245513762</v>
+        <v>3987544.235632279</v>
       </c>
     </row>
     <row r="128" spans="1:11">
@@ -4884,34 +4884,34 @@
         <v>443</v>
       </c>
       <c r="B128" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C128" t="s">
         <v>15</v>
       </c>
       <c r="D128" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E128">
         <v>172.142</v>
       </c>
       <c r="F128">
-        <v>73.11083124067768</v>
+        <v>1116429.380598384</v>
       </c>
       <c r="G128">
-        <v>138.9728889153094</v>
+        <v>4841335.904451774</v>
       </c>
       <c r="H128">
-        <v>1757.587537681149</v>
+        <v>3985977.980248118</v>
       </c>
       <c r="I128">
-        <v>-1046.593326028358</v>
+        <v>1115616.680153733</v>
       </c>
       <c r="J128">
-        <v>633.726181352819</v>
+        <v>4842251.822111076</v>
       </c>
       <c r="K128">
-        <v>1532.070484971247</v>
+        <v>3987560.207039556</v>
       </c>
     </row>
     <row r="129" spans="1:11">
@@ -4919,34 +4919,34 @@
         <v>443</v>
       </c>
       <c r="B129" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C129" t="s">
         <v>15</v>
       </c>
       <c r="D129" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E129">
         <v>173.142</v>
       </c>
       <c r="F129">
-        <v>70.4583812607826</v>
+        <v>1116426.906203304</v>
       </c>
       <c r="G129">
-        <v>158.9859853809192</v>
+        <v>4841352.417259643</v>
       </c>
       <c r="H129">
-        <v>1781.717695351593</v>
+        <v>3986000.11325002</v>
       </c>
       <c r="I129">
-        <v>-979.0460148354862</v>
+        <v>1115664.851506751</v>
       </c>
       <c r="J129">
-        <v>603.704040287986</v>
+        <v>4842203.170506974</v>
       </c>
       <c r="K129">
-        <v>1532.464694450724</v>
+        <v>3987561.029815709</v>
       </c>
     </row>
     <row r="130" spans="1:11">
@@ -4954,34 +4954,34 @@
         <v>443</v>
       </c>
       <c r="B130" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C130" t="s">
         <v>15</v>
       </c>
       <c r="D130" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E130">
         <v>174.142</v>
       </c>
       <c r="F130">
-        <v>68.0747360550758</v>
+        <v>1116424.682568545</v>
       </c>
       <c r="G130">
-        <v>178.9990818465291</v>
+        <v>4841368.93006751</v>
       </c>
       <c r="H130">
-        <v>1804.189273327845</v>
+        <v>3986020.724946175</v>
       </c>
       <c r="I130">
-        <v>-909.8354132468775</v>
+        <v>1115714.20903502</v>
       </c>
       <c r="J130">
-        <v>573.6818992231529</v>
+        <v>4842154.518902871</v>
       </c>
       <c r="K130">
-        <v>1525.600873952192</v>
+        <v>3987546.70396074</v>
       </c>
     </row>
     <row r="131" spans="1:11">
@@ -4989,34 +4989,34 @@
         <v>443</v>
       </c>
       <c r="B131" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C131" t="s">
         <v>15</v>
       </c>
       <c r="D131" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E131">
         <v>175.142</v>
       </c>
       <c r="F131">
-        <v>65.91741692491003</v>
+        <v>1116422.670066939</v>
       </c>
       <c r="G131">
-        <v>199.0121783121389</v>
+        <v>4841385.442875378</v>
       </c>
       <c r="H131">
-        <v>1825.215685229221</v>
+        <v>3986040.011086819</v>
       </c>
       <c r="I131">
-        <v>-838.9205642667346</v>
+        <v>1115764.781947014</v>
       </c>
       <c r="J131">
-        <v>543.6597581583198</v>
+        <v>4842105.867298768</v>
       </c>
       <c r="K131">
-        <v>1511.479023475652</v>
+        <v>3987517.229474648</v>
       </c>
     </row>
     <row r="132" spans="1:11">
@@ -5024,34 +5024,34 @@
         <v>443</v>
       </c>
       <c r="B132" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C132" t="s">
         <v>15</v>
       </c>
       <c r="D132" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E132">
         <v>176.142</v>
       </c>
       <c r="F132">
-        <v>63.95277503904644</v>
+        <v>1116420.83730845</v>
       </c>
       <c r="G132">
-        <v>219.0252747777488</v>
+        <v>4841401.955683246</v>
       </c>
       <c r="H132">
-        <v>1844.971632085166</v>
+        <v>3986058.131913682</v>
       </c>
       <c r="I132">
-        <v>-766.2595023709208</v>
+        <v>1115816.600170441</v>
       </c>
       <c r="J132">
-        <v>513.6376170934868</v>
+        <v>4842057.215694666</v>
       </c>
       <c r="K132">
-        <v>1490.099143021105</v>
+        <v>3987472.606357434</v>
       </c>
     </row>
     <row r="133" spans="1:11">
@@ -5059,34 +5059,34 @@
         <v>443</v>
       </c>
       <c r="B133" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C133" t="s">
         <v>15</v>
       </c>
       <c r="D133" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E133">
         <v>177.142</v>
       </c>
       <c r="F133">
-        <v>62.15376603229595</v>
+        <v>1116419.159064159</v>
       </c>
       <c r="G133">
-        <v>239.0383712433585</v>
+        <v>4841418.468491114</v>
       </c>
       <c r="H133">
-        <v>1863.601933980588</v>
+        <v>3986075.220260676</v>
       </c>
       <c r="I133">
-        <v>-691.809228672874</v>
+        <v>1115869.694369947</v>
       </c>
       <c r="J133">
-        <v>483.6154760286537</v>
+        <v>4842008.564090562</v>
       </c>
       <c r="K133">
-        <v>1461.461232588549</v>
+        <v>3987412.834609097</v>
       </c>
     </row>
     <row r="134" spans="1:11">
@@ -5094,34 +5094,34 @@
         <v>443</v>
       </c>
       <c r="B134" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C134" t="s">
         <v>15</v>
       </c>
       <c r="D134" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E134">
         <v>178.142</v>
       </c>
       <c r="F134">
-        <v>60.49837318460136</v>
+        <v>1116417.614795294</v>
       </c>
       <c r="G134">
-        <v>259.0514677089684</v>
+        <v>4841434.981298982</v>
       </c>
       <c r="H134">
-        <v>1881.227978520108</v>
+        <v>3986091.387468642</v>
       </c>
       <c r="I134">
-        <v>-615.525685478009</v>
+        <v>1115924.09596527</v>
       </c>
       <c r="J134">
-        <v>453.5933349638208</v>
+        <v>4841959.91248646</v>
       </c>
       <c r="K134">
-        <v>1425.565292177985</v>
+        <v>3987337.914229637</v>
       </c>
     </row>
     <row r="135" spans="1:11">
@@ -5129,34 +5129,34 @@
         <v>443</v>
       </c>
       <c r="B135" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C135" t="s">
         <v>15</v>
       </c>
       <c r="D135" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E135">
         <v>179.142</v>
       </c>
       <c r="F135">
-        <v>58.96846720130182</v>
+        <v>1116416.187589553</v>
       </c>
       <c r="G135">
-        <v>279.0645641745783</v>
+        <v>4841451.49410685</v>
       </c>
       <c r="H135">
-        <v>1897.952518463367</v>
+        <v>3986106.727785909</v>
       </c>
       <c r="I135">
-        <v>-537.3637302115424</v>
+        <v>1115979.83714983</v>
       </c>
       <c r="J135">
-        <v>423.5711938989876</v>
+        <v>4841911.260882357</v>
       </c>
       <c r="K135">
-        <v>1382.411321789412</v>
+        <v>3987247.845219055</v>
       </c>
     </row>
     <row r="136" spans="1:11">
@@ -5164,34 +5164,34 @@
         <v>443</v>
       </c>
       <c r="B136" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C136" t="s">
         <v>15</v>
       </c>
       <c r="D136" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E136">
         <v>180.142</v>
       </c>
       <c r="F136">
-        <v>57.54896667200856</v>
+        <v>1116414.863377918</v>
       </c>
       <c r="G136">
-        <v>299.077660640188</v>
+        <v>4841468.006914717</v>
       </c>
       <c r="H136">
-        <v>1913.863301066293</v>
+        <v>3986121.321697246</v>
       </c>
       <c r="I136">
-        <v>-457.2771087043196</v>
+        <v>1116036.950909778</v>
       </c>
       <c r="J136">
-        <v>393.5490528341546</v>
+        <v>4841862.609278255</v>
       </c>
       <c r="K136">
-        <v>1331.999321422832</v>
+        <v>3987142.62757735</v>
       </c>
     </row>
     <row r="137" spans="1:11">
@@ -5199,34 +5199,34 @@
         <v>443</v>
       </c>
       <c r="B137" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C137" t="s">
         <v>15</v>
       </c>
       <c r="D137" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E137">
         <v>181.142</v>
       </c>
       <c r="F137">
-        <v>56.22720984786336</v>
+        <v>1116413.630348602</v>
       </c>
       <c r="G137">
-        <v>319.0907571057979</v>
+        <v>4841484.519722586</v>
       </c>
       <c r="H137">
-        <v>1929.035854727583</v>
+        <v>3986135.238479872</v>
       </c>
       <c r="I137">
-        <v>-375.2184278208225</v>
+        <v>1116095.471043522</v>
       </c>
       <c r="J137">
-        <v>363.5269117693216</v>
+        <v>4841813.957674151</v>
       </c>
       <c r="K137">
-        <v>1274.329291078244</v>
+        <v>3987022.261304522</v>
       </c>
     </row>
     <row r="138" spans="1:11">
@@ -5234,34 +5234,34 @@
         <v>443</v>
       </c>
       <c r="B138" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C138" t="s">
         <v>15</v>
       </c>
       <c r="D138" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E138">
         <v>182.142</v>
       </c>
       <c r="F138">
-        <v>54.99247766245112</v>
+        <v>1116412.478502095</v>
       </c>
       <c r="G138">
-        <v>339.1038535714077</v>
+        <v>4841501.032530454</v>
       </c>
       <c r="H138">
-        <v>1943.535657355199</v>
+        <v>3986148.538192353</v>
       </c>
       <c r="I138">
-        <v>-291.1391274131715</v>
+        <v>1116155.432181721</v>
       </c>
       <c r="J138">
-        <v>333.5047707044885</v>
+        <v>4841765.306070049</v>
       </c>
       <c r="K138">
-        <v>1209.401230755647</v>
+        <v>3986886.746400571</v>
       </c>
     </row>
     <row r="139" spans="1:11">
@@ -5269,34 +5269,34 @@
         <v>443</v>
       </c>
       <c r="B139" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C139" t="s">
         <v>15</v>
       </c>
       <c r="D139" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E139">
         <v>183.142</v>
       </c>
       <c r="F139">
-        <v>53.83562679125554</v>
+        <v>1116411.399308848</v>
       </c>
       <c r="G139">
-        <v>359.1169500370175</v>
+        <v>4841517.545338321</v>
       </c>
       <c r="H139">
-        <v>1957.419844097251</v>
+        <v>3986161.273240991</v>
       </c>
       <c r="I139">
-        <v>-204.9894515845196</v>
+        <v>1116216.869807786</v>
       </c>
       <c r="J139">
-        <v>303.4826296396556</v>
+        <v>4841716.654465946</v>
       </c>
       <c r="K139">
-        <v>1137.215140455042</v>
+        <v>3986736.082865498</v>
       </c>
     </row>
     <row r="140" spans="1:11">
@@ -5304,34 +5304,34 @@
         <v>443</v>
       </c>
       <c r="B140" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C140" t="s">
         <v>15</v>
       </c>
       <c r="D140" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E140">
         <v>184.142</v>
       </c>
       <c r="F140">
-        <v>52.74880397026105</v>
+        <v>1116410.385442776</v>
       </c>
       <c r="G140">
-        <v>379.1300465026274</v>
+        <v>4841534.058146189</v>
       </c>
       <c r="H140">
-        <v>1970.73856709288</v>
+        <v>3986173.489627034</v>
       </c>
       <c r="I140">
-        <v>-116.7184192448355</v>
+        <v>1116279.82027887</v>
       </c>
       <c r="J140">
-        <v>273.4604885748225</v>
+        <v>4841668.002861844</v>
       </c>
       <c r="K140">
-        <v>1057.771020176429</v>
+        <v>3986570.270699302</v>
       </c>
     </row>
     <row r="141" spans="1:11">
@@ -5339,34 +5339,34 @@
         <v>443</v>
       </c>
       <c r="B141" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C141" t="s">
         <v>15</v>
       </c>
       <c r="D141" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E141">
         <v>185.142</v>
       </c>
       <c r="F141">
-        <v>51.7252211394424</v>
+        <v>1116409.430571491</v>
       </c>
       <c r="G141">
-        <v>399.1431429682372</v>
+        <v>4841550.570954056</v>
       </c>
       <c r="H141">
-        <v>1983.536089010084</v>
+        <v>3986185.227949709</v>
       </c>
       <c r="I141">
-        <v>-26.27379394164779</v>
+        <v>1116344.320847392</v>
       </c>
       <c r="J141">
-        <v>243.4383475099894</v>
+        <v>4841619.351257741</v>
       </c>
       <c r="K141">
-        <v>971.0688699198073</v>
+        <v>3986389.309901983</v>
       </c>
     </row>
     <row r="142" spans="1:11">
@@ -5374,34 +5374,34 @@
         <v>443</v>
       </c>
       <c r="B142" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C142" t="s">
         <v>15</v>
       </c>
       <c r="D142" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E142">
         <v>186.142</v>
       </c>
       <c r="F142">
-        <v>50.75897668276293</v>
+        <v>1116408.529189543</v>
       </c>
       <c r="G142">
-        <v>419.156239433847</v>
+        <v>4841567.083761925</v>
       </c>
       <c r="H142">
-        <v>1995.851670564173</v>
+        <v>3986196.524220279</v>
       </c>
       <c r="I142">
-        <v>66.39794705210164</v>
+        <v>1116410.409683074</v>
       </c>
       <c r="J142">
-        <v>213.4162064451564</v>
+        <v>4841570.699653639</v>
       </c>
       <c r="K142">
-        <v>877.1086896851781</v>
+        <v>3986193.200473542</v>
       </c>
     </row>
     <row r="143" spans="1:11">
@@ -5409,34 +5409,34 @@
         <v>443</v>
       </c>
       <c r="B143" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C143" t="s">
         <v>15</v>
       </c>
       <c r="D143" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E143">
         <v>187.142</v>
       </c>
       <c r="F143">
-        <v>49.84491200201914</v>
+        <v>1116407.676484622</v>
       </c>
       <c r="G143">
-        <v>439.1693358994568</v>
+        <v>4841583.596569793</v>
       </c>
       <c r="H143">
-        <v>2007.720296906685</v>
+        <v>3986207.410528317</v>
       </c>
       <c r="I143">
-        <v>161.3516444113836</v>
+        <v>1116478.125895534</v>
       </c>
       <c r="J143">
-        <v>183.3940653803233</v>
+        <v>4841522.048049536</v>
       </c>
       <c r="K143">
-        <v>775.8904794725406</v>
+        <v>3985981.942413978</v>
       </c>
     </row>
     <row r="144" spans="1:11">
@@ -5444,34 +5444,34 @@
         <v>443</v>
       </c>
       <c r="B144" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C144" t="s">
         <v>15</v>
       </c>
       <c r="D144" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E144">
         <v>188.142</v>
       </c>
       <c r="F144">
-        <v>48.97849545977824</v>
+        <v>1116406.868229294</v>
       </c>
       <c r="G144">
-        <v>459.1824323650667</v>
+        <v>4841600.10937766</v>
       </c>
       <c r="H144">
-        <v>2019.173276762052</v>
+        <v>3986217.915591251</v>
       </c>
       <c r="I144">
-        <v>258.643489212339</v>
+        <v>1116547.509557428</v>
       </c>
       <c r="J144">
-        <v>153.3719243154904</v>
+        <v>4841473.396445434</v>
       </c>
       <c r="K144">
-        <v>667.4142392818952</v>
+        <v>3985755.535723291</v>
       </c>
     </row>
     <row r="145" spans="1:11">
@@ -5479,34 +5479,34 @@
         <v>443</v>
       </c>
       <c r="B145" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C145" t="s">
         <v>15</v>
       </c>
       <c r="D145" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E145">
         <v>189.142</v>
       </c>
       <c r="F145">
-        <v>48.15572772812661</v>
+        <v>1116406.100692698</v>
       </c>
       <c r="G145">
-        <v>479.1955288306766</v>
+        <v>4841616.622185528</v>
       </c>
       <c r="H145">
-        <v>2030.238740160106</v>
+        <v>3986228.0652109</v>
       </c>
       <c r="I145">
-        <v>358.3310561846608</v>
+        <v>1116618.601728165</v>
       </c>
       <c r="J145">
-        <v>123.3497832506573</v>
+        <v>4841424.744841331</v>
       </c>
       <c r="K145">
-        <v>551.679969113241</v>
+        <v>3985513.980401481</v>
       </c>
     </row>
     <row r="146" spans="1:11">
@@ -5514,34 +5514,34 @@
         <v>443</v>
       </c>
       <c r="B146" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C146" t="s">
         <v>15</v>
       </c>
       <c r="D146" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E146">
         <v>190.142</v>
       </c>
       <c r="F146">
-        <v>47.37306403005935</v>
+        <v>1116405.370568014</v>
       </c>
       <c r="G146">
-        <v>499.2086252962863</v>
+        <v>4841633.134993397</v>
       </c>
       <c r="H146">
-        <v>2040.942054687119</v>
+        <v>3986237.882655279</v>
       </c>
       <c r="I146">
-        <v>460.4733377827971</v>
+        <v>1116691.444478202</v>
       </c>
       <c r="J146">
-        <v>93.32764218582419</v>
+        <v>4841376.093237228</v>
       </c>
       <c r="K146">
-        <v>428.687668966579</v>
+        <v>3985257.276448549</v>
       </c>
     </row>
     <row r="147" spans="1:11">
@@ -5549,34 +5549,34 @@
         <v>443</v>
       </c>
       <c r="B147" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C147" t="s">
         <v>15</v>
       </c>
       <c r="D147" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E147">
         <v>191.142</v>
       </c>
       <c r="F147">
-        <v>46.62734982347205</v>
+        <v>1116404.674912458</v>
       </c>
       <c r="G147">
-        <v>519.2217217618961</v>
+        <v>4841649.647801264</v>
       </c>
       <c r="H147">
-        <v>2051.306175755952</v>
+        <v>3986247.388979872</v>
       </c>
       <c r="I147">
-        <v>565.1307790961099</v>
+        <v>1116766.080913945</v>
       </c>
       <c r="J147">
-        <v>63.30550112099123</v>
+        <v>4841327.441633126</v>
       </c>
       <c r="K147">
-        <v>298.4373388419091</v>
+        <v>3984985.423864494</v>
       </c>
     </row>
     <row r="148" spans="1:11">
@@ -5584,34 +5584,34 @@
         <v>443</v>
       </c>
       <c r="B148" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C148" t="s">
         <v>15</v>
       </c>
       <c r="D148" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E148">
         <v>192.142</v>
       </c>
       <c r="F148">
-        <v>45.9157672657492</v>
+        <v>1116404.011097346</v>
       </c>
       <c r="G148">
-        <v>539.2348182275059</v>
+        <v>4841666.160609132</v>
       </c>
       <c r="H148">
-        <v>2061.35194306114</v>
+        <v>3986256.60329956</v>
       </c>
       <c r="I148">
-        <v>672.3653136186847</v>
+        <v>1116842.555203254</v>
       </c>
       <c r="J148">
-        <v>33.28336005615813</v>
+        <v>4841278.790029023</v>
       </c>
       <c r="K148">
-        <v>160.9289787392306</v>
+        <v>3984698.422649316</v>
       </c>
     </row>
     <row r="149" spans="1:11">
@@ -5619,34 +5619,34 @@
         <v>443</v>
       </c>
       <c r="B149" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C149" t="s">
         <v>15</v>
       </c>
       <c r="D149" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E149">
         <v>193.142</v>
       </c>
       <c r="F149">
-        <v>45.23579038705353</v>
+        <v>1116403.376766272</v>
       </c>
       <c r="G149">
-        <v>559.2479146931158</v>
+        <v>4841682.673417</v>
       </c>
       <c r="H149">
-        <v>2071.098332845543</v>
+        <v>3986265.543019995</v>
       </c>
       <c r="I149">
-        <v>782.2403998999142</v>
+        <v>1116920.912601582</v>
       </c>
       <c r="J149">
-        <v>3.261218991325039</v>
+        <v>4841230.13842492</v>
       </c>
       <c r="K149">
-        <v>16.16258865854397</v>
+        <v>3984396.272803016</v>
       </c>
     </row>
     <row r="150" spans="1:11">
@@ -5654,34 +5654,34 @@
         <v>443</v>
       </c>
       <c r="B150" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C150" t="s">
         <v>15</v>
       </c>
       <c r="D150" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E150">
         <v>194.142</v>
       </c>
       <c r="F150">
-        <v>44.5851473465724</v>
+        <v>1116402.769799901</v>
       </c>
       <c r="G150">
-        <v>579.2610111587256</v>
+        <v>4841699.186224868</v>
       </c>
       <c r="H150">
-        <v>2080.562673654159</v>
+        <v>3986274.224035509</v>
       </c>
       <c r="I150">
-        <v>894.8210590975923</v>
+        <v>1117001.199478756</v>
       </c>
       <c r="J150">
-        <v>-26.76092207350791</v>
+        <v>4841181.486820817</v>
       </c>
       <c r="K150">
-        <v>-135.8618314001503</v>
+        <v>3984078.974325592</v>
       </c>
     </row>
     <row r="151" spans="1:11">
@@ -5689,34 +5689,34 @@
         <v>443</v>
       </c>
       <c r="B151" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C151" t="s">
         <v>15</v>
       </c>
       <c r="D151" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E151">
         <v>195.142</v>
       </c>
       <c r="F151">
-        <v>43.96178848630796</v>
+        <v>1116402.188286165</v>
       </c>
       <c r="G151">
-        <v>599.2741076243354</v>
+        <v>4841715.699032736</v>
       </c>
       <c r="H151">
-        <v>2089.760831738882</v>
+        <v>3986282.66089917</v>
       </c>
       <c r="I151">
-        <v>1010.173913455706</v>
+        <v>1117083.463346418</v>
       </c>
       <c r="J151">
-        <v>-56.78306313834101</v>
+        <v>4841132.835216715</v>
       </c>
       <c r="K151">
-        <v>-295.1442814368532</v>
+        <v>3983746.527217047</v>
       </c>
     </row>
     <row r="152" spans="1:11">
@@ -5724,34 +5724,34 @@
         <v>443</v>
       </c>
       <c r="B152" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C152" t="s">
         <v>15</v>
       </c>
       <c r="D152" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E152">
         <v>196.142</v>
       </c>
       <c r="F152">
-        <v>43.36385915879303</v>
+        <v>1116401.630494917</v>
       </c>
       <c r="G152">
-        <v>619.2872040899454</v>
+        <v>4841732.211840604</v>
       </c>
       <c r="H152">
-        <v>2098.70737109722</v>
+        <v>3986290.866969571</v>
       </c>
       <c r="I152">
-        <v>1128.36722572971</v>
+        <v>1117167.75288614</v>
       </c>
       <c r="J152">
-        <v>-86.8052042031741</v>
+        <v>4841084.183612611</v>
       </c>
       <c r="K152">
-        <v>-461.6847614515647</v>
+        <v>3983398.931477378</v>
       </c>
     </row>
     <row r="153" spans="1:11">
@@ -5759,34 +5759,34 @@
         <v>443</v>
       </c>
       <c r="B153" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C153" t="s">
         <v>15</v>
       </c>
       <c r="D153" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E153">
         <v>197.142</v>
       </c>
       <c r="F153">
-        <v>42.78967650809651</v>
+        <v>1116401.094856267</v>
       </c>
       <c r="G153">
-        <v>639.3003005555552</v>
+        <v>4841748.724648471</v>
       </c>
       <c r="H153">
-        <v>2107.415692198802</v>
+        <v>3986298.854538079</v>
       </c>
       <c r="I153">
-        <v>1249.470939582607</v>
+        <v>1117254.117978232</v>
       </c>
       <c r="J153">
-        <v>-116.8273452680072</v>
+        <v>4841035.532008509</v>
       </c>
       <c r="K153">
-        <v>-635.483271444284</v>
+        <v>3983036.187106587</v>
       </c>
     </row>
     <row r="154" spans="1:11">
@@ -5794,34 +5794,34 @@
         <v>443</v>
       </c>
       <c r="B154" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C154" t="s">
         <v>15</v>
       </c>
       <c r="D154" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E154">
         <v>198.142</v>
       </c>
       <c r="F154">
-        <v>42.23770954202439</v>
+        <v>1116400.579941997</v>
       </c>
       <c r="G154">
-        <v>659.3133970211649</v>
+        <v>4841765.237456339</v>
       </c>
       <c r="H154">
-        <v>2115.898152717275</v>
+        <v>3986306.634939573</v>
       </c>
       <c r="I154">
-        <v>1373.556720975757</v>
+        <v>1117342.609731264</v>
       </c>
       <c r="J154">
-        <v>-146.84948633284</v>
+        <v>4840986.880404406</v>
       </c>
       <c r="K154">
-        <v>-816.5398114150101</v>
+        <v>3982658.294104673</v>
       </c>
     </row>
     <row r="155" spans="1:11">
@@ -5829,34 +5829,34 @@
         <v>443</v>
       </c>
       <c r="B155" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C155" t="s">
         <v>15</v>
       </c>
       <c r="D155" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E155">
         <v>199.142</v>
       </c>
       <c r="F155">
-        <v>41.70656195813454</v>
+        <v>1116400.084449535</v>
       </c>
       <c r="G155">
-        <v>679.3264934867748</v>
+        <v>4841781.750264207</v>
       </c>
       <c r="H155">
-        <v>2124.166172997855</v>
+        <v>3986314.218649182</v>
       </c>
       <c r="I155">
-        <v>1500.698000578889</v>
+        <v>1117433.280512302</v>
       </c>
       <c r="J155">
-        <v>-176.8716273976731</v>
+        <v>4840938.228800304</v>
       </c>
       <c r="K155">
-        <v>-1004.854381363746</v>
+        <v>3982265.252471636</v>
       </c>
     </row>
     <row r="156" spans="1:11">
@@ -5864,34 +5864,34 @@
         <v>443</v>
       </c>
       <c r="B156" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C156" t="s">
         <v>15</v>
       </c>
       <c r="D156" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E156">
         <v>200.142</v>
       </c>
       <c r="F156">
-        <v>41.19495728492488</v>
+        <v>1116399.607188099</v>
       </c>
       <c r="G156">
-        <v>699.3395899523846</v>
+        <v>4841798.263072075</v>
       </c>
       <c r="H156">
-        <v>2132.230328519421</v>
+        <v>3986321.615367095</v>
       </c>
       <c r="I156">
-        <v>1630.970017224415</v>
+        <v>1117526.183977908</v>
       </c>
       <c r="J156">
-        <v>-206.8937684625062</v>
+        <v>4840889.5771962</v>
       </c>
       <c r="K156">
-        <v>-1200.426981290489</v>
+        <v>3981857.062207476</v>
       </c>
     </row>
     <row r="157" spans="1:11">
@@ -5899,34 +5899,34 @@
         <v>443</v>
       </c>
       <c r="B157" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C157" t="s">
         <v>15</v>
       </c>
       <c r="D157" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E157">
         <v>201.142</v>
       </c>
       <c r="F157">
-        <v>40.70172597823169</v>
+        <v>1116399.147066654</v>
       </c>
       <c r="G157">
-        <v>719.3526864179944</v>
+        <v>4841814.775879943</v>
       </c>
       <c r="H157">
-        <v>2140.100431229385</v>
+        <v>3986328.834093165</v>
       </c>
       <c r="I157">
-        <v>1764.449862431779</v>
+        <v>1117621.375105885</v>
       </c>
       <c r="J157">
-        <v>-236.9159095273393</v>
+        <v>4840840.925592098</v>
       </c>
       <c r="K157">
-        <v>-1403.257611195242</v>
+        <v>3981433.723312194</v>
       </c>
     </row>
     <row r="158" spans="1:11">
@@ -5934,34 +5934,34 @@
         <v>443</v>
       </c>
       <c r="B158" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C158" t="s">
         <v>15</v>
       </c>
       <c r="D158" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E158">
         <v>202.142</v>
       </c>
       <c r="F158">
-        <v>40.22579417593499</v>
+        <v>1116398.703083423</v>
       </c>
       <c r="G158">
-        <v>739.3657828836043</v>
+        <v>4841831.28868781</v>
       </c>
       <c r="H158">
-        <v>2147.785601320578</v>
+        <v>3986335.883192743</v>
       </c>
       <c r="I158">
-        <v>1901.216526028171</v>
+        <v>1117718.910227814</v>
       </c>
       <c r="J158">
-        <v>-266.9380505921724</v>
+        <v>4840792.273987995</v>
       </c>
       <c r="K158">
-        <v>-1613.346271078002</v>
+        <v>3980995.235785789</v>
       </c>
     </row>
     <row r="159" spans="1:11">
@@ -5969,34 +5969,34 @@
         <v>443</v>
       </c>
       <c r="B159" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C159" t="s">
         <v>15</v>
       </c>
       <c r="D159" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E159">
         <v>203.142</v>
       </c>
       <c r="F159">
-        <v>39.76617386489128</v>
+        <v>1116398.274316719</v>
       </c>
       <c r="G159">
-        <v>759.3788793492141</v>
+        <v>4841847.801495679</v>
       </c>
       <c r="H159">
-        <v>2155.294330767068</v>
+        <v>3986342.770454956</v>
       </c>
       <c r="I159">
-        <v>2041.350942892596</v>
+        <v>1117818.84706239</v>
       </c>
       <c r="J159">
-        <v>-296.9601916570052</v>
+        <v>4840743.622383893</v>
       </c>
       <c r="K159">
-        <v>-1830.692960938768</v>
+        <v>3980541.599628262</v>
       </c>
     </row>
     <row r="160" spans="1:11">
@@ -6004,34 +6004,34 @@
         <v>443</v>
       </c>
       <c r="B160" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C160" t="s">
         <v>15</v>
       </c>
       <c r="D160" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E160">
         <v>204.142</v>
       </c>
       <c r="F160">
-        <v>39.3219542552042</v>
+        <v>1116397.85991689</v>
       </c>
       <c r="G160">
-        <v>779.3919758148238</v>
+        <v>4841864.314303547</v>
       </c>
       <c r="H160">
-        <v>2162.634539728923</v>
+        <v>3986349.503144444</v>
       </c>
       <c r="I160">
-        <v>2184.936040851012</v>
+        <v>1117921.244749577</v>
       </c>
       <c r="J160">
-        <v>-326.9823327218383</v>
+        <v>4840694.970779791</v>
       </c>
       <c r="K160">
-        <v>-2055.297680777545</v>
+        <v>3980072.814839612</v>
       </c>
     </row>
     <row r="161" spans="1:11">
@@ -6039,34 +6039,34 @@
         <v>443</v>
       </c>
       <c r="B161" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C161" t="s">
         <v>16</v>
       </c>
       <c r="D161" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E161">
         <v>152.142</v>
       </c>
       <c r="F161">
-        <v>132.707547480024</v>
+        <v>1116578.362297721</v>
       </c>
       <c r="G161">
-        <v>-90.94865344012294</v>
+        <v>4841122.892240627</v>
       </c>
       <c r="H161">
-        <v>936.5625415472814</v>
+        <v>3985232.126899272</v>
       </c>
       <c r="I161">
-        <v>-1675.601478040587</v>
+        <v>1114859.184468293</v>
       </c>
       <c r="J161">
-        <v>1291.013830528549</v>
+        <v>4843226.839088959</v>
       </c>
       <c r="K161">
-        <v>0</v>
+        <v>3984370.954762197</v>
       </c>
     </row>
     <row r="162" spans="1:11">
@@ -6074,34 +6074,34 @@
         <v>443</v>
       </c>
       <c r="B162" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C162" t="s">
         <v>16</v>
       </c>
       <c r="D162" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E162">
         <v>153.142</v>
       </c>
       <c r="F162">
-        <v>132.707547480024</v>
+        <v>1116578.362297721</v>
       </c>
       <c r="G162">
-        <v>-90.94865344012294</v>
+        <v>4841122.892240627</v>
       </c>
       <c r="H162">
-        <v>936.5625415472814</v>
+        <v>3985232.126899272</v>
       </c>
       <c r="I162">
-        <v>-1642.520643177483</v>
+        <v>1114888.798407036</v>
       </c>
       <c r="J162">
-        <v>1259.608893884077</v>
+        <v>4843178.187464918</v>
       </c>
       <c r="K162">
-        <v>333.7678932910207</v>
+        <v>3984674.750802482</v>
       </c>
     </row>
     <row r="163" spans="1:11">
@@ -6109,34 +6109,34 @@
         <v>443</v>
       </c>
       <c r="B163" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C163" t="s">
         <v>16</v>
       </c>
       <c r="D163" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E163">
         <v>154.142</v>
       </c>
       <c r="F163">
-        <v>132.707547480024</v>
+        <v>1116578.362297721</v>
       </c>
       <c r="G163">
-        <v>-90.94865344012294</v>
+        <v>4841122.892240627</v>
       </c>
       <c r="H163">
-        <v>936.5625415472814</v>
+        <v>3985232.126899272</v>
       </c>
       <c r="I163">
-        <v>-1608.625223189684</v>
+        <v>1114919.141561777</v>
       </c>
       <c r="J163">
-        <v>1228.203957239604</v>
+        <v>4843129.535840875</v>
       </c>
       <c r="K163">
-        <v>650.8925894854527</v>
+        <v>3984963.398179648</v>
       </c>
     </row>
     <row r="164" spans="1:11">
@@ -6144,34 +6144,34 @@
         <v>443</v>
       </c>
       <c r="B164" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C164" t="s">
         <v>16</v>
       </c>
       <c r="D164" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E164">
         <v>155.142</v>
       </c>
       <c r="F164">
-        <v>132.707547480024</v>
+        <v>1116578.362297721</v>
       </c>
       <c r="G164">
-        <v>-90.94865344012294</v>
+        <v>4841122.892240627</v>
       </c>
       <c r="H164">
-        <v>936.5625415472814</v>
+        <v>3985232.126899272</v>
       </c>
       <c r="I164">
-        <v>-1573.895159667901</v>
+        <v>1114950.231888789</v>
       </c>
       <c r="J164">
-        <v>1196.799020595132</v>
+        <v>4843080.884216834</v>
       </c>
       <c r="K164">
-        <v>951.3740885832985</v>
+        <v>3985236.896893694</v>
       </c>
     </row>
     <row r="165" spans="1:11">
@@ -6179,34 +6179,34 @@
         <v>443</v>
       </c>
       <c r="B165" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C165" t="s">
         <v>16</v>
       </c>
       <c r="D165" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E165">
         <v>156.142</v>
       </c>
       <c r="F165">
-        <v>132.707547480024</v>
+        <v>1116578.362297721</v>
       </c>
       <c r="G165">
-        <v>-90.94865344012294</v>
+        <v>4841122.892240627</v>
       </c>
       <c r="H165">
-        <v>936.5625415472814</v>
+        <v>3985232.126899272</v>
       </c>
       <c r="I165">
-        <v>-1538.309900282967</v>
+        <v>1114982.0877865</v>
       </c>
       <c r="J165">
-        <v>1165.39408395066</v>
+        <v>4843032.232592793</v>
       </c>
       <c r="K165">
-        <v>1235.212390584556</v>
+        <v>3985495.246944621</v>
       </c>
     </row>
     <row r="166" spans="1:11">
@@ -6214,34 +6214,34 @@
         <v>443</v>
       </c>
       <c r="B166" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C166" t="s">
         <v>16</v>
       </c>
       <c r="D166" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E166">
         <v>157.142</v>
       </c>
       <c r="F166">
-        <v>132.707547480024</v>
+        <v>1116578.362297721</v>
       </c>
       <c r="G166">
-        <v>-90.94865344012294</v>
+        <v>4841122.892240627</v>
       </c>
       <c r="H166">
-        <v>936.5625415472814</v>
+        <v>3985232.126899272</v>
       </c>
       <c r="I166">
-        <v>-1501.848386623516</v>
+        <v>1115014.728106386</v>
       </c>
       <c r="J166">
-        <v>1133.989147306187</v>
+        <v>4842983.580968752</v>
       </c>
       <c r="K166">
-        <v>1502.407495489228</v>
+        <v>3985738.448332428</v>
       </c>
     </row>
     <row r="167" spans="1:11">
@@ -6249,34 +6249,34 @@
         <v>443</v>
       </c>
       <c r="B167" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C167" t="s">
         <v>16</v>
       </c>
       <c r="D167" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E167">
         <v>158.142</v>
       </c>
       <c r="F167">
-        <v>132.707547480024</v>
+        <v>1116578.362297721</v>
       </c>
       <c r="G167">
-        <v>-90.94865344012294</v>
+        <v>4841122.892240627</v>
       </c>
       <c r="H167">
-        <v>936.5625415472814</v>
+        <v>3985232.126899272</v>
       </c>
       <c r="I167">
-        <v>-1464.489041734179</v>
+        <v>1115048.17216412</v>
       </c>
       <c r="J167">
-        <v>1102.584210661715</v>
+        <v>4842934.929344709</v>
       </c>
       <c r="K167">
-        <v>1752.959403297311</v>
+        <v>3985966.501057114</v>
       </c>
     </row>
     <row r="168" spans="1:11">
@@ -6284,34 +6284,34 @@
         <v>443</v>
       </c>
       <c r="B168" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C168" t="s">
         <v>16</v>
       </c>
       <c r="D168" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E168">
         <v>159.142</v>
       </c>
       <c r="F168">
-        <v>132.707547480024</v>
+        <v>1116578.362297721</v>
       </c>
       <c r="G168">
-        <v>-90.94865344012294</v>
+        <v>4841122.892240627</v>
       </c>
       <c r="H168">
-        <v>936.5625415472814</v>
+        <v>3985232.126899272</v>
       </c>
       <c r="I168">
-        <v>-1426.209757346909</v>
+        <v>1115082.439751008</v>
       </c>
       <c r="J168">
-        <v>1071.179274017242</v>
+        <v>4842886.277720668</v>
       </c>
       <c r="K168">
-        <v>1986.868114008808</v>
+        <v>3986179.405118682</v>
       </c>
     </row>
     <row r="169" spans="1:11">
@@ -6319,34 +6319,34 @@
         <v>443</v>
       </c>
       <c r="B169" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C169" t="s">
         <v>16</v>
       </c>
       <c r="D169" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E169">
         <v>160.142</v>
       </c>
       <c r="F169">
-        <v>132.707547480024</v>
+        <v>1116578.362297721</v>
       </c>
       <c r="G169">
-        <v>-75.93047072098774</v>
+        <v>4841139.405054137</v>
       </c>
       <c r="H169">
-        <v>936.5625415472814</v>
+        <v>3985232.126899272</v>
       </c>
       <c r="I169">
-        <v>-1386.987880797899</v>
+        <v>1115117.551145697</v>
       </c>
       <c r="J169">
-        <v>1039.77433737277</v>
+        <v>4842837.626096627</v>
       </c>
       <c r="K169">
-        <v>2204.133627623717</v>
+        <v>3986377.16051713</v>
       </c>
     </row>
     <row r="170" spans="1:11">
@@ -6354,34 +6354,34 @@
         <v>443</v>
       </c>
       <c r="B170" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C170" t="s">
         <v>16</v>
       </c>
       <c r="D170" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E170">
         <v>161.142</v>
       </c>
       <c r="F170">
-        <v>102.9965380370244</v>
+        <v>1116529.681740122</v>
       </c>
       <c r="G170">
-        <v>-60.91228800185255</v>
+        <v>4841155.917867647</v>
       </c>
       <c r="H170">
-        <v>1153.838749004634</v>
+        <v>3985431.381495967</v>
       </c>
       <c r="I170">
-        <v>-1346.800201622334</v>
+        <v>1115153.527126179</v>
       </c>
       <c r="J170">
-        <v>1008.369400728298</v>
+        <v>4842788.974472585</v>
       </c>
       <c r="K170">
-        <v>2404.755944142038</v>
+        <v>3986559.767252458</v>
       </c>
     </row>
     <row r="171" spans="1:11">
@@ -6389,34 +6389,34 @@
         <v>443</v>
       </c>
       <c r="B171" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C171" t="s">
         <v>16</v>
       </c>
       <c r="D171" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E171">
         <v>162.142</v>
       </c>
       <c r="F171">
-        <v>85.54281045438874</v>
+        <v>1116501.084354613</v>
       </c>
       <c r="G171">
-        <v>-45.89410528271737</v>
+        <v>4841172.430681158</v>
       </c>
       <c r="H171">
-        <v>1283.259570093337</v>
+        <v>3985550.067724025</v>
       </c>
       <c r="I171">
-        <v>-1305.622937819058</v>
+        <v>1115190.388982083</v>
       </c>
       <c r="J171">
-        <v>976.9644640838254</v>
+        <v>4842740.322848544</v>
       </c>
       <c r="K171">
-        <v>2588.735063563772</v>
+        <v>3986727.225324666</v>
       </c>
     </row>
     <row r="172" spans="1:11">
@@ -6424,34 +6424,34 @@
         <v>443</v>
       </c>
       <c r="B172" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C172" t="s">
         <v>16</v>
       </c>
       <c r="D172" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E172">
         <v>163.142</v>
       </c>
       <c r="F172">
-        <v>74.524737133988</v>
+        <v>1116483.03158687</v>
       </c>
       <c r="G172">
-        <v>-30.87592256358218</v>
+        <v>4841188.943494669</v>
       </c>
       <c r="H172">
-        <v>1375.747883706536</v>
+        <v>3985634.884749523</v>
       </c>
       <c r="I172">
-        <v>-1263.431721777013</v>
+        <v>1115228.158527276</v>
       </c>
       <c r="J172">
-        <v>945.559527439353</v>
+        <v>4842691.671224502</v>
       </c>
       <c r="K172">
-        <v>2756.07098588892</v>
+        <v>3986879.534733755</v>
       </c>
     </row>
     <row r="173" spans="1:11">
@@ -6459,34 +6459,34 @@
         <v>443</v>
       </c>
       <c r="B173" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C173" t="s">
         <v>16</v>
       </c>
       <c r="D173" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E173">
         <v>164.142</v>
       </c>
       <c r="F173">
-        <v>66.84077752532583</v>
+        <v>1116470.441659926</v>
       </c>
       <c r="G173">
-        <v>-15.85773984444698</v>
+        <v>4841205.45630818</v>
       </c>
       <c r="H173">
-        <v>1447.768483966483</v>
+        <v>3985700.931721838</v>
       </c>
       <c r="I173">
-        <v>-1220.201585855141</v>
+        <v>1115266.858112772</v>
       </c>
       <c r="J173">
-        <v>914.1545907948806</v>
+        <v>4842643.01960046</v>
       </c>
       <c r="K173">
-        <v>2906.76371111748</v>
+        <v>3987016.695479724</v>
       </c>
     </row>
     <row r="174" spans="1:11">
@@ -6494,34 +6494,34 @@
         <v>443</v>
       </c>
       <c r="B174" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C174" t="s">
         <v>16</v>
       </c>
       <c r="D174" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E174">
         <v>165.142</v>
       </c>
       <c r="F174">
-        <v>61.10831354892827</v>
+        <v>1116461.049197401</v>
       </c>
       <c r="G174">
-        <v>-0.8395571253118038</v>
+        <v>4841221.96912169</v>
       </c>
       <c r="H174">
-        <v>1506.758942006348</v>
+        <v>3985755.029315234</v>
       </c>
       <c r="I174">
-        <v>-1175.906947607189</v>
+        <v>1115306.510639958</v>
       </c>
       <c r="J174">
-        <v>882.7496541504083</v>
+        <v>4842594.36797642</v>
       </c>
       <c r="K174">
-        <v>3040.813239249452</v>
+        <v>3987138.707562573</v>
       </c>
     </row>
     <row r="175" spans="1:11">
@@ -6529,34 +6529,34 @@
         <v>443</v>
       </c>
       <c r="B175" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C175" t="s">
         <v>16</v>
       </c>
       <c r="D175" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E175">
         <v>166.142</v>
       </c>
       <c r="F175">
-        <v>56.62632723424696</v>
+        <v>1116453.705603325</v>
       </c>
       <c r="G175">
-        <v>14.17862559382339</v>
+        <v>4841238.4819352</v>
       </c>
       <c r="H175">
-        <v>1556.719553871384</v>
+        <v>3985800.846027907</v>
       </c>
       <c r="I175">
-        <v>-1130.5215946427</v>
+        <v>1115347.139574147</v>
       </c>
       <c r="J175">
-        <v>851.3447175059359</v>
+        <v>4842545.716352377</v>
       </c>
       <c r="K175">
-        <v>3158.219570284838</v>
+        <v>3987245.570982303</v>
       </c>
     </row>
     <row r="176" spans="1:11">
@@ -6564,34 +6564,34 @@
         <v>443</v>
       </c>
       <c r="B176" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C176" t="s">
         <v>16</v>
       </c>
       <c r="D176" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E176">
         <v>167.142</v>
       </c>
       <c r="F176">
-        <v>53.00007396154538</v>
+        <v>1116447.764101012</v>
       </c>
       <c r="G176">
-        <v>29.19680831295858</v>
+        <v>4841254.994748711</v>
       </c>
       <c r="H176">
-        <v>1600.051285480835</v>
+        <v>3985840.583681684</v>
       </c>
       <c r="I176">
-        <v>-1084.01866911522</v>
+        <v>1115388.768958461</v>
       </c>
       <c r="J176">
-        <v>819.9397808614636</v>
+        <v>4842497.064728335</v>
       </c>
       <c r="K176">
-        <v>3258.982704223635</v>
+        <v>3987337.285738912</v>
       </c>
     </row>
     <row r="177" spans="1:11">
@@ -6599,34 +6599,34 @@
         <v>443</v>
       </c>
       <c r="B177" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C177" t="s">
         <v>16</v>
       </c>
       <c r="D177" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E177">
         <v>168.142</v>
       </c>
       <c r="F177">
-        <v>49.98899163877675</v>
+        <v>1116442.830537017</v>
       </c>
       <c r="G177">
-        <v>44.21499103209376</v>
+        <v>4841271.507562222</v>
       </c>
       <c r="H177">
-        <v>1638.308916656877</v>
+        <v>3985875.668097781</v>
       </c>
       <c r="I177">
-        <v>-1036.370651828533</v>
+        <v>1115431.423428067</v>
       </c>
       <c r="J177">
-        <v>788.5348442169912</v>
+        <v>4842448.413104295</v>
       </c>
       <c r="K177">
-        <v>3343.102641065846</v>
+        <v>3987413.851832402</v>
       </c>
     </row>
     <row r="178" spans="1:11">
@@ -6634,34 +6634,34 @@
         <v>443</v>
       </c>
       <c r="B178" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C178" t="s">
         <v>16</v>
       </c>
       <c r="D178" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E178">
         <v>169.142</v>
       </c>
       <c r="F178">
-        <v>47.43732592602541</v>
+        <v>1116438.649712736</v>
       </c>
       <c r="G178">
-        <v>59.23317375122897</v>
+        <v>4841288.020375732</v>
       </c>
       <c r="H178">
-        <v>1672.55719509966</v>
+        <v>3985907.075710186</v>
       </c>
       <c r="I178">
-        <v>-987.5493459515332</v>
+        <v>1115475.128224745</v>
       </c>
       <c r="J178">
-        <v>757.1299075725188</v>
+        <v>4842399.761480253</v>
       </c>
       <c r="K178">
-        <v>3410.57938081147</v>
+        <v>3987475.269262773</v>
       </c>
     </row>
     <row r="179" spans="1:11">
@@ -6669,34 +6669,34 @@
         <v>443</v>
       </c>
       <c r="B179" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C179" t="s">
         <v>16</v>
       </c>
       <c r="D179" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E179">
         <v>170.142</v>
       </c>
       <c r="F179">
-        <v>45.23931485593172</v>
+        <v>1116435.0483405</v>
       </c>
       <c r="G179">
-        <v>74.25135647036416</v>
+        <v>4841304.533189243</v>
       </c>
       <c r="H179">
-        <v>1703.557326488215</v>
+        <v>3985935.504587648</v>
       </c>
       <c r="I179">
-        <v>-937.52586033209</v>
+        <v>1115519.909211833</v>
       </c>
       <c r="J179">
-        <v>725.7249709280466</v>
+        <v>4842351.109856212</v>
       </c>
       <c r="K179">
-        <v>3461.412923460506</v>
+        <v>3987521.538030024</v>
       </c>
     </row>
     <row r="180" spans="1:11">
@@ -6704,34 +6704,34 @@
         <v>443</v>
       </c>
       <c r="B180" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C180" t="s">
         <v>16</v>
       </c>
       <c r="D180" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E180">
         <v>171.142</v>
       </c>
       <c r="F180">
-        <v>43.32033761669574</v>
+        <v>1116431.904156449</v>
       </c>
       <c r="G180">
-        <v>89.26953918949933</v>
+        <v>4841321.046002754</v>
       </c>
       <c r="H180">
-        <v>1731.872406850036</v>
+        <v>3985961.47112114</v>
       </c>
       <c r="I180">
-        <v>-886.2705924000312</v>
+        <v>1115565.792889531</v>
       </c>
       <c r="J180">
-        <v>694.3200342835742</v>
+        <v>4842302.45823217</v>
       </c>
       <c r="K180">
-        <v>3495.603269012955</v>
+        <v>3987552.658134155</v>
       </c>
     </row>
     <row r="181" spans="1:11">
@@ -6739,34 +6739,34 @@
         <v>443</v>
       </c>
       <c r="B181" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C181" t="s">
         <v>16</v>
       </c>
       <c r="D181" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E181">
         <v>172.142</v>
       </c>
       <c r="F181">
-        <v>41.62606208583292</v>
+        <v>1116429.128139104</v>
       </c>
       <c r="G181">
-        <v>104.2877219086345</v>
+        <v>4841337.558816263</v>
       </c>
       <c r="H181">
-        <v>1757.930714122166</v>
+        <v>3985985.368065802</v>
       </c>
       <c r="I181">
-        <v>-833.753210649127</v>
+        <v>1115612.80641058</v>
       </c>
       <c r="J181">
-        <v>662.9150976391019</v>
+        <v>4842253.806608128</v>
       </c>
       <c r="K181">
-        <v>3513.150417468816</v>
+        <v>3987568.629575166</v>
       </c>
     </row>
     <row r="182" spans="1:11">
@@ -6774,34 +6774,34 @@
         <v>443</v>
       </c>
       <c r="B182" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C182" t="s">
         <v>16</v>
       </c>
       <c r="D182" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E182">
         <v>173.142</v>
       </c>
       <c r="F182">
-        <v>40.11587480346964</v>
+        <v>1116426.653744583</v>
       </c>
       <c r="G182">
-        <v>119.3059046277697</v>
+        <v>4841354.071629775</v>
       </c>
       <c r="H182">
-        <v>1782.065583308511</v>
+        <v>3986007.501108726</v>
       </c>
       <c r="I182">
-        <v>-779.942636687712</v>
+        <v>1115660.977596333</v>
       </c>
       <c r="J182">
-        <v>631.5101609946295</v>
+        <v>4842205.154984088</v>
       </c>
       <c r="K182">
-        <v>3514.05436882809</v>
+        <v>3987569.452353058</v>
       </c>
     </row>
     <row r="183" spans="1:11">
@@ -6809,34 +6809,34 @@
         <v>443</v>
       </c>
       <c r="B183" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C183" t="s">
         <v>16</v>
       </c>
       <c r="D183" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E183">
         <v>174.142</v>
       </c>
       <c r="F183">
-        <v>38.75873302789996</v>
+        <v>1116424.430110327</v>
       </c>
       <c r="G183">
-        <v>134.3240873469049</v>
+        <v>4841370.584443285</v>
       </c>
       <c r="H183">
-        <v>1804.541548955925</v>
+        <v>3986028.112843085</v>
       </c>
       <c r="I183">
-        <v>-724.8070268473178</v>
+        <v>1115710.334953218</v>
       </c>
       <c r="J183">
-        <v>600.105224350157</v>
+        <v>4842156.503360045</v>
       </c>
       <c r="K183">
-        <v>3498.315123090777</v>
+        <v>3987555.12646783</v>
       </c>
     </row>
     <row r="184" spans="1:11">
@@ -6844,34 +6844,34 @@
         <v>443</v>
       </c>
       <c r="B184" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C184" t="s">
         <v>16</v>
       </c>
       <c r="D184" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E184">
         <v>175.142</v>
       </c>
       <c r="F184">
-        <v>37.5304512736464</v>
+        <v>1116422.417609176</v>
       </c>
       <c r="G184">
-        <v>149.3422700660401</v>
+        <v>4841387.097256796</v>
       </c>
       <c r="H184">
-        <v>1825.572066353642</v>
+        <v>3986047.399019475</v>
       </c>
       <c r="I184">
-        <v>-668.3137533384343</v>
+        <v>1115760.907689609</v>
       </c>
       <c r="J184">
-        <v>568.7002877056847</v>
+        <v>4842107.851736004</v>
       </c>
       <c r="K184">
-        <v>3465.932680256877</v>
+        <v>3987525.651919482</v>
       </c>
     </row>
     <row r="185" spans="1:11">
@@ -6879,34 +6879,34 @@
         <v>443</v>
       </c>
       <c r="B185" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C185" t="s">
         <v>16</v>
       </c>
       <c r="D185" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E185">
         <v>176.142</v>
       </c>
       <c r="F185">
-        <v>36.41187138979625</v>
+        <v>1116420.584851102</v>
       </c>
       <c r="G185">
-        <v>164.3604527851753</v>
+        <v>4841403.610070307</v>
       </c>
       <c r="H185">
-        <v>1845.331870642224</v>
+        <v>3986065.519879924</v>
       </c>
       <c r="I185">
-        <v>-610.4293849422534</v>
+        <v>1115812.725733108</v>
       </c>
       <c r="J185">
-        <v>537.2953510612123</v>
+        <v>4842059.200111963</v>
       </c>
       <c r="K185">
-        <v>3416.907040326389</v>
+        <v>3987481.028708015</v>
       </c>
     </row>
     <row r="186" spans="1:11">
@@ -6914,34 +6914,34 @@
         <v>443</v>
       </c>
       <c r="B186" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C186" t="s">
         <v>16</v>
       </c>
       <c r="D186" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E186">
         <v>177.142</v>
       </c>
       <c r="F186">
-        <v>35.38759551524835</v>
+        <v>1116418.90660719</v>
       </c>
       <c r="G186">
-        <v>179.3786355043105</v>
+        <v>4841420.122883816</v>
       </c>
       <c r="H186">
-        <v>1863.965810183318</v>
+        <v>3986082.60825859</v>
       </c>
       <c r="I186">
-        <v>-551.1196672269591</v>
+        <v>1115865.819748255</v>
       </c>
       <c r="J186">
-        <v>505.8904144167399</v>
+        <v>4842010.54848792</v>
       </c>
       <c r="K186">
-        <v>3351.238203299314</v>
+        <v>3987421.256833428</v>
       </c>
     </row>
     <row r="187" spans="1:11">
@@ -6949,34 +6949,34 @@
         <v>443</v>
       </c>
       <c r="B187" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C187" t="s">
         <v>16</v>
       </c>
       <c r="D187" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E187">
         <v>178.142</v>
       </c>
       <c r="F187">
-        <v>34.44508830687401</v>
+        <v>1116417.362338674</v>
       </c>
       <c r="G187">
-        <v>194.3968182234457</v>
+        <v>4841436.635697328</v>
       </c>
       <c r="H187">
-        <v>1881.59529628299</v>
+        <v>3986098.775496521</v>
       </c>
       <c r="I187">
-        <v>-490.3495022768658</v>
+        <v>1115920.221154681</v>
       </c>
       <c r="J187">
-        <v>474.4854777722676</v>
+        <v>4841961.896863879</v>
       </c>
       <c r="K187">
-        <v>3268.926169175652</v>
+        <v>3987346.336295721</v>
       </c>
     </row>
     <row r="188" spans="1:11">
@@ -6984,34 +6984,34 @@
         <v>443</v>
       </c>
       <c r="B188" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C188" t="s">
         <v>16</v>
       </c>
       <c r="D188" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E188">
         <v>179.142</v>
       </c>
       <c r="F188">
-        <v>33.57402774901126</v>
+        <v>1116415.935133256</v>
       </c>
       <c r="G188">
-        <v>209.4150009425809</v>
+        <v>4841453.148510838</v>
       </c>
       <c r="H188">
-        <v>1898.323101763796</v>
+        <v>3986114.11584222</v>
       </c>
       <c r="I188">
-        <v>-428.0829279224023</v>
+        <v>1115975.962145691</v>
       </c>
       <c r="J188">
-        <v>443.0805411277952</v>
+        <v>4841913.245239838</v>
       </c>
       <c r="K188">
-        <v>3169.970937955402</v>
+        <v>3987256.267094895</v>
       </c>
     </row>
     <row r="189" spans="1:11">
@@ -7019,34 +7019,34 @@
         <v>443</v>
       </c>
       <c r="B189" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C189" t="s">
         <v>16</v>
       </c>
       <c r="D189" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E189">
         <v>180.142</v>
       </c>
       <c r="F189">
-        <v>32.76582715601406</v>
+        <v>1116414.61092192</v>
       </c>
       <c r="G189">
-        <v>224.433183661716</v>
+        <v>4841469.661324348</v>
       </c>
       <c r="H189">
-        <v>1914.236991014687</v>
+        <v>3986128.709780607</v>
       </c>
       <c r="I189">
-        <v>-364.2830964586585</v>
+        <v>1116033.075707324</v>
       </c>
       <c r="J189">
-        <v>411.6756044833228</v>
+        <v>4841864.593615796</v>
       </c>
       <c r="K189">
-        <v>3054.372509638565</v>
+        <v>3987151.049230949</v>
       </c>
     </row>
     <row r="190" spans="1:11">
@@ -7054,34 +7054,34 @@
         <v>443</v>
       </c>
       <c r="B190" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C190" t="s">
         <v>16</v>
       </c>
       <c r="D190" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E190">
         <v>181.142</v>
       </c>
       <c r="F190">
-        <v>32.01327749010861</v>
+        <v>1116413.377892883</v>
       </c>
       <c r="G190">
-        <v>239.4513663808513</v>
+        <v>4841486.17413786</v>
       </c>
       <c r="H190">
-        <v>1929.412507181602</v>
+        <v>3986142.626589027</v>
       </c>
       <c r="I190">
-        <v>-298.9122528398887</v>
+        <v>1116091.595637869</v>
       </c>
       <c r="J190">
-        <v>380.2706678388505</v>
+        <v>4841815.941991754</v>
       </c>
       <c r="K190">
-        <v>2922.130884225142</v>
+        <v>3987030.682703883</v>
       </c>
     </row>
     <row r="191" spans="1:11">
@@ -7089,34 +7089,34 @@
         <v>443</v>
       </c>
       <c r="B191" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C191" t="s">
         <v>16</v>
       </c>
       <c r="D191" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E191">
         <v>182.142</v>
       </c>
       <c r="F191">
-        <v>31.31027579067301</v>
+        <v>1116412.226046636</v>
       </c>
       <c r="G191">
-        <v>254.4695490999864</v>
+        <v>4841502.68695137</v>
       </c>
       <c r="H191">
-        <v>1943.915140957342</v>
+        <v>3986155.926326158</v>
       </c>
       <c r="I191">
-        <v>-231.9317123370802</v>
+        <v>1116151.556567866</v>
       </c>
       <c r="J191">
-        <v>348.8657311943781</v>
+        <v>4841767.290367713</v>
       </c>
       <c r="K191">
-        <v>2773.24606171513</v>
+        <v>3986895.167513697</v>
       </c>
     </row>
     <row r="192" spans="1:11">
@@ -7124,34 +7124,34 @@
         <v>443</v>
       </c>
       <c r="B192" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C192" t="s">
         <v>16</v>
       </c>
       <c r="D192" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E192">
         <v>183.142</v>
       </c>
       <c r="F192">
-        <v>30.65161625457894</v>
+        <v>1116411.146853633</v>
       </c>
       <c r="G192">
-        <v>269.4877318191216</v>
+        <v>4841519.19976488</v>
       </c>
       <c r="H192">
-        <v>1957.8020386459</v>
+        <v>3986168.6613984</v>
       </c>
       <c r="I192">
-        <v>-163.301837645357</v>
+        <v>1116212.993980601</v>
       </c>
       <c r="J192">
-        <v>317.4607945499058</v>
+        <v>4841718.638743672</v>
       </c>
       <c r="K192">
-        <v>2607.718042108532</v>
+        <v>3986744.503660392</v>
       </c>
     </row>
     <row r="193" spans="1:11">
@@ -7159,34 +7159,34 @@
         <v>443</v>
       </c>
       <c r="B193" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C193" t="s">
         <v>16</v>
       </c>
       <c r="D193" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E193">
         <v>184.142</v>
       </c>
       <c r="F193">
-        <v>30.03282758188434</v>
+        <v>1116410.132987791</v>
       </c>
       <c r="G193">
-        <v>284.5059145382568</v>
+        <v>4841535.712578391</v>
       </c>
       <c r="H193">
-        <v>1971.123362178833</v>
+        <v>3986180.877807085</v>
       </c>
       <c r="I193">
-        <v>-92.98201542767693</v>
+        <v>1116275.944233103</v>
       </c>
       <c r="J193">
-        <v>286.0558579054334</v>
+        <v>4841669.98711963</v>
       </c>
       <c r="K193">
-        <v>2425.546825405345</v>
+        <v>3986578.691143967</v>
       </c>
     </row>
     <row r="194" spans="1:11">
@@ -7194,34 +7194,34 @@
         <v>443</v>
       </c>
       <c r="B194" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C194" t="s">
         <v>16</v>
       </c>
       <c r="D194" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E194">
         <v>185.142</v>
       </c>
       <c r="F194">
-        <v>29.45004495251734</v>
+        <v>1116409.178116722</v>
       </c>
       <c r="G194">
-        <v>299.524097257392</v>
+        <v>4841552.225391901</v>
       </c>
       <c r="H194">
-        <v>1983.923382866613</v>
+        <v>3986192.616151516</v>
       </c>
       <c r="I194">
-        <v>-20.93063228093706</v>
+        <v>1116340.44457766</v>
       </c>
       <c r="J194">
-        <v>254.650921260961</v>
+        <v>4841621.335495588</v>
       </c>
       <c r="K194">
-        <v>2226.732411605572</v>
+        <v>3986397.729964422</v>
       </c>
     </row>
     <row r="195" spans="1:11">
@@ -7229,34 +7229,34 @@
         <v>443</v>
       </c>
       <c r="B195" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C195" t="s">
         <v>16</v>
       </c>
       <c r="D195" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E195">
         <v>186.142</v>
       </c>
       <c r="F195">
-        <v>28.89990824826587</v>
+        <v>1116408.276734977</v>
       </c>
       <c r="G195">
-        <v>314.5422799765272</v>
+        <v>4841568.738205411</v>
       </c>
       <c r="H195">
-        <v>1996.241369090373</v>
+        <v>3986203.912443024</v>
       </c>
       <c r="I195">
-        <v>52.89494988973445</v>
+        <v>1116406.533183863</v>
       </c>
       <c r="J195">
-        <v>223.2459846164887</v>
+        <v>4841572.683871547</v>
       </c>
       <c r="K195">
-        <v>2011.274800709212</v>
+        <v>3986201.620121758</v>
       </c>
     </row>
     <row r="196" spans="1:11">
@@ -7264,34 +7264,34 @@
         <v>443</v>
       </c>
       <c r="B196" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C196" t="s">
         <v>16</v>
       </c>
       <c r="D196" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E196">
         <v>187.142</v>
       </c>
       <c r="F196">
-        <v>28.37948039229126</v>
+        <v>1116407.42403025</v>
       </c>
       <c r="G196">
-        <v>329.5604626956624</v>
+        <v>4841585.251018923</v>
       </c>
       <c r="H196">
-        <v>2008.112312832651</v>
+        <v>3986214.798771239</v>
       </c>
       <c r="I196">
-        <v>128.5384191030684</v>
+        <v>1116474.249161193</v>
       </c>
       <c r="J196">
-        <v>191.8410479720163</v>
+        <v>4841524.032247505</v>
       </c>
       <c r="K196">
-        <v>1779.173992716264</v>
+        <v>3985990.361615974</v>
       </c>
     </row>
     <row r="197" spans="1:11">
@@ -7299,34 +7299,34 @@
         <v>443</v>
       </c>
       <c r="B197" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C197" t="s">
         <v>16</v>
       </c>
       <c r="D197" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E197">
         <v>188.142</v>
       </c>
       <c r="F197">
-        <v>27.88618127138828</v>
+        <v>1116406.615775104</v>
       </c>
       <c r="G197">
-        <v>344.5786454147976</v>
+        <v>4841601.763832433</v>
       </c>
       <c r="H197">
-        <v>2019.56752893104</v>
+        <v>3986225.303853643</v>
       </c>
       <c r="I197">
-        <v>206.0445391550658</v>
+        <v>1116543.632582167</v>
       </c>
       <c r="J197">
-        <v>160.436111327544</v>
+        <v>4841475.380623464</v>
       </c>
       <c r="K197">
-        <v>1530.429987626729</v>
+        <v>3985763.95444707</v>
       </c>
     </row>
     <row r="198" spans="1:11">
@@ -7334,34 +7334,34 @@
         <v>443</v>
       </c>
       <c r="B198" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C198" t="s">
         <v>16</v>
       </c>
       <c r="D198" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E198">
         <v>189.142</v>
       </c>
       <c r="F198">
-        <v>27.41773384576394</v>
+        <v>1116405.848238682</v>
       </c>
       <c r="G198">
-        <v>359.5968281339328</v>
+        <v>4841618.276645944</v>
       </c>
       <c r="H198">
-        <v>2030.635152907879</v>
+        <v>3986235.453492104</v>
       </c>
       <c r="I198">
-        <v>285.4591761090198</v>
+        <v>1116614.724506051</v>
       </c>
       <c r="J198">
-        <v>129.0311746830716</v>
+        <v>4841426.728999422</v>
       </c>
       <c r="K198">
-        <v>1265.042785440606</v>
+        <v>3985522.398615046</v>
       </c>
     </row>
     <row r="199" spans="1:11">
@@ -7369,34 +7369,34 @@
         <v>443</v>
       </c>
       <c r="B199" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C199" t="s">
         <v>16</v>
       </c>
       <c r="D199" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E199">
         <v>190.142</v>
       </c>
       <c r="F199">
-        <v>26.97211987673621</v>
+        <v>1116405.118114162</v>
       </c>
       <c r="G199">
-        <v>374.6150108530679</v>
+        <v>4841634.789459455</v>
       </c>
       <c r="H199">
-        <v>2041.34055730257</v>
+        <v>3986245.270954679</v>
       </c>
       <c r="I199">
-        <v>366.8293254378393</v>
+        <v>1116687.567003157</v>
       </c>
       <c r="J199">
-        <v>97.6262380385992</v>
+        <v>4841378.07737538</v>
       </c>
       <c r="K199">
-        <v>983.0123861578962</v>
+        <v>3985265.694119904</v>
       </c>
     </row>
     <row r="200" spans="1:11">
@@ -7404,34 +7404,34 @@
         <v>443</v>
       </c>
       <c r="B200" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C200" t="s">
         <v>16</v>
       </c>
       <c r="D200" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E200">
         <v>191.142</v>
       </c>
       <c r="F200">
-        <v>26.54754330805373</v>
+        <v>1116404.422458764</v>
       </c>
       <c r="G200">
-        <v>389.6331935722031</v>
+        <v>4841651.302272964</v>
       </c>
       <c r="H200">
-        <v>2051.706702010116</v>
+        <v>3986254.777296892</v>
       </c>
       <c r="I200">
-        <v>450.203139834715</v>
+        <v>1116762.203179741</v>
       </c>
       <c r="J200">
-        <v>66.22130139412693</v>
+        <v>4841329.42575134</v>
       </c>
       <c r="K200">
-        <v>684.3387897785997</v>
+        <v>3984993.840961641</v>
       </c>
     </row>
     <row r="201" spans="1:11">
@@ -7439,34 +7439,34 @@
         <v>443</v>
       </c>
       <c r="B201" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C201" t="s">
         <v>16</v>
       </c>
       <c r="D201" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E201">
         <v>192.142</v>
       </c>
       <c r="F201">
-        <v>26.14239978520883</v>
+        <v>1116403.758643802</v>
       </c>
       <c r="G201">
-        <v>404.6513762913383</v>
+        <v>4841667.815086476</v>
       </c>
       <c r="H201">
-        <v>2061.754430794091</v>
+        <v>3986263.991633658</v>
       </c>
       <c r="I201">
-        <v>535.6299577086128</v>
+        <v>1116838.677203509</v>
       </c>
       <c r="J201">
-        <v>34.81636474965451</v>
+        <v>4841280.774127298</v>
       </c>
       <c r="K201">
-        <v>369.0219963027149</v>
+        <v>3984706.839140258</v>
       </c>
     </row>
     <row r="202" spans="1:11">
@@ -7474,34 +7474,34 @@
         <v>443</v>
       </c>
       <c r="B202" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C202" t="s">
         <v>16</v>
       </c>
       <c r="D202" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E202">
         <v>193.142</v>
       </c>
       <c r="F202">
-        <v>25.75525113309819</v>
+        <v>1116403.124312872</v>
       </c>
       <c r="G202">
-        <v>419.6695590104736</v>
+        <v>4841684.327899987</v>
       </c>
       <c r="H202">
-        <v>2071.502723602547</v>
+        <v>3986272.931370663</v>
       </c>
       <c r="I202">
-        <v>623.1603323814232</v>
+        <v>1116917.034329757</v>
       </c>
       <c r="J202">
-        <v>3.411428105182094</v>
+        <v>4841232.122503256</v>
       </c>
       <c r="K202">
-        <v>37.06200573024299</v>
+        <v>3984404.688655756</v>
       </c>
     </row>
     <row r="203" spans="1:11">
@@ -7509,34 +7509,34 @@
         <v>443</v>
       </c>
       <c r="B203" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C203" t="s">
         <v>16</v>
       </c>
       <c r="D203" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E203">
         <v>194.142</v>
       </c>
       <c r="F203">
-        <v>25.38480386640491</v>
+        <v>1116402.517346638</v>
       </c>
       <c r="G203">
-        <v>434.6877417296087</v>
+        <v>4841700.840713496</v>
       </c>
       <c r="H203">
-        <v>2080.968912363953</v>
+        <v>3986281.612402267</v>
       </c>
       <c r="I203">
-        <v>712.8460620040828</v>
+        <v>1116997.320928152</v>
       </c>
       <c r="J203">
-        <v>-27.99350853929018</v>
+        <v>4841183.470879215</v>
       </c>
       <c r="K203">
-        <v>-311.5411819388152</v>
+        <v>3984087.389508134</v>
       </c>
     </row>
     <row r="204" spans="1:11">
@@ -7544,34 +7544,34 @@
         <v>443</v>
       </c>
       <c r="B204" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C204" t="s">
         <v>16</v>
       </c>
       <c r="D204" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E204">
         <v>195.142</v>
       </c>
       <c r="F204">
-        <v>25.02989100084465</v>
+        <v>1116401.935833034</v>
       </c>
       <c r="G204">
-        <v>449.7059244487439</v>
+        <v>4841717.353527008</v>
       </c>
       <c r="H204">
-        <v>2090.168866428158</v>
+        <v>3986290.049281565</v>
       </c>
       <c r="I204">
-        <v>804.7402202093424</v>
+        <v>1117079.58451017</v>
       </c>
       <c r="J204">
-        <v>-59.3984451837626</v>
+        <v>4841134.819255173</v>
       </c>
       <c r="K204">
-        <v>-676.7875667044616</v>
+        <v>3983754.941697393</v>
       </c>
     </row>
     <row r="205" spans="1:11">
@@ -7579,34 +7579,34 @@
         <v>443</v>
       </c>
       <c r="B205" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C205" t="s">
         <v>16</v>
       </c>
       <c r="D205" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E205">
         <v>196.142</v>
       </c>
       <c r="F205">
-        <v>24.68945658247315</v>
+        <v>1116401.378041911</v>
       </c>
       <c r="G205">
-        <v>464.7241071678791</v>
+        <v>4841733.866340517</v>
       </c>
       <c r="H205">
-        <v>2099.117152636352</v>
+        <v>3986298.255367176</v>
       </c>
       <c r="I205">
-        <v>898.8971875193319</v>
+        <v>1117163.873757215</v>
       </c>
       <c r="J205">
-        <v>-90.80338182823502</v>
+        <v>4841086.167631132</v>
       </c>
       <c r="K205">
-        <v>-1058.677148566696</v>
+        <v>3983407.345223531</v>
       </c>
     </row>
     <row r="206" spans="1:11">
@@ -7614,34 +7614,34 @@
         <v>443</v>
       </c>
       <c r="B206" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C206" t="s">
         <v>16</v>
       </c>
       <c r="D206" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E206">
         <v>197.142</v>
       </c>
       <c r="F206">
-        <v>24.36254246782137</v>
+        <v>1116400.842403383</v>
       </c>
       <c r="G206">
-        <v>479.7422898870143</v>
+        <v>4841750.379154028</v>
       </c>
       <c r="H206">
-        <v>2107.827174074662</v>
+        <v>3986306.242950488</v>
       </c>
       <c r="I206">
-        <v>995.372683526508</v>
+        <v>1117250.238549423</v>
       </c>
       <c r="J206">
-        <v>-122.2083184727074</v>
+        <v>4841037.51600709</v>
       </c>
       <c r="K206">
-        <v>-1457.209927525518</v>
+        <v>3983044.600086551</v>
       </c>
     </row>
     <row r="207" spans="1:11">
@@ -7649,34 +7649,34 @@
         <v>443</v>
       </c>
       <c r="B207" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C207" t="s">
         <v>16</v>
       </c>
       <c r="D207" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E207">
         <v>198.142</v>
       </c>
       <c r="F207">
-        <v>24.0482769778913</v>
+        <v>1116400.327489229</v>
       </c>
       <c r="G207">
-        <v>494.7604726061494</v>
+        <v>4841766.891967539</v>
       </c>
       <c r="H207">
-        <v>2116.311290829623</v>
+        <v>3986314.023366403</v>
       </c>
       <c r="I207">
-        <v>1094.223799867031</v>
+        <v>1117338.729995185</v>
       </c>
       <c r="J207">
-        <v>-153.6132551171796</v>
+        <v>4840988.864383048</v>
       </c>
       <c r="K207">
-        <v>-1872.385903580923</v>
+        <v>3982666.706286449</v>
       </c>
     </row>
     <row r="208" spans="1:11">
@@ -7684,34 +7684,34 @@
         <v>443</v>
       </c>
       <c r="B208" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C208" t="s">
         <v>16</v>
       </c>
       <c r="D208" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E208">
         <v>199.142</v>
       </c>
       <c r="F208">
-        <v>23.74586512005104</v>
+        <v>1116399.83199688</v>
       </c>
       <c r="G208">
-        <v>509.7786553252847</v>
+        <v>4841783.404781049</v>
       </c>
       <c r="H208">
-        <v>2124.580925476324</v>
+        <v>3986321.607090068</v>
       </c>
       <c r="I208">
-        <v>1195.509034006082</v>
+        <v>1117429.400461389</v>
       </c>
       <c r="J208">
-        <v>-185.018191761652</v>
+        <v>4840940.212759008</v>
       </c>
       <c r="K208">
-        <v>-2304.205076732919</v>
+        <v>3982273.66382323</v>
       </c>
     </row>
     <row r="209" spans="1:11">
@@ -7719,34 +7719,34 @@
         <v>443</v>
       </c>
       <c r="B209" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C209" t="s">
         <v>16</v>
       </c>
       <c r="D209" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E209">
         <v>200.142</v>
       </c>
       <c r="F209">
-        <v>23.45458012808696</v>
+        <v>1116399.354735551</v>
       </c>
       <c r="G209">
-        <v>524.7968380444198</v>
+        <v>4841799.91759456</v>
       </c>
       <c r="H209">
-        <v>2132.646655558549</v>
+        <v>3986329.003821691</v>
       </c>
       <c r="I209">
-        <v>1299.288323855099</v>
+        <v>1117522.303604407</v>
       </c>
       <c r="J209">
-        <v>-216.4231284061244</v>
+        <v>4840891.561134965</v>
       </c>
       <c r="K209">
-        <v>-2752.667446981502</v>
+        <v>3981865.472696889</v>
       </c>
     </row>
     <row r="210" spans="1:11">
@@ -7754,34 +7754,34 @@
         <v>443</v>
       </c>
       <c r="B210" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C210" t="s">
         <v>16</v>
       </c>
       <c r="D210" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E210">
         <v>201.142</v>
       </c>
       <c r="F210">
-        <v>23.17375611546564</v>
+        <v>1116398.89461421</v>
       </c>
       <c r="G210">
-        <v>539.815020763555</v>
+        <v>4841816.430408071</v>
       </c>
       <c r="H210">
-        <v>2140.518294939535</v>
+        <v>3986336.22256114</v>
       </c>
       <c r="I210">
-        <v>1405.623083241452</v>
+        <v>1117617.494401853</v>
       </c>
       <c r="J210">
-        <v>-247.8280650505968</v>
+        <v>4840842.909510924</v>
       </c>
       <c r="K210">
-        <v>-3217.773014326673</v>
+        <v>3981442.13290743</v>
       </c>
     </row>
     <row r="211" spans="1:11">
@@ -7789,34 +7789,34 @@
         <v>443</v>
       </c>
       <c r="B211" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C211" t="s">
         <v>16</v>
       </c>
       <c r="D211" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E211">
         <v>202.142</v>
       </c>
       <c r="F211">
-        <v>22.90278167276224</v>
+        <v>1116398.45063108</v>
       </c>
       <c r="G211">
-        <v>554.8332034826902</v>
+        <v>4841832.943221581</v>
       </c>
       <c r="H211">
-        <v>2148.204965592871</v>
+        <v>3986343.271673783</v>
       </c>
       <c r="I211">
-        <v>1514.576238251511</v>
+        <v>1117715.029185111</v>
       </c>
       <c r="J211">
-        <v>-279.2330016950692</v>
+        <v>4840794.257886883</v>
       </c>
       <c r="K211">
-        <v>-3699.52177876843</v>
+        <v>3981003.64445485</v>
       </c>
     </row>
     <row r="212" spans="1:11">
@@ -7824,34 +7824,34 @@
         <v>443</v>
       </c>
       <c r="B212" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C212" t="s">
         <v>16</v>
       </c>
       <c r="D212" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E212">
         <v>203.142</v>
       </c>
       <c r="F212">
-        <v>22.6410942691485</v>
+        <v>1116398.021864473</v>
       </c>
       <c r="G212">
-        <v>569.8513862018254</v>
+        <v>4841849.456035092</v>
       </c>
       <c r="H212">
-        <v>2155.715161150716</v>
+        <v>3986350.158948761</v>
       </c>
       <c r="I212">
-        <v>1626.212264468625</v>
+        <v>1117814.965672678</v>
       </c>
       <c r="J212">
-        <v>-310.6379383395413</v>
+        <v>4840745.606262841</v>
       </c>
       <c r="K212">
-        <v>-4197.913740306772</v>
+        <v>3980550.007339151</v>
       </c>
     </row>
     <row r="213" spans="1:11">
@@ -7859,34 +7859,34 @@
         <v>443</v>
       </c>
       <c r="B213" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C213" t="s">
         <v>16</v>
       </c>
       <c r="D213" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E213">
         <v>204.142</v>
       </c>
       <c r="F213">
-        <v>22.38817534128531</v>
+        <v>1116397.607464737</v>
       </c>
       <c r="G213">
-        <v>584.8695689209605</v>
+        <v>4841865.968848603</v>
       </c>
       <c r="H213">
-        <v>2163.056803319585</v>
+        <v>3986356.891650728</v>
       </c>
       <c r="I213">
-        <v>1740.597225128076</v>
+        <v>1117917.363004311</v>
       </c>
       <c r="J213">
-        <v>-342.0428749840138</v>
+        <v>4840696.954638799</v>
       </c>
       <c r="K213">
-        <v>-4712.948898941704</v>
+        <v>3980081.221560332</v>
       </c>
     </row>
   </sheetData>

--- a/runs/run443/NotionalETEOutput443.xlsx
+++ b/runs/run443/NotionalETEOutput443.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="647" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="18">
   <si>
     <t>uniqueid</t>
   </si>
@@ -52,25 +52,22 @@
     <t>Missile_HIGHWIND_State_Update</t>
   </si>
   <si>
-    <t>Missile_BRAVER_State_Update</t>
+    <t>Missile_SOMERSAULT_State_Update</t>
   </si>
   <si>
-    <t>MISSILE_HIGHWIND_363.MISSILE_HIGHWIND_363</t>
+    <t>MISSILE_HIGHWIND_187.MISSILE_HIGHWIND_187</t>
   </si>
   <si>
-    <t>MISSILE_HIGHWIND_62.MISSILE_HIGHWIND_62</t>
+    <t>MISSILE_SOMERSAULT_403.MISSILE_SOMERSAULT_403</t>
   </si>
   <si>
-    <t>MISSILE_BRAVER_193.MISSILE_BRAVER_193</t>
-  </si>
-  <si>
-    <t>MISSILE_BRAVER_249.MISSILE_BRAVER_249</t>
+    <t>MISSILE_HIGHWIND_184.MISSILE_HIGHWIND_184</t>
   </si>
   <si>
     <t>MISSILE_HIGHWIND</t>
   </si>
   <si>
-    <t>MISSILE_BRAVER</t>
+    <t>MISSILE_SOMERSAULT</t>
   </si>
 </sst>
 </file>
@@ -428,7 +425,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K213"/>
+  <dimension ref="A1:K160"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -480,28 +477,28 @@
         <v>13</v>
       </c>
       <c r="D2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E2">
         <v>152.142</v>
       </c>
       <c r="F2">
-        <v>1116578.999377201</v>
+        <v>1116578.47129514</v>
       </c>
       <c r="G2">
-        <v>4841118.532271563</v>
+        <v>4841112.450264911</v>
       </c>
       <c r="H2">
-        <v>3985227.919123141</v>
+        <v>3985226.843338669</v>
       </c>
       <c r="I2">
-        <v>1114861.576936758</v>
+        <v>1114859.421174334</v>
       </c>
       <c r="J2">
-        <v>4843220.242190544</v>
+        <v>4843228.077138085</v>
       </c>
       <c r="K2">
-        <v>3984367.056757778</v>
+        <v>3984359.491468957</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -515,28 +512,28 @@
         <v>13</v>
       </c>
       <c r="D3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E3">
         <v>153.142</v>
       </c>
       <c r="F3">
-        <v>1116578.999377201</v>
+        <v>1116578.47129514</v>
       </c>
       <c r="G3">
-        <v>4841118.532271563</v>
+        <v>4841112.450264911</v>
       </c>
       <c r="H3">
-        <v>3985227.919123141</v>
+        <v>3985226.843338669</v>
       </c>
       <c r="I3">
-        <v>1114891.190939053</v>
+        <v>1114889.035119365</v>
       </c>
       <c r="J3">
-        <v>4843171.59063277</v>
+        <v>4843179.425501607</v>
       </c>
       <c r="K3">
-        <v>3984670.852500853</v>
+        <v>3984663.286635202</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -550,28 +547,28 @@
         <v>13</v>
       </c>
       <c r="D4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E4">
         <v>154.142</v>
       </c>
       <c r="F4">
-        <v>1116578.999377201</v>
+        <v>1116578.47129514</v>
       </c>
       <c r="G4">
-        <v>4841118.532271563</v>
+        <v>4841112.450264911</v>
       </c>
       <c r="H4">
-        <v>3985227.919123141</v>
+        <v>3985226.843338669</v>
       </c>
       <c r="I4">
-        <v>1114921.534158909</v>
+        <v>1114919.378280548</v>
       </c>
       <c r="J4">
-        <v>4843122.939074995</v>
+        <v>4843130.773865129</v>
       </c>
       <c r="K4">
-        <v>3984959.499595628</v>
+        <v>3984951.933181911</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -585,28 +582,28 @@
         <v>13</v>
       </c>
       <c r="D5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E5">
         <v>155.142</v>
       </c>
       <c r="F5">
-        <v>1116578.999377201</v>
+        <v>1116578.47129514</v>
       </c>
       <c r="G5">
-        <v>4841118.532271563</v>
+        <v>4841112.450264911</v>
       </c>
       <c r="H5">
-        <v>3985227.919123141</v>
+        <v>3985226.843338669</v>
       </c>
       <c r="I5">
-        <v>1114952.62455264</v>
+        <v>1114950.468614161</v>
       </c>
       <c r="J5">
-        <v>4843074.287517222</v>
+        <v>4843082.12222865</v>
       </c>
       <c r="K5">
-        <v>3985232.998042104</v>
+        <v>3985225.431109083</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -620,28 +617,28 @@
         <v>13</v>
       </c>
       <c r="D6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E6">
         <v>156.142</v>
       </c>
       <c r="F6">
-        <v>1116578.999377201</v>
+        <v>1116578.47129514</v>
       </c>
       <c r="G6">
-        <v>4841118.532271563</v>
+        <v>4841112.450264911</v>
       </c>
       <c r="H6">
-        <v>3985227.919123141</v>
+        <v>3985226.843338669</v>
       </c>
       <c r="I6">
-        <v>1114984.480518713</v>
+        <v>1114982.324518635</v>
       </c>
       <c r="J6">
-        <v>4843025.635959448</v>
+        <v>4843033.470592173</v>
       </c>
       <c r="K6">
-        <v>3985491.347840281</v>
+        <v>3985483.78041672</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -655,28 +652,28 @@
         <v>13</v>
       </c>
       <c r="D7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E7">
         <v>157.142</v>
       </c>
       <c r="F7">
-        <v>1116578.999377201</v>
+        <v>1116578.47129514</v>
       </c>
       <c r="G7">
-        <v>4841118.532271563</v>
+        <v>4841112.450264911</v>
       </c>
       <c r="H7">
-        <v>3985227.919123141</v>
+        <v>3985226.843338669</v>
       </c>
       <c r="I7">
-        <v>1115017.120908645</v>
+        <v>1115014.964845451</v>
       </c>
       <c r="J7">
-        <v>4842976.984401675</v>
+        <v>4842984.818955695</v>
       </c>
       <c r="K7">
-        <v>3985734.548990158</v>
+        <v>3985726.981104821</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -690,28 +687,28 @@
         <v>13</v>
       </c>
       <c r="D8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E8">
         <v>158.142</v>
       </c>
       <c r="F8">
-        <v>1116578.999377201</v>
+        <v>1116578.47129514</v>
       </c>
       <c r="G8">
-        <v>4841118.532271563</v>
+        <v>4841112.450264911</v>
       </c>
       <c r="H8">
-        <v>3985227.919123141</v>
+        <v>3985226.843338669</v>
       </c>
       <c r="I8">
-        <v>1115050.565038149</v>
+        <v>1115048.408910286</v>
       </c>
       <c r="J8">
-        <v>4842928.332843901</v>
+        <v>4842936.167319216</v>
       </c>
       <c r="K8">
-        <v>3985962.601491735</v>
+        <v>3985955.033173386</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -725,28 +722,28 @@
         <v>13</v>
       </c>
       <c r="D9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E9">
         <v>159.142</v>
       </c>
       <c r="F9">
-        <v>1116578.999377201</v>
+        <v>1116578.47129514</v>
       </c>
       <c r="G9">
-        <v>4841118.532271563</v>
+        <v>4841112.450264911</v>
       </c>
       <c r="H9">
-        <v>3985227.919123141</v>
+        <v>3985226.843338669</v>
       </c>
       <c r="I9">
-        <v>1115084.832698575</v>
+        <v>1115082.67650445</v>
       </c>
       <c r="J9">
-        <v>4842879.681286127</v>
+        <v>4842887.515682738</v>
       </c>
       <c r="K9">
-        <v>3986175.505345014</v>
+        <v>3986167.936622414</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -760,28 +757,28 @@
         <v>13</v>
       </c>
       <c r="D10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E10">
         <v>160.142</v>
       </c>
       <c r="F10">
-        <v>1116578.999377201</v>
+        <v>1116578.47129514</v>
       </c>
       <c r="G10">
-        <v>4841135.045070203</v>
+        <v>4841128.963042805</v>
       </c>
       <c r="H10">
-        <v>3985227.919123141</v>
+        <v>3985226.843338669</v>
       </c>
       <c r="I10">
-        <v>1115119.944168613</v>
+        <v>1115117.787906594</v>
       </c>
       <c r="J10">
-        <v>4842831.029728353</v>
+        <v>4842838.864046261</v>
       </c>
       <c r="K10">
-        <v>3986373.260549993</v>
+        <v>3986365.691451907</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -795,28 +792,28 @@
         <v>13</v>
       </c>
       <c r="D11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E11">
         <v>161.142</v>
       </c>
       <c r="F11">
-        <v>1116530.318791827</v>
+        <v>1116529.790732789</v>
       </c>
       <c r="G11">
-        <v>4841151.557868841</v>
+        <v>4841145.475820698</v>
       </c>
       <c r="H11">
-        <v>3985427.173509455</v>
+        <v>3985426.097671195</v>
       </c>
       <c r="I11">
-        <v>1115155.920226298</v>
+        <v>1115153.763894714</v>
       </c>
       <c r="J11">
-        <v>4842782.37817058</v>
+        <v>4842790.212409782</v>
       </c>
       <c r="K11">
-        <v>3986555.867106672</v>
+        <v>3986548.297661863</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -830,28 +827,28 @@
         <v>13</v>
       </c>
       <c r="D12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E12">
         <v>162.142</v>
       </c>
       <c r="F12">
-        <v>1116501.721390002</v>
+        <v>1116501.193344489</v>
       </c>
       <c r="G12">
-        <v>4841168.07066748</v>
+        <v>4841161.988598592</v>
       </c>
       <c r="H12">
-        <v>3985545.859612199</v>
+        <v>3985544.783741902</v>
       </c>
       <c r="I12">
-        <v>1115192.782161307</v>
+        <v>1115190.625758445</v>
       </c>
       <c r="J12">
-        <v>4842733.726612805</v>
+        <v>4842741.560773304</v>
       </c>
       <c r="K12">
-        <v>3986723.325015053</v>
+        <v>3986715.755252284</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -865,28 +862,28 @@
         <v>13</v>
       </c>
       <c r="D13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E13">
         <v>163.142</v>
       </c>
       <c r="F13">
-        <v>1116483.668611958</v>
+        <v>1116483.140574983</v>
       </c>
       <c r="G13">
-        <v>4841184.583466119</v>
+        <v>4841178.501376485</v>
       </c>
       <c r="H13">
-        <v>3985630.676548144</v>
+        <v>3985629.60065495</v>
       </c>
       <c r="I13">
-        <v>1115230.551787553</v>
+        <v>1115228.395311657</v>
       </c>
       <c r="J13">
-        <v>4842685.075055032</v>
+        <v>4842692.909136826</v>
       </c>
       <c r="K13">
-        <v>3986875.634275133</v>
+        <v>3986868.064223168</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -900,28 +897,28 @@
         <v>13</v>
       </c>
       <c r="D14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E14">
         <v>164.142</v>
       </c>
       <c r="F14">
-        <v>1116471.078677831</v>
+        <v>1116470.550646811</v>
       </c>
       <c r="G14">
-        <v>4841201.096264758</v>
+        <v>4841195.014154378</v>
       </c>
       <c r="H14">
-        <v>3985696.723450723</v>
+        <v>3985695.6475397</v>
       </c>
       <c r="I14">
-        <v>1115269.251456098</v>
+        <v>1115267.09490537</v>
       </c>
       <c r="J14">
-        <v>4842636.423497259</v>
+        <v>4842644.257500348</v>
       </c>
       <c r="K14">
-        <v>3987012.794886915</v>
+        <v>3987005.224574517</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -935,28 +932,28 @@
         <v>13</v>
       </c>
       <c r="D15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E15">
         <v>165.142</v>
       </c>
       <c r="F15">
-        <v>1116461.686209947</v>
+        <v>1116461.158183368</v>
       </c>
       <c r="G15">
-        <v>4841217.609063397</v>
+        <v>4841211.526932272</v>
       </c>
       <c r="H15">
-        <v>3985750.820987001</v>
+        <v>3985749.745061375</v>
       </c>
       <c r="I15">
-        <v>1115308.904068378</v>
+        <v>1115306.747440975</v>
       </c>
       <c r="J15">
-        <v>4842587.771939484</v>
+        <v>4842595.60586387</v>
       </c>
       <c r="K15">
-        <v>3987134.806850397</v>
+        <v>3987127.23630633</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -970,28 +967,28 @@
         <v>13</v>
       </c>
       <c r="D16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E16">
         <v>166.142</v>
       </c>
       <c r="F16">
-        <v>1116454.342611681</v>
+        <v>1116453.814588575</v>
       </c>
       <c r="G16">
-        <v>4841234.121862035</v>
+        <v>4841228.039710165</v>
       </c>
       <c r="H16">
-        <v>3985796.637651299</v>
+        <v>3985795.561713305</v>
       </c>
       <c r="I16">
-        <v>1115349.533089755</v>
+        <v>1115347.37638379</v>
       </c>
       <c r="J16">
-        <v>4842539.12038171</v>
+        <v>4842546.954227392</v>
       </c>
       <c r="K16">
-        <v>3987241.670165579</v>
+        <v>3987234.099418607</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -1005,28 +1002,28 @@
         <v>13</v>
       </c>
       <c r="D17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E17">
         <v>167.142</v>
       </c>
       <c r="F17">
-        <v>1116448.401105978</v>
+        <v>1116447.873085683</v>
       </c>
       <c r="G17">
-        <v>4841250.634660675</v>
+        <v>4841244.55248806</v>
       </c>
       <c r="H17">
-        <v>3985836.375263119</v>
+        <v>3985835.299314398</v>
       </c>
       <c r="I17">
-        <v>1115391.162563406</v>
+        <v>1115389.005776943</v>
       </c>
       <c r="J17">
-        <v>4842490.468823937</v>
+        <v>4842498.302590914</v>
       </c>
       <c r="K17">
-        <v>3987333.384832462</v>
+        <v>3987325.813911347</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1040,28 +1037,28 @@
         <v>13</v>
       </c>
       <c r="D18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E18">
         <v>168.142</v>
       </c>
       <c r="F18">
-        <v>1116443.467539168</v>
+        <v>1116442.939521206</v>
       </c>
       <c r="G18">
-        <v>4841267.147459314</v>
+        <v>4841261.065265954</v>
       </c>
       <c r="H18">
-        <v>3985871.459642172</v>
+        <v>3985870.383683981</v>
       </c>
       <c r="I18">
-        <v>1115433.817124547</v>
+        <v>1115431.660255605</v>
       </c>
       <c r="J18">
-        <v>4842441.817266163</v>
+        <v>4842449.650954436</v>
       </c>
       <c r="K18">
-        <v>3987409.950851046</v>
+        <v>3987402.379784551</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1075,28 +1072,28 @@
         <v>13</v>
       </c>
       <c r="D19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E19">
         <v>169.142</v>
       </c>
       <c r="F19">
-        <v>1116439.286712501</v>
+        <v>1116438.758696517</v>
       </c>
       <c r="G19">
-        <v>4841283.660257952</v>
+        <v>4841277.578043846</v>
       </c>
       <c r="H19">
-        <v>3985902.867221416</v>
+        <v>3985901.791254746</v>
       </c>
       <c r="I19">
-        <v>1115477.522015015</v>
+        <v>1115475.365061562</v>
       </c>
       <c r="J19">
-        <v>4842393.16570839</v>
+        <v>4842400.999317958</v>
       </c>
       <c r="K19">
-        <v>3987471.36822133</v>
+        <v>3987463.79703822</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1110,28 +1107,28 @@
         <v>13</v>
       </c>
       <c r="D20" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E20">
         <v>170.142</v>
       </c>
       <c r="F20">
-        <v>1116435.685338211</v>
+        <v>1116435.157323929</v>
       </c>
       <c r="G20">
-        <v>4841300.173056592</v>
+        <v>4841294.09082174</v>
       </c>
       <c r="H20">
-        <v>3985931.296068862</v>
+        <v>3985930.220094518</v>
       </c>
       <c r="I20">
-        <v>1115522.303098202</v>
+        <v>1115520.146058159</v>
       </c>
       <c r="J20">
-        <v>4842344.514150616</v>
+        <v>4842352.34768148</v>
       </c>
       <c r="K20">
-        <v>3987517.636943315</v>
+        <v>3987510.065672352</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1145,28 +1142,28 @@
         <v>13</v>
       </c>
       <c r="D21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E21">
         <v>171.142</v>
       </c>
       <c r="F21">
-        <v>1116432.541152366</v>
+        <v>1116432.013139572</v>
       </c>
       <c r="G21">
-        <v>4841316.685855231</v>
+        <v>4841310.603599634</v>
       </c>
       <c r="H21">
-        <v>3985957.262574938</v>
+        <v>3985956.186593584</v>
       </c>
       <c r="I21">
-        <v>1115568.186874366</v>
+        <v>1115566.029745598</v>
       </c>
       <c r="J21">
-        <v>4842295.862592841</v>
+        <v>4842303.696045001</v>
       </c>
       <c r="K21">
-        <v>3987548.757017001</v>
+        <v>3987541.185686949</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1180,28 +1177,28 @@
         <v>13</v>
       </c>
       <c r="D22" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E22">
         <v>172.142</v>
       </c>
       <c r="F22">
-        <v>1116429.765133437</v>
+        <v>1116429.237121955</v>
       </c>
       <c r="G22">
-        <v>4841333.198653869</v>
+        <v>4841327.116377527</v>
       </c>
       <c r="H22">
-        <v>3985981.159494368</v>
+        <v>3985980.083506564</v>
       </c>
       <c r="I22">
-        <v>1115615.200496305</v>
+        <v>1115613.043276629</v>
       </c>
       <c r="J22">
-        <v>4842247.211035068</v>
+        <v>4842255.044408523</v>
       </c>
       <c r="K22">
-        <v>3987564.728442387</v>
+        <v>3987557.15708201</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -1215,28 +1212,28 @@
         <v>13</v>
       </c>
       <c r="D23" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E23">
         <v>173.142</v>
       </c>
       <c r="F23">
-        <v>1116427.290737504</v>
+        <v>1116426.762727193</v>
       </c>
       <c r="G23">
-        <v>4841349.711452508</v>
+        <v>4841343.629155421</v>
       </c>
       <c r="H23">
-        <v>3986003.292513923</v>
+        <v>3986002.216520144</v>
       </c>
       <c r="I23">
-        <v>1115663.371785432</v>
+        <v>1115661.21447261</v>
       </c>
       <c r="J23">
-        <v>4842198.559477295</v>
+        <v>4842206.392772046</v>
       </c>
       <c r="K23">
-        <v>3987565.551219474</v>
+        <v>3987557.979857534</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -1250,28 +1247,28 @@
         <v>13</v>
       </c>
       <c r="D24" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E24">
         <v>174.142</v>
       </c>
       <c r="F24">
-        <v>1116425.067101979</v>
+        <v>1116424.53909272</v>
       </c>
       <c r="G24">
-        <v>4841366.224251148</v>
+        <v>4841360.141933315</v>
       </c>
       <c r="H24">
-        <v>3986023.904226519</v>
+        <v>3986022.828227175</v>
       </c>
       <c r="I24">
-        <v>1115712.729248238</v>
+        <v>1115710.571839975</v>
       </c>
       <c r="J24">
-        <v>4842149.907919521</v>
+        <v>4842157.741135566</v>
       </c>
       <c r="K24">
-        <v>3987551.225348261</v>
+        <v>3987543.654013522</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1285,28 +1282,28 @@
         <v>13</v>
       </c>
       <c r="D25" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E25">
         <v>175.142</v>
       </c>
       <c r="F25">
-        <v>1116423.05459968</v>
+        <v>1116422.526591373</v>
       </c>
       <c r="G25">
-        <v>4841382.737049786</v>
+        <v>4841376.654711207</v>
       </c>
       <c r="H25">
-        <v>3986043.190382545</v>
+        <v>3986042.114377996</v>
       </c>
       <c r="I25">
-        <v>1115763.302093157</v>
+        <v>1115761.144587103</v>
       </c>
       <c r="J25">
-        <v>4842101.256361747</v>
+        <v>4842109.089499089</v>
       </c>
       <c r="K25">
-        <v>3987521.750828749</v>
+        <v>3987514.179549975</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -1320,28 +1317,28 @@
         <v>13</v>
       </c>
       <c r="D26" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E26">
         <v>176.142</v>
       </c>
       <c r="F26">
-        <v>1116421.22184056</v>
+        <v>1116420.693833119</v>
       </c>
       <c r="G26">
-        <v>4841399.249848425</v>
+        <v>4841393.167489101</v>
       </c>
       <c r="H26">
-        <v>3986061.311223862</v>
+        <v>3986060.235214421</v>
       </c>
       <c r="I26">
-        <v>1115815.120247856</v>
+        <v>1115812.962641604</v>
       </c>
       <c r="J26">
-        <v>4842052.604803973</v>
+        <v>4842060.437862611</v>
       </c>
       <c r="K26">
-        <v>3987477.127660938</v>
+        <v>3987469.556466891</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -1355,28 +1352,28 @@
         <v>13</v>
       </c>
       <c r="D27" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E27">
         <v>177.142</v>
       </c>
       <c r="F27">
-        <v>1116419.543595691</v>
+        <v>1116419.015589044</v>
       </c>
       <c r="G27">
-        <v>4841415.762647064</v>
+        <v>4841409.680266994</v>
       </c>
       <c r="H27">
-        <v>3986078.399584485</v>
+        <v>3986077.323570431</v>
       </c>
       <c r="I27">
-        <v>1115868.214376942</v>
+        <v>1115866.056668024</v>
       </c>
       <c r="J27">
-        <v>4842003.953246199</v>
+        <v>4842011.786226132</v>
       </c>
       <c r="K27">
-        <v>3987417.355844826</v>
+        <v>3987409.784764272</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -1390,28 +1387,28 @@
         <v>13</v>
       </c>
       <c r="D28" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E28">
         <v>178.142</v>
       </c>
       <c r="F28">
-        <v>1116417.999326294</v>
+        <v>1116417.471320378</v>
       </c>
       <c r="G28">
-        <v>4841432.275445703</v>
+        <v>4841426.193044889</v>
       </c>
       <c r="H28">
-        <v>3986094.566805346</v>
+        <v>3986093.490786928</v>
       </c>
       <c r="I28">
-        <v>1115922.615900113</v>
+        <v>1115920.458086</v>
       </c>
       <c r="J28">
-        <v>4841955.301688425</v>
+        <v>4841963.134589654</v>
       </c>
       <c r="K28">
-        <v>3987342.435380416</v>
+        <v>3987334.864442116</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -1425,28 +1422,28 @@
         <v>13</v>
       </c>
       <c r="D29" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E29">
         <v>179.142</v>
       </c>
       <c r="F29">
-        <v>1116416.572120062</v>
+        <v>1116416.04411482</v>
       </c>
       <c r="G29">
-        <v>4841448.788244342</v>
+        <v>4841442.705822783</v>
       </c>
       <c r="H29">
-        <v>3986109.907134849</v>
+        <v>3986108.83111229</v>
       </c>
       <c r="I29">
-        <v>1115978.357010742</v>
+        <v>1115976.199088845</v>
       </c>
       <c r="J29">
-        <v>4841906.650130652</v>
+        <v>4841914.482953177</v>
       </c>
       <c r="K29">
-        <v>3987252.366267707</v>
+        <v>3987244.795500425</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -1460,28 +1457,28 @@
         <v>13</v>
       </c>
       <c r="D30" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E30">
         <v>180.142</v>
       </c>
       <c r="F30">
-        <v>1116415.24790797</v>
+        <v>1116414.719903354</v>
       </c>
       <c r="G30">
-        <v>4841465.301042981</v>
+        <v>4841459.218600675</v>
       </c>
       <c r="H30">
-        <v>3986124.501057826</v>
+        <v>3986123.425031328</v>
       </c>
       <c r="I30">
-        <v>1116035.47069494</v>
+        <v>1116033.312662604</v>
       </c>
       <c r="J30">
-        <v>4841857.998572879</v>
+        <v>4841865.831316699</v>
       </c>
       <c r="K30">
-        <v>3987147.148506698</v>
+        <v>3987139.577939197</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -1495,28 +1492,28 @@
         <v>13</v>
       </c>
       <c r="D31" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E31">
         <v>181.142</v>
       </c>
       <c r="F31">
-        <v>1116414.014878229</v>
+        <v>1116413.486874197</v>
       </c>
       <c r="G31">
-        <v>4841481.81384162</v>
+        <v>4841475.731378569</v>
       </c>
       <c r="H31">
-        <v>3986138.417851552</v>
+        <v>3986137.341821298</v>
       </c>
       <c r="I31">
-        <v>1116093.990751067</v>
+        <v>1116091.832605574</v>
       </c>
       <c r="J31">
-        <v>4841809.347015104</v>
+        <v>4841817.17968022</v>
       </c>
       <c r="K31">
-        <v>3987026.782097389</v>
+        <v>3987019.211758434</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -1530,28 +1527,28 @@
         <v>13</v>
       </c>
       <c r="D32" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E32">
         <v>182.142</v>
       </c>
       <c r="F32">
-        <v>1116412.863031325</v>
+        <v>1116412.335027838</v>
       </c>
       <c r="G32">
-        <v>4841498.326640259</v>
+        <v>4841492.244156463</v>
       </c>
       <c r="H32">
-        <v>3986151.717574642</v>
+        <v>3986150.641540796</v>
       </c>
       <c r="I32">
-        <v>1116153.951809739</v>
+        <v>1116151.793548302</v>
       </c>
       <c r="J32">
-        <v>4841760.69545733</v>
+        <v>4841768.528043742</v>
       </c>
       <c r="K32">
-        <v>3986891.267039781</v>
+        <v>3986883.696958134</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1565,28 +1562,28 @@
         <v>13</v>
       </c>
       <c r="D33" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E33">
         <v>183.142</v>
       </c>
       <c r="F33">
-        <v>1116411.783837707</v>
+        <v>1116411.25583473</v>
       </c>
       <c r="G33">
-        <v>4841514.839438898</v>
+        <v>4841508.756934356</v>
       </c>
       <c r="H33">
-        <v>3986164.452633436</v>
+        <v>3986163.376596154</v>
       </c>
       <c r="I33">
-        <v>1116215.389354318</v>
+        <v>1116213.230974082</v>
       </c>
       <c r="J33">
-        <v>4841712.043899557</v>
+        <v>4841719.876407265</v>
       </c>
       <c r="K33">
-        <v>3986740.603333874</v>
+        <v>3986733.033538299</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1600,28 +1597,28 @@
         <v>13</v>
       </c>
       <c r="D34" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E34">
         <v>184.142</v>
       </c>
       <c r="F34">
-        <v>1116410.769971286</v>
+        <v>1116410.241968788</v>
       </c>
       <c r="G34">
-        <v>4841531.352237538</v>
+        <v>4841525.26971225</v>
       </c>
       <c r="H34">
-        <v>3986176.669029223</v>
+        <v>3986175.592988643</v>
       </c>
       <c r="I34">
-        <v>1116278.33974191</v>
+        <v>1116276.18123995</v>
       </c>
       <c r="J34">
-        <v>4841663.392341783</v>
+        <v>4841671.224770786</v>
       </c>
       <c r="K34">
-        <v>3986574.790979668</v>
+        <v>3986567.221498927</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1635,28 +1632,28 @@
         <v>13</v>
       </c>
       <c r="D35" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E35">
         <v>185.142</v>
       </c>
       <c r="F35">
-        <v>1116409.815099672</v>
+        <v>1116409.287097626</v>
       </c>
       <c r="G35">
-        <v>4841547.865036176</v>
+        <v>4841541.782490143</v>
       </c>
       <c r="H35">
-        <v>3986188.407361261</v>
+        <v>3986187.331317511</v>
       </c>
       <c r="I35">
-        <v>1116342.840224884</v>
+        <v>1116340.681598201</v>
       </c>
       <c r="J35">
-        <v>4841614.740784009</v>
+        <v>4841622.573134308</v>
       </c>
       <c r="K35">
-        <v>3986393.829977161</v>
+        <v>3986386.260840019</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1670,28 +1667,28 @@
         <v>13</v>
       </c>
       <c r="D36" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E36">
         <v>186.142</v>
       </c>
       <c r="F36">
-        <v>1116408.913717413</v>
+        <v>1116408.385715794</v>
       </c>
       <c r="G36">
-        <v>4841564.377834815</v>
+        <v>4841558.295268036</v>
       </c>
       <c r="H36">
-        <v>3986199.703640841</v>
+        <v>3986198.627594043</v>
       </c>
       <c r="I36">
-        <v>1116408.928972912</v>
+        <v>1116406.770218436</v>
       </c>
       <c r="J36">
-        <v>4841566.089226236</v>
+        <v>4841573.92149783</v>
       </c>
       <c r="K36">
-        <v>3986197.720326357</v>
+        <v>3986190.151561576</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1705,28 +1702,28 @@
         <v>13</v>
       </c>
       <c r="D37" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E37">
         <v>187.142</v>
       </c>
       <c r="F37">
-        <v>1116408.061012199</v>
+        <v>1116407.533010982</v>
       </c>
       <c r="G37">
-        <v>4841580.890633455</v>
+        <v>4841574.80804593</v>
       </c>
       <c r="H37">
-        <v>3986210.589957562</v>
+        <v>3986209.513907825</v>
       </c>
       <c r="I37">
-        <v>1116476.645095559</v>
+        <v>1116474.486210143</v>
       </c>
       <c r="J37">
-        <v>4841517.437668462</v>
+        <v>4841525.269861352</v>
       </c>
       <c r="K37">
-        <v>3985986.462027251</v>
+        <v>3985978.893663596</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -1740,28 +1737,28 @@
         <v>13</v>
       </c>
       <c r="D38" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E38">
         <v>188.142</v>
       </c>
       <c r="F38">
-        <v>1116407.252756592</v>
+        <v>1116406.724755758</v>
       </c>
       <c r="G38">
-        <v>4841597.403432093</v>
+        <v>4841591.320823823</v>
       </c>
       <c r="H38">
-        <v>3986221.095028874</v>
+        <v>3986220.018976301</v>
       </c>
       <c r="I38">
-        <v>1116546.028665429</v>
+        <v>1116543.869645848</v>
       </c>
       <c r="J38">
-        <v>4841468.786110688</v>
+        <v>4841476.618224874</v>
       </c>
       <c r="K38">
-        <v>3985760.055079847</v>
+        <v>3985752.48714608</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -1775,28 +1772,28 @@
         <v>13</v>
       </c>
       <c r="D39" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E39">
         <v>189.142</v>
       </c>
       <c r="F39">
-        <v>1116406.485219732</v>
+        <v>1116405.957219261</v>
       </c>
       <c r="G39">
-        <v>4841613.916230732</v>
+        <v>4841607.833601718</v>
       </c>
       <c r="H39">
-        <v>3986231.244656619</v>
+        <v>3986230.168601306</v>
       </c>
       <c r="I39">
-        <v>1116617.120741874</v>
+        <v>1116614.961584826</v>
       </c>
       <c r="J39">
-        <v>4841420.134552914</v>
+        <v>4841427.966588396</v>
       </c>
       <c r="K39">
-        <v>3985518.499484143</v>
+        <v>3985510.932009029</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -1810,28 +1807,28 @@
         <v>13</v>
       </c>
       <c r="D40" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E40">
         <v>190.142</v>
       </c>
       <c r="F40">
-        <v>1116405.755094796</v>
+        <v>1116405.22709467</v>
       </c>
       <c r="G40">
-        <v>4841630.429029372</v>
+        <v>4841624.346379612</v>
       </c>
       <c r="H40">
-        <v>3986241.062108829</v>
+        <v>3986239.986050866</v>
       </c>
       <c r="I40">
-        <v>1116689.9633953</v>
+        <v>1116687.804097399</v>
       </c>
       <c r="J40">
-        <v>4841371.48299514</v>
+        <v>4841379.314951917</v>
       </c>
       <c r="K40">
-        <v>3985261.795240141</v>
+        <v>3985254.228252442</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -1845,28 +1842,28 @@
         <v>13</v>
       </c>
       <c r="D41" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E41">
         <v>191.142</v>
       </c>
       <c r="F41">
-        <v>1116405.059439001</v>
+        <v>1116404.531439204</v>
       </c>
       <c r="G41">
-        <v>4841646.94182801</v>
+        <v>4841640.859157505</v>
       </c>
       <c r="H41">
-        <v>3986250.568441004</v>
+        <v>3986249.492380475</v>
       </c>
       <c r="I41">
-        <v>1116764.599732051</v>
+        <v>1116762.440289829</v>
       </c>
       <c r="J41">
-        <v>4841322.831437367</v>
+        <v>4841330.66331544</v>
       </c>
       <c r="K41">
-        <v>3984989.942347838</v>
+        <v>3984982.375876318</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -1880,28 +1877,28 @@
         <v>13</v>
       </c>
       <c r="D42" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E42">
         <v>192.142</v>
       </c>
       <c r="F42">
-        <v>1116404.395623661</v>
+        <v>1116403.867624178</v>
       </c>
       <c r="G42">
-        <v>4841663.454626649</v>
+        <v>4841657.371935398</v>
       </c>
       <c r="H42">
-        <v>3986259.782768041</v>
+        <v>3986258.706705024</v>
       </c>
       <c r="I42">
-        <v>1116841.073919931</v>
+        <v>1116838.914329834</v>
       </c>
       <c r="J42">
-        <v>4841274.179879594</v>
+        <v>4841282.011678962</v>
       </c>
       <c r="K42">
-        <v>3984702.940807236</v>
+        <v>3984695.374880658</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -1915,28 +1912,28 @@
         <v>13</v>
       </c>
       <c r="D43" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E43">
         <v>193.142</v>
       </c>
       <c r="F43">
-        <v>1116403.761292368</v>
+        <v>1116403.233293185</v>
       </c>
       <c r="G43">
-        <v>4841679.967425288</v>
+        <v>4841673.884713292</v>
       </c>
       <c r="H43">
-        <v>3986268.722495607</v>
+        <v>3986267.646430177</v>
       </c>
       <c r="I43">
-        <v>1116919.431214333</v>
+        <v>1116917.271472719</v>
       </c>
       <c r="J43">
-        <v>4841225.528321818</v>
+        <v>4841233.360042483</v>
       </c>
       <c r="K43">
-        <v>3984400.790618335</v>
+        <v>3984393.225265462</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -1950,28 +1947,28 @@
         <v>13</v>
       </c>
       <c r="D44" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E44">
         <v>194.142</v>
       </c>
       <c r="F44">
-        <v>1116403.154325788</v>
+        <v>1116402.626326892</v>
       </c>
       <c r="G44">
-        <v>4841696.480223927</v>
+        <v>4841690.397491185</v>
       </c>
       <c r="H44">
-        <v>3986277.403518045</v>
+        <v>3986276.327450272</v>
       </c>
       <c r="I44">
-        <v>1116999.717985021</v>
+        <v>1116997.558088161</v>
       </c>
       <c r="J44">
-        <v>4841176.876764045</v>
+        <v>4841184.708406005</v>
       </c>
       <c r="K44">
-        <v>3984083.491781134</v>
+        <v>3984075.927030731</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -1985,28 +1982,28 @@
         <v>13</v>
       </c>
       <c r="D45" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E45">
         <v>195.142</v>
       </c>
       <c r="F45">
-        <v>1116402.572811852</v>
+        <v>1116402.044813231</v>
       </c>
       <c r="G45">
-        <v>4841712.993022566</v>
+        <v>4841706.910269079</v>
       </c>
       <c r="H45">
-        <v>3986285.840388435</v>
+        <v>3986284.764318385</v>
       </c>
       <c r="I45">
-        <v>1117081.981743576</v>
+        <v>1117079.821687645</v>
       </c>
       <c r="J45">
-        <v>4841128.225206272</v>
+        <v>4841136.056769527</v>
       </c>
       <c r="K45">
-        <v>3983751.044295635</v>
+        <v>3983743.480176463</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -2020,28 +2017,28 @@
         <v>13</v>
       </c>
       <c r="D46" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E46">
         <v>196.142</v>
       </c>
       <c r="F46">
-        <v>1116402.015020411</v>
+        <v>1116401.487022054</v>
       </c>
       <c r="G46">
-        <v>4841729.505821204</v>
+        <v>4841723.423046972</v>
       </c>
       <c r="H46">
-        <v>3986294.046465382</v>
+        <v>3986292.970393116</v>
       </c>
       <c r="I46">
-        <v>1117166.271171503</v>
+        <v>1117164.110952586</v>
       </c>
       <c r="J46">
-        <v>4841079.573648497</v>
+        <v>4841087.405133049</v>
       </c>
       <c r="K46">
-        <v>3983403.448161835</v>
+        <v>3983395.884702659</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -2055,28 +2052,28 @@
         <v>13</v>
       </c>
       <c r="D47" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E47">
         <v>197.142</v>
       </c>
       <c r="F47">
-        <v>1116401.479381577</v>
+        <v>1116400.951383473</v>
       </c>
       <c r="G47">
-        <v>4841746.018619844</v>
+        <v>4841739.935824865</v>
       </c>
       <c r="H47">
-        <v>3986302.034040261</v>
+        <v>3986300.957965839</v>
       </c>
       <c r="I47">
-        <v>1117252.636149049</v>
+        <v>1117250.47576313</v>
       </c>
       <c r="J47">
-        <v>4841030.922090724</v>
+        <v>4841038.753496571</v>
       </c>
       <c r="K47">
-        <v>3983040.703379736</v>
+        <v>3983033.14060932</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -2090,28 +2087,28 @@
         <v>13</v>
       </c>
       <c r="D48" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E48">
         <v>198.142</v>
       </c>
       <c r="F48">
-        <v>1116400.964467129</v>
+        <v>1116400.436469269</v>
       </c>
       <c r="G48">
-        <v>4841762.531418483</v>
+        <v>4841756.448602759</v>
       </c>
       <c r="H48">
-        <v>3986309.81444796</v>
+        <v>3986308.738371438</v>
       </c>
       <c r="I48">
-        <v>1117341.127784712</v>
+        <v>1117338.967227681</v>
       </c>
       <c r="J48">
-        <v>4840982.270532951</v>
+        <v>4840990.101860093</v>
       </c>
       <c r="K48">
-        <v>3982662.809949338</v>
+        <v>3982655.247896444</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -2125,28 +2122,28 @@
         <v>13</v>
       </c>
       <c r="D49" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E49">
         <v>199.142</v>
       </c>
       <c r="F49">
-        <v>1116400.468974497</v>
+        <v>1116399.940976871</v>
       </c>
       <c r="G49">
-        <v>4841779.044217121</v>
+        <v>4841772.961380653</v>
       </c>
       <c r="H49">
-        <v>3986317.398163618</v>
+        <v>3986316.322085049</v>
       </c>
       <c r="I49">
-        <v>1117431.798445493</v>
+        <v>1117429.637713136</v>
       </c>
       <c r="J49">
-        <v>4840933.618975176</v>
+        <v>4840941.450223615</v>
       </c>
       <c r="K49">
-        <v>3982269.76787064</v>
+        <v>3982262.206564032</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -2160,28 +2157,28 @@
         <v>13</v>
       </c>
       <c r="D50" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E50">
         <v>200.142</v>
       </c>
       <c r="F50">
-        <v>1116399.991712897</v>
+        <v>1116399.463715497</v>
       </c>
       <c r="G50">
-        <v>4841795.557015761</v>
+        <v>4841789.474158547</v>
       </c>
       <c r="H50">
-        <v>3986324.794887431</v>
+        <v>3986323.718806865</v>
       </c>
       <c r="I50">
-        <v>1117524.701787879</v>
+        <v>1117522.540875879</v>
       </c>
       <c r="J50">
-        <v>4840884.967417402</v>
+        <v>4840892.798587136</v>
       </c>
       <c r="K50">
-        <v>3981861.577143643</v>
+        <v>3981854.016612084</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -2195,28 +2192,28 @@
         <v>13</v>
       </c>
       <c r="D51" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E51">
         <v>201.142</v>
       </c>
       <c r="F51">
-        <v>1116399.531591293</v>
+        <v>1116399.00359411</v>
       </c>
       <c r="G51">
-        <v>4841812.0698144</v>
+        <v>4841805.986936441</v>
       </c>
       <c r="H51">
-        <v>3986332.013619259</v>
+        <v>3986330.937536744</v>
       </c>
       <c r="I51">
-        <v>1117619.892789603</v>
+        <v>1117617.731693536</v>
       </c>
       <c r="J51">
-        <v>4840836.315859629</v>
+        <v>4840844.146950658</v>
       </c>
       <c r="K51">
-        <v>3981438.237768347</v>
+        <v>3981430.6780406</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -2230,28 +2227,28 @@
         <v>13</v>
       </c>
       <c r="D52" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E52">
         <v>202.142</v>
       </c>
       <c r="F52">
-        <v>1116399.087607909</v>
+        <v>1116398.559610937</v>
       </c>
       <c r="G52">
-        <v>4841828.582613038</v>
+        <v>4841822.499714334</v>
       </c>
       <c r="H52">
-        <v>3986339.062724459</v>
+        <v>3986337.986640041</v>
       </c>
       <c r="I52">
-        <v>1117717.42778217</v>
+        <v>1117715.266497503</v>
       </c>
       <c r="J52">
-        <v>4840787.664301855</v>
+        <v>4840795.495314181</v>
       </c>
       <c r="K52">
-        <v>3980999.749744751</v>
+        <v>3980992.19084958</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -2265,28 +2262,28 @@
         <v>13</v>
       </c>
       <c r="D53" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E53">
         <v>203.142</v>
       </c>
       <c r="F53">
-        <v>1116398.658841057</v>
+        <v>1116398.130844288</v>
       </c>
       <c r="G53">
-        <v>4841845.095411677</v>
+        <v>4841839.012492227</v>
       </c>
       <c r="H53">
-        <v>3986345.949992165</v>
+        <v>3986344.873905888</v>
       </c>
       <c r="I53">
-        <v>1117817.364484198</v>
+        <v>1117815.203006288</v>
       </c>
       <c r="J53">
-        <v>4840739.012744082</v>
+        <v>4840746.843677702</v>
       </c>
       <c r="K53">
-        <v>3980546.113072856</v>
+        <v>3980538.555039025</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -2300,28 +2297,28 @@
         <v>13</v>
       </c>
       <c r="D54" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E54">
         <v>204.142</v>
       </c>
       <c r="F54">
-        <v>1116398.244441086</v>
+        <v>1116397.716444512</v>
       </c>
       <c r="G54">
-        <v>4841861.608210317</v>
+        <v>4841855.525270121</v>
       </c>
       <c r="H54">
-        <v>3986352.682687024</v>
+        <v>3986351.60659893</v>
       </c>
       <c r="I54">
-        <v>1117919.762035574</v>
+        <v>1117917.600359662</v>
       </c>
       <c r="J54">
-        <v>4840690.361186307</v>
+        <v>4840698.192041224</v>
       </c>
       <c r="K54">
-        <v>3980077.327752661</v>
+        <v>3980069.770608933</v>
       </c>
     </row>
     <row r="55" spans="1:11">
@@ -2329,7 +2326,7 @@
         <v>443</v>
       </c>
       <c r="B55" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C55" t="s">
         <v>14</v>
@@ -2341,22 +2338,22 @@
         <v>152.142</v>
       </c>
       <c r="F55">
-        <v>1116578.810316505</v>
+        <v>1116578.021331075</v>
       </c>
       <c r="G55">
-        <v>4841120.138437768</v>
+        <v>4841114.53713103</v>
       </c>
       <c r="H55">
-        <v>3985230.673261457</v>
+        <v>3985227.017048498</v>
       </c>
       <c r="I55">
-        <v>1114863.142213464</v>
+        <v>1114860.024652021</v>
       </c>
       <c r="J55">
-        <v>4843226.798173641</v>
+        <v>4843223.315635383</v>
       </c>
       <c r="K55">
-        <v>3984356.565916498</v>
+        <v>3984365.42908802</v>
       </c>
     </row>
     <row r="56" spans="1:11">
@@ -2364,7 +2361,7 @@
         <v>443</v>
       </c>
       <c r="B56" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C56" t="s">
         <v>14</v>
@@ -2376,22 +2373,22 @@
         <v>153.142</v>
       </c>
       <c r="F56">
-        <v>1116578.810316505</v>
+        <v>1116578.021331075</v>
       </c>
       <c r="G56">
-        <v>4841120.138437768</v>
+        <v>4841114.53713103</v>
       </c>
       <c r="H56">
-        <v>3985230.673261457</v>
+        <v>3985227.017048498</v>
       </c>
       <c r="I56">
-        <v>1114892.756257337</v>
+        <v>1114889.638613083</v>
       </c>
       <c r="J56">
-        <v>4843178.14655001</v>
+        <v>4843174.664046736</v>
       </c>
       <c r="K56">
-        <v>3984660.360859678</v>
+        <v>3984669.22470699</v>
       </c>
     </row>
     <row r="57" spans="1:11">
@@ -2399,7 +2396,7 @@
         <v>443</v>
       </c>
       <c r="B57" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C57" t="s">
         <v>14</v>
@@ -2411,22 +2408,22 @@
         <v>154.142</v>
       </c>
       <c r="F57">
-        <v>1116578.810316505</v>
+        <v>1116578.021331075</v>
       </c>
       <c r="G57">
-        <v>4841120.138437768</v>
+        <v>4841114.53713103</v>
       </c>
       <c r="H57">
-        <v>3985230.673261457</v>
+        <v>3985227.017048498</v>
       </c>
       <c r="I57">
-        <v>1114923.099519796</v>
+        <v>1114919.981790691</v>
       </c>
       <c r="J57">
-        <v>4843129.494926379</v>
+        <v>4843126.012458088</v>
       </c>
       <c r="K57">
-        <v>3984949.007194446</v>
+        <v>3984957.871683849</v>
       </c>
     </row>
     <row r="58" spans="1:11">
@@ -2434,7 +2431,7 @@
         <v>443</v>
       </c>
       <c r="B58" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C58" t="s">
         <v>14</v>
@@ -2446,22 +2443,22 @@
         <v>155.142</v>
       </c>
       <c r="F58">
-        <v>1116578.810316505</v>
+        <v>1116578.021331075</v>
       </c>
       <c r="G58">
-        <v>4841120.138437768</v>
+        <v>4841114.53713103</v>
       </c>
       <c r="H58">
-        <v>3985230.673261457</v>
+        <v>3985227.017048498</v>
       </c>
       <c r="I58">
-        <v>1114954.189957178</v>
+        <v>1114951.072141133</v>
       </c>
       <c r="J58">
-        <v>4843080.843302749</v>
+        <v>4843077.360869441</v>
       </c>
       <c r="K58">
-        <v>3985222.5049208</v>
+        <v>3985231.370018597</v>
       </c>
     </row>
     <row r="59" spans="1:11">
@@ -2469,7 +2466,7 @@
         <v>443</v>
       </c>
       <c r="B59" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C59" t="s">
         <v>14</v>
@@ -2481,22 +2478,22 @@
         <v>156.142</v>
       </c>
       <c r="F59">
-        <v>1116578.810316505</v>
+        <v>1116578.021331075</v>
       </c>
       <c r="G59">
-        <v>4841120.138437768</v>
+        <v>4841114.53713103</v>
       </c>
       <c r="H59">
-        <v>3985230.673261457</v>
+        <v>3985227.017048498</v>
       </c>
       <c r="I59">
-        <v>1114986.045967977</v>
+        <v>1114982.928062851</v>
       </c>
       <c r="J59">
-        <v>4843032.191679118</v>
+        <v>4843028.709280794</v>
       </c>
       <c r="K59">
-        <v>3985480.854038741</v>
+        <v>3985489.719711234</v>
       </c>
     </row>
     <row r="60" spans="1:11">
@@ -2504,7 +2501,7 @@
         <v>443</v>
       </c>
       <c r="B60" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C60" t="s">
         <v>14</v>
@@ -2516,22 +2513,22 @@
         <v>157.142</v>
       </c>
       <c r="F60">
-        <v>1116578.810316505</v>
+        <v>1116578.021331075</v>
       </c>
       <c r="G60">
-        <v>4841120.138437768</v>
+        <v>4841114.53713103</v>
       </c>
       <c r="H60">
-        <v>3985230.673261457</v>
+        <v>3985227.017048498</v>
       </c>
       <c r="I60">
-        <v>1115018.686403736</v>
+        <v>1115015.568407336</v>
       </c>
       <c r="J60">
-        <v>4842983.540055488</v>
+        <v>4842980.057692147</v>
       </c>
       <c r="K60">
-        <v>3985724.05454827</v>
+        <v>3985732.92076176</v>
       </c>
     </row>
     <row r="61" spans="1:11">
@@ -2539,7 +2536,7 @@
         <v>443</v>
       </c>
       <c r="B61" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C61" t="s">
         <v>14</v>
@@ -2551,22 +2548,22 @@
         <v>158.142</v>
       </c>
       <c r="F61">
-        <v>1116578.810316505</v>
+        <v>1116578.021331075</v>
       </c>
       <c r="G61">
-        <v>4841120.138437768</v>
+        <v>4841114.53713103</v>
       </c>
       <c r="H61">
-        <v>3985230.673261457</v>
+        <v>3985227.017048498</v>
       </c>
       <c r="I61">
-        <v>1115052.130580196</v>
+        <v>1115049.012490274</v>
       </c>
       <c r="J61">
-        <v>4842934.888431857</v>
+        <v>4842931.406103498</v>
       </c>
       <c r="K61">
-        <v>3985952.106449385</v>
+        <v>3985960.973170175</v>
       </c>
     </row>
     <row r="62" spans="1:11">
@@ -2574,7 +2571,7 @@
         <v>443</v>
       </c>
       <c r="B62" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C62" t="s">
         <v>14</v>
@@ -2586,22 +2583,22 @@
         <v>159.142</v>
       </c>
       <c r="F62">
-        <v>1116578.810316505</v>
+        <v>1116578.021331075</v>
       </c>
       <c r="G62">
-        <v>4841120.138437768</v>
+        <v>4841114.53713103</v>
       </c>
       <c r="H62">
-        <v>3985230.673261457</v>
+        <v>3985227.017048498</v>
       </c>
       <c r="I62">
-        <v>1115086.398288734</v>
+        <v>1115083.280102987</v>
       </c>
       <c r="J62">
-        <v>4842886.236808226</v>
+        <v>4842882.754514852</v>
       </c>
       <c r="K62">
-        <v>3986165.009742088</v>
+        <v>3986173.876936479</v>
       </c>
     </row>
     <row r="63" spans="1:11">
@@ -2609,7 +2606,7 @@
         <v>443</v>
       </c>
       <c r="B63" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C63" t="s">
         <v>14</v>
@@ -2621,22 +2618,22 @@
         <v>160.142</v>
       </c>
       <c r="F63">
-        <v>1116578.810316505</v>
+        <v>1116578.021331075</v>
       </c>
       <c r="G63">
-        <v>4841136.651241886</v>
+        <v>4841131.049916042</v>
       </c>
       <c r="H63">
-        <v>3985230.673261457</v>
+        <v>3985227.017048498</v>
       </c>
       <c r="I63">
-        <v>1115121.509808069</v>
+        <v>1115118.391524137</v>
       </c>
       <c r="J63">
-        <v>4842837.585184596</v>
+        <v>4842834.102926204</v>
       </c>
       <c r="K63">
-        <v>3986362.764426377</v>
+        <v>3986371.632060672</v>
       </c>
     </row>
     <row r="64" spans="1:11">
@@ -2644,7 +2641,7 @@
         <v>443</v>
       </c>
       <c r="B64" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C64" t="s">
         <v>14</v>
@@ -2656,22 +2653,22 @@
         <v>161.142</v>
       </c>
       <c r="F64">
-        <v>1116530.129739374</v>
+        <v>1116529.340788342</v>
       </c>
       <c r="G64">
-        <v>4841153.164046003</v>
+        <v>4841147.562701053</v>
       </c>
       <c r="H64">
-        <v>3985429.927785472</v>
+        <v>3985426.271389709</v>
       </c>
       <c r="I64">
-        <v>1115157.485916265</v>
+        <v>1115154.367531731</v>
       </c>
       <c r="J64">
-        <v>4842788.933560967</v>
+        <v>4842785.451337557</v>
       </c>
       <c r="K64">
-        <v>3986545.370502253</v>
+        <v>3986554.238542755</v>
       </c>
     </row>
     <row r="65" spans="1:11">
@@ -2679,7 +2676,7 @@
         <v>443</v>
       </c>
       <c r="B65" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C65" t="s">
         <v>14</v>
@@ -2691,22 +2688,22 @@
         <v>162.142</v>
       </c>
       <c r="F65">
-        <v>1116501.532342391</v>
+        <v>1116500.743411566</v>
       </c>
       <c r="G65">
-        <v>4841169.676850121</v>
+        <v>4841164.075486065</v>
       </c>
       <c r="H65">
-        <v>3985548.613970239</v>
+        <v>3985544.957465589</v>
       </c>
       <c r="I65">
-        <v>1115194.347903029</v>
+        <v>1115191.229415415</v>
       </c>
       <c r="J65">
-        <v>4842740.281937335</v>
+        <v>4842736.799748909</v>
       </c>
       <c r="K65">
-        <v>3986712.827969716</v>
+        <v>3986721.696382726</v>
       </c>
     </row>
     <row r="66" spans="1:11">
@@ -2714,7 +2711,7 @@
         <v>443</v>
       </c>
       <c r="B66" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C66" t="s">
         <v>14</v>
@@ -2726,22 +2723,22 @@
         <v>163.142</v>
       </c>
       <c r="F66">
-        <v>1116483.479567404</v>
+        <v>1116482.690649336</v>
       </c>
       <c r="G66">
-        <v>4841186.189654239</v>
+        <v>4841180.588271077</v>
       </c>
       <c r="H66">
-        <v>3985633.4309648</v>
+        <v>3985629.774382335</v>
       </c>
       <c r="I66">
-        <v>1115232.117582303</v>
+        <v>1115228.998989072</v>
       </c>
       <c r="J66">
-        <v>4842691.630313705</v>
+        <v>4842688.148160262</v>
       </c>
       <c r="K66">
-        <v>3986865.136828767</v>
+        <v>3986874.005580586</v>
       </c>
     </row>
     <row r="67" spans="1:11">
@@ -2749,7 +2746,7 @@
         <v>443</v>
       </c>
       <c r="B67" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C67" t="s">
         <v>14</v>
@@ -2761,22 +2758,22 @@
         <v>164.142</v>
       </c>
       <c r="F67">
-        <v>1116470.889635409</v>
+        <v>1116470.100726237</v>
       </c>
       <c r="G67">
-        <v>4841202.702458357</v>
+        <v>4841197.101056089</v>
       </c>
       <c r="H67">
-        <v>3985699.477913023</v>
+        <v>3985695.821269964</v>
       </c>
       <c r="I67">
-        <v>1115270.817305183</v>
+        <v>1115267.698603733</v>
       </c>
       <c r="J67">
-        <v>4842642.978690075</v>
+        <v>4842639.496571614</v>
       </c>
       <c r="K67">
-        <v>3987002.297079404</v>
+        <v>3987011.166136335</v>
       </c>
     </row>
     <row r="68" spans="1:11">
@@ -2784,7 +2781,7 @@
         <v>443</v>
       </c>
       <c r="B68" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C68" t="s">
         <v>14</v>
@@ -2796,22 +2793,22 @@
         <v>165.142</v>
       </c>
       <c r="F68">
-        <v>1116461.497169115</v>
+        <v>1116460.708266579</v>
       </c>
       <c r="G68">
-        <v>4841219.215262474</v>
+        <v>4841213.613841101</v>
       </c>
       <c r="H68">
-        <v>3985753.575486687</v>
+        <v>3985749.918793996</v>
       </c>
       <c r="I68">
-        <v>1115310.469973135</v>
+        <v>1115307.351160802</v>
       </c>
       <c r="J68">
-        <v>4842594.327066444</v>
+        <v>4842590.844982968</v>
       </c>
       <c r="K68">
-        <v>3987124.308721629</v>
+        <v>3987133.178049974</v>
       </c>
     </row>
     <row r="69" spans="1:11">
@@ -2819,7 +2816,7 @@
         <v>443</v>
       </c>
       <c r="B69" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C69" t="s">
         <v>14</v>
@@ -2831,22 +2828,22 @@
         <v>166.142</v>
       </c>
       <c r="F69">
-        <v>1116454.153572092</v>
+        <v>1116453.364674746</v>
       </c>
       <c r="G69">
-        <v>4841235.728066591</v>
+        <v>4841230.126626112</v>
       </c>
       <c r="H69">
-        <v>3985799.392182648</v>
+        <v>3985795.735447923</v>
       </c>
       <c r="I69">
-        <v>1115351.099051556</v>
+        <v>1115347.98012561</v>
       </c>
       <c r="J69">
-        <v>4842545.675442813</v>
+        <v>4842542.193394319</v>
       </c>
       <c r="K69">
-        <v>3987231.17175544</v>
+        <v>3987240.041321501</v>
       </c>
     </row>
     <row r="70" spans="1:11">
@@ -2854,7 +2851,7 @@
         <v>443</v>
       </c>
       <c r="B70" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C70" t="s">
         <v>14</v>
@@ -2866,22 +2863,22 @@
         <v>167.142</v>
       </c>
       <c r="F70">
-        <v>1116448.212067396</v>
+        <v>1116447.423174248</v>
       </c>
       <c r="G70">
-        <v>4841252.240870709</v>
+        <v>4841246.639411123</v>
       </c>
       <c r="H70">
-        <v>3985839.12982193</v>
+        <v>3985835.473050749</v>
       </c>
       <c r="I70">
-        <v>1115392.728583656</v>
+        <v>1115389.609541297</v>
       </c>
       <c r="J70">
-        <v>4842497.023819183</v>
+        <v>4842493.541805672</v>
       </c>
       <c r="K70">
-        <v>3987322.886180838</v>
+        <v>3987331.755950917</v>
       </c>
     </row>
     <row r="71" spans="1:11">
@@ -2889,7 +2886,7 @@
         <v>443</v>
       </c>
       <c r="B71" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C71" t="s">
         <v>14</v>
@@ -2901,22 +2898,22 @@
         <v>168.142</v>
       </c>
       <c r="F71">
-        <v>1116443.278501421</v>
+        <v>1116442.489611759</v>
       </c>
       <c r="G71">
-        <v>4841268.753674827</v>
+        <v>4841263.152196135</v>
       </c>
       <c r="H71">
-        <v>3985874.21422523</v>
+        <v>3985870.557421861</v>
       </c>
       <c r="I71">
-        <v>1115435.383204684</v>
+        <v>1115432.264043048</v>
       </c>
       <c r="J71">
-        <v>4842448.372195552</v>
+        <v>4842444.890217025</v>
       </c>
       <c r="K71">
-        <v>3987399.451997824</v>
+        <v>3987408.321938223</v>
       </c>
     </row>
     <row r="72" spans="1:11">
@@ -2924,7 +2921,7 @@
         <v>443</v>
       </c>
       <c r="B72" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C72" t="s">
         <v>14</v>
@@ -2936,22 +2933,22 @@
         <v>169.142</v>
       </c>
       <c r="F72">
-        <v>1116439.097675462</v>
+        <v>1116438.308788754</v>
       </c>
       <c r="G72">
-        <v>4841285.266478944</v>
+        <v>4841279.664981147</v>
       </c>
       <c r="H72">
-        <v>3985905.621826179</v>
+        <v>3985901.964993995</v>
       </c>
       <c r="I72">
-        <v>1115479.088156514</v>
+        <v>1115475.968872663</v>
       </c>
       <c r="J72">
-        <v>4842399.720571922</v>
+        <v>4842396.238628378</v>
       </c>
       <c r="K72">
-        <v>3987460.869206396</v>
+        <v>3987469.739283417</v>
       </c>
     </row>
     <row r="73" spans="1:11">
@@ -2959,7 +2956,7 @@
         <v>443</v>
       </c>
       <c r="B73" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C73" t="s">
         <v>14</v>
@@ -2971,22 +2968,22 @@
         <v>170.142</v>
       </c>
       <c r="F73">
-        <v>1116435.496301781</v>
+        <v>1116434.707417618</v>
       </c>
       <c r="G73">
-        <v>4841301.779283062</v>
+        <v>4841296.177766159</v>
       </c>
       <c r="H73">
-        <v>3985934.050693272</v>
+        <v>3985930.393835006</v>
       </c>
       <c r="I73">
-        <v>1115523.869302575</v>
+        <v>1115520.7498935</v>
       </c>
       <c r="J73">
-        <v>4842351.068948291</v>
+        <v>4842347.58703973</v>
       </c>
       <c r="K73">
-        <v>3987507.137806555</v>
+        <v>3987516.007986501</v>
       </c>
     </row>
     <row r="74" spans="1:11">
@@ -2994,7 +2991,7 @@
         <v>443</v>
       </c>
       <c r="B74" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C74" t="s">
         <v>14</v>
@@ -3006,22 +3003,22 @@
         <v>171.142</v>
       </c>
       <c r="F74">
-        <v>1116432.352116469</v>
+        <v>1116431.563234528</v>
       </c>
       <c r="G74">
-        <v>4841318.29208718</v>
+        <v>4841312.690551171</v>
       </c>
       <c r="H74">
-        <v>3985960.017217292</v>
+        <v>3985956.360335204</v>
       </c>
       <c r="I74">
-        <v>1115569.753143159</v>
+        <v>1115566.633605776</v>
       </c>
       <c r="J74">
-        <v>4842302.41732466</v>
+        <v>4842298.935451083</v>
       </c>
       <c r="K74">
-        <v>3987538.257798302</v>
+        <v>3987547.128047474</v>
       </c>
     </row>
     <row r="75" spans="1:11">
@@ -3029,7 +3026,7 @@
         <v>443</v>
       </c>
       <c r="B75" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C75" t="s">
         <v>14</v>
@@ -3041,22 +3038,22 @@
         <v>172.142</v>
       </c>
       <c r="F75">
-        <v>1116429.576098009</v>
+        <v>1116428.78721803</v>
       </c>
       <c r="G75">
-        <v>4841334.804891296</v>
+        <v>4841329.203336182</v>
       </c>
       <c r="H75">
-        <v>3985983.914153238</v>
+        <v>3985980.257249225</v>
       </c>
       <c r="I75">
-        <v>1115616.766831106</v>
+        <v>1115613.647162256</v>
       </c>
       <c r="J75">
-        <v>4842253.76570103</v>
+        <v>4842250.283862435</v>
       </c>
       <c r="K75">
-        <v>3987554.229181635</v>
+        <v>3987563.099466335</v>
       </c>
     </row>
     <row r="76" spans="1:11">
@@ -3064,7 +3061,7 @@
         <v>443</v>
       </c>
       <c r="B76" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C76" t="s">
         <v>14</v>
@@ -3076,22 +3073,22 @@
         <v>173.142</v>
       </c>
       <c r="F76">
-        <v>1116427.101702495</v>
+        <v>1116426.312824264</v>
       </c>
       <c r="G76">
-        <v>4841351.317695414</v>
+        <v>4841345.716121194</v>
       </c>
       <c r="H76">
-        <v>3986006.047188089</v>
+        <v>3986002.39026377</v>
       </c>
       <c r="I76">
-        <v>1115664.938187866</v>
+        <v>1115661.818384312</v>
       </c>
       <c r="J76">
-        <v>4842205.1140774</v>
+        <v>4842201.632273789</v>
       </c>
       <c r="K76">
-        <v>3987555.051956556</v>
+        <v>3987563.922243086</v>
       </c>
     </row>
     <row r="77" spans="1:11">
@@ -3099,7 +3096,7 @@
         <v>443</v>
       </c>
       <c r="B77" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C77" t="s">
         <v>14</v>
@@ -3111,22 +3108,22 @@
         <v>174.142</v>
       </c>
       <c r="F77">
-        <v>1116424.878067347</v>
+        <v>1116424.089190688</v>
       </c>
       <c r="G77">
-        <v>4841367.830499532</v>
+        <v>4841362.228906207</v>
       </c>
       <c r="H77">
-        <v>3986026.658914928</v>
+        <v>3986023.0019717</v>
       </c>
       <c r="I77">
-        <v>1115714.29571997</v>
+        <v>1115711.175778394</v>
       </c>
       <c r="J77">
-        <v>4842156.462453769</v>
+        <v>4842152.98068514</v>
       </c>
       <c r="K77">
-        <v>3987540.726123063</v>
+        <v>3987549.596377725</v>
       </c>
     </row>
     <row r="78" spans="1:11">
@@ -3134,7 +3131,7 @@
         <v>443</v>
       </c>
       <c r="B78" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C78" t="s">
         <v>14</v>
@@ -3146,22 +3143,22 @@
         <v>175.142</v>
       </c>
       <c r="F78">
-        <v>1116422.86556539</v>
+        <v>1116422.076690152</v>
       </c>
       <c r="G78">
-        <v>4841384.343303649</v>
+        <v>4841378.741691218</v>
       </c>
       <c r="H78">
-        <v>3986045.945084284</v>
+        <v>3986042.288123362</v>
       </c>
       <c r="I78">
-        <v>1115764.868635894</v>
+        <v>1115761.748552897</v>
       </c>
       <c r="J78">
-        <v>4842107.810830139</v>
+        <v>4842104.329096493</v>
       </c>
       <c r="K78">
-        <v>3987511.251681157</v>
+        <v>3987520.121870254</v>
       </c>
     </row>
     <row r="79" spans="1:11">
@@ -3169,7 +3166,7 @@
         <v>443</v>
       </c>
       <c r="B79" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C79" t="s">
         <v>14</v>
@@ -3181,22 +3178,22 @@
         <v>176.142</v>
       </c>
       <c r="F79">
-        <v>1116421.032806579</v>
+        <v>1116420.243932636</v>
       </c>
       <c r="G79">
-        <v>4841400.856107767</v>
+        <v>4841395.25447623</v>
       </c>
       <c r="H79">
-        <v>3986064.065938123</v>
+        <v>3986060.408960576</v>
       </c>
       <c r="I79">
-        <v>1115816.686863346</v>
+        <v>1115813.566635447</v>
       </c>
       <c r="J79">
-        <v>4842059.159206509</v>
+        <v>4842055.677507846</v>
       </c>
       <c r="K79">
-        <v>3987466.628630838</v>
+        <v>3987475.498720672</v>
       </c>
     </row>
     <row r="80" spans="1:11">
@@ -3204,7 +3201,7 @@
         <v>443</v>
       </c>
       <c r="B80" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C80" t="s">
         <v>14</v>
@@ -3216,22 +3213,22 @@
         <v>177.142</v>
       </c>
       <c r="F80">
-        <v>1116419.354561994</v>
+        <v>1116418.565689237</v>
       </c>
       <c r="G80">
-        <v>4841417.368911884</v>
+        <v>4841411.767261241</v>
       </c>
       <c r="H80">
-        <v>3986081.154310556</v>
+        <v>3986077.497317331</v>
       </c>
       <c r="I80">
-        <v>1115869.781066978</v>
+        <v>1115866.660690608</v>
       </c>
       <c r="J80">
-        <v>4842010.507582877</v>
+        <v>4842007.025919198</v>
       </c>
       <c r="K80">
-        <v>3987406.856972107</v>
+        <v>3987415.726928979</v>
       </c>
     </row>
     <row r="81" spans="1:11">
@@ -3239,7 +3236,7 @@
         <v>443</v>
       </c>
       <c r="B81" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C81" t="s">
         <v>14</v>
@@ -3251,22 +3248,22 @@
         <v>178.142</v>
       </c>
       <c r="F81">
-        <v>1116417.810292859</v>
+        <v>1116417.021421194</v>
       </c>
       <c r="G81">
-        <v>4841433.881716001</v>
+        <v>4841428.280046253</v>
       </c>
       <c r="H81">
-        <v>3986097.32154259</v>
+        <v>3986093.664534533</v>
       </c>
       <c r="I81">
-        <v>1115924.182666528</v>
+        <v>1115921.062138031</v>
       </c>
       <c r="J81">
-        <v>4841961.855959247</v>
+        <v>4841958.37433055</v>
       </c>
       <c r="K81">
-        <v>3987331.936704962</v>
+        <v>3987340.806495174</v>
       </c>
     </row>
     <row r="82" spans="1:11">
@@ -3274,7 +3271,7 @@
         <v>443</v>
       </c>
       <c r="B82" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C82" t="s">
         <v>14</v>
@@ -3286,22 +3283,22 @@
         <v>179.142</v>
       </c>
       <c r="F82">
-        <v>1116416.383086868</v>
+        <v>1116415.594216211</v>
       </c>
       <c r="G82">
-        <v>4841450.394520119</v>
+        <v>4841444.792831265</v>
       </c>
       <c r="H82">
-        <v>3986112.661882694</v>
+        <v>3986109.004860563</v>
       </c>
       <c r="I82">
-        <v>1115979.923855418</v>
+        <v>1115976.803171049</v>
       </c>
       <c r="J82">
-        <v>4841913.204335617</v>
+        <v>4841909.722741904</v>
       </c>
       <c r="K82">
-        <v>3987241.867829405</v>
+        <v>3987250.73741926</v>
       </c>
     </row>
     <row r="83" spans="1:11">
@@ -3309,7 +3306,7 @@
         <v>443</v>
       </c>
       <c r="B83" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C83" t="s">
         <v>14</v>
@@ -3321,22 +3318,22 @@
         <v>180.142</v>
       </c>
       <c r="F83">
-        <v>1116415.058875001</v>
+        <v>1116414.270005279</v>
       </c>
       <c r="G83">
-        <v>4841466.907324236</v>
+        <v>4841461.305616276</v>
       </c>
       <c r="H83">
-        <v>3986127.255815757</v>
+        <v>3986123.598780238</v>
       </c>
       <c r="I83">
-        <v>1116037.037619804</v>
+        <v>1116033.916775724</v>
       </c>
       <c r="J83">
-        <v>4841864.552711986</v>
+        <v>4841861.071153256</v>
       </c>
       <c r="K83">
-        <v>3987136.650345434</v>
+        <v>3987145.519701234</v>
       </c>
     </row>
     <row r="84" spans="1:11">
@@ -3344,7 +3341,7 @@
         <v>443</v>
       </c>
       <c r="B84" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C84" t="s">
         <v>14</v>
@@ -3356,22 +3353,22 @@
         <v>181.142</v>
       </c>
       <c r="F84">
-        <v>1116413.825845469</v>
+        <v>1116413.036976619</v>
       </c>
       <c r="G84">
-        <v>4841483.420128354</v>
+        <v>4841477.818401288</v>
       </c>
       <c r="H84">
-        <v>3986141.172619102</v>
+        <v>3986137.515570814</v>
       </c>
       <c r="I84">
-        <v>1116095.557758094</v>
+        <v>1116092.436750371</v>
       </c>
       <c r="J84">
-        <v>4841815.901088355</v>
+        <v>4841812.419564608</v>
       </c>
       <c r="K84">
-        <v>3987016.284253051</v>
+        <v>3987025.153341096</v>
       </c>
     </row>
     <row r="85" spans="1:11">
@@ -3379,7 +3376,7 @@
         <v>443</v>
       </c>
       <c r="B85" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C85" t="s">
         <v>14</v>
@@ -3391,22 +3388,22 @@
         <v>182.142</v>
       </c>
       <c r="F85">
-        <v>1116412.67399876</v>
+        <v>1116411.885130723</v>
       </c>
       <c r="G85">
-        <v>4841499.932932472</v>
+        <v>4841494.3311863</v>
       </c>
       <c r="H85">
-        <v>3986154.472351382</v>
+        <v>3986150.815290892</v>
       </c>
       <c r="I85">
-        <v>1116155.518900952</v>
+        <v>1116152.397725556</v>
       </c>
       <c r="J85">
-        <v>4841767.249464725</v>
+        <v>4841763.767975961</v>
       </c>
       <c r="K85">
-        <v>3986880.769552254</v>
+        <v>3986889.638338848</v>
       </c>
     </row>
     <row r="86" spans="1:11">
@@ -3414,7 +3411,7 @@
         <v>443</v>
       </c>
       <c r="B86" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C86" t="s">
         <v>14</v>
@@ -3426,22 +3423,22 @@
         <v>183.142</v>
       </c>
       <c r="F86">
-        <v>1116411.594805324</v>
+        <v>1116410.805938051</v>
       </c>
       <c r="G86">
-        <v>4841516.445736589</v>
+        <v>4841510.843971311</v>
       </c>
       <c r="H86">
-        <v>3986167.207418978</v>
+        <v>3986163.550346804</v>
       </c>
       <c r="I86">
-        <v>1116216.95653179</v>
+        <v>1116213.835184592</v>
       </c>
       <c r="J86">
-        <v>4841718.597841094</v>
+        <v>4841715.116387314</v>
       </c>
       <c r="K86">
-        <v>3986730.106243045</v>
+        <v>3986738.974694489</v>
       </c>
     </row>
     <row r="87" spans="1:11">
@@ -3449,7 +3446,7 @@
         <v>443</v>
       </c>
       <c r="B87" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C87" t="s">
         <v>14</v>
@@ -3461,22 +3458,22 @@
         <v>184.142</v>
       </c>
       <c r="F87">
-        <v>1116410.580939075</v>
+        <v>1116409.792072518</v>
       </c>
       <c r="G87">
-        <v>4841532.958540707</v>
+        <v>4841527.356756323</v>
       </c>
       <c r="H87">
-        <v>3986179.423823207</v>
+        <v>3986175.766739826</v>
       </c>
       <c r="I87">
-        <v>1116279.907007765</v>
+        <v>1116276.785484535</v>
       </c>
       <c r="J87">
-        <v>4841669.946217464</v>
+        <v>4841666.464798667</v>
       </c>
       <c r="K87">
-        <v>3986564.294325422</v>
+        <v>3986573.162408019</v>
       </c>
     </row>
     <row r="88" spans="1:11">
@@ -3484,7 +3481,7 @@
         <v>443</v>
       </c>
       <c r="B88" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C88" t="s">
         <v>14</v>
@@ -3496,22 +3493,22 @@
         <v>185.142</v>
       </c>
       <c r="F88">
-        <v>1116409.626067623</v>
+        <v>1116408.83720174</v>
       </c>
       <c r="G88">
-        <v>4841549.471344823</v>
+        <v>4841543.869541335</v>
       </c>
       <c r="H88">
-        <v>3986191.162163357</v>
+        <v>3986187.505069206</v>
       </c>
       <c r="I88">
-        <v>1116344.407581299</v>
+        <v>1116341.285877701</v>
       </c>
       <c r="J88">
-        <v>4841621.294593833</v>
+        <v>4841617.813210019</v>
       </c>
       <c r="K88">
-        <v>3986383.333799386</v>
+        <v>3986392.201479438</v>
       </c>
     </row>
     <row r="89" spans="1:11">
@@ -3519,7 +3516,7 @@
         <v>443</v>
       </c>
       <c r="B89" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C89" t="s">
         <v>14</v>
@@ -3531,22 +3528,22 @@
         <v>186.142</v>
       </c>
       <c r="F89">
-        <v>1116408.724685517</v>
+        <v>1116407.935820271</v>
       </c>
       <c r="G89">
-        <v>4841565.984148941</v>
+        <v>4841560.382326347</v>
       </c>
       <c r="H89">
-        <v>3986202.458450744</v>
+        <v>3986198.80134623</v>
       </c>
       <c r="I89">
-        <v>1116410.496422115</v>
+        <v>1116407.374533709</v>
       </c>
       <c r="J89">
-        <v>4841572.642970202</v>
+        <v>4841569.161621371</v>
       </c>
       <c r="K89">
-        <v>3986187.224664938</v>
+        <v>3986196.091908746</v>
       </c>
     </row>
     <row r="90" spans="1:11">
@@ -3554,7 +3551,7 @@
         <v>443</v>
       </c>
       <c r="B90" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C90" t="s">
         <v>14</v>
@@ -3566,22 +3563,22 @@
         <v>187.142</v>
       </c>
       <c r="F90">
-        <v>1116407.871980447</v>
+        <v>1116407.083115804</v>
       </c>
       <c r="G90">
-        <v>4841582.496953059</v>
+        <v>4841576.895111359</v>
       </c>
       <c r="H90">
-        <v>3986213.344774988</v>
+        <v>3986209.687660487</v>
       </c>
       <c r="I90">
-        <v>1116478.212639836</v>
+        <v>1116475.090562072</v>
       </c>
       <c r="J90">
-        <v>4841523.991346573</v>
+        <v>4841520.510032725</v>
       </c>
       <c r="K90">
-        <v>3985975.966922076</v>
+        <v>3985984.833695943</v>
       </c>
     </row>
     <row r="91" spans="1:11">
@@ -3589,7 +3586,7 @@
         <v>443</v>
       </c>
       <c r="B91" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C91" t="s">
         <v>14</v>
@@ -3601,22 +3598,22 @@
         <v>188.142</v>
       </c>
       <c r="F91">
-        <v>1116407.063724977</v>
+        <v>1116406.274860905</v>
       </c>
       <c r="G91">
-        <v>4841599.009757176</v>
+        <v>4841593.40789637</v>
       </c>
       <c r="H91">
-        <v>3986223.84985356</v>
+        <v>3986220.192729421</v>
       </c>
       <c r="I91">
-        <v>1116547.596307121</v>
+        <v>1116544.474035335</v>
       </c>
       <c r="J91">
-        <v>4841475.339722943</v>
+        <v>4841471.858444077</v>
       </c>
       <c r="K91">
-        <v>3985749.560570802</v>
+        <v>3985758.426841029</v>
       </c>
     </row>
     <row r="92" spans="1:11">
@@ -3624,7 +3621,7 @@
         <v>443</v>
       </c>
       <c r="B92" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C92" t="s">
         <v>14</v>
@@ -3636,22 +3633,22 @@
         <v>189.142</v>
       </c>
       <c r="F92">
-        <v>1116406.296188247</v>
+        <v>1116405.507324717</v>
       </c>
       <c r="G92">
-        <v>4841615.522561294</v>
+        <v>4841609.920681382</v>
       </c>
       <c r="H92">
-        <v>3986233.999488319</v>
+        <v>3986230.342354868</v>
       </c>
       <c r="I92">
-        <v>1116618.688483381</v>
+        <v>1116615.566012795</v>
       </c>
       <c r="J92">
-        <v>4841426.688099311</v>
+        <v>4841423.206855429</v>
       </c>
       <c r="K92">
-        <v>3985508.005611114</v>
+        <v>3985516.871344005</v>
       </c>
     </row>
     <row r="93" spans="1:11">
@@ -3659,7 +3656,7 @@
         <v>443</v>
       </c>
       <c r="B93" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C93" t="s">
         <v>14</v>
@@ -3671,22 +3668,22 @@
         <v>190.142</v>
       </c>
       <c r="F93">
-        <v>1116405.566063435</v>
+        <v>1116404.777200421</v>
       </c>
       <c r="G93">
-        <v>4841632.035365412</v>
+        <v>4841626.433466394</v>
       </c>
       <c r="H93">
-        <v>3986243.816947313</v>
+        <v>3986240.159804855</v>
       </c>
       <c r="I93">
-        <v>1116691.531239078</v>
+        <v>1116688.408564797</v>
       </c>
       <c r="J93">
-        <v>4841378.036475681</v>
+        <v>4841374.555266782</v>
       </c>
       <c r="K93">
-        <v>3985251.302043014</v>
+        <v>3985260.167204869</v>
       </c>
     </row>
     <row r="94" spans="1:11">
@@ -3694,7 +3691,7 @@
         <v>443</v>
       </c>
       <c r="B94" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C94" t="s">
         <v>14</v>
@@ -3706,22 +3703,22 @@
         <v>191.142</v>
       </c>
       <c r="F94">
-        <v>1116404.870407757</v>
+        <v>1116404.081545235</v>
       </c>
       <c r="G94">
-        <v>4841648.548169528</v>
+        <v>4841642.946251405</v>
       </c>
       <c r="H94">
-        <v>3986253.323286059</v>
+        <v>3986249.66613488</v>
       </c>
       <c r="I94">
-        <v>1116766.16768062</v>
+        <v>1116763.044797628</v>
       </c>
       <c r="J94">
-        <v>4841329.384852051</v>
+        <v>4841325.903678135</v>
       </c>
       <c r="K94">
-        <v>3984979.4498665</v>
+        <v>3984988.314423623</v>
       </c>
     </row>
     <row r="95" spans="1:11">
@@ -3729,7 +3726,7 @@
         <v>443</v>
       </c>
       <c r="B95" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C95" t="s">
         <v>14</v>
@@ -3741,22 +3738,22 @@
         <v>192.142</v>
       </c>
       <c r="F95">
-        <v>1116404.206592529</v>
+        <v>1116403.417730476</v>
       </c>
       <c r="G95">
-        <v>4841665.060973646</v>
+        <v>4841659.459036417</v>
       </c>
       <c r="H95">
-        <v>3986262.537619464</v>
+        <v>3986258.880459831</v>
       </c>
       <c r="I95">
-        <v>1116842.64197587</v>
+        <v>1116839.518879029</v>
       </c>
       <c r="J95">
-        <v>4841280.73322842</v>
+        <v>4841277.252089487</v>
       </c>
       <c r="K95">
-        <v>3984692.449081573</v>
+        <v>3984701.313000265</v>
       </c>
     </row>
     <row r="96" spans="1:11">
@@ -3764,7 +3761,7 @@
         <v>443</v>
       </c>
       <c r="B96" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C96" t="s">
         <v>14</v>
@@ -3776,22 +3773,22 @@
         <v>193.142</v>
       </c>
       <c r="F96">
-        <v>1116403.572261344</v>
+        <v>1116402.783399739</v>
       </c>
       <c r="G96">
-        <v>4841681.573777764</v>
+        <v>4841675.971821429</v>
       </c>
       <c r="H96">
-        <v>3986271.477353207</v>
+        <v>3986267.820185373</v>
       </c>
       <c r="I96">
-        <v>1116920.999380286</v>
+        <v>1116917.876064329</v>
       </c>
       <c r="J96">
-        <v>4841232.081604789</v>
+        <v>4841228.60050084</v>
       </c>
       <c r="K96">
-        <v>3984390.299688234</v>
+        <v>3984399.162934796</v>
       </c>
     </row>
     <row r="97" spans="1:11">
@@ -3799,7 +3796,7 @@
         <v>443</v>
       </c>
       <c r="B97" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C97" t="s">
         <v>14</v>
@@ -3811,22 +3808,22 @@
         <v>194.142</v>
       </c>
       <c r="F97">
-        <v>1116402.965294867</v>
+        <v>1116402.176433691</v>
       </c>
       <c r="G97">
-        <v>4841698.086581881</v>
+        <v>4841692.48460644</v>
       </c>
       <c r="H97">
-        <v>3986280.158381646</v>
+        <v>3986276.501205846</v>
       </c>
       <c r="I97">
-        <v>1117001.286263698</v>
+        <v>1116998.16272323</v>
       </c>
       <c r="J97">
-        <v>4841183.429981159</v>
+        <v>4841179.948912192</v>
       </c>
       <c r="K97">
-        <v>3984073.001686481</v>
+        <v>3984081.864227216</v>
       </c>
     </row>
     <row r="98" spans="1:11">
@@ -3834,7 +3831,7 @@
         <v>443</v>
       </c>
       <c r="B98" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C98" t="s">
         <v>14</v>
@@ -3846,22 +3843,22 @@
         <v>195.142</v>
       </c>
       <c r="F98">
-        <v>1116402.383781029</v>
+        <v>1116401.594920264</v>
       </c>
       <c r="G98">
-        <v>4841714.599385999</v>
+        <v>4841708.997391453</v>
       </c>
       <c r="H98">
-        <v>3986288.595257866</v>
+        <v>3986284.938074327</v>
       </c>
       <c r="I98">
-        <v>1117083.550137752</v>
+        <v>1117080.426367244</v>
       </c>
       <c r="J98">
-        <v>4841134.778357528</v>
+        <v>4841131.297323545</v>
       </c>
       <c r="K98">
-        <v>3983740.555076316</v>
+        <v>3983749.416877526</v>
       </c>
     </row>
     <row r="99" spans="1:11">
@@ -3869,7 +3866,7 @@
         <v>443</v>
       </c>
       <c r="B99" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C99" t="s">
         <v>14</v>
@@ -3881,22 +3878,22 @@
         <v>196.142</v>
       </c>
       <c r="F99">
-        <v>1116401.825989682</v>
+        <v>1116401.037129311</v>
       </c>
       <c r="G99">
-        <v>4841731.112190116</v>
+        <v>4841725.510176464</v>
       </c>
       <c r="H99">
-        <v>3986296.801340484</v>
+        <v>3986293.144149416</v>
       </c>
       <c r="I99">
-        <v>1117167.839684023</v>
+        <v>1117164.715677811</v>
       </c>
       <c r="J99">
-        <v>4841086.126733897</v>
+        <v>4841082.645734897</v>
       </c>
       <c r="K99">
-        <v>3983392.959857737</v>
+        <v>3983401.820885724</v>
       </c>
     </row>
     <row r="100" spans="1:11">
@@ -3904,7 +3901,7 @@
         <v>443</v>
       </c>
       <c r="B100" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C100" t="s">
         <v>14</v>
@@ -3916,22 +3913,22 @@
         <v>197.142</v>
       </c>
       <c r="F100">
-        <v>1116401.290350939</v>
+        <v>1116400.501490946</v>
       </c>
       <c r="G100">
-        <v>4841747.624994234</v>
+        <v>4841742.022961476</v>
       </c>
       <c r="H100">
-        <v>3986304.788920883</v>
+        <v>3986301.131722487</v>
       </c>
       <c r="I100">
-        <v>1117254.204782826</v>
+        <v>1117251.080535105</v>
       </c>
       <c r="J100">
-        <v>4841037.475110267</v>
+        <v>4841033.99414625</v>
       </c>
       <c r="K100">
-        <v>3983030.216030746</v>
+        <v>3983039.076251812</v>
       </c>
     </row>
     <row r="101" spans="1:11">
@@ -3939,7 +3936,7 @@
         <v>443</v>
       </c>
       <c r="B101" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C101" t="s">
         <v>14</v>
@@ -3951,22 +3948,22 @@
         <v>198.142</v>
       </c>
       <c r="F101">
-        <v>1116400.775436579</v>
+        <v>1116399.98657695</v>
       </c>
       <c r="G101">
-        <v>4841764.137798351</v>
+        <v>4841758.535746488</v>
       </c>
       <c r="H101">
-        <v>3986312.569333959</v>
+        <v>3986308.912128425</v>
       </c>
       <c r="I101">
-        <v>1117342.696542732</v>
+        <v>1117339.572047557</v>
       </c>
       <c r="J101">
-        <v>4840988.823486636</v>
+        <v>4840985.342557603</v>
       </c>
       <c r="K101">
-        <v>3982652.323595341</v>
+        <v>3982661.182975789</v>
       </c>
     </row>
     <row r="102" spans="1:11">
@@ -3974,7 +3971,7 @@
         <v>443</v>
       </c>
       <c r="B102" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C102" t="s">
         <v>14</v>
@@ -3986,22 +3983,22 @@
         <v>199.142</v>
       </c>
       <c r="F102">
-        <v>1116400.279944031</v>
+        <v>1116399.491084752</v>
       </c>
       <c r="G102">
-        <v>4841780.650602468</v>
+        <v>4841775.048531499</v>
       </c>
       <c r="H102">
-        <v>3986320.153054858</v>
+        <v>3986316.495842366</v>
       </c>
       <c r="I102">
-        <v>1117433.367330815</v>
+        <v>1117430.242582092</v>
       </c>
       <c r="J102">
-        <v>4840940.171863006</v>
+        <v>4840936.690968955</v>
       </c>
       <c r="K102">
-        <v>3982259.282551523</v>
+        <v>3982268.141057654</v>
       </c>
     </row>
     <row r="103" spans="1:11">
@@ -4009,7 +4006,7 @@
         <v>443</v>
       </c>
       <c r="B103" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C103" t="s">
         <v>14</v>
@@ -4021,22 +4018,22 @@
         <v>200.142</v>
       </c>
       <c r="F103">
-        <v>1116399.802682511</v>
+        <v>1116399.01382357</v>
       </c>
       <c r="G103">
-        <v>4841797.163406586</v>
+        <v>4841791.561316512</v>
       </c>
       <c r="H103">
-        <v>3986327.549783783</v>
+        <v>3986323.892564505</v>
       </c>
       <c r="I103">
-        <v>1117526.270803639</v>
+        <v>1117523.145795124</v>
       </c>
       <c r="J103">
-        <v>4840891.520239376</v>
+        <v>4840888.039380307</v>
       </c>
       <c r="K103">
-        <v>3981851.092899293</v>
+        <v>3981859.950497408</v>
       </c>
     </row>
     <row r="104" spans="1:11">
@@ -4044,7 +4041,7 @@
         <v>443</v>
       </c>
       <c r="B104" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C104" t="s">
         <v>14</v>
@@ -4056,22 +4053,22 @@
         <v>201.142</v>
       </c>
       <c r="F104">
-        <v>1116399.342560985</v>
+        <v>1116398.553702368</v>
       </c>
       <c r="G104">
-        <v>4841813.676210704</v>
+        <v>4841808.074101523</v>
       </c>
       <c r="H104">
-        <v>3986334.768520599</v>
+        <v>3986331.111294698</v>
       </c>
       <c r="I104">
-        <v>1117621.461939012</v>
+        <v>1117618.336664308</v>
       </c>
       <c r="J104">
-        <v>4840842.868615745</v>
+        <v>4840839.38779166</v>
       </c>
       <c r="K104">
-        <v>3981427.75463865</v>
+        <v>3981436.611295052</v>
       </c>
     </row>
     <row r="105" spans="1:11">
@@ -4079,7 +4076,7 @@
         <v>443</v>
       </c>
       <c r="B105" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C105" t="s">
         <v>14</v>
@@ -4091,22 +4088,22 @@
         <v>202.142</v>
       </c>
       <c r="F105">
-        <v>1116398.898577677</v>
+        <v>1116398.109719374</v>
       </c>
       <c r="G105">
-        <v>4841830.189014821</v>
+        <v>4841824.586886534</v>
       </c>
       <c r="H105">
-        <v>3986341.81763067</v>
+        <v>3986338.160398303</v>
       </c>
       <c r="I105">
-        <v>1117718.997068519</v>
+        <v>1117715.871521071</v>
       </c>
       <c r="J105">
-        <v>4840794.216992115</v>
+        <v>4840790.736203013</v>
       </c>
       <c r="K105">
-        <v>3980989.267769592</v>
+        <v>3980998.123450585</v>
       </c>
     </row>
     <row r="106" spans="1:11">
@@ -4114,7 +4111,7 @@
         <v>443</v>
       </c>
       <c r="B106" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C106" t="s">
         <v>14</v>
@@ -4126,22 +4123,22 @@
         <v>203.142</v>
       </c>
       <c r="F106">
-        <v>1116398.469810897</v>
+        <v>1116397.680952898</v>
       </c>
       <c r="G106">
-        <v>4841846.701818939</v>
+        <v>4841841.099671546</v>
       </c>
       <c r="H106">
-        <v>3986348.704903136</v>
+        <v>3986345.04766445</v>
       </c>
       <c r="I106">
-        <v>1117818.933910859</v>
+        <v>1117815.808083952</v>
       </c>
       <c r="J106">
-        <v>4840745.565368485</v>
+        <v>4840742.084614365</v>
       </c>
       <c r="K106">
-        <v>3980535.632292123</v>
+        <v>3980544.486964007</v>
       </c>
     </row>
     <row r="107" spans="1:11">
@@ -4149,7 +4146,7 @@
         <v>443</v>
       </c>
       <c r="B107" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C107" t="s">
         <v>14</v>
@@ -4161,22 +4158,22 @@
         <v>204.142</v>
       </c>
       <c r="F107">
-        <v>1116398.055410996</v>
+        <v>1116397.266553289</v>
       </c>
       <c r="G107">
-        <v>4841863.214623056</v>
+        <v>4841857.612456558</v>
       </c>
       <c r="H107">
-        <v>3986355.437602649</v>
+        <v>3986351.780357785</v>
       </c>
       <c r="I107">
-        <v>1117921.331606002</v>
+        <v>1117918.205492754</v>
       </c>
       <c r="J107">
-        <v>4840696.913744853</v>
+        <v>4840693.433025718</v>
       </c>
       <c r="K107">
-        <v>3980066.848206241</v>
+        <v>3980075.701835318</v>
       </c>
     </row>
     <row r="108" spans="1:11">
@@ -4184,34 +4181,34 @@
         <v>443</v>
       </c>
       <c r="B108" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C108" t="s">
         <v>15</v>
       </c>
       <c r="D108" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E108">
         <v>152.142</v>
       </c>
       <c r="F108">
-        <v>1116578.614790748</v>
+        <v>1116580.553516514</v>
       </c>
       <c r="G108">
-        <v>4841121.237949492</v>
+        <v>4841125.614335992</v>
       </c>
       <c r="H108">
-        <v>3985224.740477681</v>
+        <v>3985227.387330092</v>
       </c>
       <c r="I108">
-        <v>1114863.055594644</v>
+        <v>1114861.897137331</v>
       </c>
       <c r="J108">
-        <v>4843224.85419313</v>
+        <v>4843217.844881832</v>
       </c>
       <c r="K108">
-        <v>3984362.538980709</v>
+        <v>3984371.040761351</v>
       </c>
     </row>
     <row r="109" spans="1:11">
@@ -4219,34 +4216,34 @@
         <v>443</v>
       </c>
       <c r="B109" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C109" t="s">
         <v>15</v>
       </c>
       <c r="D109" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E109">
         <v>153.142</v>
       </c>
       <c r="F109">
-        <v>1116578.614790748</v>
+        <v>1116580.553516514</v>
       </c>
       <c r="G109">
-        <v>4841121.237949492</v>
+        <v>4841125.614335992</v>
       </c>
       <c r="H109">
-        <v>3985224.740477681</v>
+        <v>3985227.387330092</v>
       </c>
       <c r="I109">
-        <v>1114892.669636216</v>
+        <v>1114891.511148131</v>
       </c>
       <c r="J109">
-        <v>4843176.202589027</v>
+        <v>4843169.19334814</v>
       </c>
       <c r="K109">
-        <v>3984666.334379317</v>
+        <v>3984674.836808193</v>
       </c>
     </row>
     <row r="110" spans="1:11">
@@ -4254,34 +4251,34 @@
         <v>443</v>
       </c>
       <c r="B110" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C110" t="s">
         <v>15</v>
       </c>
       <c r="D110" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E110">
         <v>154.142</v>
       </c>
       <c r="F110">
-        <v>1116578.614790748</v>
+        <v>1116580.553516514</v>
       </c>
       <c r="G110">
-        <v>4841121.237949492</v>
+        <v>4841125.614335992</v>
       </c>
       <c r="H110">
-        <v>3985224.740477681</v>
+        <v>3985227.387330092</v>
       </c>
       <c r="I110">
-        <v>1114923.012896317</v>
+        <v>1114921.854376703</v>
       </c>
       <c r="J110">
-        <v>4843127.550984924</v>
+        <v>4843120.541814447</v>
       </c>
       <c r="K110">
-        <v>3984954.981146802</v>
+        <v>3984963.48419159</v>
       </c>
     </row>
     <row r="111" spans="1:11">
@@ -4289,34 +4286,34 @@
         <v>443</v>
       </c>
       <c r="B111" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C111" t="s">
         <v>15</v>
       </c>
       <c r="D111" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E111">
         <v>155.142</v>
       </c>
       <c r="F111">
-        <v>1116578.614790748</v>
+        <v>1116580.553516514</v>
       </c>
       <c r="G111">
-        <v>4841121.237949492</v>
+        <v>4841125.614335992</v>
       </c>
       <c r="H111">
-        <v>3985224.740477681</v>
+        <v>3985227.387330092</v>
       </c>
       <c r="I111">
-        <v>1114954.103331283</v>
+        <v>1114952.944779363</v>
       </c>
       <c r="J111">
-        <v>4843078.899380821</v>
+        <v>4843071.890280755</v>
       </c>
       <c r="K111">
-        <v>3985228.479283165</v>
+        <v>3985236.982911539</v>
       </c>
     </row>
     <row r="112" spans="1:11">
@@ -4324,34 +4321,34 @@
         <v>443</v>
       </c>
       <c r="B112" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C112" t="s">
         <v>15</v>
       </c>
       <c r="D112" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E112">
         <v>156.142</v>
       </c>
       <c r="F112">
-        <v>1116578.614790748</v>
+        <v>1116580.553516514</v>
       </c>
       <c r="G112">
-        <v>4841121.237949492</v>
+        <v>4841125.614335992</v>
       </c>
       <c r="H112">
-        <v>3985224.740477681</v>
+        <v>3985227.387330092</v>
       </c>
       <c r="I112">
-        <v>1114985.959339608</v>
+        <v>1114984.800754585</v>
       </c>
       <c r="J112">
-        <v>4843030.247776719</v>
+        <v>4843023.238747063</v>
       </c>
       <c r="K112">
-        <v>3985486.828788405</v>
+        <v>3985495.332968042</v>
       </c>
     </row>
     <row r="113" spans="1:11">
@@ -4359,34 +4356,34 @@
         <v>443</v>
       </c>
       <c r="B113" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C113" t="s">
         <v>15</v>
       </c>
       <c r="D113" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E113">
         <v>157.142</v>
       </c>
       <c r="F113">
-        <v>1116578.614790748</v>
+        <v>1116580.553516514</v>
       </c>
       <c r="G113">
-        <v>4841121.237949492</v>
+        <v>4841125.614335992</v>
       </c>
       <c r="H113">
-        <v>3985224.740477681</v>
+        <v>3985227.387330092</v>
       </c>
       <c r="I113">
-        <v>1115018.599772831</v>
+        <v>1115017.441153891</v>
       </c>
       <c r="J113">
-        <v>4842981.596172616</v>
+        <v>4842974.587213372</v>
       </c>
       <c r="K113">
-        <v>3985730.029662522</v>
+        <v>3985738.534361098</v>
       </c>
     </row>
     <row r="114" spans="1:11">
@@ -4394,34 +4391,34 @@
         <v>443</v>
       </c>
       <c r="B114" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C114" t="s">
         <v>15</v>
       </c>
       <c r="D114" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E114">
         <v>158.142</v>
       </c>
       <c r="F114">
-        <v>1116578.614790748</v>
+        <v>1116580.553516514</v>
       </c>
       <c r="G114">
-        <v>4841121.237949492</v>
+        <v>4841125.614335992</v>
       </c>
       <c r="H114">
-        <v>3985224.740477681</v>
+        <v>3985227.387330092</v>
       </c>
       <c r="I114">
-        <v>1115052.043946692</v>
+        <v>1115050.885293001</v>
       </c>
       <c r="J114">
-        <v>4842932.944568513</v>
+        <v>4842925.935679679</v>
       </c>
       <c r="K114">
-        <v>3985958.081905517</v>
+        <v>3985966.587090708</v>
       </c>
     </row>
     <row r="115" spans="1:11">
@@ -4429,34 +4426,34 @@
         <v>443</v>
       </c>
       <c r="B115" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C115" t="s">
         <v>15</v>
       </c>
       <c r="D115" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E115">
         <v>159.142</v>
       </c>
       <c r="F115">
-        <v>1116578.614790748</v>
+        <v>1116580.553516514</v>
       </c>
       <c r="G115">
-        <v>4841121.237949492</v>
+        <v>4841125.614335992</v>
       </c>
       <c r="H115">
-        <v>3985224.740477681</v>
+        <v>3985227.387330092</v>
       </c>
       <c r="I115">
-        <v>1115086.311652568</v>
+        <v>1115085.152963269</v>
       </c>
       <c r="J115">
-        <v>4842884.292964411</v>
+        <v>4842877.284145987</v>
       </c>
       <c r="K115">
-        <v>3986170.985517389</v>
+        <v>3986179.49115687</v>
       </c>
     </row>
     <row r="116" spans="1:11">
@@ -4464,34 +4461,34 @@
         <v>443</v>
       </c>
       <c r="B116" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C116" t="s">
         <v>15</v>
       </c>
       <c r="D116" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E116">
         <v>160.142</v>
       </c>
       <c r="F116">
-        <v>1116578.614790748</v>
+        <v>1116580.553516514</v>
       </c>
       <c r="G116">
-        <v>4841137.75075736</v>
+        <v>4841142.127158788</v>
       </c>
       <c r="H116">
-        <v>3985224.740477681</v>
+        <v>3985227.387330092</v>
       </c>
       <c r="I116">
-        <v>1115121.423169174</v>
+        <v>1115120.264443391</v>
       </c>
       <c r="J116">
-        <v>4842835.641360308</v>
+        <v>4842828.632612295</v>
       </c>
       <c r="K116">
-        <v>3986368.740498138</v>
+        <v>3986377.246559586</v>
       </c>
     </row>
     <row r="117" spans="1:11">
@@ -4499,34 +4496,34 @@
         <v>443</v>
       </c>
       <c r="B117" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C117" t="s">
         <v>15</v>
       </c>
       <c r="D117" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E117">
         <v>161.142</v>
       </c>
       <c r="F117">
-        <v>1116529.934222141</v>
+        <v>1116531.872863383</v>
       </c>
       <c r="G117">
-        <v>4841154.263565227</v>
+        <v>4841158.639981583</v>
       </c>
       <c r="H117">
-        <v>3985423.994705068</v>
+        <v>3985426.641689817</v>
       </c>
       <c r="I117">
-        <v>1115157.399274576</v>
+        <v>1115156.24051141</v>
       </c>
       <c r="J117">
-        <v>4842786.989756206</v>
+        <v>4842779.981078603</v>
       </c>
       <c r="K117">
-        <v>3986551.346847764</v>
+        <v>3986559.853298856</v>
       </c>
     </row>
     <row r="118" spans="1:11">
@@ -4534,34 +4531,34 @@
         <v>443</v>
       </c>
       <c r="B118" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C118" t="s">
         <v>15</v>
       </c>
       <c r="D118" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E118">
         <v>162.142</v>
       </c>
       <c r="F118">
-        <v>1116501.336830165</v>
+        <v>1116503.275421753</v>
       </c>
       <c r="G118">
-        <v>4841170.776373096</v>
+        <v>4841175.152804379</v>
       </c>
       <c r="H118">
-        <v>3985542.680713148</v>
+        <v>3985545.327776724</v>
       </c>
       <c r="I118">
-        <v>1115194.261258475</v>
+        <v>1115193.102457006</v>
       </c>
       <c r="J118">
-        <v>4842738.338152102</v>
+        <v>4842731.32954491</v>
       </c>
       <c r="K118">
-        <v>3986718.804566268</v>
+        <v>3986727.311374679</v>
       </c>
     </row>
     <row r="119" spans="1:11">
@@ -4569,34 +4566,34 @@
         <v>443</v>
       </c>
       <c r="B119" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C119" t="s">
         <v>15</v>
       </c>
       <c r="D119" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E119">
         <v>163.142</v>
       </c>
       <c r="F119">
-        <v>1116483.28405834</v>
+        <v>1116485.222618582</v>
       </c>
       <c r="G119">
-        <v>4841187.289180964</v>
+        <v>4841191.665627175</v>
       </c>
       <c r="H119">
-        <v>3985627.497581442</v>
+        <v>3985630.14470135</v>
       </c>
       <c r="I119">
-        <v>1115232.030934816</v>
+        <v>1115230.872094099</v>
       </c>
       <c r="J119">
-        <v>4842689.686548</v>
+        <v>4842682.678011219</v>
       </c>
       <c r="K119">
-        <v>3986871.113653649</v>
+        <v>3986879.620787055</v>
       </c>
     </row>
     <row r="120" spans="1:11">
@@ -4604,34 +4601,34 @@
         <v>443</v>
       </c>
       <c r="B120" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C120" t="s">
         <v>15</v>
       </c>
       <c r="D120" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E120">
         <v>164.142</v>
       </c>
       <c r="F120">
-        <v>1116470.694128549</v>
+        <v>1116472.632666932</v>
       </c>
       <c r="G120">
-        <v>4841203.801988832</v>
+        <v>4841208.17844997</v>
       </c>
       <c r="H120">
-        <v>3985693.544431342</v>
+        <v>3985696.191595116</v>
       </c>
       <c r="I120">
-        <v>1115270.730654688</v>
+        <v>1115269.571773759</v>
       </c>
       <c r="J120">
-        <v>4842641.034943897</v>
+        <v>4842634.026477527</v>
       </c>
       <c r="K120">
-        <v>3987008.274109907</v>
+        <v>3987016.781535984</v>
       </c>
     </row>
     <row r="121" spans="1:11">
@@ -4639,34 +4636,34 @@
         <v>443</v>
       </c>
       <c r="B121" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C121" t="s">
         <v>15</v>
       </c>
       <c r="D121" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E121">
         <v>165.142</v>
       </c>
       <c r="F121">
-        <v>1116461.3016639</v>
+        <v>1116463.240185974</v>
       </c>
       <c r="G121">
-        <v>4841220.314796699</v>
+        <v>4841224.691272765</v>
       </c>
       <c r="H121">
-        <v>3985747.641924471</v>
+        <v>3985750.289124175</v>
       </c>
       <c r="I121">
-        <v>1115310.38331956</v>
+        <v>1115309.224397428</v>
       </c>
       <c r="J121">
-        <v>4842592.383339795</v>
+        <v>4842585.374943835</v>
       </c>
       <c r="K121">
-        <v>3987130.285935042</v>
+        <v>3987138.793621467</v>
       </c>
     </row>
     <row r="122" spans="1:11">
@@ -4674,34 +4671,34 @@
         <v>443</v>
       </c>
       <c r="B122" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C122" t="s">
         <v>15</v>
       </c>
       <c r="D122" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E122">
         <v>166.142</v>
       </c>
       <c r="F122">
-        <v>1116453.958068163</v>
+        <v>1116455.896577487</v>
       </c>
       <c r="G122">
-        <v>4841236.827604567</v>
+        <v>4841241.20409556</v>
       </c>
       <c r="H122">
-        <v>3985793.458552225</v>
+        <v>3985796.105782359</v>
       </c>
       <c r="I122">
-        <v>1115351.012394824</v>
+        <v>1115349.853430474</v>
       </c>
       <c r="J122">
-        <v>4842543.731735691</v>
+        <v>4842536.723410143</v>
       </c>
       <c r="K122">
-        <v>3987237.149129055</v>
+        <v>3987245.657043504</v>
       </c>
     </row>
     <row r="123" spans="1:11">
@@ -4709,34 +4706,34 @@
         <v>443</v>
       </c>
       <c r="B123" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C123" t="s">
         <v>15</v>
       </c>
       <c r="D123" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E123">
         <v>167.142</v>
       </c>
       <c r="F123">
-        <v>1116448.016564507</v>
+        <v>1116449.955063514</v>
       </c>
       <c r="G123">
-        <v>4841253.340412435</v>
+        <v>4841257.716918357</v>
       </c>
       <c r="H123">
-        <v>3985833.19613235</v>
+        <v>3985835.843388876</v>
       </c>
       <c r="I123">
-        <v>1115392.641923689</v>
+        <v>1115391.482916082</v>
       </c>
       <c r="J123">
-        <v>4842495.080131589</v>
+        <v>4842488.07187645</v>
       </c>
       <c r="K123">
-        <v>3987328.863691946</v>
+        <v>3987337.371802093</v>
       </c>
     </row>
     <row r="124" spans="1:11">
@@ -4744,34 +4741,34 @@
         <v>443</v>
       </c>
       <c r="B124" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C124" t="s">
         <v>15</v>
       </c>
       <c r="D124" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E124">
         <v>168.142</v>
       </c>
       <c r="F124">
-        <v>1116443.082999396</v>
+        <v>1116445.021489837</v>
       </c>
       <c r="G124">
-        <v>4841269.853220304</v>
+        <v>4841274.229741152</v>
       </c>
       <c r="H124">
-        <v>3985868.28048342</v>
+        <v>3985870.927763248</v>
       </c>
       <c r="I124">
-        <v>1115435.296541403</v>
+        <v>1115434.137489473</v>
       </c>
       <c r="J124">
-        <v>4842446.428527487</v>
+        <v>4842439.420342758</v>
       </c>
       <c r="K124">
-        <v>3987405.429623713</v>
+        <v>3987413.937897235</v>
       </c>
     </row>
     <row r="125" spans="1:11">
@@ -4779,34 +4776,34 @@
         <v>443</v>
       </c>
       <c r="B125" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C125" t="s">
         <v>15</v>
       </c>
       <c r="D125" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E125">
         <v>169.142</v>
       </c>
       <c r="F125">
-        <v>1116438.902174169</v>
+        <v>1116440.840657351</v>
       </c>
       <c r="G125">
-        <v>4841286.366028171</v>
+        <v>4841290.742563947</v>
       </c>
       <c r="H125">
-        <v>3985899.688037613</v>
+        <v>3985902.335338301</v>
       </c>
       <c r="I125">
-        <v>1115479.001489837</v>
+        <v>1115477.842392494</v>
       </c>
       <c r="J125">
-        <v>4842397.776923385</v>
+        <v>4842390.768809067</v>
       </c>
       <c r="K125">
-        <v>3987466.846924358</v>
+        <v>3987475.355328931</v>
       </c>
     </row>
     <row r="126" spans="1:11">
@@ -4814,34 +4811,34 @@
         <v>443</v>
       </c>
       <c r="B126" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C126" t="s">
         <v>15</v>
       </c>
       <c r="D126" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E126">
         <v>170.142</v>
       </c>
       <c r="F126">
-        <v>1116435.300801119</v>
+        <v>1116437.239278049</v>
       </c>
       <c r="G126">
-        <v>4841302.878836039</v>
+        <v>4841307.255386743</v>
       </c>
       <c r="H126">
-        <v>3985928.116862384</v>
+        <v>3985930.764181953</v>
       </c>
       <c r="I126">
-        <v>1115523.782632419</v>
+        <v>1115522.623488543</v>
       </c>
       <c r="J126">
-        <v>4842349.125319281</v>
+        <v>4842342.117275374</v>
       </c>
       <c r="K126">
-        <v>3987513.115593879</v>
+        <v>3987521.624097181</v>
       </c>
     </row>
     <row r="127" spans="1:11">
@@ -4849,34 +4846,34 @@
         <v>443</v>
       </c>
       <c r="B127" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C127" t="s">
         <v>15</v>
       </c>
       <c r="D127" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E127">
         <v>171.142</v>
       </c>
       <c r="F127">
-        <v>1116432.156616358</v>
+        <v>1116434.095087827</v>
       </c>
       <c r="G127">
-        <v>4841319.391643907</v>
+        <v>4841323.768209538</v>
       </c>
       <c r="H127">
-        <v>3985954.083347748</v>
+        <v>3985956.730684564</v>
       </c>
       <c r="I127">
-        <v>1115569.666469439</v>
+        <v>1115568.507277885</v>
       </c>
       <c r="J127">
-        <v>4842300.473715179</v>
+        <v>4842293.465741682</v>
       </c>
       <c r="K127">
-        <v>3987544.235632279</v>
+        <v>3987552.744201984</v>
       </c>
     </row>
     <row r="128" spans="1:11">
@@ -4884,34 +4881,34 @@
         <v>443</v>
       </c>
       <c r="B128" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C128" t="s">
         <v>15</v>
       </c>
       <c r="D128" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E128">
         <v>172.142</v>
       </c>
       <c r="F128">
-        <v>1116429.380598384</v>
+        <v>1116431.319065034</v>
       </c>
       <c r="G128">
-        <v>4841335.904451774</v>
+        <v>4841340.281032333</v>
       </c>
       <c r="H128">
-        <v>3985977.980248118</v>
+        <v>3985980.627600805</v>
       </c>
       <c r="I128">
-        <v>1115616.680153733</v>
+        <v>1115615.520913326</v>
       </c>
       <c r="J128">
-        <v>4842251.822111076</v>
+        <v>4842244.81420799</v>
       </c>
       <c r="K128">
-        <v>3987560.207039556</v>
+        <v>3987568.71564334</v>
       </c>
     </row>
     <row r="129" spans="1:11">
@@ -4919,34 +4916,34 @@
         <v>443</v>
       </c>
       <c r="B129" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C129" t="s">
         <v>15</v>
       </c>
       <c r="D129" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E129">
         <v>173.142</v>
       </c>
       <c r="F129">
-        <v>1116426.906203304</v>
+        <v>1116428.844665657</v>
       </c>
       <c r="G129">
-        <v>4841352.417259643</v>
+        <v>4841356.79385513</v>
       </c>
       <c r="H129">
-        <v>3986000.11325002</v>
+        <v>3986002.760617407</v>
       </c>
       <c r="I129">
-        <v>1115664.851506751</v>
+        <v>1115663.692216289</v>
       </c>
       <c r="J129">
-        <v>4842203.170506974</v>
+        <v>4842196.162674299</v>
       </c>
       <c r="K129">
-        <v>3987561.029815709</v>
+        <v>3987569.538421249</v>
       </c>
     </row>
     <row r="130" spans="1:11">
@@ -4954,34 +4951,34 @@
         <v>443</v>
       </c>
       <c r="B130" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C130" t="s">
         <v>15</v>
       </c>
       <c r="D130" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E130">
         <v>174.142</v>
       </c>
       <c r="F130">
-        <v>1116424.682568545</v>
+        <v>1116426.621027038</v>
       </c>
       <c r="G130">
-        <v>4841368.93006751</v>
+        <v>4841373.306677925</v>
       </c>
       <c r="H130">
-        <v>3986020.724946175</v>
+        <v>3986023.372327252</v>
       </c>
       <c r="I130">
-        <v>1115714.20903502</v>
+        <v>1115713.049693271</v>
       </c>
       <c r="J130">
-        <v>4842154.518902871</v>
+        <v>4842147.511140605</v>
       </c>
       <c r="K130">
-        <v>3987546.70396074</v>
+        <v>3987555.212535712</v>
       </c>
     </row>
     <row r="131" spans="1:11">
@@ -4989,34 +4986,34 @@
         <v>443</v>
       </c>
       <c r="B131" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C131" t="s">
         <v>15</v>
       </c>
       <c r="D131" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E131">
         <v>175.142</v>
       </c>
       <c r="F131">
-        <v>1116422.670066939</v>
+        <v>1116424.608521938</v>
       </c>
       <c r="G131">
-        <v>4841385.442875378</v>
+        <v>4841389.81950072</v>
       </c>
       <c r="H131">
-        <v>3986040.011086819</v>
+        <v>3986042.658480705</v>
       </c>
       <c r="I131">
-        <v>1115764.781947014</v>
+        <v>1115763.622552715</v>
       </c>
       <c r="J131">
-        <v>4842105.867298768</v>
+        <v>4842098.859606913</v>
       </c>
       <c r="K131">
-        <v>3987517.229474648</v>
+        <v>3987525.737986728</v>
       </c>
     </row>
     <row r="132" spans="1:11">
@@ -5024,34 +5021,34 @@
         <v>443</v>
       </c>
       <c r="B132" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C132" t="s">
         <v>15</v>
       </c>
       <c r="D132" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E132">
         <v>176.142</v>
       </c>
       <c r="F132">
-        <v>1116420.83730845</v>
+        <v>1116422.775760266</v>
       </c>
       <c r="G132">
-        <v>4841401.955683246</v>
+        <v>4841406.332323516</v>
       </c>
       <c r="H132">
-        <v>3986058.131913682</v>
+        <v>3986060.779319603</v>
       </c>
       <c r="I132">
-        <v>1115816.600170441</v>
+        <v>1115815.440722297</v>
       </c>
       <c r="J132">
-        <v>4842057.215694666</v>
+        <v>4842050.208073222</v>
       </c>
       <c r="K132">
-        <v>3987472.606357434</v>
+        <v>3987481.114774297</v>
       </c>
     </row>
     <row r="133" spans="1:11">
@@ -5059,34 +5056,34 @@
         <v>443</v>
       </c>
       <c r="B133" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C133" t="s">
         <v>15</v>
       </c>
       <c r="D133" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E133">
         <v>177.142</v>
       </c>
       <c r="F133">
-        <v>1116419.159064159</v>
+        <v>1116421.097513061</v>
       </c>
       <c r="G133">
-        <v>4841418.468491114</v>
+        <v>4841422.845146311</v>
       </c>
       <c r="H133">
-        <v>3986075.220260676</v>
+        <v>3986077.867677947</v>
       </c>
       <c r="I133">
-        <v>1115869.694369947</v>
+        <v>1115868.534866633</v>
       </c>
       <c r="J133">
-        <v>4842008.564090562</v>
+        <v>4842001.556539529</v>
       </c>
       <c r="K133">
-        <v>3987412.834609097</v>
+        <v>3987421.342898421</v>
       </c>
     </row>
     <row r="134" spans="1:11">
@@ -5094,34 +5091,34 @@
         <v>443</v>
       </c>
       <c r="B134" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C134" t="s">
         <v>15</v>
       </c>
       <c r="D134" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E134">
         <v>178.142</v>
       </c>
       <c r="F134">
-        <v>1116417.614795294</v>
+        <v>1116419.553241515</v>
       </c>
       <c r="G134">
-        <v>4841434.981298982</v>
+        <v>4841439.357969107</v>
       </c>
       <c r="H134">
-        <v>3986091.387468642</v>
+        <v>3986094.03489665</v>
       </c>
       <c r="I134">
-        <v>1115924.09596527</v>
+        <v>1115922.936405427</v>
       </c>
       <c r="J134">
-        <v>4841959.91248646</v>
+        <v>4841952.905005837</v>
       </c>
       <c r="K134">
-        <v>3987337.914229637</v>
+        <v>3987346.422359096</v>
       </c>
     </row>
     <row r="135" spans="1:11">
@@ -5129,34 +5126,34 @@
         <v>443</v>
       </c>
       <c r="B135" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C135" t="s">
         <v>15</v>
       </c>
       <c r="D135" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E135">
         <v>179.142</v>
       </c>
       <c r="F135">
-        <v>1116416.187589553</v>
+        <v>1116418.126033296</v>
       </c>
       <c r="G135">
-        <v>4841451.49410685</v>
+        <v>4841455.870791903</v>
       </c>
       <c r="H135">
-        <v>3986106.727785909</v>
+        <v>3986109.375224106</v>
       </c>
       <c r="I135">
-        <v>1115979.83714983</v>
+        <v>1115978.677532066</v>
       </c>
       <c r="J135">
-        <v>4841911.260882357</v>
+        <v>4841904.253472146</v>
       </c>
       <c r="K135">
-        <v>3987247.845219055</v>
+        <v>3987256.353156326</v>
       </c>
     </row>
     <row r="136" spans="1:11">
@@ -5164,34 +5161,34 @@
         <v>443</v>
       </c>
       <c r="B136" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C136" t="s">
         <v>15</v>
       </c>
       <c r="D136" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E136">
         <v>180.142</v>
       </c>
       <c r="F136">
-        <v>1116414.863377918</v>
+        <v>1116416.801819361</v>
       </c>
       <c r="G136">
-        <v>4841468.006914717</v>
+        <v>4841472.383614697</v>
       </c>
       <c r="H136">
-        <v>3986121.321697246</v>
+        <v>3986123.969145136</v>
       </c>
       <c r="I136">
-        <v>1116036.950909778</v>
+        <v>1116035.791232667</v>
       </c>
       <c r="J136">
-        <v>4841862.609278255</v>
+        <v>4841855.601938454</v>
       </c>
       <c r="K136">
-        <v>3987142.62757735</v>
+        <v>3987151.135290109</v>
       </c>
     </row>
     <row r="137" spans="1:11">
@@ -5199,34 +5196,34 @@
         <v>443</v>
       </c>
       <c r="B137" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C137" t="s">
         <v>15</v>
       </c>
       <c r="D137" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E137">
         <v>181.142</v>
       </c>
       <c r="F137">
-        <v>1116413.630348602</v>
+        <v>1116415.568787904</v>
       </c>
       <c r="G137">
-        <v>4841484.519722586</v>
+        <v>4841488.896437493</v>
       </c>
       <c r="H137">
-        <v>3986135.238479872</v>
+        <v>3986137.885937005</v>
       </c>
       <c r="I137">
-        <v>1116095.471043522</v>
+        <v>1116094.311305603</v>
       </c>
       <c r="J137">
-        <v>4841813.957674151</v>
+        <v>4841806.95040476</v>
       </c>
       <c r="K137">
-        <v>3987022.261304522</v>
+        <v>3987030.768760445</v>
       </c>
     </row>
     <row r="138" spans="1:11">
@@ -5234,34 +5231,34 @@
         <v>443</v>
       </c>
       <c r="B138" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C138" t="s">
         <v>15</v>
       </c>
       <c r="D138" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E138">
         <v>182.142</v>
       </c>
       <c r="F138">
-        <v>1116412.478502095</v>
+        <v>1116414.416939397</v>
       </c>
       <c r="G138">
-        <v>4841501.032530454</v>
+        <v>4841505.409260289</v>
       </c>
       <c r="H138">
-        <v>3986148.538192353</v>
+        <v>3986151.185658319</v>
       </c>
       <c r="I138">
-        <v>1116155.432181721</v>
+        <v>1116154.272381496</v>
       </c>
       <c r="J138">
-        <v>4841765.306070049</v>
+        <v>4841758.298871069</v>
       </c>
       <c r="K138">
-        <v>3986886.746400571</v>
+        <v>3986895.253567335</v>
       </c>
     </row>
     <row r="139" spans="1:11">
@@ -5269,34 +5266,34 @@
         <v>443</v>
       </c>
       <c r="B139" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C139" t="s">
         <v>15</v>
       </c>
       <c r="D139" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E139">
         <v>183.142</v>
       </c>
       <c r="F139">
-        <v>1116411.399308848</v>
+        <v>1116413.337744277</v>
       </c>
       <c r="G139">
-        <v>4841517.545338321</v>
+        <v>4841521.922083084</v>
       </c>
       <c r="H139">
-        <v>3986161.273240991</v>
+        <v>3986163.920715415</v>
       </c>
       <c r="I139">
-        <v>1116216.869807786</v>
+        <v>1116215.709943721</v>
       </c>
       <c r="J139">
-        <v>4841716.654465946</v>
+        <v>4841709.647337377</v>
       </c>
       <c r="K139">
-        <v>3986736.082865498</v>
+        <v>3986744.589710777</v>
       </c>
     </row>
     <row r="140" spans="1:11">
@@ -5304,34 +5301,34 @@
         <v>443</v>
       </c>
       <c r="B140" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C140" t="s">
         <v>15</v>
       </c>
       <c r="D140" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E140">
         <v>184.142</v>
       </c>
       <c r="F140">
-        <v>1116410.385442776</v>
+        <v>1116412.323876444</v>
       </c>
       <c r="G140">
-        <v>4841534.058146189</v>
+        <v>4841538.43490588</v>
       </c>
       <c r="H140">
-        <v>3986173.489627034</v>
+        <v>3986176.137109572</v>
       </c>
       <c r="I140">
-        <v>1116279.82027887</v>
+        <v>1116278.660349393</v>
       </c>
       <c r="J140">
-        <v>4841668.002861844</v>
+        <v>4841660.995803685</v>
       </c>
       <c r="K140">
-        <v>3986570.270699302</v>
+        <v>3986578.777190773</v>
       </c>
     </row>
     <row r="141" spans="1:11">
@@ -5339,34 +5336,34 @@
         <v>443</v>
       </c>
       <c r="B141" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C141" t="s">
         <v>15</v>
       </c>
       <c r="D141" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E141">
         <v>185.142</v>
       </c>
       <c r="F141">
-        <v>1116409.430571491</v>
+        <v>1116411.369003501</v>
       </c>
       <c r="G141">
-        <v>4841550.570954056</v>
+        <v>4841554.947728675</v>
       </c>
       <c r="H141">
-        <v>3986185.227949709</v>
+        <v>3986187.875440043</v>
       </c>
       <c r="I141">
-        <v>1116344.320847392</v>
+        <v>1116343.160850892</v>
       </c>
       <c r="J141">
-        <v>4841619.351257741</v>
+        <v>4841612.344269992</v>
       </c>
       <c r="K141">
-        <v>3986389.309901983</v>
+        <v>3986397.816007323</v>
       </c>
     </row>
     <row r="142" spans="1:11">
@@ -5374,34 +5371,34 @@
         <v>443</v>
       </c>
       <c r="B142" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C142" t="s">
         <v>15</v>
       </c>
       <c r="D142" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E142">
         <v>186.142</v>
       </c>
       <c r="F142">
-        <v>1116408.529189543</v>
+        <v>1116410.467619988</v>
       </c>
       <c r="G142">
-        <v>4841567.083761925</v>
+        <v>4841571.460551471</v>
       </c>
       <c r="H142">
-        <v>3986196.524220279</v>
+        <v>3986199.171718116</v>
       </c>
       <c r="I142">
-        <v>1116410.409683074</v>
+        <v>1116409.249617901</v>
       </c>
       <c r="J142">
-        <v>4841570.699653639</v>
+        <v>4841563.692736301</v>
       </c>
       <c r="K142">
-        <v>3986193.200473542</v>
+        <v>3986201.706160426</v>
       </c>
     </row>
     <row r="143" spans="1:11">
@@ -5409,34 +5406,34 @@
         <v>443</v>
       </c>
       <c r="B143" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C143" t="s">
         <v>15</v>
       </c>
       <c r="D143" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E143">
         <v>187.142</v>
       </c>
       <c r="F143">
-        <v>1116407.676484622</v>
+        <v>1116409.614913587</v>
       </c>
       <c r="G143">
-        <v>4841583.596569793</v>
+        <v>4841587.973374266</v>
       </c>
       <c r="H143">
-        <v>3986207.410528317</v>
+        <v>3986210.058033384</v>
       </c>
       <c r="I143">
-        <v>1116478.125895534</v>
+        <v>1116476.965759997</v>
       </c>
       <c r="J143">
-        <v>4841522.048049536</v>
+        <v>4841515.041202608</v>
       </c>
       <c r="K143">
-        <v>3985981.942413978</v>
+        <v>3985990.447650082</v>
       </c>
     </row>
     <row r="144" spans="1:11">
@@ -5444,34 +5441,34 @@
         <v>443</v>
       </c>
       <c r="B144" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C144" t="s">
         <v>15</v>
       </c>
       <c r="D144" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E144">
         <v>188.142</v>
       </c>
       <c r="F144">
-        <v>1116406.868229294</v>
+        <v>1116408.806656855</v>
       </c>
       <c r="G144">
-        <v>4841600.10937766</v>
+        <v>4841604.486197062</v>
       </c>
       <c r="H144">
-        <v>3986217.915591251</v>
+        <v>3986220.563103295</v>
       </c>
       <c r="I144">
-        <v>1116547.509557428</v>
+        <v>1116546.349349794</v>
       </c>
       <c r="J144">
-        <v>4841473.396445434</v>
+        <v>4841466.389668916</v>
       </c>
       <c r="K144">
-        <v>3985755.535723291</v>
+        <v>3985764.040476291</v>
       </c>
     </row>
     <row r="145" spans="1:11">
@@ -5479,34 +5476,34 @@
         <v>443</v>
       </c>
       <c r="B145" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C145" t="s">
         <v>15</v>
       </c>
       <c r="D145" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E145">
         <v>189.142</v>
       </c>
       <c r="F145">
-        <v>1116406.100692698</v>
+        <v>1116408.039118927</v>
       </c>
       <c r="G145">
-        <v>4841616.622185528</v>
+        <v>4841620.999019857</v>
       </c>
       <c r="H145">
-        <v>3986228.0652109</v>
+        <v>3986230.712729685</v>
       </c>
       <c r="I145">
-        <v>1116618.601728165</v>
+        <v>1116617.441446659</v>
       </c>
       <c r="J145">
-        <v>4841424.744841331</v>
+        <v>4841417.738135224</v>
       </c>
       <c r="K145">
-        <v>3985513.980401481</v>
+        <v>3985522.484639054</v>
       </c>
     </row>
     <row r="146" spans="1:11">
@@ -5514,34 +5511,34 @@
         <v>443</v>
       </c>
       <c r="B146" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C146" t="s">
         <v>15</v>
       </c>
       <c r="D146" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E146">
         <v>190.142</v>
       </c>
       <c r="F146">
-        <v>1116405.370568014</v>
+        <v>1116407.308992974</v>
       </c>
       <c r="G146">
-        <v>4841633.134993397</v>
+        <v>4841637.511842653</v>
       </c>
       <c r="H146">
-        <v>3986237.882655279</v>
+        <v>3986240.530180584</v>
       </c>
       <c r="I146">
-        <v>1116691.444478202</v>
+        <v>1116690.284121005</v>
       </c>
       <c r="J146">
-        <v>4841376.093237228</v>
+        <v>4841369.086601532</v>
       </c>
       <c r="K146">
-        <v>3985257.276448549</v>
+        <v>3985265.780138371</v>
       </c>
     </row>
     <row r="147" spans="1:11">
@@ -5549,34 +5546,34 @@
         <v>443</v>
       </c>
       <c r="B147" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C147" t="s">
         <v>15</v>
       </c>
       <c r="D147" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E147">
         <v>191.142</v>
       </c>
       <c r="F147">
-        <v>1116404.674912458</v>
+        <v>1116406.613336211</v>
       </c>
       <c r="G147">
-        <v>4841649.647801264</v>
+        <v>4841654.024665448</v>
       </c>
       <c r="H147">
-        <v>3986247.388979872</v>
+        <v>3986250.036511492</v>
       </c>
       <c r="I147">
-        <v>1116766.080913945</v>
+        <v>1116764.920479193</v>
       </c>
       <c r="J147">
-        <v>4841327.441633126</v>
+        <v>4841320.43506784</v>
       </c>
       <c r="K147">
-        <v>3984985.423864494</v>
+        <v>3984993.92697424</v>
       </c>
     </row>
     <row r="148" spans="1:11">
@@ -5584,34 +5581,34 @@
         <v>443</v>
       </c>
       <c r="B148" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C148" t="s">
         <v>15</v>
       </c>
       <c r="D148" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E148">
         <v>192.142</v>
       </c>
       <c r="F148">
-        <v>1116404.011097346</v>
+        <v>1116405.949519947</v>
       </c>
       <c r="G148">
-        <v>4841666.160609132</v>
+        <v>4841670.537488244</v>
       </c>
       <c r="H148">
-        <v>3986256.60329956</v>
+        <v>3986259.250837299</v>
       </c>
       <c r="I148">
-        <v>1116842.555203254</v>
+        <v>1116841.394689037</v>
       </c>
       <c r="J148">
-        <v>4841278.790029023</v>
+        <v>4841271.783534149</v>
       </c>
       <c r="K148">
-        <v>3984698.422649316</v>
+        <v>3984706.925146663</v>
       </c>
     </row>
     <row r="149" spans="1:11">
@@ -5619,34 +5616,34 @@
         <v>443</v>
       </c>
       <c r="B149" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C149" t="s">
         <v>15</v>
       </c>
       <c r="D149" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E149">
         <v>193.142</v>
       </c>
       <c r="F149">
-        <v>1116403.376766272</v>
+        <v>1116405.315187772</v>
       </c>
       <c r="G149">
-        <v>4841682.673417</v>
+        <v>4841687.05031104</v>
       </c>
       <c r="H149">
-        <v>3986265.543019995</v>
+        <v>3986268.190563671</v>
       </c>
       <c r="I149">
-        <v>1116920.912601582</v>
+        <v>1116919.752005944</v>
       </c>
       <c r="J149">
-        <v>4841230.13842492</v>
+        <v>4841223.132000456</v>
       </c>
       <c r="K149">
-        <v>3984396.272803016</v>
+        <v>3984404.774655639</v>
       </c>
     </row>
     <row r="150" spans="1:11">
@@ -5654,34 +5651,34 @@
         <v>443</v>
       </c>
       <c r="B150" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C150" t="s">
         <v>15</v>
       </c>
       <c r="D150" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E150">
         <v>194.142</v>
       </c>
       <c r="F150">
-        <v>1116402.769799901</v>
+        <v>1116404.708220347</v>
       </c>
       <c r="G150">
-        <v>4841699.186224868</v>
+        <v>4841703.563133835</v>
       </c>
       <c r="H150">
-        <v>3986274.224035509</v>
+        <v>3986276.871584952</v>
       </c>
       <c r="I150">
-        <v>1117001.199478756</v>
+        <v>1117000.038799692</v>
       </c>
       <c r="J150">
-        <v>4841181.486820817</v>
+        <v>4841174.480466763</v>
       </c>
       <c r="K150">
-        <v>3984078.974325592</v>
+        <v>3984087.475501168</v>
       </c>
     </row>
     <row r="151" spans="1:11">
@@ -5689,34 +5686,34 @@
         <v>443</v>
       </c>
       <c r="B151" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C151" t="s">
         <v>15</v>
       </c>
       <c r="D151" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E151">
         <v>195.142</v>
       </c>
       <c r="F151">
-        <v>1116402.188286165</v>
+        <v>1116404.126705601</v>
       </c>
       <c r="G151">
-        <v>4841715.699032736</v>
+        <v>4841720.075956631</v>
       </c>
       <c r="H151">
-        <v>3986282.66089917</v>
+        <v>3986285.308454216</v>
       </c>
       <c r="I151">
-        <v>1117083.463346418</v>
+        <v>1117082.302581873</v>
       </c>
       <c r="J151">
-        <v>4841132.835216715</v>
+        <v>4841125.828933072</v>
       </c>
       <c r="K151">
-        <v>3983746.527217047</v>
+        <v>3983755.027683251</v>
       </c>
     </row>
     <row r="152" spans="1:11">
@@ -5724,34 +5721,34 @@
         <v>443</v>
       </c>
       <c r="B152" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C152" t="s">
         <v>15</v>
       </c>
       <c r="D152" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E152">
         <v>196.142</v>
       </c>
       <c r="F152">
-        <v>1116401.630494917</v>
+        <v>1116403.568913384</v>
       </c>
       <c r="G152">
-        <v>4841732.211840604</v>
+        <v>4841736.588779425</v>
       </c>
       <c r="H152">
-        <v>3986290.866969571</v>
+        <v>3986293.514530067</v>
       </c>
       <c r="I152">
-        <v>1117167.75288614</v>
+        <v>1117166.59203401</v>
       </c>
       <c r="J152">
-        <v>4841084.183612611</v>
+        <v>4841077.177399379</v>
       </c>
       <c r="K152">
-        <v>3983398.931477378</v>
+        <v>3983407.431201887</v>
       </c>
     </row>
     <row r="153" spans="1:11">
@@ -5759,34 +5756,34 @@
         <v>443</v>
       </c>
       <c r="B153" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C153" t="s">
         <v>15</v>
       </c>
       <c r="D153" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E153">
         <v>197.142</v>
       </c>
       <c r="F153">
-        <v>1116401.094856267</v>
+        <v>1116403.033273804</v>
       </c>
       <c r="G153">
-        <v>4841748.724648471</v>
+        <v>4841753.101602221</v>
       </c>
       <c r="H153">
-        <v>3986298.854538079</v>
+        <v>3986301.502103881</v>
       </c>
       <c r="I153">
-        <v>1117254.117978232</v>
+        <v>1117252.95703636</v>
       </c>
       <c r="J153">
-        <v>4841035.532008509</v>
+        <v>4841028.525865687</v>
       </c>
       <c r="K153">
-        <v>3983036.187106587</v>
+        <v>3983044.686057077</v>
       </c>
     </row>
     <row r="154" spans="1:11">
@@ -5794,34 +5791,34 @@
         <v>443</v>
       </c>
       <c r="B154" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C154" t="s">
         <v>15</v>
       </c>
       <c r="D154" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E154">
         <v>198.142</v>
       </c>
       <c r="F154">
-        <v>1116400.579941997</v>
+        <v>1116402.51835864</v>
       </c>
       <c r="G154">
-        <v>4841765.237456339</v>
+        <v>4841769.614425017</v>
       </c>
       <c r="H154">
-        <v>3986306.634939573</v>
+        <v>3986309.282510541</v>
       </c>
       <c r="I154">
-        <v>1117342.609731264</v>
+        <v>1117341.448697439</v>
       </c>
       <c r="J154">
-        <v>4840986.880404406</v>
+        <v>4840979.874331995</v>
       </c>
       <c r="K154">
-        <v>3982658.294104673</v>
+        <v>3982666.792248819</v>
       </c>
     </row>
     <row r="155" spans="1:11">
@@ -5829,34 +5826,34 @@
         <v>443</v>
       </c>
       <c r="B155" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C155" t="s">
         <v>15</v>
       </c>
       <c r="D155" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E155">
         <v>199.142</v>
       </c>
       <c r="F155">
-        <v>1116400.084449535</v>
+        <v>1116402.022865318</v>
       </c>
       <c r="G155">
-        <v>4841781.750264207</v>
+        <v>4841786.127247812</v>
       </c>
       <c r="H155">
-        <v>3986314.218649182</v>
+        <v>3986316.866225187</v>
       </c>
       <c r="I155">
-        <v>1117433.280512302</v>
+        <v>1117432.119384261</v>
       </c>
       <c r="J155">
-        <v>4840938.228800304</v>
+        <v>4840931.222798304</v>
       </c>
       <c r="K155">
-        <v>3982265.252471636</v>
+        <v>3982273.749777116</v>
       </c>
     </row>
     <row r="156" spans="1:11">
@@ -5864,34 +5861,34 @@
         <v>443</v>
       </c>
       <c r="B156" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C156" t="s">
         <v>15</v>
       </c>
       <c r="D156" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E156">
         <v>200.142</v>
       </c>
       <c r="F156">
-        <v>1116399.607188099</v>
+        <v>1116401.545603053</v>
       </c>
       <c r="G156">
-        <v>4841798.263072075</v>
+        <v>4841802.640070608</v>
       </c>
       <c r="H156">
-        <v>3986321.615367095</v>
+        <v>3986324.262948014</v>
       </c>
       <c r="I156">
-        <v>1117526.183977908</v>
+        <v>1117525.022753331</v>
       </c>
       <c r="J156">
-        <v>4840889.5771962</v>
+        <v>4840882.571264611</v>
       </c>
       <c r="K156">
-        <v>3981857.062207476</v>
+        <v>3981865.558641965</v>
       </c>
     </row>
     <row r="157" spans="1:11">
@@ -5899,34 +5896,34 @@
         <v>443</v>
       </c>
       <c r="B157" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C157" t="s">
         <v>15</v>
       </c>
       <c r="D157" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E157">
         <v>201.142</v>
       </c>
       <c r="F157">
-        <v>1116399.147066654</v>
+        <v>1116401.085480809</v>
       </c>
       <c r="G157">
-        <v>4841814.775879943</v>
+        <v>4841819.152893404</v>
       </c>
       <c r="H157">
-        <v>3986328.834093165</v>
+        <v>3986331.481678877</v>
       </c>
       <c r="I157">
-        <v>1117621.375105885</v>
+        <v>1117620.213782395</v>
       </c>
       <c r="J157">
-        <v>4840840.925592098</v>
+        <v>4840833.919730918</v>
       </c>
       <c r="K157">
-        <v>3981433.723312194</v>
+        <v>3981442.218843368</v>
       </c>
     </row>
     <row r="158" spans="1:11">
@@ -5934,34 +5931,34 @@
         <v>443</v>
       </c>
       <c r="B158" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C158" t="s">
         <v>15</v>
       </c>
       <c r="D158" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E158">
         <v>202.142</v>
       </c>
       <c r="F158">
-        <v>1116398.703083423</v>
+        <v>1116400.641496808</v>
       </c>
       <c r="G158">
-        <v>4841831.28868781</v>
+        <v>4841835.665716198</v>
       </c>
       <c r="H158">
-        <v>3986335.883192743</v>
+        <v>3986338.530783137</v>
       </c>
       <c r="I158">
-        <v>1117718.910227814</v>
+        <v>1117717.748802975</v>
       </c>
       <c r="J158">
-        <v>4840792.273987995</v>
+        <v>4840785.268197227</v>
       </c>
       <c r="K158">
-        <v>3980995.235785789</v>
+        <v>3981003.730381324</v>
       </c>
     </row>
     <row r="159" spans="1:11">
@@ -5969,34 +5966,34 @@
         <v>443</v>
       </c>
       <c r="B159" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C159" t="s">
         <v>15</v>
       </c>
       <c r="D159" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E159">
         <v>203.142</v>
       </c>
       <c r="F159">
-        <v>1116398.274316719</v>
+        <v>1116400.212729359</v>
       </c>
       <c r="G159">
-        <v>4841847.801495679</v>
+        <v>4841852.178538994</v>
       </c>
       <c r="H159">
-        <v>3986342.770454956</v>
+        <v>3986345.418049924</v>
       </c>
       <c r="I159">
-        <v>1117818.84706239</v>
+        <v>1117817.685533706</v>
       </c>
       <c r="J159">
-        <v>4840743.622383893</v>
+        <v>4840736.616663535</v>
       </c>
       <c r="K159">
-        <v>3980541.599628262</v>
+        <v>3980550.093255834</v>
       </c>
     </row>
     <row r="160" spans="1:11">
@@ -6004,1889 +6001,34 @@
         <v>443</v>
       </c>
       <c r="B160" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C160" t="s">
         <v>15</v>
       </c>
       <c r="D160" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E160">
         <v>204.142</v>
       </c>
       <c r="F160">
-        <v>1116397.85991689</v>
+        <v>1116399.79832881</v>
       </c>
       <c r="G160">
-        <v>4841864.314303547</v>
+        <v>4841868.691361791</v>
       </c>
       <c r="H160">
-        <v>3986349.503144444</v>
+        <v>3986352.150743885</v>
       </c>
       <c r="I160">
-        <v>1117921.244749577</v>
+        <v>1117920.083114491</v>
       </c>
       <c r="J160">
-        <v>4840694.970779791</v>
+        <v>4840687.965129842</v>
       </c>
       <c r="K160">
-        <v>3980072.814839612</v>
-      </c>
-    </row>
-    <row r="161" spans="1:11">
-      <c r="A161">
-        <v>443</v>
-      </c>
-      <c r="B161" t="s">
-        <v>12</v>
-      </c>
-      <c r="C161" t="s">
-        <v>16</v>
-      </c>
-      <c r="D161" t="s">
-        <v>18</v>
-      </c>
-      <c r="E161">
-        <v>152.142</v>
-      </c>
-      <c r="F161">
-        <v>1116578.362297721</v>
-      </c>
-      <c r="G161">
-        <v>4841122.892240627</v>
-      </c>
-      <c r="H161">
-        <v>3985232.126899272</v>
-      </c>
-      <c r="I161">
-        <v>1114859.184468293</v>
-      </c>
-      <c r="J161">
-        <v>4843226.839088959</v>
-      </c>
-      <c r="K161">
-        <v>3984370.954762197</v>
-      </c>
-    </row>
-    <row r="162" spans="1:11">
-      <c r="A162">
-        <v>443</v>
-      </c>
-      <c r="B162" t="s">
-        <v>12</v>
-      </c>
-      <c r="C162" t="s">
-        <v>16</v>
-      </c>
-      <c r="D162" t="s">
-        <v>18</v>
-      </c>
-      <c r="E162">
-        <v>153.142</v>
-      </c>
-      <c r="F162">
-        <v>1116578.362297721</v>
-      </c>
-      <c r="G162">
-        <v>4841122.892240627</v>
-      </c>
-      <c r="H162">
-        <v>3985232.126899272</v>
-      </c>
-      <c r="I162">
-        <v>1114888.798407036</v>
-      </c>
-      <c r="J162">
-        <v>4843178.187464918</v>
-      </c>
-      <c r="K162">
-        <v>3984674.750802482</v>
-      </c>
-    </row>
-    <row r="163" spans="1:11">
-      <c r="A163">
-        <v>443</v>
-      </c>
-      <c r="B163" t="s">
-        <v>12</v>
-      </c>
-      <c r="C163" t="s">
-        <v>16</v>
-      </c>
-      <c r="D163" t="s">
-        <v>18</v>
-      </c>
-      <c r="E163">
-        <v>154.142</v>
-      </c>
-      <c r="F163">
-        <v>1116578.362297721</v>
-      </c>
-      <c r="G163">
-        <v>4841122.892240627</v>
-      </c>
-      <c r="H163">
-        <v>3985232.126899272</v>
-      </c>
-      <c r="I163">
-        <v>1114919.141561777</v>
-      </c>
-      <c r="J163">
-        <v>4843129.535840875</v>
-      </c>
-      <c r="K163">
-        <v>3984963.398179648</v>
-      </c>
-    </row>
-    <row r="164" spans="1:11">
-      <c r="A164">
-        <v>443</v>
-      </c>
-      <c r="B164" t="s">
-        <v>12</v>
-      </c>
-      <c r="C164" t="s">
-        <v>16</v>
-      </c>
-      <c r="D164" t="s">
-        <v>18</v>
-      </c>
-      <c r="E164">
-        <v>155.142</v>
-      </c>
-      <c r="F164">
-        <v>1116578.362297721</v>
-      </c>
-      <c r="G164">
-        <v>4841122.892240627</v>
-      </c>
-      <c r="H164">
-        <v>3985232.126899272</v>
-      </c>
-      <c r="I164">
-        <v>1114950.231888789</v>
-      </c>
-      <c r="J164">
-        <v>4843080.884216834</v>
-      </c>
-      <c r="K164">
-        <v>3985236.896893694</v>
-      </c>
-    </row>
-    <row r="165" spans="1:11">
-      <c r="A165">
-        <v>443</v>
-      </c>
-      <c r="B165" t="s">
-        <v>12</v>
-      </c>
-      <c r="C165" t="s">
-        <v>16</v>
-      </c>
-      <c r="D165" t="s">
-        <v>18</v>
-      </c>
-      <c r="E165">
-        <v>156.142</v>
-      </c>
-      <c r="F165">
-        <v>1116578.362297721</v>
-      </c>
-      <c r="G165">
-        <v>4841122.892240627</v>
-      </c>
-      <c r="H165">
-        <v>3985232.126899272</v>
-      </c>
-      <c r="I165">
-        <v>1114982.0877865</v>
-      </c>
-      <c r="J165">
-        <v>4843032.232592793</v>
-      </c>
-      <c r="K165">
-        <v>3985495.246944621</v>
-      </c>
-    </row>
-    <row r="166" spans="1:11">
-      <c r="A166">
-        <v>443</v>
-      </c>
-      <c r="B166" t="s">
-        <v>12</v>
-      </c>
-      <c r="C166" t="s">
-        <v>16</v>
-      </c>
-      <c r="D166" t="s">
-        <v>18</v>
-      </c>
-      <c r="E166">
-        <v>157.142</v>
-      </c>
-      <c r="F166">
-        <v>1116578.362297721</v>
-      </c>
-      <c r="G166">
-        <v>4841122.892240627</v>
-      </c>
-      <c r="H166">
-        <v>3985232.126899272</v>
-      </c>
-      <c r="I166">
-        <v>1115014.728106386</v>
-      </c>
-      <c r="J166">
-        <v>4842983.580968752</v>
-      </c>
-      <c r="K166">
-        <v>3985738.448332428</v>
-      </c>
-    </row>
-    <row r="167" spans="1:11">
-      <c r="A167">
-        <v>443</v>
-      </c>
-      <c r="B167" t="s">
-        <v>12</v>
-      </c>
-      <c r="C167" t="s">
-        <v>16</v>
-      </c>
-      <c r="D167" t="s">
-        <v>18</v>
-      </c>
-      <c r="E167">
-        <v>158.142</v>
-      </c>
-      <c r="F167">
-        <v>1116578.362297721</v>
-      </c>
-      <c r="G167">
-        <v>4841122.892240627</v>
-      </c>
-      <c r="H167">
-        <v>3985232.126899272</v>
-      </c>
-      <c r="I167">
-        <v>1115048.17216412</v>
-      </c>
-      <c r="J167">
-        <v>4842934.929344709</v>
-      </c>
-      <c r="K167">
-        <v>3985966.501057114</v>
-      </c>
-    </row>
-    <row r="168" spans="1:11">
-      <c r="A168">
-        <v>443</v>
-      </c>
-      <c r="B168" t="s">
-        <v>12</v>
-      </c>
-      <c r="C168" t="s">
-        <v>16</v>
-      </c>
-      <c r="D168" t="s">
-        <v>18</v>
-      </c>
-      <c r="E168">
-        <v>159.142</v>
-      </c>
-      <c r="F168">
-        <v>1116578.362297721</v>
-      </c>
-      <c r="G168">
-        <v>4841122.892240627</v>
-      </c>
-      <c r="H168">
-        <v>3985232.126899272</v>
-      </c>
-      <c r="I168">
-        <v>1115082.439751008</v>
-      </c>
-      <c r="J168">
-        <v>4842886.277720668</v>
-      </c>
-      <c r="K168">
-        <v>3986179.405118682</v>
-      </c>
-    </row>
-    <row r="169" spans="1:11">
-      <c r="A169">
-        <v>443</v>
-      </c>
-      <c r="B169" t="s">
-        <v>12</v>
-      </c>
-      <c r="C169" t="s">
-        <v>16</v>
-      </c>
-      <c r="D169" t="s">
-        <v>18</v>
-      </c>
-      <c r="E169">
-        <v>160.142</v>
-      </c>
-      <c r="F169">
-        <v>1116578.362297721</v>
-      </c>
-      <c r="G169">
-        <v>4841139.405054137</v>
-      </c>
-      <c r="H169">
-        <v>3985232.126899272</v>
-      </c>
-      <c r="I169">
-        <v>1115117.551145697</v>
-      </c>
-      <c r="J169">
-        <v>4842837.626096627</v>
-      </c>
-      <c r="K169">
-        <v>3986377.16051713</v>
-      </c>
-    </row>
-    <row r="170" spans="1:11">
-      <c r="A170">
-        <v>443</v>
-      </c>
-      <c r="B170" t="s">
-        <v>12</v>
-      </c>
-      <c r="C170" t="s">
-        <v>16</v>
-      </c>
-      <c r="D170" t="s">
-        <v>18</v>
-      </c>
-      <c r="E170">
-        <v>161.142</v>
-      </c>
-      <c r="F170">
-        <v>1116529.681740122</v>
-      </c>
-      <c r="G170">
-        <v>4841155.917867647</v>
-      </c>
-      <c r="H170">
-        <v>3985431.381495967</v>
-      </c>
-      <c r="I170">
-        <v>1115153.527126179</v>
-      </c>
-      <c r="J170">
-        <v>4842788.974472585</v>
-      </c>
-      <c r="K170">
-        <v>3986559.767252458</v>
-      </c>
-    </row>
-    <row r="171" spans="1:11">
-      <c r="A171">
-        <v>443</v>
-      </c>
-      <c r="B171" t="s">
-        <v>12</v>
-      </c>
-      <c r="C171" t="s">
-        <v>16</v>
-      </c>
-      <c r="D171" t="s">
-        <v>18</v>
-      </c>
-      <c r="E171">
-        <v>162.142</v>
-      </c>
-      <c r="F171">
-        <v>1116501.084354613</v>
-      </c>
-      <c r="G171">
-        <v>4841172.430681158</v>
-      </c>
-      <c r="H171">
-        <v>3985550.067724025</v>
-      </c>
-      <c r="I171">
-        <v>1115190.388982083</v>
-      </c>
-      <c r="J171">
-        <v>4842740.322848544</v>
-      </c>
-      <c r="K171">
-        <v>3986727.225324666</v>
-      </c>
-    </row>
-    <row r="172" spans="1:11">
-      <c r="A172">
-        <v>443</v>
-      </c>
-      <c r="B172" t="s">
-        <v>12</v>
-      </c>
-      <c r="C172" t="s">
-        <v>16</v>
-      </c>
-      <c r="D172" t="s">
-        <v>18</v>
-      </c>
-      <c r="E172">
-        <v>163.142</v>
-      </c>
-      <c r="F172">
-        <v>1116483.03158687</v>
-      </c>
-      <c r="G172">
-        <v>4841188.943494669</v>
-      </c>
-      <c r="H172">
-        <v>3985634.884749523</v>
-      </c>
-      <c r="I172">
-        <v>1115228.158527276</v>
-      </c>
-      <c r="J172">
-        <v>4842691.671224502</v>
-      </c>
-      <c r="K172">
-        <v>3986879.534733755</v>
-      </c>
-    </row>
-    <row r="173" spans="1:11">
-      <c r="A173">
-        <v>443</v>
-      </c>
-      <c r="B173" t="s">
-        <v>12</v>
-      </c>
-      <c r="C173" t="s">
-        <v>16</v>
-      </c>
-      <c r="D173" t="s">
-        <v>18</v>
-      </c>
-      <c r="E173">
-        <v>164.142</v>
-      </c>
-      <c r="F173">
-        <v>1116470.441659926</v>
-      </c>
-      <c r="G173">
-        <v>4841205.45630818</v>
-      </c>
-      <c r="H173">
-        <v>3985700.931721838</v>
-      </c>
-      <c r="I173">
-        <v>1115266.858112772</v>
-      </c>
-      <c r="J173">
-        <v>4842643.01960046</v>
-      </c>
-      <c r="K173">
-        <v>3987016.695479724</v>
-      </c>
-    </row>
-    <row r="174" spans="1:11">
-      <c r="A174">
-        <v>443</v>
-      </c>
-      <c r="B174" t="s">
-        <v>12</v>
-      </c>
-      <c r="C174" t="s">
-        <v>16</v>
-      </c>
-      <c r="D174" t="s">
-        <v>18</v>
-      </c>
-      <c r="E174">
-        <v>165.142</v>
-      </c>
-      <c r="F174">
-        <v>1116461.049197401</v>
-      </c>
-      <c r="G174">
-        <v>4841221.96912169</v>
-      </c>
-      <c r="H174">
-        <v>3985755.029315234</v>
-      </c>
-      <c r="I174">
-        <v>1115306.510639958</v>
-      </c>
-      <c r="J174">
-        <v>4842594.36797642</v>
-      </c>
-      <c r="K174">
-        <v>3987138.707562573</v>
-      </c>
-    </row>
-    <row r="175" spans="1:11">
-      <c r="A175">
-        <v>443</v>
-      </c>
-      <c r="B175" t="s">
-        <v>12</v>
-      </c>
-      <c r="C175" t="s">
-        <v>16</v>
-      </c>
-      <c r="D175" t="s">
-        <v>18</v>
-      </c>
-      <c r="E175">
-        <v>166.142</v>
-      </c>
-      <c r="F175">
-        <v>1116453.705603325</v>
-      </c>
-      <c r="G175">
-        <v>4841238.4819352</v>
-      </c>
-      <c r="H175">
-        <v>3985800.846027907</v>
-      </c>
-      <c r="I175">
-        <v>1115347.139574147</v>
-      </c>
-      <c r="J175">
-        <v>4842545.716352377</v>
-      </c>
-      <c r="K175">
-        <v>3987245.570982303</v>
-      </c>
-    </row>
-    <row r="176" spans="1:11">
-      <c r="A176">
-        <v>443</v>
-      </c>
-      <c r="B176" t="s">
-        <v>12</v>
-      </c>
-      <c r="C176" t="s">
-        <v>16</v>
-      </c>
-      <c r="D176" t="s">
-        <v>18</v>
-      </c>
-      <c r="E176">
-        <v>167.142</v>
-      </c>
-      <c r="F176">
-        <v>1116447.764101012</v>
-      </c>
-      <c r="G176">
-        <v>4841254.994748711</v>
-      </c>
-      <c r="H176">
-        <v>3985840.583681684</v>
-      </c>
-      <c r="I176">
-        <v>1115388.768958461</v>
-      </c>
-      <c r="J176">
-        <v>4842497.064728335</v>
-      </c>
-      <c r="K176">
-        <v>3987337.285738912</v>
-      </c>
-    </row>
-    <row r="177" spans="1:11">
-      <c r="A177">
-        <v>443</v>
-      </c>
-      <c r="B177" t="s">
-        <v>12</v>
-      </c>
-      <c r="C177" t="s">
-        <v>16</v>
-      </c>
-      <c r="D177" t="s">
-        <v>18</v>
-      </c>
-      <c r="E177">
-        <v>168.142</v>
-      </c>
-      <c r="F177">
-        <v>1116442.830537017</v>
-      </c>
-      <c r="G177">
-        <v>4841271.507562222</v>
-      </c>
-      <c r="H177">
-        <v>3985875.668097781</v>
-      </c>
-      <c r="I177">
-        <v>1115431.423428067</v>
-      </c>
-      <c r="J177">
-        <v>4842448.413104295</v>
-      </c>
-      <c r="K177">
-        <v>3987413.851832402</v>
-      </c>
-    </row>
-    <row r="178" spans="1:11">
-      <c r="A178">
-        <v>443</v>
-      </c>
-      <c r="B178" t="s">
-        <v>12</v>
-      </c>
-      <c r="C178" t="s">
-        <v>16</v>
-      </c>
-      <c r="D178" t="s">
-        <v>18</v>
-      </c>
-      <c r="E178">
-        <v>169.142</v>
-      </c>
-      <c r="F178">
-        <v>1116438.649712736</v>
-      </c>
-      <c r="G178">
-        <v>4841288.020375732</v>
-      </c>
-      <c r="H178">
-        <v>3985907.075710186</v>
-      </c>
-      <c r="I178">
-        <v>1115475.128224745</v>
-      </c>
-      <c r="J178">
-        <v>4842399.761480253</v>
-      </c>
-      <c r="K178">
-        <v>3987475.269262773</v>
-      </c>
-    </row>
-    <row r="179" spans="1:11">
-      <c r="A179">
-        <v>443</v>
-      </c>
-      <c r="B179" t="s">
-        <v>12</v>
-      </c>
-      <c r="C179" t="s">
-        <v>16</v>
-      </c>
-      <c r="D179" t="s">
-        <v>18</v>
-      </c>
-      <c r="E179">
-        <v>170.142</v>
-      </c>
-      <c r="F179">
-        <v>1116435.0483405</v>
-      </c>
-      <c r="G179">
-        <v>4841304.533189243</v>
-      </c>
-      <c r="H179">
-        <v>3985935.504587648</v>
-      </c>
-      <c r="I179">
-        <v>1115519.909211833</v>
-      </c>
-      <c r="J179">
-        <v>4842351.109856212</v>
-      </c>
-      <c r="K179">
-        <v>3987521.538030024</v>
-      </c>
-    </row>
-    <row r="180" spans="1:11">
-      <c r="A180">
-        <v>443</v>
-      </c>
-      <c r="B180" t="s">
-        <v>12</v>
-      </c>
-      <c r="C180" t="s">
-        <v>16</v>
-      </c>
-      <c r="D180" t="s">
-        <v>18</v>
-      </c>
-      <c r="E180">
-        <v>171.142</v>
-      </c>
-      <c r="F180">
-        <v>1116431.904156449</v>
-      </c>
-      <c r="G180">
-        <v>4841321.046002754</v>
-      </c>
-      <c r="H180">
-        <v>3985961.47112114</v>
-      </c>
-      <c r="I180">
-        <v>1115565.792889531</v>
-      </c>
-      <c r="J180">
-        <v>4842302.45823217</v>
-      </c>
-      <c r="K180">
-        <v>3987552.658134155</v>
-      </c>
-    </row>
-    <row r="181" spans="1:11">
-      <c r="A181">
-        <v>443</v>
-      </c>
-      <c r="B181" t="s">
-        <v>12</v>
-      </c>
-      <c r="C181" t="s">
-        <v>16</v>
-      </c>
-      <c r="D181" t="s">
-        <v>18</v>
-      </c>
-      <c r="E181">
-        <v>172.142</v>
-      </c>
-      <c r="F181">
-        <v>1116429.128139104</v>
-      </c>
-      <c r="G181">
-        <v>4841337.558816263</v>
-      </c>
-      <c r="H181">
-        <v>3985985.368065802</v>
-      </c>
-      <c r="I181">
-        <v>1115612.80641058</v>
-      </c>
-      <c r="J181">
-        <v>4842253.806608128</v>
-      </c>
-      <c r="K181">
-        <v>3987568.629575166</v>
-      </c>
-    </row>
-    <row r="182" spans="1:11">
-      <c r="A182">
-        <v>443</v>
-      </c>
-      <c r="B182" t="s">
-        <v>12</v>
-      </c>
-      <c r="C182" t="s">
-        <v>16</v>
-      </c>
-      <c r="D182" t="s">
-        <v>18</v>
-      </c>
-      <c r="E182">
-        <v>173.142</v>
-      </c>
-      <c r="F182">
-        <v>1116426.653744583</v>
-      </c>
-      <c r="G182">
-        <v>4841354.071629775</v>
-      </c>
-      <c r="H182">
-        <v>3986007.501108726</v>
-      </c>
-      <c r="I182">
-        <v>1115660.977596333</v>
-      </c>
-      <c r="J182">
-        <v>4842205.154984088</v>
-      </c>
-      <c r="K182">
-        <v>3987569.452353058</v>
-      </c>
-    </row>
-    <row r="183" spans="1:11">
-      <c r="A183">
-        <v>443</v>
-      </c>
-      <c r="B183" t="s">
-        <v>12</v>
-      </c>
-      <c r="C183" t="s">
-        <v>16</v>
-      </c>
-      <c r="D183" t="s">
-        <v>18</v>
-      </c>
-      <c r="E183">
-        <v>174.142</v>
-      </c>
-      <c r="F183">
-        <v>1116424.430110327</v>
-      </c>
-      <c r="G183">
-        <v>4841370.584443285</v>
-      </c>
-      <c r="H183">
-        <v>3986028.112843085</v>
-      </c>
-      <c r="I183">
-        <v>1115710.334953218</v>
-      </c>
-      <c r="J183">
-        <v>4842156.503360045</v>
-      </c>
-      <c r="K183">
-        <v>3987555.12646783</v>
-      </c>
-    </row>
-    <row r="184" spans="1:11">
-      <c r="A184">
-        <v>443</v>
-      </c>
-      <c r="B184" t="s">
-        <v>12</v>
-      </c>
-      <c r="C184" t="s">
-        <v>16</v>
-      </c>
-      <c r="D184" t="s">
-        <v>18</v>
-      </c>
-      <c r="E184">
-        <v>175.142</v>
-      </c>
-      <c r="F184">
-        <v>1116422.417609176</v>
-      </c>
-      <c r="G184">
-        <v>4841387.097256796</v>
-      </c>
-      <c r="H184">
-        <v>3986047.399019475</v>
-      </c>
-      <c r="I184">
-        <v>1115760.907689609</v>
-      </c>
-      <c r="J184">
-        <v>4842107.851736004</v>
-      </c>
-      <c r="K184">
-        <v>3987525.651919482</v>
-      </c>
-    </row>
-    <row r="185" spans="1:11">
-      <c r="A185">
-        <v>443</v>
-      </c>
-      <c r="B185" t="s">
-        <v>12</v>
-      </c>
-      <c r="C185" t="s">
-        <v>16</v>
-      </c>
-      <c r="D185" t="s">
-        <v>18</v>
-      </c>
-      <c r="E185">
-        <v>176.142</v>
-      </c>
-      <c r="F185">
-        <v>1116420.584851102</v>
-      </c>
-      <c r="G185">
-        <v>4841403.610070307</v>
-      </c>
-      <c r="H185">
-        <v>3986065.519879924</v>
-      </c>
-      <c r="I185">
-        <v>1115812.725733108</v>
-      </c>
-      <c r="J185">
-        <v>4842059.200111963</v>
-      </c>
-      <c r="K185">
-        <v>3987481.028708015</v>
-      </c>
-    </row>
-    <row r="186" spans="1:11">
-      <c r="A186">
-        <v>443</v>
-      </c>
-      <c r="B186" t="s">
-        <v>12</v>
-      </c>
-      <c r="C186" t="s">
-        <v>16</v>
-      </c>
-      <c r="D186" t="s">
-        <v>18</v>
-      </c>
-      <c r="E186">
-        <v>177.142</v>
-      </c>
-      <c r="F186">
-        <v>1116418.90660719</v>
-      </c>
-      <c r="G186">
-        <v>4841420.122883816</v>
-      </c>
-      <c r="H186">
-        <v>3986082.60825859</v>
-      </c>
-      <c r="I186">
-        <v>1115865.819748255</v>
-      </c>
-      <c r="J186">
-        <v>4842010.54848792</v>
-      </c>
-      <c r="K186">
-        <v>3987421.256833428</v>
-      </c>
-    </row>
-    <row r="187" spans="1:11">
-      <c r="A187">
-        <v>443</v>
-      </c>
-      <c r="B187" t="s">
-        <v>12</v>
-      </c>
-      <c r="C187" t="s">
-        <v>16</v>
-      </c>
-      <c r="D187" t="s">
-        <v>18</v>
-      </c>
-      <c r="E187">
-        <v>178.142</v>
-      </c>
-      <c r="F187">
-        <v>1116417.362338674</v>
-      </c>
-      <c r="G187">
-        <v>4841436.635697328</v>
-      </c>
-      <c r="H187">
-        <v>3986098.775496521</v>
-      </c>
-      <c r="I187">
-        <v>1115920.221154681</v>
-      </c>
-      <c r="J187">
-        <v>4841961.896863879</v>
-      </c>
-      <c r="K187">
-        <v>3987346.336295721</v>
-      </c>
-    </row>
-    <row r="188" spans="1:11">
-      <c r="A188">
-        <v>443</v>
-      </c>
-      <c r="B188" t="s">
-        <v>12</v>
-      </c>
-      <c r="C188" t="s">
-        <v>16</v>
-      </c>
-      <c r="D188" t="s">
-        <v>18</v>
-      </c>
-      <c r="E188">
-        <v>179.142</v>
-      </c>
-      <c r="F188">
-        <v>1116415.935133256</v>
-      </c>
-      <c r="G188">
-        <v>4841453.148510838</v>
-      </c>
-      <c r="H188">
-        <v>3986114.11584222</v>
-      </c>
-      <c r="I188">
-        <v>1115975.962145691</v>
-      </c>
-      <c r="J188">
-        <v>4841913.245239838</v>
-      </c>
-      <c r="K188">
-        <v>3987256.267094895</v>
-      </c>
-    </row>
-    <row r="189" spans="1:11">
-      <c r="A189">
-        <v>443</v>
-      </c>
-      <c r="B189" t="s">
-        <v>12</v>
-      </c>
-      <c r="C189" t="s">
-        <v>16</v>
-      </c>
-      <c r="D189" t="s">
-        <v>18</v>
-      </c>
-      <c r="E189">
-        <v>180.142</v>
-      </c>
-      <c r="F189">
-        <v>1116414.61092192</v>
-      </c>
-      <c r="G189">
-        <v>4841469.661324348</v>
-      </c>
-      <c r="H189">
-        <v>3986128.709780607</v>
-      </c>
-      <c r="I189">
-        <v>1116033.075707324</v>
-      </c>
-      <c r="J189">
-        <v>4841864.593615796</v>
-      </c>
-      <c r="K189">
-        <v>3987151.049230949</v>
-      </c>
-    </row>
-    <row r="190" spans="1:11">
-      <c r="A190">
-        <v>443</v>
-      </c>
-      <c r="B190" t="s">
-        <v>12</v>
-      </c>
-      <c r="C190" t="s">
-        <v>16</v>
-      </c>
-      <c r="D190" t="s">
-        <v>18</v>
-      </c>
-      <c r="E190">
-        <v>181.142</v>
-      </c>
-      <c r="F190">
-        <v>1116413.377892883</v>
-      </c>
-      <c r="G190">
-        <v>4841486.17413786</v>
-      </c>
-      <c r="H190">
-        <v>3986142.626589027</v>
-      </c>
-      <c r="I190">
-        <v>1116091.595637869</v>
-      </c>
-      <c r="J190">
-        <v>4841815.941991754</v>
-      </c>
-      <c r="K190">
-        <v>3987030.682703883</v>
-      </c>
-    </row>
-    <row r="191" spans="1:11">
-      <c r="A191">
-        <v>443</v>
-      </c>
-      <c r="B191" t="s">
-        <v>12</v>
-      </c>
-      <c r="C191" t="s">
-        <v>16</v>
-      </c>
-      <c r="D191" t="s">
-        <v>18</v>
-      </c>
-      <c r="E191">
-        <v>182.142</v>
-      </c>
-      <c r="F191">
-        <v>1116412.226046636</v>
-      </c>
-      <c r="G191">
-        <v>4841502.68695137</v>
-      </c>
-      <c r="H191">
-        <v>3986155.926326158</v>
-      </c>
-      <c r="I191">
-        <v>1116151.556567866</v>
-      </c>
-      <c r="J191">
-        <v>4841767.290367713</v>
-      </c>
-      <c r="K191">
-        <v>3986895.167513697</v>
-      </c>
-    </row>
-    <row r="192" spans="1:11">
-      <c r="A192">
-        <v>443</v>
-      </c>
-      <c r="B192" t="s">
-        <v>12</v>
-      </c>
-      <c r="C192" t="s">
-        <v>16</v>
-      </c>
-      <c r="D192" t="s">
-        <v>18</v>
-      </c>
-      <c r="E192">
-        <v>183.142</v>
-      </c>
-      <c r="F192">
-        <v>1116411.146853633</v>
-      </c>
-      <c r="G192">
-        <v>4841519.19976488</v>
-      </c>
-      <c r="H192">
-        <v>3986168.6613984</v>
-      </c>
-      <c r="I192">
-        <v>1116212.993980601</v>
-      </c>
-      <c r="J192">
-        <v>4841718.638743672</v>
-      </c>
-      <c r="K192">
-        <v>3986744.503660392</v>
-      </c>
-    </row>
-    <row r="193" spans="1:11">
-      <c r="A193">
-        <v>443</v>
-      </c>
-      <c r="B193" t="s">
-        <v>12</v>
-      </c>
-      <c r="C193" t="s">
-        <v>16</v>
-      </c>
-      <c r="D193" t="s">
-        <v>18</v>
-      </c>
-      <c r="E193">
-        <v>184.142</v>
-      </c>
-      <c r="F193">
-        <v>1116410.132987791</v>
-      </c>
-      <c r="G193">
-        <v>4841535.712578391</v>
-      </c>
-      <c r="H193">
-        <v>3986180.877807085</v>
-      </c>
-      <c r="I193">
-        <v>1116275.944233103</v>
-      </c>
-      <c r="J193">
-        <v>4841669.98711963</v>
-      </c>
-      <c r="K193">
-        <v>3986578.691143967</v>
-      </c>
-    </row>
-    <row r="194" spans="1:11">
-      <c r="A194">
-        <v>443</v>
-      </c>
-      <c r="B194" t="s">
-        <v>12</v>
-      </c>
-      <c r="C194" t="s">
-        <v>16</v>
-      </c>
-      <c r="D194" t="s">
-        <v>18</v>
-      </c>
-      <c r="E194">
-        <v>185.142</v>
-      </c>
-      <c r="F194">
-        <v>1116409.178116722</v>
-      </c>
-      <c r="G194">
-        <v>4841552.225391901</v>
-      </c>
-      <c r="H194">
-        <v>3986192.616151516</v>
-      </c>
-      <c r="I194">
-        <v>1116340.44457766</v>
-      </c>
-      <c r="J194">
-        <v>4841621.335495588</v>
-      </c>
-      <c r="K194">
-        <v>3986397.729964422</v>
-      </c>
-    </row>
-    <row r="195" spans="1:11">
-      <c r="A195">
-        <v>443</v>
-      </c>
-      <c r="B195" t="s">
-        <v>12</v>
-      </c>
-      <c r="C195" t="s">
-        <v>16</v>
-      </c>
-      <c r="D195" t="s">
-        <v>18</v>
-      </c>
-      <c r="E195">
-        <v>186.142</v>
-      </c>
-      <c r="F195">
-        <v>1116408.276734977</v>
-      </c>
-      <c r="G195">
-        <v>4841568.738205411</v>
-      </c>
-      <c r="H195">
-        <v>3986203.912443024</v>
-      </c>
-      <c r="I195">
-        <v>1116406.533183863</v>
-      </c>
-      <c r="J195">
-        <v>4841572.683871547</v>
-      </c>
-      <c r="K195">
-        <v>3986201.620121758</v>
-      </c>
-    </row>
-    <row r="196" spans="1:11">
-      <c r="A196">
-        <v>443</v>
-      </c>
-      <c r="B196" t="s">
-        <v>12</v>
-      </c>
-      <c r="C196" t="s">
-        <v>16</v>
-      </c>
-      <c r="D196" t="s">
-        <v>18</v>
-      </c>
-      <c r="E196">
-        <v>187.142</v>
-      </c>
-      <c r="F196">
-        <v>1116407.42403025</v>
-      </c>
-      <c r="G196">
-        <v>4841585.251018923</v>
-      </c>
-      <c r="H196">
-        <v>3986214.798771239</v>
-      </c>
-      <c r="I196">
-        <v>1116474.249161193</v>
-      </c>
-      <c r="J196">
-        <v>4841524.032247505</v>
-      </c>
-      <c r="K196">
-        <v>3985990.361615974</v>
-      </c>
-    </row>
-    <row r="197" spans="1:11">
-      <c r="A197">
-        <v>443</v>
-      </c>
-      <c r="B197" t="s">
-        <v>12</v>
-      </c>
-      <c r="C197" t="s">
-        <v>16</v>
-      </c>
-      <c r="D197" t="s">
-        <v>18</v>
-      </c>
-      <c r="E197">
-        <v>188.142</v>
-      </c>
-      <c r="F197">
-        <v>1116406.615775104</v>
-      </c>
-      <c r="G197">
-        <v>4841601.763832433</v>
-      </c>
-      <c r="H197">
-        <v>3986225.303853643</v>
-      </c>
-      <c r="I197">
-        <v>1116543.632582167</v>
-      </c>
-      <c r="J197">
-        <v>4841475.380623464</v>
-      </c>
-      <c r="K197">
-        <v>3985763.95444707</v>
-      </c>
-    </row>
-    <row r="198" spans="1:11">
-      <c r="A198">
-        <v>443</v>
-      </c>
-      <c r="B198" t="s">
-        <v>12</v>
-      </c>
-      <c r="C198" t="s">
-        <v>16</v>
-      </c>
-      <c r="D198" t="s">
-        <v>18</v>
-      </c>
-      <c r="E198">
-        <v>189.142</v>
-      </c>
-      <c r="F198">
-        <v>1116405.848238682</v>
-      </c>
-      <c r="G198">
-        <v>4841618.276645944</v>
-      </c>
-      <c r="H198">
-        <v>3986235.453492104</v>
-      </c>
-      <c r="I198">
-        <v>1116614.724506051</v>
-      </c>
-      <c r="J198">
-        <v>4841426.728999422</v>
-      </c>
-      <c r="K198">
-        <v>3985522.398615046</v>
-      </c>
-    </row>
-    <row r="199" spans="1:11">
-      <c r="A199">
-        <v>443</v>
-      </c>
-      <c r="B199" t="s">
-        <v>12</v>
-      </c>
-      <c r="C199" t="s">
-        <v>16</v>
-      </c>
-      <c r="D199" t="s">
-        <v>18</v>
-      </c>
-      <c r="E199">
-        <v>190.142</v>
-      </c>
-      <c r="F199">
-        <v>1116405.118114162</v>
-      </c>
-      <c r="G199">
-        <v>4841634.789459455</v>
-      </c>
-      <c r="H199">
-        <v>3986245.270954679</v>
-      </c>
-      <c r="I199">
-        <v>1116687.567003157</v>
-      </c>
-      <c r="J199">
-        <v>4841378.07737538</v>
-      </c>
-      <c r="K199">
-        <v>3985265.694119904</v>
-      </c>
-    </row>
-    <row r="200" spans="1:11">
-      <c r="A200">
-        <v>443</v>
-      </c>
-      <c r="B200" t="s">
-        <v>12</v>
-      </c>
-      <c r="C200" t="s">
-        <v>16</v>
-      </c>
-      <c r="D200" t="s">
-        <v>18</v>
-      </c>
-      <c r="E200">
-        <v>191.142</v>
-      </c>
-      <c r="F200">
-        <v>1116404.422458764</v>
-      </c>
-      <c r="G200">
-        <v>4841651.302272964</v>
-      </c>
-      <c r="H200">
-        <v>3986254.777296892</v>
-      </c>
-      <c r="I200">
-        <v>1116762.203179741</v>
-      </c>
-      <c r="J200">
-        <v>4841329.42575134</v>
-      </c>
-      <c r="K200">
-        <v>3984993.840961641</v>
-      </c>
-    </row>
-    <row r="201" spans="1:11">
-      <c r="A201">
-        <v>443</v>
-      </c>
-      <c r="B201" t="s">
-        <v>12</v>
-      </c>
-      <c r="C201" t="s">
-        <v>16</v>
-      </c>
-      <c r="D201" t="s">
-        <v>18</v>
-      </c>
-      <c r="E201">
-        <v>192.142</v>
-      </c>
-      <c r="F201">
-        <v>1116403.758643802</v>
-      </c>
-      <c r="G201">
-        <v>4841667.815086476</v>
-      </c>
-      <c r="H201">
-        <v>3986263.991633658</v>
-      </c>
-      <c r="I201">
-        <v>1116838.677203509</v>
-      </c>
-      <c r="J201">
-        <v>4841280.774127298</v>
-      </c>
-      <c r="K201">
-        <v>3984706.839140258</v>
-      </c>
-    </row>
-    <row r="202" spans="1:11">
-      <c r="A202">
-        <v>443</v>
-      </c>
-      <c r="B202" t="s">
-        <v>12</v>
-      </c>
-      <c r="C202" t="s">
-        <v>16</v>
-      </c>
-      <c r="D202" t="s">
-        <v>18</v>
-      </c>
-      <c r="E202">
-        <v>193.142</v>
-      </c>
-      <c r="F202">
-        <v>1116403.124312872</v>
-      </c>
-      <c r="G202">
-        <v>4841684.327899987</v>
-      </c>
-      <c r="H202">
-        <v>3986272.931370663</v>
-      </c>
-      <c r="I202">
-        <v>1116917.034329757</v>
-      </c>
-      <c r="J202">
-        <v>4841232.122503256</v>
-      </c>
-      <c r="K202">
-        <v>3984404.688655756</v>
-      </c>
-    </row>
-    <row r="203" spans="1:11">
-      <c r="A203">
-        <v>443</v>
-      </c>
-      <c r="B203" t="s">
-        <v>12</v>
-      </c>
-      <c r="C203" t="s">
-        <v>16</v>
-      </c>
-      <c r="D203" t="s">
-        <v>18</v>
-      </c>
-      <c r="E203">
-        <v>194.142</v>
-      </c>
-      <c r="F203">
-        <v>1116402.517346638</v>
-      </c>
-      <c r="G203">
-        <v>4841700.840713496</v>
-      </c>
-      <c r="H203">
-        <v>3986281.612402267</v>
-      </c>
-      <c r="I203">
-        <v>1116997.320928152</v>
-      </c>
-      <c r="J203">
-        <v>4841183.470879215</v>
-      </c>
-      <c r="K203">
-        <v>3984087.389508134</v>
-      </c>
-    </row>
-    <row r="204" spans="1:11">
-      <c r="A204">
-        <v>443</v>
-      </c>
-      <c r="B204" t="s">
-        <v>12</v>
-      </c>
-      <c r="C204" t="s">
-        <v>16</v>
-      </c>
-      <c r="D204" t="s">
-        <v>18</v>
-      </c>
-      <c r="E204">
-        <v>195.142</v>
-      </c>
-      <c r="F204">
-        <v>1116401.935833034</v>
-      </c>
-      <c r="G204">
-        <v>4841717.353527008</v>
-      </c>
-      <c r="H204">
-        <v>3986290.049281565</v>
-      </c>
-      <c r="I204">
-        <v>1117079.58451017</v>
-      </c>
-      <c r="J204">
-        <v>4841134.819255173</v>
-      </c>
-      <c r="K204">
-        <v>3983754.941697393</v>
-      </c>
-    </row>
-    <row r="205" spans="1:11">
-      <c r="A205">
-        <v>443</v>
-      </c>
-      <c r="B205" t="s">
-        <v>12</v>
-      </c>
-      <c r="C205" t="s">
-        <v>16</v>
-      </c>
-      <c r="D205" t="s">
-        <v>18</v>
-      </c>
-      <c r="E205">
-        <v>196.142</v>
-      </c>
-      <c r="F205">
-        <v>1116401.378041911</v>
-      </c>
-      <c r="G205">
-        <v>4841733.866340517</v>
-      </c>
-      <c r="H205">
-        <v>3986298.255367176</v>
-      </c>
-      <c r="I205">
-        <v>1117163.873757215</v>
-      </c>
-      <c r="J205">
-        <v>4841086.167631132</v>
-      </c>
-      <c r="K205">
-        <v>3983407.345223531</v>
-      </c>
-    </row>
-    <row r="206" spans="1:11">
-      <c r="A206">
-        <v>443</v>
-      </c>
-      <c r="B206" t="s">
-        <v>12</v>
-      </c>
-      <c r="C206" t="s">
-        <v>16</v>
-      </c>
-      <c r="D206" t="s">
-        <v>18</v>
-      </c>
-      <c r="E206">
-        <v>197.142</v>
-      </c>
-      <c r="F206">
-        <v>1116400.842403383</v>
-      </c>
-      <c r="G206">
-        <v>4841750.379154028</v>
-      </c>
-      <c r="H206">
-        <v>3986306.242950488</v>
-      </c>
-      <c r="I206">
-        <v>1117250.238549423</v>
-      </c>
-      <c r="J206">
-        <v>4841037.51600709</v>
-      </c>
-      <c r="K206">
-        <v>3983044.600086551</v>
-      </c>
-    </row>
-    <row r="207" spans="1:11">
-      <c r="A207">
-        <v>443</v>
-      </c>
-      <c r="B207" t="s">
-        <v>12</v>
-      </c>
-      <c r="C207" t="s">
-        <v>16</v>
-      </c>
-      <c r="D207" t="s">
-        <v>18</v>
-      </c>
-      <c r="E207">
-        <v>198.142</v>
-      </c>
-      <c r="F207">
-        <v>1116400.327489229</v>
-      </c>
-      <c r="G207">
-        <v>4841766.891967539</v>
-      </c>
-      <c r="H207">
-        <v>3986314.023366403</v>
-      </c>
-      <c r="I207">
-        <v>1117338.729995185</v>
-      </c>
-      <c r="J207">
-        <v>4840988.864383048</v>
-      </c>
-      <c r="K207">
-        <v>3982666.706286449</v>
-      </c>
-    </row>
-    <row r="208" spans="1:11">
-      <c r="A208">
-        <v>443</v>
-      </c>
-      <c r="B208" t="s">
-        <v>12</v>
-      </c>
-      <c r="C208" t="s">
-        <v>16</v>
-      </c>
-      <c r="D208" t="s">
-        <v>18</v>
-      </c>
-      <c r="E208">
-        <v>199.142</v>
-      </c>
-      <c r="F208">
-        <v>1116399.83199688</v>
-      </c>
-      <c r="G208">
-        <v>4841783.404781049</v>
-      </c>
-      <c r="H208">
-        <v>3986321.607090068</v>
-      </c>
-      <c r="I208">
-        <v>1117429.400461389</v>
-      </c>
-      <c r="J208">
-        <v>4840940.212759008</v>
-      </c>
-      <c r="K208">
-        <v>3982273.66382323</v>
-      </c>
-    </row>
-    <row r="209" spans="1:11">
-      <c r="A209">
-        <v>443</v>
-      </c>
-      <c r="B209" t="s">
-        <v>12</v>
-      </c>
-      <c r="C209" t="s">
-        <v>16</v>
-      </c>
-      <c r="D209" t="s">
-        <v>18</v>
-      </c>
-      <c r="E209">
-        <v>200.142</v>
-      </c>
-      <c r="F209">
-        <v>1116399.354735551</v>
-      </c>
-      <c r="G209">
-        <v>4841799.91759456</v>
-      </c>
-      <c r="H209">
-        <v>3986329.003821691</v>
-      </c>
-      <c r="I209">
-        <v>1117522.303604407</v>
-      </c>
-      <c r="J209">
-        <v>4840891.561134965</v>
-      </c>
-      <c r="K209">
-        <v>3981865.472696889</v>
-      </c>
-    </row>
-    <row r="210" spans="1:11">
-      <c r="A210">
-        <v>443</v>
-      </c>
-      <c r="B210" t="s">
-        <v>12</v>
-      </c>
-      <c r="C210" t="s">
-        <v>16</v>
-      </c>
-      <c r="D210" t="s">
-        <v>18</v>
-      </c>
-      <c r="E210">
-        <v>201.142</v>
-      </c>
-      <c r="F210">
-        <v>1116398.89461421</v>
-      </c>
-      <c r="G210">
-        <v>4841816.430408071</v>
-      </c>
-      <c r="H210">
-        <v>3986336.22256114</v>
-      </c>
-      <c r="I210">
-        <v>1117617.494401853</v>
-      </c>
-      <c r="J210">
-        <v>4840842.909510924</v>
-      </c>
-      <c r="K210">
-        <v>3981442.13290743</v>
-      </c>
-    </row>
-    <row r="211" spans="1:11">
-      <c r="A211">
-        <v>443</v>
-      </c>
-      <c r="B211" t="s">
-        <v>12</v>
-      </c>
-      <c r="C211" t="s">
-        <v>16</v>
-      </c>
-      <c r="D211" t="s">
-        <v>18</v>
-      </c>
-      <c r="E211">
-        <v>202.142</v>
-      </c>
-      <c r="F211">
-        <v>1116398.45063108</v>
-      </c>
-      <c r="G211">
-        <v>4841832.943221581</v>
-      </c>
-      <c r="H211">
-        <v>3986343.271673783</v>
-      </c>
-      <c r="I211">
-        <v>1117715.029185111</v>
-      </c>
-      <c r="J211">
-        <v>4840794.257886883</v>
-      </c>
-      <c r="K211">
-        <v>3981003.64445485</v>
-      </c>
-    </row>
-    <row r="212" spans="1:11">
-      <c r="A212">
-        <v>443</v>
-      </c>
-      <c r="B212" t="s">
-        <v>12</v>
-      </c>
-      <c r="C212" t="s">
-        <v>16</v>
-      </c>
-      <c r="D212" t="s">
-        <v>18</v>
-      </c>
-      <c r="E212">
-        <v>203.142</v>
-      </c>
-      <c r="F212">
-        <v>1116398.021864473</v>
-      </c>
-      <c r="G212">
-        <v>4841849.456035092</v>
-      </c>
-      <c r="H212">
-        <v>3986350.158948761</v>
-      </c>
-      <c r="I212">
-        <v>1117814.965672678</v>
-      </c>
-      <c r="J212">
-        <v>4840745.606262841</v>
-      </c>
-      <c r="K212">
-        <v>3980550.007339151</v>
-      </c>
-    </row>
-    <row r="213" spans="1:11">
-      <c r="A213">
-        <v>443</v>
-      </c>
-      <c r="B213" t="s">
-        <v>12</v>
-      </c>
-      <c r="C213" t="s">
-        <v>16</v>
-      </c>
-      <c r="D213" t="s">
-        <v>18</v>
-      </c>
-      <c r="E213">
-        <v>204.142</v>
-      </c>
-      <c r="F213">
-        <v>1116397.607464737</v>
-      </c>
-      <c r="G213">
-        <v>4841865.968848603</v>
-      </c>
-      <c r="H213">
-        <v>3986356.891650728</v>
-      </c>
-      <c r="I213">
-        <v>1117917.363004311</v>
-      </c>
-      <c r="J213">
-        <v>4840696.954638799</v>
-      </c>
-      <c r="K213">
-        <v>3980081.221560332</v>
+        <v>3980081.307466897</v>
       </c>
     </row>
   </sheetData>

--- a/runs/run443/NotionalETEOutput443.xlsx
+++ b/runs/run443/NotionalETEOutput443.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="17">
   <si>
     <t>uniqueid</t>
   </si>
@@ -52,22 +52,19 @@
     <t>Missile_HIGHWIND_State_Update</t>
   </si>
   <si>
-    <t>Missile_SOMERSAULT_State_Update</t>
+    <t>Missile_BRAVER_State_Update</t>
   </si>
   <si>
-    <t>MISSILE_HIGHWIND_187.MISSILE_HIGHWIND_187</t>
+    <t>MISSILE_HIGHWIND_313.MISSILE_HIGHWIND_313</t>
   </si>
   <si>
-    <t>MISSILE_SOMERSAULT_403.MISSILE_SOMERSAULT_403</t>
-  </si>
-  <si>
-    <t>MISSILE_HIGHWIND_184.MISSILE_HIGHWIND_184</t>
+    <t>MISSILE_BRAVER_16.MISSILE_BRAVER_16</t>
   </si>
   <si>
     <t>MISSILE_HIGHWIND</t>
   </si>
   <si>
-    <t>MISSILE_SOMERSAULT</t>
+    <t>MISSILE_BRAVER</t>
   </si>
 </sst>
 </file>
@@ -425,7 +422,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K160"/>
+  <dimension ref="A1:K107"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -477,28 +474,28 @@
         <v>13</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E2">
         <v>152.142</v>
       </c>
       <c r="F2">
-        <v>1116578.47129514</v>
+        <v>1116577.147603776</v>
       </c>
       <c r="G2">
-        <v>4841112.450264911</v>
+        <v>4841118.105022077</v>
       </c>
       <c r="H2">
-        <v>3985226.843338669</v>
+        <v>3985224.641700361</v>
       </c>
       <c r="I2">
-        <v>1114859.421174334</v>
+        <v>1114860.196819049</v>
       </c>
       <c r="J2">
-        <v>4843228.077138085</v>
+        <v>4843224.545992456</v>
       </c>
       <c r="K2">
-        <v>3984359.491468957</v>
+        <v>3984364.802100104</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -512,28 +509,28 @@
         <v>13</v>
       </c>
       <c r="D3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E3">
         <v>153.142</v>
       </c>
       <c r="F3">
-        <v>1116578.47129514</v>
+        <v>1116577.147603776</v>
       </c>
       <c r="G3">
-        <v>4841112.450264911</v>
+        <v>4841118.105022077</v>
       </c>
       <c r="H3">
-        <v>3985226.843338669</v>
+        <v>3985224.641700361</v>
       </c>
       <c r="I3">
-        <v>1114889.035119365</v>
+        <v>1114889.810784684</v>
       </c>
       <c r="J3">
-        <v>4843179.425501607</v>
+        <v>4843175.89439145</v>
       </c>
       <c r="K3">
-        <v>3984663.286635202</v>
+        <v>3984668.597671268</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -547,28 +544,28 @@
         <v>13</v>
       </c>
       <c r="D4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E4">
         <v>154.142</v>
       </c>
       <c r="F4">
-        <v>1116578.47129514</v>
+        <v>1116577.147603776</v>
       </c>
       <c r="G4">
-        <v>4841112.450264911</v>
+        <v>4841118.105022077</v>
       </c>
       <c r="H4">
-        <v>3985226.843338669</v>
+        <v>3985224.641700361</v>
       </c>
       <c r="I4">
-        <v>1114919.378280548</v>
+        <v>1114920.153966978</v>
       </c>
       <c r="J4">
-        <v>4843130.773865129</v>
+        <v>4843127.242790442</v>
       </c>
       <c r="K4">
-        <v>3984951.933181911</v>
+        <v>3984957.244602705</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -582,28 +579,28 @@
         <v>13</v>
       </c>
       <c r="D5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E5">
         <v>155.142</v>
       </c>
       <c r="F5">
-        <v>1116578.47129514</v>
+        <v>1116577.147603776</v>
       </c>
       <c r="G5">
-        <v>4841112.450264911</v>
+        <v>4841118.105022077</v>
       </c>
       <c r="H5">
-        <v>3985226.843338669</v>
+        <v>3985224.641700361</v>
       </c>
       <c r="I5">
-        <v>1114950.468614161</v>
+        <v>1114951.244322221</v>
       </c>
       <c r="J5">
-        <v>4843082.12222865</v>
+        <v>4843078.591189436</v>
       </c>
       <c r="K5">
-        <v>3985225.431109083</v>
+        <v>3985230.742894414</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -617,28 +614,28 @@
         <v>13</v>
       </c>
       <c r="D6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E6">
         <v>156.142</v>
       </c>
       <c r="F6">
-        <v>1116578.47129514</v>
+        <v>1116577.147603776</v>
       </c>
       <c r="G6">
-        <v>4841112.450264911</v>
+        <v>4841118.105022077</v>
       </c>
       <c r="H6">
-        <v>3985226.843338669</v>
+        <v>3985224.641700361</v>
       </c>
       <c r="I6">
-        <v>1114982.324518635</v>
+        <v>1114983.100248859</v>
       </c>
       <c r="J6">
-        <v>4843033.470592173</v>
+        <v>4843029.939588429</v>
       </c>
       <c r="K6">
-        <v>3985483.78041672</v>
+        <v>3985489.092546397</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -652,28 +649,28 @@
         <v>13</v>
       </c>
       <c r="D7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E7">
         <v>157.142</v>
       </c>
       <c r="F7">
-        <v>1116578.47129514</v>
+        <v>1116577.147603776</v>
       </c>
       <c r="G7">
-        <v>4841112.450264911</v>
+        <v>4841118.105022077</v>
       </c>
       <c r="H7">
-        <v>3985226.843338669</v>
+        <v>3985224.641700361</v>
       </c>
       <c r="I7">
-        <v>1115014.964845451</v>
+        <v>1115015.740598384</v>
       </c>
       <c r="J7">
-        <v>4842984.818955695</v>
+        <v>4842981.287987423</v>
       </c>
       <c r="K7">
-        <v>3985726.981104821</v>
+        <v>3985732.293558653</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -687,28 +684,28 @@
         <v>13</v>
       </c>
       <c r="D8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E8">
         <v>158.142</v>
       </c>
       <c r="F8">
-        <v>1116578.47129514</v>
+        <v>1116577.147603776</v>
       </c>
       <c r="G8">
-        <v>4841112.450264911</v>
+        <v>4841118.105022077</v>
       </c>
       <c r="H8">
-        <v>3985226.843338669</v>
+        <v>3985224.641700361</v>
       </c>
       <c r="I8">
-        <v>1115048.408910286</v>
+        <v>1115049.184686487</v>
       </c>
       <c r="J8">
-        <v>4842936.167319216</v>
+        <v>4842932.636386416</v>
       </c>
       <c r="K8">
-        <v>3985955.033173386</v>
+        <v>3985960.345931181</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -722,28 +719,28 @@
         <v>13</v>
       </c>
       <c r="D9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E9">
         <v>159.142</v>
       </c>
       <c r="F9">
-        <v>1116578.47129514</v>
+        <v>1116577.147603776</v>
       </c>
       <c r="G9">
-        <v>4841112.450264911</v>
+        <v>4841118.105022077</v>
       </c>
       <c r="H9">
-        <v>3985226.843338669</v>
+        <v>3985224.641700361</v>
       </c>
       <c r="I9">
-        <v>1115082.67650445</v>
+        <v>1115083.452304492</v>
       </c>
       <c r="J9">
-        <v>4842887.515682738</v>
+        <v>4842883.984785409</v>
       </c>
       <c r="K9">
-        <v>3986167.936622414</v>
+        <v>3986173.249663982</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -757,28 +754,28 @@
         <v>13</v>
       </c>
       <c r="D10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E10">
         <v>160.142</v>
       </c>
       <c r="F10">
-        <v>1116578.47129514</v>
+        <v>1116577.147603776</v>
       </c>
       <c r="G10">
-        <v>4841128.963042805</v>
+        <v>4841134.61781926</v>
       </c>
       <c r="H10">
-        <v>3985226.843338669</v>
+        <v>3985224.641700361</v>
       </c>
       <c r="I10">
-        <v>1115117.787906594</v>
+        <v>1115118.563731064</v>
       </c>
       <c r="J10">
-        <v>4842838.864046261</v>
+        <v>4842835.333184402</v>
       </c>
       <c r="K10">
-        <v>3986365.691451907</v>
+        <v>3986371.004757056</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -792,28 +789,28 @@
         <v>13</v>
       </c>
       <c r="D11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E11">
         <v>161.142</v>
       </c>
       <c r="F11">
-        <v>1116529.790732789</v>
+        <v>1116528.467099135</v>
       </c>
       <c r="G11">
-        <v>4841145.475820698</v>
+        <v>4841151.13061644</v>
       </c>
       <c r="H11">
-        <v>3985426.097671195</v>
+        <v>3985423.89592281</v>
       </c>
       <c r="I11">
-        <v>1115153.763894714</v>
+        <v>1115154.539744214</v>
       </c>
       <c r="J11">
-        <v>4842790.212409782</v>
+        <v>4842786.681583396</v>
       </c>
       <c r="K11">
-        <v>3986548.297661863</v>
+        <v>3986553.611210403</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -827,28 +824,28 @@
         <v>13</v>
       </c>
       <c r="D12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E12">
         <v>162.142</v>
       </c>
       <c r="F12">
-        <v>1116501.193344489</v>
+        <v>1116499.869744737</v>
       </c>
       <c r="G12">
-        <v>4841161.988598592</v>
+        <v>4841167.643413623</v>
       </c>
       <c r="H12">
-        <v>3985544.783741902</v>
+        <v>3985542.581927948</v>
       </c>
       <c r="I12">
-        <v>1115190.625758445</v>
+        <v>1115191.40163359</v>
       </c>
       <c r="J12">
-        <v>4842741.560773304</v>
+        <v>4842738.029982389</v>
       </c>
       <c r="K12">
-        <v>3986715.755252284</v>
+        <v>3986721.069024023</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -862,28 +859,28 @@
         <v>13</v>
       </c>
       <c r="D13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E13">
         <v>163.142</v>
       </c>
       <c r="F13">
-        <v>1116483.140574983</v>
+        <v>1116481.816996633</v>
       </c>
       <c r="G13">
-        <v>4841178.501376485</v>
+        <v>4841184.156210804</v>
       </c>
       <c r="H13">
-        <v>3985629.60065495</v>
+        <v>3985627.39879414</v>
       </c>
       <c r="I13">
-        <v>1115228.395311657</v>
+        <v>1115229.17121308</v>
       </c>
       <c r="J13">
-        <v>4842692.909136826</v>
+        <v>4842689.378381383</v>
       </c>
       <c r="K13">
-        <v>3986868.064223168</v>
+        <v>3986873.378197915</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -897,28 +894,28 @@
         <v>13</v>
       </c>
       <c r="D14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E14">
         <v>164.142</v>
       </c>
       <c r="F14">
-        <v>1116470.550646811</v>
+        <v>1116469.227083385</v>
       </c>
       <c r="G14">
-        <v>4841195.014154378</v>
+        <v>4841200.669007986</v>
       </c>
       <c r="H14">
-        <v>3985695.6475397</v>
+        <v>3985693.445642402</v>
       </c>
       <c r="I14">
-        <v>1115267.09490537</v>
+        <v>1115267.870833718</v>
       </c>
       <c r="J14">
-        <v>4842644.257500348</v>
+        <v>4842640.726780375</v>
       </c>
       <c r="K14">
-        <v>3987005.224574517</v>
+        <v>3987010.538732081</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -932,28 +929,28 @@
         <v>13</v>
       </c>
       <c r="D15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E15">
         <v>165.142</v>
       </c>
       <c r="F15">
-        <v>1116461.158183368</v>
+        <v>1116459.834631077</v>
       </c>
       <c r="G15">
-        <v>4841211.526932272</v>
+        <v>4841217.181805167</v>
       </c>
       <c r="H15">
-        <v>3985749.745061375</v>
+        <v>3985747.54313419</v>
       </c>
       <c r="I15">
-        <v>1115306.747440975</v>
+        <v>1115307.52339691</v>
       </c>
       <c r="J15">
-        <v>4842595.60586387</v>
+        <v>4842592.075179369</v>
       </c>
       <c r="K15">
-        <v>3987127.23630633</v>
+        <v>3987132.550626519</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -967,28 +964,28 @@
         <v>13</v>
       </c>
       <c r="D16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E16">
         <v>166.142</v>
       </c>
       <c r="F16">
-        <v>1116453.814588575</v>
+        <v>1116452.49104499</v>
       </c>
       <c r="G16">
-        <v>4841228.039710165</v>
+        <v>4841233.694602349</v>
       </c>
       <c r="H16">
-        <v>3985795.561713305</v>
+        <v>3985793.359760809</v>
       </c>
       <c r="I16">
-        <v>1115347.37638379</v>
+        <v>1115348.152367992</v>
       </c>
       <c r="J16">
-        <v>4842546.954227392</v>
+        <v>4842543.423578362</v>
       </c>
       <c r="K16">
-        <v>3987234.099418607</v>
+        <v>3987239.413881231</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -1002,28 +999,28 @@
         <v>13</v>
       </c>
       <c r="D17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E17">
         <v>167.142</v>
       </c>
       <c r="F17">
-        <v>1116447.873085683</v>
+        <v>1116446.549549141</v>
       </c>
       <c r="G17">
-        <v>4841244.55248806</v>
+        <v>4841250.20739953</v>
       </c>
       <c r="H17">
-        <v>3985835.299314398</v>
+        <v>3985833.097339949</v>
       </c>
       <c r="I17">
-        <v>1115389.005776943</v>
+        <v>1115389.781790109</v>
       </c>
       <c r="J17">
-        <v>4842498.302590914</v>
+        <v>4842494.771977356</v>
       </c>
       <c r="K17">
-        <v>3987325.813911347</v>
+        <v>3987331.128496214</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1037,28 +1034,28 @@
         <v>13</v>
       </c>
       <c r="D18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E18">
         <v>168.142</v>
       </c>
       <c r="F18">
-        <v>1116442.939521206</v>
+        <v>1116441.615990513</v>
       </c>
       <c r="G18">
-        <v>4841261.065265954</v>
+        <v>4841266.720196713</v>
       </c>
       <c r="H18">
-        <v>3985870.383683981</v>
+        <v>3985868.181690149</v>
       </c>
       <c r="I18">
-        <v>1115431.660255605</v>
+        <v>1115432.436298446</v>
       </c>
       <c r="J18">
-        <v>4842449.650954436</v>
+        <v>4842446.120376349</v>
       </c>
       <c r="K18">
-        <v>3987402.379784551</v>
+        <v>3987407.694471471</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1072,28 +1069,28 @@
         <v>13</v>
       </c>
       <c r="D19" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E19">
         <v>169.142</v>
       </c>
       <c r="F19">
-        <v>1116438.758696517</v>
+        <v>1116437.43517078</v>
       </c>
       <c r="G19">
-        <v>4841277.578043846</v>
+        <v>4841283.232993893</v>
       </c>
       <c r="H19">
-        <v>3985901.791254746</v>
+        <v>3985899.589243564</v>
       </c>
       <c r="I19">
-        <v>1115475.365061562</v>
+        <v>1115476.141134811</v>
       </c>
       <c r="J19">
-        <v>4842400.999317958</v>
+        <v>4842397.468775342</v>
       </c>
       <c r="K19">
-        <v>3987463.79703822</v>
+        <v>3987469.111807001</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1107,28 +1104,28 @@
         <v>13</v>
       </c>
       <c r="D20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E20">
         <v>170.142</v>
       </c>
       <c r="F20">
-        <v>1116435.157323929</v>
+        <v>1116433.833802462</v>
       </c>
       <c r="G20">
-        <v>4841294.09082174</v>
+        <v>4841299.745791076</v>
       </c>
       <c r="H20">
-        <v>3985930.220094518</v>
+        <v>3985928.01806763</v>
       </c>
       <c r="I20">
-        <v>1115520.146058159</v>
+        <v>1115520.922162563</v>
       </c>
       <c r="J20">
-        <v>4842352.34768148</v>
+        <v>4842348.817174335</v>
       </c>
       <c r="K20">
-        <v>3987510.065672352</v>
+        <v>3987515.380502804</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1142,28 +1139,28 @@
         <v>13</v>
       </c>
       <c r="D21" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E21">
         <v>171.142</v>
       </c>
       <c r="F21">
-        <v>1116432.013139572</v>
+        <v>1116430.689621832</v>
       </c>
       <c r="G21">
-        <v>4841310.603599634</v>
+        <v>4841316.258588257</v>
       </c>
       <c r="H21">
-        <v>3985956.186593584</v>
+        <v>3985953.984552351</v>
       </c>
       <c r="I21">
-        <v>1115566.029745598</v>
+        <v>1115566.805881925</v>
       </c>
       <c r="J21">
-        <v>4842303.696045001</v>
+        <v>4842300.165573329</v>
       </c>
       <c r="K21">
-        <v>3987541.185686949</v>
+        <v>3987546.500558879</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1177,28 +1174,28 @@
         <v>13</v>
       </c>
       <c r="D22" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E22">
         <v>172.142</v>
       </c>
       <c r="F22">
-        <v>1116429.237121955</v>
+        <v>1116427.913607507</v>
       </c>
       <c r="G22">
-        <v>4841327.116377527</v>
+        <v>4841332.771385439</v>
       </c>
       <c r="H22">
-        <v>3985980.083506564</v>
+        <v>3985977.881452129</v>
       </c>
       <c r="I22">
-        <v>1115613.043276629</v>
+        <v>1115613.819445665</v>
       </c>
       <c r="J22">
-        <v>4842255.044408523</v>
+        <v>4842251.513972322</v>
       </c>
       <c r="K22">
-        <v>3987557.15708201</v>
+        <v>3987562.471975227</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -1212,28 +1209,28 @@
         <v>13</v>
       </c>
       <c r="D23" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E23">
         <v>173.142</v>
       </c>
       <c r="F23">
-        <v>1116426.762727193</v>
+        <v>1116425.439215677</v>
       </c>
       <c r="G23">
-        <v>4841343.629155421</v>
+        <v>4841349.28418262</v>
       </c>
       <c r="H23">
-        <v>3986002.216520144</v>
+        <v>3986000.014453482</v>
       </c>
       <c r="I23">
-        <v>1115661.21447261</v>
+        <v>1115661.99067516</v>
       </c>
       <c r="J23">
-        <v>4842206.392772046</v>
+        <v>4842202.862371316</v>
       </c>
       <c r="K23">
-        <v>3987557.979857534</v>
+        <v>3987563.294751849</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -1247,28 +1244,28 @@
         <v>13</v>
       </c>
       <c r="D24" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E24">
         <v>174.142</v>
       </c>
       <c r="F24">
-        <v>1116424.53909272</v>
+        <v>1116423.21558384</v>
       </c>
       <c r="G24">
-        <v>4841360.141933315</v>
+        <v>4841365.796979803</v>
       </c>
       <c r="H24">
-        <v>3986022.828227175</v>
+        <v>3986020.626149126</v>
       </c>
       <c r="I24">
-        <v>1115710.571839975</v>
+        <v>1115711.348076864</v>
       </c>
       <c r="J24">
-        <v>4842157.741135566</v>
+        <v>4842154.210770308</v>
       </c>
       <c r="K24">
-        <v>3987543.654013522</v>
+        <v>3987548.968888742</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1282,28 +1279,28 @@
         <v>13</v>
       </c>
       <c r="D25" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E25">
         <v>175.142</v>
       </c>
       <c r="F25">
-        <v>1116422.526591373</v>
+        <v>1116421.203084879</v>
       </c>
       <c r="G25">
-        <v>4841376.654711207</v>
+        <v>4841382.309776983</v>
       </c>
       <c r="H25">
-        <v>3986042.114377996</v>
+        <v>3986039.912289292</v>
       </c>
       <c r="I25">
-        <v>1115761.144587103</v>
+        <v>1115761.920859178</v>
       </c>
       <c r="J25">
-        <v>4842109.089499089</v>
+        <v>4842105.559169302</v>
       </c>
       <c r="K25">
-        <v>3987514.179549975</v>
+        <v>3987519.494385909</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -1317,28 +1314,28 @@
         <v>13</v>
       </c>
       <c r="D26" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E26">
         <v>176.142</v>
       </c>
       <c r="F26">
-        <v>1116420.693833119</v>
+        <v>1116419.370328798</v>
       </c>
       <c r="G26">
-        <v>4841393.167489101</v>
+        <v>4841398.822574166</v>
       </c>
       <c r="H26">
-        <v>3986060.235214421</v>
+        <v>3986058.033115706</v>
       </c>
       <c r="I26">
-        <v>1115812.962641604</v>
+        <v>1115813.73894973</v>
       </c>
       <c r="J26">
-        <v>4842060.437862611</v>
+        <v>4842056.907568295</v>
       </c>
       <c r="K26">
-        <v>3987469.556466891</v>
+        <v>3987474.871243349</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -1352,28 +1349,28 @@
         <v>13</v>
       </c>
       <c r="D27" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E27">
         <v>177.142</v>
       </c>
       <c r="F27">
-        <v>1116419.015589044</v>
+        <v>1116417.692086712</v>
       </c>
       <c r="G27">
-        <v>4841409.680266994</v>
+        <v>4841415.335371346</v>
       </c>
       <c r="H27">
-        <v>3986077.323570431</v>
+        <v>3986075.121462276</v>
       </c>
       <c r="I27">
-        <v>1115866.056668024</v>
+        <v>1115866.83301309</v>
       </c>
       <c r="J27">
-        <v>4842011.786226132</v>
+        <v>4842008.255967288</v>
       </c>
       <c r="K27">
-        <v>3987409.784764272</v>
+        <v>3987415.099461061</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -1387,28 +1384,28 @@
         <v>13</v>
       </c>
       <c r="D28" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E28">
         <v>178.142</v>
       </c>
       <c r="F28">
-        <v>1116417.471320378</v>
+        <v>1116416.147819877</v>
       </c>
       <c r="G28">
-        <v>4841426.193044889</v>
+        <v>4841431.848168529</v>
       </c>
       <c r="H28">
-        <v>3986093.490786928</v>
+        <v>3986091.288669841</v>
       </c>
       <c r="I28">
-        <v>1115920.458086</v>
+        <v>1115921.234468915</v>
       </c>
       <c r="J28">
-        <v>4841963.134589654</v>
+        <v>4841959.604366282</v>
       </c>
       <c r="K28">
-        <v>3987334.864442116</v>
+        <v>3987340.179039047</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -1422,28 +1419,28 @@
         <v>13</v>
       </c>
       <c r="D29" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E29">
         <v>179.142</v>
       </c>
       <c r="F29">
-        <v>1116416.04411482</v>
+        <v>1116414.720616011</v>
       </c>
       <c r="G29">
-        <v>4841442.705822783</v>
+        <v>4841448.36096571</v>
       </c>
       <c r="H29">
-        <v>3986108.83111229</v>
+        <v>3986106.628986728</v>
       </c>
       <c r="I29">
-        <v>1115976.199088845</v>
+        <v>1115976.97551054</v>
       </c>
       <c r="J29">
-        <v>4841914.482953177</v>
+        <v>4841910.952765275</v>
       </c>
       <c r="K29">
-        <v>3987244.795500425</v>
+        <v>3987250.109977305</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -1457,28 +1454,28 @@
         <v>13</v>
       </c>
       <c r="D30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E30">
         <v>180.142</v>
       </c>
       <c r="F30">
-        <v>1116414.719903354</v>
+        <v>1116413.396406115</v>
       </c>
       <c r="G30">
-        <v>4841459.218600675</v>
+        <v>4841464.873762892</v>
       </c>
       <c r="H30">
-        <v>3986123.425031328</v>
+        <v>3986121.222897704</v>
       </c>
       <c r="I30">
-        <v>1116033.312662604</v>
+        <v>1116034.089124036</v>
       </c>
       <c r="J30">
-        <v>4841865.831316699</v>
+        <v>4841862.301164269</v>
       </c>
       <c r="K30">
-        <v>3987139.577939197</v>
+        <v>3987144.892275837</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -1492,28 +1489,28 @@
         <v>13</v>
       </c>
       <c r="D31" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E31">
         <v>181.142</v>
       </c>
       <c r="F31">
-        <v>1116413.486874197</v>
+        <v>1116412.16337842</v>
       </c>
       <c r="G31">
-        <v>4841475.731378569</v>
+        <v>4841481.386560073</v>
       </c>
       <c r="H31">
-        <v>3986137.341821298</v>
+        <v>3986135.139679985</v>
       </c>
       <c r="I31">
-        <v>1116091.832605574</v>
+        <v>1116092.60910772</v>
       </c>
       <c r="J31">
-        <v>4841817.17968022</v>
+        <v>4841813.649563261</v>
       </c>
       <c r="K31">
-        <v>3987019.211758434</v>
+        <v>3987024.525934641</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -1527,28 +1524,28 @@
         <v>13</v>
       </c>
       <c r="D32" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E32">
         <v>182.142</v>
       </c>
       <c r="F32">
-        <v>1116412.335027838</v>
+        <v>1116411.011533426</v>
       </c>
       <c r="G32">
-        <v>4841492.244156463</v>
+        <v>4841497.899357256</v>
       </c>
       <c r="H32">
-        <v>3986150.641540796</v>
+        <v>3986148.439392136</v>
       </c>
       <c r="I32">
-        <v>1116151.793548302</v>
+        <v>1116152.570092164</v>
       </c>
       <c r="J32">
-        <v>4841768.528043742</v>
+        <v>4841764.997962255</v>
       </c>
       <c r="K32">
-        <v>3986883.696958134</v>
+        <v>3986889.010953717</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1562,28 +1559,28 @@
         <v>13</v>
       </c>
       <c r="D33" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E33">
         <v>183.142</v>
       </c>
       <c r="F33">
-        <v>1116411.25583473</v>
+        <v>1116409.932341598</v>
       </c>
       <c r="G33">
-        <v>4841508.756934356</v>
+        <v>4841514.412154436</v>
       </c>
       <c r="H33">
-        <v>3986163.376596154</v>
+        <v>3986161.174440458</v>
       </c>
       <c r="I33">
-        <v>1116213.230974082</v>
+        <v>1116214.007560688</v>
       </c>
       <c r="J33">
-        <v>4841719.876407265</v>
+        <v>4841716.346361249</v>
       </c>
       <c r="K33">
-        <v>3986733.033538299</v>
+        <v>3986738.347333067</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1597,28 +1594,28 @@
         <v>13</v>
       </c>
       <c r="D34" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E34">
         <v>184.142</v>
       </c>
       <c r="F34">
-        <v>1116410.241968788</v>
+        <v>1116408.918476858</v>
       </c>
       <c r="G34">
-        <v>4841525.26971225</v>
+        <v>4841530.924951619</v>
       </c>
       <c r="H34">
-        <v>3986175.592988643</v>
+        <v>3986173.390826198</v>
       </c>
       <c r="I34">
-        <v>1116276.18123995</v>
+        <v>1116276.957870352</v>
       </c>
       <c r="J34">
-        <v>4841671.224770786</v>
+        <v>4841667.694760242</v>
       </c>
       <c r="K34">
-        <v>3986567.221498927</v>
+        <v>3986572.53507269</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1632,28 +1629,28 @@
         <v>13</v>
       </c>
       <c r="D35" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E35">
         <v>185.142</v>
       </c>
       <c r="F35">
-        <v>1116409.287097626</v>
+        <v>1116407.963606828</v>
       </c>
       <c r="G35">
-        <v>4841541.782490143</v>
+        <v>4841547.437748799</v>
       </c>
       <c r="H35">
-        <v>3986187.331317511</v>
+        <v>3986185.129148582</v>
       </c>
       <c r="I35">
-        <v>1116340.681598201</v>
+        <v>1116341.458273479</v>
       </c>
       <c r="J35">
-        <v>4841622.573134308</v>
+        <v>4841619.043159234</v>
       </c>
       <c r="K35">
-        <v>3986386.260840019</v>
+        <v>3986391.574172585</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1667,28 +1664,28 @@
         <v>13</v>
       </c>
       <c r="D36" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E36">
         <v>186.142</v>
       </c>
       <c r="F36">
-        <v>1116408.385715794</v>
+        <v>1116407.062226064</v>
       </c>
       <c r="G36">
-        <v>4841558.295268036</v>
+        <v>4841563.950545982</v>
       </c>
       <c r="H36">
-        <v>3986198.627594043</v>
+        <v>3986196.425418873</v>
       </c>
       <c r="I36">
-        <v>1116406.770218436</v>
+        <v>1116407.546939693</v>
       </c>
       <c r="J36">
-        <v>4841573.92149783</v>
+        <v>4841570.391558228</v>
       </c>
       <c r="K36">
-        <v>3986190.151561576</v>
+        <v>3986195.464632754</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1702,28 +1699,28 @@
         <v>13</v>
       </c>
       <c r="D37" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E37">
         <v>187.142</v>
       </c>
       <c r="F37">
-        <v>1116407.533010982</v>
+        <v>1116406.209522264</v>
       </c>
       <c r="G37">
-        <v>4841574.80804593</v>
+        <v>4841580.463343163</v>
       </c>
       <c r="H37">
-        <v>3986209.513907825</v>
+        <v>3986207.311726641</v>
       </c>
       <c r="I37">
-        <v>1116474.486210143</v>
+        <v>1116475.262978513</v>
       </c>
       <c r="J37">
-        <v>4841525.269861352</v>
+        <v>4841521.739957222</v>
       </c>
       <c r="K37">
-        <v>3985978.893663596</v>
+        <v>3985984.206453195</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -1737,28 +1734,28 @@
         <v>13</v>
       </c>
       <c r="D38" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E38">
         <v>188.142</v>
       </c>
       <c r="F38">
-        <v>1116406.724755758</v>
+        <v>1116405.401267997</v>
       </c>
       <c r="G38">
-        <v>4841591.320823823</v>
+        <v>4841596.976140345</v>
       </c>
       <c r="H38">
-        <v>3986220.018976301</v>
+        <v>3986217.816789314</v>
       </c>
       <c r="I38">
-        <v>1116543.869645848</v>
+        <v>1116544.646462491</v>
       </c>
       <c r="J38">
-        <v>4841476.618224874</v>
+        <v>4841473.088356216</v>
       </c>
       <c r="K38">
-        <v>3985752.48714608</v>
+        <v>3985757.799633909</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -1772,28 +1769,28 @@
         <v>13</v>
       </c>
       <c r="D39" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E39">
         <v>189.142</v>
       </c>
       <c r="F39">
-        <v>1116405.957219261</v>
+        <v>1116404.63373241</v>
       </c>
       <c r="G39">
-        <v>4841607.833601718</v>
+        <v>4841613.488937526</v>
       </c>
       <c r="H39">
-        <v>3986230.168601306</v>
+        <v>3986227.966408711</v>
       </c>
       <c r="I39">
-        <v>1116614.961584826</v>
+        <v>1116615.73845093</v>
       </c>
       <c r="J39">
-        <v>4841427.966588396</v>
+        <v>4841424.436755207</v>
       </c>
       <c r="K39">
-        <v>3985510.932009029</v>
+        <v>3985516.244174895</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -1807,28 +1804,28 @@
         <v>13</v>
       </c>
       <c r="D40" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E40">
         <v>190.142</v>
       </c>
       <c r="F40">
-        <v>1116405.22709467</v>
+        <v>1116403.903608685</v>
       </c>
       <c r="G40">
-        <v>4841624.346379612</v>
+        <v>4841630.001734708</v>
       </c>
       <c r="H40">
-        <v>3986239.986050866</v>
+        <v>3986237.783852847</v>
       </c>
       <c r="I40">
-        <v>1116687.804097399</v>
+        <v>1116688.581014181</v>
       </c>
       <c r="J40">
-        <v>4841379.314951917</v>
+        <v>4841375.785154201</v>
       </c>
       <c r="K40">
-        <v>3985254.228252442</v>
+        <v>3985259.540076155</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -1842,28 +1839,28 @@
         <v>13</v>
       </c>
       <c r="D41" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E41">
         <v>191.142</v>
       </c>
       <c r="F41">
-        <v>1116404.531439204</v>
+        <v>1116403.207954044</v>
       </c>
       <c r="G41">
-        <v>4841640.859157505</v>
+        <v>4841646.514531889</v>
       </c>
       <c r="H41">
-        <v>3986249.492380475</v>
+        <v>3986247.290177205</v>
       </c>
       <c r="I41">
-        <v>1116762.440289829</v>
+        <v>1116763.217258538</v>
       </c>
       <c r="J41">
-        <v>4841330.66331544</v>
+        <v>4841327.133553195</v>
       </c>
       <c r="K41">
-        <v>3984982.375876318</v>
+        <v>3984987.687337688</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -1877,28 +1874,28 @@
         <v>13</v>
       </c>
       <c r="D42" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E42">
         <v>192.142</v>
       </c>
       <c r="F42">
-        <v>1116403.867624178</v>
+        <v>1116402.544139804</v>
       </c>
       <c r="G42">
-        <v>4841657.371935398</v>
+        <v>4841663.027329071</v>
       </c>
       <c r="H42">
-        <v>3986258.706705024</v>
+        <v>3986256.504496664</v>
       </c>
       <c r="I42">
-        <v>1116838.914329834</v>
+        <v>1116839.691351749</v>
       </c>
       <c r="J42">
-        <v>4841282.011678962</v>
+        <v>4841278.481952189</v>
       </c>
       <c r="K42">
-        <v>3984695.374880658</v>
+        <v>3984700.685959493</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -1912,28 +1909,28 @@
         <v>13</v>
       </c>
       <c r="D43" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E43">
         <v>193.142</v>
       </c>
       <c r="F43">
-        <v>1116403.233293185</v>
+        <v>1116401.909809564</v>
       </c>
       <c r="G43">
-        <v>4841673.884713292</v>
+        <v>4841679.540126254</v>
       </c>
       <c r="H43">
-        <v>3986267.646430177</v>
+        <v>3986265.444216878</v>
       </c>
       <c r="I43">
-        <v>1116917.271472719</v>
+        <v>1116918.04854915</v>
       </c>
       <c r="J43">
-        <v>4841233.360042483</v>
+        <v>4841229.830351181</v>
       </c>
       <c r="K43">
-        <v>3984393.225265462</v>
+        <v>3984398.535941572</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -1947,28 +1944,28 @@
         <v>13</v>
       </c>
       <c r="D44" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E44">
         <v>194.142</v>
       </c>
       <c r="F44">
-        <v>1116402.626326892</v>
+        <v>1116401.30284399</v>
       </c>
       <c r="G44">
-        <v>4841690.397491185</v>
+        <v>4841696.052923434</v>
       </c>
       <c r="H44">
-        <v>3986276.327450272</v>
+        <v>3986274.125232177</v>
       </c>
       <c r="I44">
-        <v>1116997.558088161</v>
+        <v>1116998.335220449</v>
       </c>
       <c r="J44">
-        <v>4841184.708406005</v>
+        <v>4841181.178750174</v>
       </c>
       <c r="K44">
-        <v>3984075.927030731</v>
+        <v>3984081.237283923</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -1982,28 +1979,28 @@
         <v>13</v>
       </c>
       <c r="D45" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E45">
         <v>195.142</v>
       </c>
       <c r="F45">
-        <v>1116402.044813231</v>
+        <v>1116400.721331018</v>
       </c>
       <c r="G45">
-        <v>4841706.910269079</v>
+        <v>4841712.565720617</v>
       </c>
       <c r="H45">
-        <v>3986284.764318385</v>
+        <v>3986282.562095629</v>
       </c>
       <c r="I45">
-        <v>1117079.821687645</v>
+        <v>1117080.598877167</v>
       </c>
       <c r="J45">
-        <v>4841136.056769527</v>
+        <v>4841132.527149168</v>
       </c>
       <c r="K45">
-        <v>3983743.480176463</v>
+        <v>3983748.789986547</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -2017,28 +2014,28 @@
         <v>13</v>
       </c>
       <c r="D46" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E46">
         <v>196.142</v>
       </c>
       <c r="F46">
-        <v>1116401.487022054</v>
+        <v>1116400.163540503</v>
       </c>
       <c r="G46">
-        <v>4841723.423046972</v>
+        <v>4841729.078517797</v>
       </c>
       <c r="H46">
-        <v>3986292.970393116</v>
+        <v>3986290.768165826</v>
       </c>
       <c r="I46">
-        <v>1117164.110952586</v>
+        <v>1117164.888200751</v>
       </c>
       <c r="J46">
-        <v>4841087.405133049</v>
+        <v>4841083.875548161</v>
       </c>
       <c r="K46">
-        <v>3983395.884702659</v>
+        <v>3983401.194049444</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -2052,28 +2049,28 @@
         <v>13</v>
       </c>
       <c r="D47" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E47">
         <v>197.142</v>
       </c>
       <c r="F47">
-        <v>1116400.951383473</v>
+        <v>1116399.627902556</v>
       </c>
       <c r="G47">
-        <v>4841739.935824865</v>
+        <v>4841745.59131498</v>
       </c>
       <c r="H47">
-        <v>3986300.957965839</v>
+        <v>3986298.755734137</v>
       </c>
       <c r="I47">
-        <v>1117250.47576313</v>
+        <v>1117251.253071382</v>
       </c>
       <c r="J47">
-        <v>4841038.753496571</v>
+        <v>4841035.223947154</v>
       </c>
       <c r="K47">
-        <v>3983033.14060932</v>
+        <v>3983038.449472614</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -2087,28 +2084,28 @@
         <v>13</v>
       </c>
       <c r="D48" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E48">
         <v>198.142</v>
       </c>
       <c r="F48">
-        <v>1116400.436469269</v>
+        <v>1116399.112988963</v>
       </c>
       <c r="G48">
-        <v>4841756.448602759</v>
+        <v>4841762.104112161</v>
       </c>
       <c r="H48">
-        <v>3986308.738371438</v>
+        <v>3986306.536135437</v>
       </c>
       <c r="I48">
-        <v>1117338.967227681</v>
+        <v>1117339.744597499</v>
       </c>
       <c r="J48">
-        <v>4840990.101860093</v>
+        <v>4840986.572346148</v>
       </c>
       <c r="K48">
-        <v>3982655.247896444</v>
+        <v>3982660.556256056</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -2122,28 +2119,28 @@
         <v>13</v>
       </c>
       <c r="D49" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E49">
         <v>199.142</v>
       </c>
       <c r="F49">
-        <v>1116399.940976871</v>
+        <v>1116398.617497153</v>
       </c>
       <c r="G49">
-        <v>4841772.961380653</v>
+        <v>4841778.616909343</v>
       </c>
       <c r="H49">
-        <v>3986316.322085049</v>
+        <v>3986314.119844858</v>
       </c>
       <c r="I49">
-        <v>1117429.637713136</v>
+        <v>1117430.415146036</v>
       </c>
       <c r="J49">
-        <v>4840941.450223615</v>
+        <v>4840937.920745141</v>
       </c>
       <c r="K49">
-        <v>3982262.206564032</v>
+        <v>3982267.514399772</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -2157,28 +2154,28 @@
         <v>13</v>
       </c>
       <c r="D50" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E50">
         <v>200.142</v>
       </c>
       <c r="F50">
-        <v>1116399.463715497</v>
+        <v>1116398.140236344</v>
       </c>
       <c r="G50">
-        <v>4841789.474158547</v>
+        <v>4841795.129706524</v>
       </c>
       <c r="H50">
-        <v>3986323.718806865</v>
+        <v>3986321.516562589</v>
       </c>
       <c r="I50">
-        <v>1117522.540875879</v>
+        <v>1117523.318373415</v>
       </c>
       <c r="J50">
-        <v>4840892.798587136</v>
+        <v>4840889.269144134</v>
       </c>
       <c r="K50">
-        <v>3981854.016612084</v>
+        <v>3981859.32390376</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -2192,28 +2189,28 @@
         <v>13</v>
       </c>
       <c r="D51" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E51">
         <v>201.142</v>
       </c>
       <c r="F51">
-        <v>1116399.00359411</v>
+        <v>1116397.680115503</v>
       </c>
       <c r="G51">
-        <v>4841805.986936441</v>
+        <v>4841811.642503707</v>
       </c>
       <c r="H51">
-        <v>3986330.937536744</v>
+        <v>3986328.735288479</v>
       </c>
       <c r="I51">
-        <v>1117617.731693536</v>
+        <v>1117618.5092573</v>
       </c>
       <c r="J51">
-        <v>4840844.146950658</v>
+        <v>4840840.617543127</v>
       </c>
       <c r="K51">
-        <v>3981430.6780406</v>
+        <v>3981435.984768021</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -2227,28 +2224,28 @@
         <v>13</v>
       </c>
       <c r="D52" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E52">
         <v>202.142</v>
       </c>
       <c r="F52">
-        <v>1116398.559610937</v>
+        <v>1116397.236132856</v>
       </c>
       <c r="G52">
-        <v>4841822.499714334</v>
+        <v>4841828.155300887</v>
       </c>
       <c r="H52">
-        <v>3986337.986640041</v>
+        <v>3986335.784387882</v>
       </c>
       <c r="I52">
-        <v>1117715.266497503</v>
+        <v>1117716.044129125</v>
       </c>
       <c r="J52">
-        <v>4840795.495314181</v>
+        <v>4840791.965942121</v>
       </c>
       <c r="K52">
-        <v>3980992.19084958</v>
+        <v>3980997.496992555</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -2262,28 +2259,28 @@
         <v>13</v>
       </c>
       <c r="D53" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E53">
         <v>203.142</v>
       </c>
       <c r="F53">
-        <v>1116398.130844288</v>
+        <v>1116396.807366715</v>
       </c>
       <c r="G53">
-        <v>4841839.012492227</v>
+        <v>4841844.66809807</v>
       </c>
       <c r="H53">
-        <v>3986344.873905888</v>
+        <v>3986342.671649924</v>
       </c>
       <c r="I53">
-        <v>1117815.203006288</v>
+        <v>1117815.980707439</v>
       </c>
       <c r="J53">
-        <v>4840746.843677702</v>
+        <v>4840743.314341115</v>
       </c>
       <c r="K53">
-        <v>3980538.555039025</v>
+        <v>3980543.860577362</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -2297,28 +2294,28 @@
         <v>13</v>
       </c>
       <c r="D54" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E54">
         <v>204.142</v>
       </c>
       <c r="F54">
-        <v>1116397.716444512</v>
+        <v>1116396.392967431</v>
       </c>
       <c r="G54">
-        <v>4841855.525270121</v>
+        <v>4841861.180895251</v>
       </c>
       <c r="H54">
-        <v>3986351.60659893</v>
+        <v>3986349.404339246</v>
       </c>
       <c r="I54">
-        <v>1117917.600359662</v>
+        <v>1117918.378132054</v>
       </c>
       <c r="J54">
-        <v>4840698.192041224</v>
+        <v>4840694.662740107</v>
       </c>
       <c r="K54">
-        <v>3980069.770608933</v>
+        <v>3980075.075522442</v>
       </c>
     </row>
     <row r="55" spans="1:11">
@@ -2332,28 +2329,28 @@
         <v>14</v>
       </c>
       <c r="D55" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E55">
         <v>152.142</v>
       </c>
       <c r="F55">
-        <v>1116578.021331075</v>
+        <v>1116578.655583927</v>
       </c>
       <c r="G55">
-        <v>4841114.53713103</v>
+        <v>4841119.19116426</v>
       </c>
       <c r="H55">
-        <v>3985227.017048498</v>
+        <v>3985230.388635564</v>
       </c>
       <c r="I55">
-        <v>1114860.024652021</v>
+        <v>1114860.949916519</v>
       </c>
       <c r="J55">
-        <v>4843223.315635383</v>
+        <v>4843218.132979244</v>
       </c>
       <c r="K55">
-        <v>3984365.42908802</v>
+        <v>3984365.926969164</v>
       </c>
     </row>
     <row r="56" spans="1:11">
@@ -2367,28 +2364,28 @@
         <v>14</v>
       </c>
       <c r="D56" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E56">
         <v>153.142</v>
       </c>
       <c r="F56">
-        <v>1116578.021331075</v>
+        <v>1116578.655583927</v>
       </c>
       <c r="G56">
-        <v>4841114.53713103</v>
+        <v>4841119.19116426</v>
       </c>
       <c r="H56">
-        <v>3985227.017048498</v>
+        <v>3985230.388635564</v>
       </c>
       <c r="I56">
-        <v>1114889.638613083</v>
+        <v>1114890.563902159</v>
       </c>
       <c r="J56">
-        <v>4843174.664046736</v>
+        <v>4843169.481442658</v>
       </c>
       <c r="K56">
-        <v>3984669.22470699</v>
+        <v>3984669.722626095</v>
       </c>
     </row>
     <row r="57" spans="1:11">
@@ -2402,28 +2399,28 @@
         <v>14</v>
       </c>
       <c r="D57" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E57">
         <v>154.142</v>
       </c>
       <c r="F57">
-        <v>1116578.021331075</v>
+        <v>1116578.655583927</v>
       </c>
       <c r="G57">
-        <v>4841114.53713103</v>
+        <v>4841119.19116426</v>
       </c>
       <c r="H57">
-        <v>3985227.017048498</v>
+        <v>3985230.388635564</v>
       </c>
       <c r="I57">
-        <v>1114919.981790691</v>
+        <v>1114920.90710495</v>
       </c>
       <c r="J57">
-        <v>4843126.012458088</v>
+        <v>4843120.829906072</v>
       </c>
       <c r="K57">
-        <v>3984957.871683849</v>
+        <v>3984958.369639023</v>
       </c>
     </row>
     <row r="58" spans="1:11">
@@ -2437,28 +2434,28 @@
         <v>14</v>
       </c>
       <c r="D58" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E58">
         <v>155.142</v>
       </c>
       <c r="F58">
-        <v>1116578.021331075</v>
+        <v>1116578.655583927</v>
       </c>
       <c r="G58">
-        <v>4841114.53713103</v>
+        <v>4841119.19116426</v>
       </c>
       <c r="H58">
-        <v>3985227.017048498</v>
+        <v>3985230.388635564</v>
       </c>
       <c r="I58">
-        <v>1114951.072141133</v>
+        <v>1114951.997481195</v>
       </c>
       <c r="J58">
-        <v>4843077.360869441</v>
+        <v>4843072.178369486</v>
       </c>
       <c r="K58">
-        <v>3985231.370018597</v>
+        <v>3985231.868007947</v>
       </c>
     </row>
     <row r="59" spans="1:11">
@@ -2472,28 +2469,28 @@
         <v>14</v>
       </c>
       <c r="D59" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E59">
         <v>156.142</v>
       </c>
       <c r="F59">
-        <v>1116578.021331075</v>
+        <v>1116578.655583927</v>
       </c>
       <c r="G59">
-        <v>4841114.53713103</v>
+        <v>4841119.19116426</v>
       </c>
       <c r="H59">
-        <v>3985227.017048498</v>
+        <v>3985230.388635564</v>
       </c>
       <c r="I59">
-        <v>1114982.928062851</v>
+        <v>1114983.853429352</v>
       </c>
       <c r="J59">
-        <v>4843028.709280794</v>
+        <v>4843023.5268329</v>
       </c>
       <c r="K59">
-        <v>3985489.719711234</v>
+        <v>3985490.217732867</v>
       </c>
     </row>
     <row r="60" spans="1:11">
@@ -2507,28 +2504,28 @@
         <v>14</v>
       </c>
       <c r="D60" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E60">
         <v>157.142</v>
       </c>
       <c r="F60">
-        <v>1116578.021331075</v>
+        <v>1116578.655583927</v>
       </c>
       <c r="G60">
-        <v>4841114.53713103</v>
+        <v>4841119.19116426</v>
       </c>
       <c r="H60">
-        <v>3985227.017048498</v>
+        <v>3985230.388635564</v>
       </c>
       <c r="I60">
-        <v>1115015.568407336</v>
+        <v>1115016.493800925</v>
       </c>
       <c r="J60">
-        <v>4842980.057692147</v>
+        <v>4842974.875296314</v>
       </c>
       <c r="K60">
-        <v>3985732.92076176</v>
+        <v>3985733.418813784</v>
       </c>
     </row>
     <row r="61" spans="1:11">
@@ -2542,28 +2539,28 @@
         <v>14</v>
       </c>
       <c r="D61" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E61">
         <v>158.142</v>
       </c>
       <c r="F61">
-        <v>1116578.021331075</v>
+        <v>1116578.655583927</v>
       </c>
       <c r="G61">
-        <v>4841114.53713103</v>
+        <v>4841119.19116426</v>
       </c>
       <c r="H61">
-        <v>3985227.017048498</v>
+        <v>3985230.388635564</v>
       </c>
       <c r="I61">
-        <v>1115049.012490274</v>
+        <v>1115049.93791162</v>
       </c>
       <c r="J61">
-        <v>4842931.406103498</v>
+        <v>4842926.223759727</v>
       </c>
       <c r="K61">
-        <v>3985960.973170175</v>
+        <v>3985961.471250696</v>
       </c>
     </row>
     <row r="62" spans="1:11">
@@ -2577,28 +2574,28 @@
         <v>14</v>
       </c>
       <c r="D62" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E62">
         <v>159.142</v>
       </c>
       <c r="F62">
-        <v>1116578.021331075</v>
+        <v>1116578.655583927</v>
       </c>
       <c r="G62">
-        <v>4841114.53713103</v>
+        <v>4841119.19116426</v>
       </c>
       <c r="H62">
-        <v>3985227.017048498</v>
+        <v>3985230.388635564</v>
       </c>
       <c r="I62">
-        <v>1115083.280102987</v>
+        <v>1115084.205552773</v>
       </c>
       <c r="J62">
-        <v>4842882.754514852</v>
+        <v>4842877.572223141</v>
       </c>
       <c r="K62">
-        <v>3986173.876936479</v>
+        <v>3986174.375043604</v>
       </c>
     </row>
     <row r="63" spans="1:11">
@@ -2612,28 +2609,28 @@
         <v>14</v>
       </c>
       <c r="D63" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E63">
         <v>160.142</v>
       </c>
       <c r="F63">
-        <v>1116578.021331075</v>
+        <v>1116578.655583927</v>
       </c>
       <c r="G63">
-        <v>4841131.049916042</v>
+        <v>4841135.703965146</v>
       </c>
       <c r="H63">
-        <v>3985227.017048498</v>
+        <v>3985230.388635564</v>
       </c>
       <c r="I63">
-        <v>1115118.391524137</v>
+        <v>1115119.317003063</v>
       </c>
       <c r="J63">
-        <v>4842834.102926204</v>
+        <v>4842828.920686555</v>
       </c>
       <c r="K63">
-        <v>3986371.632060672</v>
+        <v>3986372.130192508</v>
       </c>
     </row>
     <row r="64" spans="1:11">
@@ -2647,28 +2644,28 @@
         <v>14</v>
       </c>
       <c r="D64" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E64">
         <v>161.142</v>
       </c>
       <c r="F64">
-        <v>1116529.340788342</v>
+        <v>1116529.975013542</v>
       </c>
       <c r="G64">
-        <v>4841147.562701053</v>
+        <v>4841152.216766032</v>
       </c>
       <c r="H64">
-        <v>3985426.271389709</v>
+        <v>3985429.643145349</v>
       </c>
       <c r="I64">
-        <v>1115154.367531731</v>
+        <v>1115155.293040515</v>
       </c>
       <c r="J64">
-        <v>4842785.451337557</v>
+        <v>4842780.269149969</v>
       </c>
       <c r="K64">
-        <v>3986554.238542755</v>
+        <v>3986554.736697409</v>
       </c>
     </row>
     <row r="65" spans="1:11">
@@ -2682,28 +2679,28 @@
         <v>14</v>
       </c>
       <c r="D65" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E65">
         <v>162.142</v>
       </c>
       <c r="F65">
-        <v>1116500.743411566</v>
+        <v>1116501.377620521</v>
       </c>
       <c r="G65">
-        <v>4841164.075486065</v>
+        <v>4841168.729566919</v>
       </c>
       <c r="H65">
-        <v>3985544.957465589</v>
+        <v>3985548.32932164</v>
       </c>
       <c r="I65">
-        <v>1115191.229415415</v>
+        <v>1115192.154954792</v>
       </c>
       <c r="J65">
-        <v>4842736.799748909</v>
+        <v>4842731.617613383</v>
       </c>
       <c r="K65">
-        <v>3986721.696382726</v>
+        <v>3986722.194558306</v>
       </c>
     </row>
     <row r="66" spans="1:11">
@@ -2717,28 +2714,28 @@
         <v>14</v>
       </c>
       <c r="D66" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E66">
         <v>163.142</v>
       </c>
       <c r="F66">
-        <v>1116482.690649336</v>
+        <v>1116483.324848036</v>
       </c>
       <c r="G66">
-        <v>4841180.588271077</v>
+        <v>4841185.242367806</v>
       </c>
       <c r="H66">
-        <v>3985629.774382335</v>
+        <v>3985633.146310142</v>
       </c>
       <c r="I66">
-        <v>1115228.998989072</v>
+        <v>1115229.924559796</v>
       </c>
       <c r="J66">
-        <v>4842688.148160262</v>
+        <v>4842682.966076797</v>
       </c>
       <c r="K66">
-        <v>3986874.005580586</v>
+        <v>3986874.503775198</v>
       </c>
     </row>
     <row r="67" spans="1:11">
@@ -2752,28 +2749,28 @@
         <v>14</v>
       </c>
       <c r="D67" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E67">
         <v>164.142</v>
       </c>
       <c r="F67">
-        <v>1116470.100726237</v>
+        <v>1116470.734917785</v>
       </c>
       <c r="G67">
-        <v>4841197.101056089</v>
+        <v>4841201.755168691</v>
       </c>
       <c r="H67">
-        <v>3985695.821269964</v>
+        <v>3985699.193253648</v>
       </c>
       <c r="I67">
-        <v>1115267.698603733</v>
+        <v>1115268.624206575</v>
       </c>
       <c r="J67">
-        <v>4842639.496571614</v>
+        <v>4842634.314540211</v>
       </c>
       <c r="K67">
-        <v>3987011.166136335</v>
+        <v>3987011.664348087</v>
       </c>
     </row>
     <row r="68" spans="1:11">
@@ -2787,28 +2784,28 @@
         <v>14</v>
       </c>
       <c r="D68" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E68">
         <v>165.142</v>
       </c>
       <c r="F68">
-        <v>1116460.708266579</v>
+        <v>1116461.342452793</v>
       </c>
       <c r="G68">
-        <v>4841213.613841101</v>
+        <v>4841218.267969579</v>
       </c>
       <c r="H68">
-        <v>3985749.918793996</v>
+        <v>3985753.290823448</v>
       </c>
       <c r="I68">
-        <v>1115307.351160802</v>
+        <v>1115308.276796554</v>
       </c>
       <c r="J68">
-        <v>4842590.844982968</v>
+        <v>4842585.663003625</v>
       </c>
       <c r="K68">
-        <v>3987133.178049974</v>
+        <v>3987133.676276972</v>
       </c>
     </row>
     <row r="69" spans="1:11">
@@ -2822,28 +2819,28 @@
         <v>14</v>
       </c>
       <c r="D69" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E69">
         <v>166.142</v>
       </c>
       <c r="F69">
-        <v>1116453.364674746</v>
+        <v>1116453.998856788</v>
       </c>
       <c r="G69">
-        <v>4841230.126626112</v>
+        <v>4841234.780770464</v>
       </c>
       <c r="H69">
-        <v>3985795.735447923</v>
+        <v>3985799.107516137</v>
       </c>
       <c r="I69">
-        <v>1115347.98012561</v>
+        <v>1115348.90579508</v>
       </c>
       <c r="J69">
-        <v>4842542.193394319</v>
+        <v>4842537.011467038</v>
       </c>
       <c r="K69">
-        <v>3987240.041321501</v>
+        <v>3987240.539561853</v>
       </c>
     </row>
     <row r="70" spans="1:11">
@@ -2857,28 +2854,28 @@
         <v>14</v>
       </c>
       <c r="D70" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E70">
         <v>167.142</v>
       </c>
       <c r="F70">
-        <v>1116447.423174248</v>
+        <v>1116448.057352915</v>
       </c>
       <c r="G70">
-        <v>4841246.639411123</v>
+        <v>4841251.293571351</v>
       </c>
       <c r="H70">
-        <v>3985835.473050749</v>
+        <v>3985838.845152582</v>
       </c>
       <c r="I70">
-        <v>1115389.609541297</v>
+        <v>1115390.535245318</v>
       </c>
       <c r="J70">
-        <v>4842493.541805672</v>
+        <v>4842488.359930452</v>
       </c>
       <c r="K70">
-        <v>3987331.755950917</v>
+        <v>3987332.25420273</v>
       </c>
     </row>
     <row r="71" spans="1:11">
@@ -2892,28 +2889,28 @@
         <v>14</v>
       </c>
       <c r="D71" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E71">
         <v>168.142</v>
       </c>
       <c r="F71">
-        <v>1116442.489611759</v>
+        <v>1116443.123787624</v>
       </c>
       <c r="G71">
-        <v>4841263.152196135</v>
+        <v>4841267.806372237</v>
       </c>
       <c r="H71">
-        <v>3985870.557421861</v>
+        <v>3985873.929553376</v>
       </c>
       <c r="I71">
-        <v>1115432.264043048</v>
+        <v>1115433.189782469</v>
       </c>
       <c r="J71">
-        <v>4842444.890217025</v>
+        <v>4842439.708393866</v>
       </c>
       <c r="K71">
-        <v>3987408.321938223</v>
+        <v>3987408.820199602</v>
       </c>
     </row>
     <row r="72" spans="1:11">
@@ -2927,28 +2924,28 @@
         <v>14</v>
       </c>
       <c r="D72" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E72">
         <v>169.142</v>
       </c>
       <c r="F72">
-        <v>1116438.308788754</v>
+        <v>1116438.942962244</v>
       </c>
       <c r="G72">
-        <v>4841279.664981147</v>
+        <v>4841284.319173124</v>
       </c>
       <c r="H72">
-        <v>3985901.964993995</v>
+        <v>3985905.337152082</v>
       </c>
       <c r="I72">
-        <v>1115475.968872663</v>
+        <v>1115476.894648356</v>
       </c>
       <c r="J72">
-        <v>4842396.238628378</v>
+        <v>4842391.05685728</v>
       </c>
       <c r="K72">
-        <v>3987469.739283417</v>
+        <v>3987470.237552471</v>
       </c>
     </row>
     <row r="73" spans="1:11">
@@ -2962,28 +2959,28 @@
         <v>14</v>
       </c>
       <c r="D73" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E73">
         <v>170.142</v>
       </c>
       <c r="F73">
-        <v>1116434.707417618</v>
+        <v>1116435.341589062</v>
       </c>
       <c r="G73">
-        <v>4841296.177766159</v>
+        <v>4841300.83197401</v>
       </c>
       <c r="H73">
-        <v>3985930.393835006</v>
+        <v>3985933.766017144</v>
       </c>
       <c r="I73">
-        <v>1115520.7498935</v>
+        <v>1115521.675706358</v>
       </c>
       <c r="J73">
-        <v>4842347.58703973</v>
+        <v>4842342.405320694</v>
       </c>
       <c r="K73">
-        <v>3987516.007986501</v>
+        <v>3987516.506261337</v>
       </c>
     </row>
     <row r="74" spans="1:11">
@@ -2997,28 +2994,28 @@
         <v>14</v>
       </c>
       <c r="D74" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E74">
         <v>171.142</v>
       </c>
       <c r="F74">
-        <v>1116431.563234528</v>
+        <v>1116432.197404186</v>
       </c>
       <c r="G74">
-        <v>4841312.690551171</v>
+        <v>4841317.344774896</v>
       </c>
       <c r="H74">
-        <v>3985956.360335204</v>
+        <v>3985959.73253931</v>
       </c>
       <c r="I74">
-        <v>1115566.633605776</v>
+        <v>1115567.559456716</v>
       </c>
       <c r="J74">
-        <v>4842298.935451083</v>
+        <v>4842293.753784108</v>
       </c>
       <c r="K74">
-        <v>3987547.128047474</v>
+        <v>3987547.626326198</v>
       </c>
     </row>
     <row r="75" spans="1:11">
@@ -3032,28 +3029,28 @@
         <v>14</v>
       </c>
       <c r="D75" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E75">
         <v>172.142</v>
       </c>
       <c r="F75">
-        <v>1116428.78721803</v>
+        <v>1116429.421386111</v>
       </c>
       <c r="G75">
-        <v>4841329.203336182</v>
+        <v>4841333.857575783</v>
       </c>
       <c r="H75">
-        <v>3985980.257249225</v>
+        <v>3985983.629473549</v>
       </c>
       <c r="I75">
-        <v>1115613.647162256</v>
+        <v>1115614.573052213</v>
       </c>
       <c r="J75">
-        <v>4842250.283862435</v>
+        <v>4842245.102247522</v>
       </c>
       <c r="K75">
-        <v>3987563.099466335</v>
+        <v>3987563.597747056</v>
       </c>
     </row>
     <row r="76" spans="1:11">
@@ -3067,28 +3064,28 @@
         <v>14</v>
       </c>
       <c r="D76" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E76">
         <v>173.142</v>
       </c>
       <c r="F76">
-        <v>1116426.312824264</v>
+        <v>1116426.94699094</v>
       </c>
       <c r="G76">
-        <v>4841345.716121194</v>
+        <v>4841350.370376669</v>
       </c>
       <c r="H76">
-        <v>3986002.39026377</v>
+        <v>3986005.762506819</v>
       </c>
       <c r="I76">
-        <v>1115661.818384312</v>
+        <v>1115662.744314248</v>
       </c>
       <c r="J76">
-        <v>4842201.632273789</v>
+        <v>4842196.450710936</v>
       </c>
       <c r="K76">
-        <v>3987563.922243086</v>
+        <v>3987564.420523909</v>
       </c>
     </row>
     <row r="77" spans="1:11">
@@ -3102,28 +3099,28 @@
         <v>14</v>
       </c>
       <c r="D77" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E77">
         <v>174.142</v>
       </c>
       <c r="F77">
-        <v>1116424.089190688</v>
+        <v>1116424.7233561</v>
       </c>
       <c r="G77">
-        <v>4841362.228906207</v>
+        <v>4841366.883177556</v>
       </c>
       <c r="H77">
-        <v>3986023.0019717</v>
+        <v>3986026.374232186</v>
       </c>
       <c r="I77">
-        <v>1115711.175778394</v>
+        <v>1115712.101749294</v>
       </c>
       <c r="J77">
-        <v>4842152.98068514</v>
+        <v>4842147.799174349</v>
       </c>
       <c r="K77">
-        <v>3987549.596377725</v>
+        <v>3987550.094656758</v>
       </c>
     </row>
     <row r="78" spans="1:11">
@@ -3137,28 +3134,28 @@
         <v>14</v>
       </c>
       <c r="D78" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E78">
         <v>175.142</v>
       </c>
       <c r="F78">
-        <v>1116422.076690152</v>
+        <v>1116422.710854421</v>
       </c>
       <c r="G78">
-        <v>4841378.741691218</v>
+        <v>4841383.395978441</v>
       </c>
       <c r="H78">
-        <v>3986042.288123362</v>
+        <v>3986045.660400165</v>
       </c>
       <c r="I78">
-        <v>1115761.748552897</v>
+        <v>1115762.67456577</v>
       </c>
       <c r="J78">
-        <v>4842104.329096493</v>
+        <v>4842099.147637763</v>
       </c>
       <c r="K78">
-        <v>3987520.121870254</v>
+        <v>3987520.620145604</v>
       </c>
     </row>
     <row r="79" spans="1:11">
@@ -3172,28 +3169,28 @@
         <v>14</v>
       </c>
       <c r="D79" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E79">
         <v>176.142</v>
       </c>
       <c r="F79">
-        <v>1116420.243932636</v>
+        <v>1116420.878095865</v>
       </c>
       <c r="G79">
-        <v>4841395.25447623</v>
+        <v>4841399.908779329</v>
       </c>
       <c r="H79">
-        <v>3986060.408960576</v>
+        <v>3986063.78125271</v>
       </c>
       <c r="I79">
-        <v>1115813.566635447</v>
+        <v>1115814.492691326</v>
       </c>
       <c r="J79">
-        <v>4842055.677507846</v>
+        <v>4842050.496101177</v>
       </c>
       <c r="K79">
-        <v>3987475.498720672</v>
+        <v>3987475.996990446</v>
       </c>
     </row>
     <row r="80" spans="1:11">
@@ -3207,28 +3204,28 @@
         <v>14</v>
       </c>
       <c r="D80" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E80">
         <v>177.142</v>
       </c>
       <c r="F80">
-        <v>1116418.565689237</v>
+        <v>1116419.199851513</v>
       </c>
       <c r="G80">
-        <v>4841411.767261241</v>
+        <v>4841416.421580214</v>
       </c>
       <c r="H80">
-        <v>3986077.497317331</v>
+        <v>3986080.869623922</v>
       </c>
       <c r="I80">
-        <v>1115866.660690608</v>
+        <v>1115867.586790551</v>
       </c>
       <c r="J80">
-        <v>4842007.025919198</v>
+        <v>4842001.844564591</v>
       </c>
       <c r="K80">
-        <v>3987415.726928979</v>
+        <v>3987416.225191284</v>
       </c>
     </row>
     <row r="81" spans="1:11">
@@ -3242,28 +3239,28 @@
         <v>14</v>
       </c>
       <c r="D81" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E81">
         <v>178.142</v>
       </c>
       <c r="F81">
-        <v>1116417.021421194</v>
+        <v>1116417.655582591</v>
       </c>
       <c r="G81">
-        <v>4841428.280046253</v>
+        <v>4841432.934381101</v>
       </c>
       <c r="H81">
-        <v>3986093.664534533</v>
+        <v>3986097.036854801</v>
       </c>
       <c r="I81">
-        <v>1115921.062138031</v>
+        <v>1115921.988283125</v>
       </c>
       <c r="J81">
-        <v>4841958.37433055</v>
+        <v>4841953.193028005</v>
       </c>
       <c r="K81">
-        <v>3987340.806495174</v>
+        <v>3987341.304748117</v>
       </c>
     </row>
     <row r="82" spans="1:11">
@@ -3277,28 +3274,28 @@
         <v>14</v>
       </c>
       <c r="D82" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E82">
         <v>179.142</v>
       </c>
       <c r="F82">
-        <v>1116415.594216211</v>
+        <v>1116416.228376798</v>
       </c>
       <c r="G82">
-        <v>4841444.792831265</v>
+        <v>4841449.447181988</v>
       </c>
       <c r="H82">
-        <v>3986109.004860563</v>
+        <v>3986112.37719381</v>
       </c>
       <c r="I82">
-        <v>1115976.803171049</v>
+        <v>1115977.729362404</v>
       </c>
       <c r="J82">
-        <v>4841909.722741904</v>
+        <v>4841904.541491419</v>
       </c>
       <c r="K82">
-        <v>3987250.73741926</v>
+        <v>3987251.235660947</v>
       </c>
     </row>
     <row r="83" spans="1:11">
@@ -3312,28 +3309,28 @@
         <v>14</v>
       </c>
       <c r="D83" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E83">
         <v>180.142</v>
       </c>
       <c r="F83">
-        <v>1116414.270005279</v>
+        <v>1116414.904165114</v>
       </c>
       <c r="G83">
-        <v>4841461.305616276</v>
+        <v>4841465.959982874</v>
       </c>
       <c r="H83">
-        <v>3986123.598780238</v>
+        <v>3986126.971125831</v>
       </c>
       <c r="I83">
-        <v>1116033.916775724</v>
+        <v>1116034.84301448</v>
       </c>
       <c r="J83">
-        <v>4841861.071153256</v>
+        <v>4841855.889954833</v>
       </c>
       <c r="K83">
-        <v>3987145.519701234</v>
+        <v>3987146.017929774</v>
       </c>
     </row>
     <row r="84" spans="1:11">
@@ -3347,28 +3344,28 @@
         <v>14</v>
       </c>
       <c r="D84" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E84">
         <v>181.142</v>
       </c>
       <c r="F84">
-        <v>1116413.036976619</v>
+        <v>1116413.671135753</v>
       </c>
       <c r="G84">
-        <v>4841477.818401288</v>
+        <v>4841482.47278376</v>
       </c>
       <c r="H84">
-        <v>3986137.515570814</v>
+        <v>3986140.887928181</v>
       </c>
       <c r="I84">
-        <v>1116092.436750371</v>
+        <v>1116093.363037695</v>
       </c>
       <c r="J84">
-        <v>4841812.419564608</v>
+        <v>4841807.238418247</v>
       </c>
       <c r="K84">
-        <v>3987025.153341096</v>
+        <v>3987025.651554596</v>
       </c>
     </row>
     <row r="85" spans="1:11">
@@ -3382,28 +3379,28 @@
         <v>14</v>
       </c>
       <c r="D85" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E85">
         <v>182.142</v>
       </c>
       <c r="F85">
-        <v>1116411.885130723</v>
+        <v>1116412.519289204</v>
       </c>
       <c r="G85">
-        <v>4841494.3311863</v>
+        <v>4841498.985584647</v>
       </c>
       <c r="H85">
-        <v>3986150.815290892</v>
+        <v>3986154.187659511</v>
       </c>
       <c r="I85">
-        <v>1116152.397725556</v>
+        <v>1116153.324062643</v>
       </c>
       <c r="J85">
-        <v>4841763.767975961</v>
+        <v>4841758.58688166</v>
       </c>
       <c r="K85">
-        <v>3986889.638338848</v>
+        <v>3986890.136535414</v>
       </c>
     </row>
     <row r="86" spans="1:11">
@@ -3417,28 +3414,28 @@
         <v>14</v>
       </c>
       <c r="D86" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E86">
         <v>183.142</v>
       </c>
       <c r="F86">
-        <v>1116410.805938051</v>
+        <v>1116411.440095918</v>
       </c>
       <c r="G86">
-        <v>4841510.843971311</v>
+        <v>4841515.498385533</v>
       </c>
       <c r="H86">
-        <v>3986163.550346804</v>
+        <v>3986166.922726198</v>
       </c>
       <c r="I86">
-        <v>1116213.835184592</v>
+        <v>1116214.761572669</v>
       </c>
       <c r="J86">
-        <v>4841715.116387314</v>
+        <v>4841709.935345074</v>
       </c>
       <c r="K86">
-        <v>3986738.974694489</v>
+        <v>3986739.472872228</v>
       </c>
     </row>
     <row r="87" spans="1:11">
@@ -3452,28 +3449,28 @@
         <v>14</v>
       </c>
       <c r="D87" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E87">
         <v>184.142</v>
       </c>
       <c r="F87">
-        <v>1116409.792072518</v>
+        <v>1116410.426229809</v>
       </c>
       <c r="G87">
-        <v>4841527.356756323</v>
+        <v>4841532.01118642</v>
       </c>
       <c r="H87">
-        <v>3986175.766739826</v>
+        <v>3986179.139129555</v>
       </c>
       <c r="I87">
-        <v>1116276.785484535</v>
+        <v>1116277.711924857</v>
       </c>
       <c r="J87">
-        <v>4841666.464798667</v>
+        <v>4841661.283808488</v>
       </c>
       <c r="K87">
-        <v>3986573.162408019</v>
+        <v>3986573.660565038</v>
       </c>
     </row>
     <row r="88" spans="1:11">
@@ -3487,28 +3484,28 @@
         <v>14</v>
       </c>
       <c r="D88" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E88">
         <v>185.142</v>
       </c>
       <c r="F88">
-        <v>1116408.83720174</v>
+        <v>1116409.471358489</v>
       </c>
       <c r="G88">
-        <v>4841543.869541335</v>
+        <v>4841548.523987305</v>
       </c>
       <c r="H88">
-        <v>3986187.505069206</v>
+        <v>3986190.877468866</v>
       </c>
       <c r="I88">
-        <v>1116341.285877701</v>
+        <v>1116342.212371554</v>
       </c>
       <c r="J88">
-        <v>4841617.813210019</v>
+        <v>4841612.632271902</v>
       </c>
       <c r="K88">
-        <v>3986392.201479438</v>
+        <v>3986392.699613845</v>
       </c>
     </row>
     <row r="89" spans="1:11">
@@ -3522,28 +3519,28 @@
         <v>14</v>
       </c>
       <c r="D89" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E89">
         <v>186.142</v>
       </c>
       <c r="F89">
-        <v>1116407.935820271</v>
+        <v>1116408.569976508</v>
       </c>
       <c r="G89">
-        <v>4841560.382326347</v>
+        <v>4841565.036788193</v>
       </c>
       <c r="H89">
-        <v>3986198.80134623</v>
+        <v>3986202.173755446</v>
       </c>
       <c r="I89">
-        <v>1116407.374533709</v>
+        <v>1116408.301082412</v>
       </c>
       <c r="J89">
-        <v>4841569.161621371</v>
+        <v>4841563.980735316</v>
       </c>
       <c r="K89">
-        <v>3986196.091908746</v>
+        <v>3986196.590018647</v>
       </c>
     </row>
     <row r="90" spans="1:11">
@@ -3557,28 +3554,28 @@
         <v>14</v>
       </c>
       <c r="D90" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E90">
         <v>187.142</v>
       </c>
       <c r="F90">
-        <v>1116407.083115804</v>
+        <v>1116407.717271556</v>
       </c>
       <c r="G90">
-        <v>4841576.895111359</v>
+        <v>4841581.549589079</v>
       </c>
       <c r="H90">
-        <v>3986209.687660487</v>
+        <v>3986213.060078913</v>
       </c>
       <c r="I90">
-        <v>1116475.090562072</v>
+        <v>1116476.017166974</v>
       </c>
       <c r="J90">
-        <v>4841520.510032725</v>
+        <v>4841515.32919873</v>
       </c>
       <c r="K90">
-        <v>3985984.833695943</v>
+        <v>3985985.331779446</v>
       </c>
     </row>
     <row r="91" spans="1:11">
@@ -3592,28 +3589,28 @@
         <v>14</v>
       </c>
       <c r="D91" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E91">
         <v>188.142</v>
       </c>
       <c r="F91">
-        <v>1116406.274860905</v>
+        <v>1116406.909016198</v>
       </c>
       <c r="G91">
-        <v>4841593.40789637</v>
+        <v>4841598.062389965</v>
       </c>
       <c r="H91">
-        <v>3986220.192729421</v>
+        <v>3986223.565156735</v>
       </c>
       <c r="I91">
-        <v>1116544.474035335</v>
+        <v>1116545.400697821</v>
       </c>
       <c r="J91">
-        <v>4841471.858444077</v>
+        <v>4841466.677662144</v>
       </c>
       <c r="K91">
-        <v>3985758.426841029</v>
+        <v>3985758.92489624</v>
       </c>
     </row>
     <row r="92" spans="1:11">
@@ -3627,28 +3624,28 @@
         <v>14</v>
       </c>
       <c r="D92" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E92">
         <v>189.142</v>
       </c>
       <c r="F92">
-        <v>1116405.507324717</v>
+        <v>1116406.141479574</v>
       </c>
       <c r="G92">
-        <v>4841609.920681382</v>
+        <v>4841614.575190851</v>
       </c>
       <c r="H92">
-        <v>3986230.342354868</v>
+        <v>3986233.714790769</v>
       </c>
       <c r="I92">
-        <v>1116615.566012795</v>
+        <v>1116616.492734283</v>
       </c>
       <c r="J92">
-        <v>4841423.206855429</v>
+        <v>4841418.026125558</v>
       </c>
       <c r="K92">
-        <v>3985516.871344005</v>
+        <v>3985517.369369031</v>
       </c>
     </row>
     <row r="93" spans="1:11">
@@ -3662,28 +3659,28 @@
         <v>14</v>
       </c>
       <c r="D93" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E93">
         <v>190.142</v>
       </c>
       <c r="F93">
-        <v>1116404.777200421</v>
+        <v>1116405.411354863</v>
       </c>
       <c r="G93">
-        <v>4841626.433466394</v>
+        <v>4841631.087991739</v>
       </c>
       <c r="H93">
-        <v>3986240.159804855</v>
+        <v>3986243.532249062</v>
       </c>
       <c r="I93">
-        <v>1116688.408564797</v>
+        <v>1116689.33534674</v>
       </c>
       <c r="J93">
-        <v>4841374.555266782</v>
+        <v>4841369.374588971</v>
       </c>
       <c r="K93">
-        <v>3985260.167204869</v>
+        <v>3985260.665197818</v>
       </c>
     </row>
     <row r="94" spans="1:11">
@@ -3697,28 +3694,28 @@
         <v>14</v>
       </c>
       <c r="D94" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E94">
         <v>191.142</v>
       </c>
       <c r="F94">
-        <v>1116404.081545235</v>
+        <v>1116404.715699282</v>
       </c>
       <c r="G94">
-        <v>4841642.946251405</v>
+        <v>4841647.600792624</v>
       </c>
       <c r="H94">
-        <v>3986249.66613488</v>
+        <v>3986253.038587129</v>
       </c>
       <c r="I94">
-        <v>1116763.044797628</v>
+        <v>1116763.971641515</v>
       </c>
       <c r="J94">
-        <v>4841325.903678135</v>
+        <v>4841320.723052385</v>
       </c>
       <c r="K94">
-        <v>3984988.314423623</v>
+        <v>3984988.812382601</v>
       </c>
     </row>
     <row r="95" spans="1:11">
@@ -3732,28 +3729,28 @@
         <v>14</v>
       </c>
       <c r="D95" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E95">
         <v>192.142</v>
       </c>
       <c r="F95">
-        <v>1116403.417730476</v>
+        <v>1116404.051884146</v>
       </c>
       <c r="G95">
-        <v>4841659.459036417</v>
+        <v>4841664.113593511</v>
       </c>
       <c r="H95">
-        <v>3986258.880459831</v>
+        <v>3986262.252919875</v>
       </c>
       <c r="I95">
-        <v>1116839.518879029</v>
+        <v>1116840.445786384</v>
       </c>
       <c r="J95">
-        <v>4841277.252089487</v>
+        <v>4841272.0715158</v>
       </c>
       <c r="K95">
-        <v>3984701.313000265</v>
+        <v>3984701.81092338</v>
       </c>
     </row>
     <row r="96" spans="1:11">
@@ -3767,28 +3764,28 @@
         <v>14</v>
       </c>
       <c r="D96" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E96">
         <v>193.142</v>
       </c>
       <c r="F96">
-        <v>1116402.783399739</v>
+        <v>1116403.417553049</v>
       </c>
       <c r="G96">
-        <v>4841675.971821429</v>
+        <v>4841680.626394398</v>
       </c>
       <c r="H96">
-        <v>3986267.820185373</v>
+        <v>3986271.192652981</v>
       </c>
       <c r="I96">
-        <v>1116917.876064329</v>
+        <v>1116918.803036716</v>
       </c>
       <c r="J96">
-        <v>4841228.60050084</v>
+        <v>4841223.419979213</v>
       </c>
       <c r="K96">
-        <v>3984399.162934796</v>
+        <v>3984399.660820155</v>
       </c>
     </row>
     <row r="97" spans="1:11">
@@ -3802,28 +3799,28 @@
         <v>14</v>
       </c>
       <c r="D97" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E97">
         <v>194.142</v>
       </c>
       <c r="F97">
-        <v>1116402.176433691</v>
+        <v>1116402.810586656</v>
       </c>
       <c r="G97">
-        <v>4841692.48460644</v>
+        <v>4841697.139195283</v>
       </c>
       <c r="H97">
-        <v>3986276.501205846</v>
+        <v>3986279.873680799</v>
       </c>
       <c r="I97">
-        <v>1116998.16272323</v>
+        <v>1116999.08976225</v>
       </c>
       <c r="J97">
-        <v>4841179.948912192</v>
+        <v>4841174.768442627</v>
       </c>
       <c r="K97">
-        <v>3984081.864227216</v>
+        <v>3984082.362072926</v>
       </c>
     </row>
     <row r="98" spans="1:11">
@@ -3837,28 +3834,28 @@
         <v>14</v>
       </c>
       <c r="D98" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E98">
         <v>195.142</v>
       </c>
       <c r="F98">
-        <v>1116401.594920264</v>
+        <v>1116402.229072899</v>
       </c>
       <c r="G98">
-        <v>4841708.997391453</v>
+        <v>4841713.65199617</v>
       </c>
       <c r="H98">
-        <v>3986284.938074327</v>
+        <v>3986288.310556417</v>
       </c>
       <c r="I98">
-        <v>1117080.426367244</v>
+        <v>1117081.353474538</v>
       </c>
       <c r="J98">
-        <v>4841131.297323545</v>
+        <v>4841126.116906041</v>
       </c>
       <c r="K98">
-        <v>3983749.416877526</v>
+        <v>3983749.914681694</v>
       </c>
     </row>
     <row r="99" spans="1:11">
@@ -3872,28 +3869,28 @@
         <v>14</v>
       </c>
       <c r="D99" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E99">
         <v>196.142</v>
       </c>
       <c r="F99">
-        <v>1116401.037129311</v>
+        <v>1116401.67128163</v>
       </c>
       <c r="G99">
-        <v>4841725.510176464</v>
+        <v>4841730.164797056</v>
       </c>
       <c r="H99">
-        <v>3986293.144149416</v>
+        <v>3986296.516638448</v>
       </c>
       <c r="I99">
-        <v>1117164.715677811</v>
+        <v>1117165.642855059</v>
       </c>
       <c r="J99">
-        <v>4841082.645734897</v>
+        <v>4841077.465369455</v>
       </c>
       <c r="K99">
-        <v>3983401.820885724</v>
+        <v>3983402.318646457</v>
       </c>
     </row>
     <row r="100" spans="1:11">
@@ -3907,28 +3904,28 @@
         <v>14</v>
       </c>
       <c r="D100" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E100">
         <v>197.142</v>
       </c>
       <c r="F100">
-        <v>1116400.501490946</v>
+        <v>1116401.13564296</v>
       </c>
       <c r="G100">
-        <v>4841742.022961476</v>
+        <v>4841746.677597943</v>
       </c>
       <c r="H100">
-        <v>3986301.131722487</v>
+        <v>3986304.504218277</v>
       </c>
       <c r="I100">
-        <v>1117251.080535105</v>
+        <v>1117252.007784031</v>
       </c>
       <c r="J100">
-        <v>4841033.99414625</v>
+        <v>4841028.813832869</v>
       </c>
       <c r="K100">
-        <v>3983039.076251812</v>
+        <v>3983039.573967217</v>
       </c>
     </row>
     <row r="101" spans="1:11">
@@ -3942,28 +3939,28 @@
         <v>14</v>
       </c>
       <c r="D101" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E101">
         <v>198.142</v>
       </c>
       <c r="F101">
-        <v>1116399.98657695</v>
+        <v>1116400.620728671</v>
       </c>
       <c r="G101">
-        <v>4841758.535746488</v>
+        <v>4841763.190398829</v>
       </c>
       <c r="H101">
-        <v>3986308.912128425</v>
+        <v>3986312.284630797</v>
       </c>
       <c r="I101">
-        <v>1117339.572047557</v>
+        <v>1117340.499369925</v>
       </c>
       <c r="J101">
-        <v>4840985.342557603</v>
+        <v>4840980.162296283</v>
       </c>
       <c r="K101">
-        <v>3982661.182975789</v>
+        <v>3982661.680643972</v>
       </c>
     </row>
     <row r="102" spans="1:11">
@@ -3977,28 +3974,28 @@
         <v>14</v>
       </c>
       <c r="D102" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E102">
         <v>199.142</v>
       </c>
       <c r="F102">
-        <v>1116399.491084752</v>
+        <v>1116400.125236192</v>
       </c>
       <c r="G102">
-        <v>4841775.048531499</v>
+        <v>4841779.703199715</v>
       </c>
       <c r="H102">
-        <v>3986316.495842366</v>
+        <v>3986319.868351154</v>
       </c>
       <c r="I102">
-        <v>1117430.242582092</v>
+        <v>1117431.169979711</v>
       </c>
       <c r="J102">
-        <v>4840936.690968955</v>
+        <v>4840931.510759696</v>
       </c>
       <c r="K102">
-        <v>3982268.141057654</v>
+        <v>3982268.638676723</v>
       </c>
     </row>
     <row r="103" spans="1:11">
@@ -4012,28 +4009,28 @@
         <v>14</v>
       </c>
       <c r="D103" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E103">
         <v>200.142</v>
       </c>
       <c r="F103">
-        <v>1116399.01382357</v>
+        <v>1116399.647974739</v>
       </c>
       <c r="G103">
-        <v>4841791.561316512</v>
+        <v>4841796.216000602</v>
       </c>
       <c r="H103">
-        <v>3986323.892564505</v>
+        <v>3986327.265079551</v>
       </c>
       <c r="I103">
-        <v>1117523.145795124</v>
+        <v>1117524.073269847</v>
       </c>
       <c r="J103">
-        <v>4840888.039380307</v>
+        <v>4840882.85922311</v>
       </c>
       <c r="K103">
-        <v>3981859.950497408</v>
+        <v>3981860.448065471</v>
       </c>
     </row>
     <row r="104" spans="1:11">
@@ -4047,28 +4044,28 @@
         <v>14</v>
       </c>
       <c r="D104" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E104">
         <v>201.142</v>
       </c>
       <c r="F104">
-        <v>1116398.553702368</v>
+        <v>1116399.187853276</v>
       </c>
       <c r="G104">
-        <v>4841808.074101523</v>
+        <v>4841812.728801489</v>
       </c>
       <c r="H104">
-        <v>3986331.111294698</v>
+        <v>3986334.483815852</v>
       </c>
       <c r="I104">
-        <v>1117618.336664308</v>
+        <v>1117619.264218033</v>
       </c>
       <c r="J104">
-        <v>4840839.38779166</v>
+        <v>4840834.207686524</v>
       </c>
       <c r="K104">
-        <v>3981436.611295052</v>
+        <v>3981437.108810215</v>
       </c>
     </row>
     <row r="105" spans="1:11">
@@ -4082,28 +4079,28 @@
         <v>14</v>
       </c>
       <c r="D105" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E105">
         <v>202.142</v>
       </c>
       <c r="F105">
-        <v>1116398.109719374</v>
+        <v>1116398.74387003</v>
       </c>
       <c r="G105">
-        <v>4841824.586886534</v>
+        <v>4841829.241602374</v>
       </c>
       <c r="H105">
-        <v>3986338.160398303</v>
+        <v>3986341.53292542</v>
       </c>
       <c r="I105">
-        <v>1117715.871521071</v>
+        <v>1117716.799155744</v>
       </c>
       <c r="J105">
-        <v>4840790.736203013</v>
+        <v>4840785.556149938</v>
       </c>
       <c r="K105">
-        <v>3980998.123450585</v>
+        <v>3980998.620910954</v>
       </c>
     </row>
     <row r="106" spans="1:11">
@@ -4117,28 +4114,28 @@
         <v>14</v>
       </c>
       <c r="D106" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E106">
         <v>203.142</v>
       </c>
       <c r="F106">
-        <v>1116397.680952898</v>
+        <v>1116398.315103309</v>
       </c>
       <c r="G106">
-        <v>4841841.099671546</v>
+        <v>4841845.754403261</v>
       </c>
       <c r="H106">
-        <v>3986345.04766445</v>
+        <v>3986348.420197394</v>
       </c>
       <c r="I106">
-        <v>1117815.808083952</v>
+        <v>1117816.735801566</v>
       </c>
       <c r="J106">
-        <v>4840742.084614365</v>
+        <v>4840736.904613352</v>
       </c>
       <c r="K106">
-        <v>3980544.486964007</v>
+        <v>3980544.984367691</v>
       </c>
     </row>
     <row r="107" spans="1:11">
@@ -4152,1883 +4149,28 @@
         <v>14</v>
       </c>
       <c r="D107" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E107">
         <v>204.142</v>
       </c>
       <c r="F107">
-        <v>1116397.266553289</v>
+        <v>1116397.900703466</v>
       </c>
       <c r="G107">
-        <v>4841857.612456558</v>
+        <v>4841862.267204148</v>
       </c>
       <c r="H107">
-        <v>3986351.780357785</v>
+        <v>3986355.152896425</v>
       </c>
       <c r="I107">
-        <v>1117918.205492754</v>
+        <v>1117919.133295352</v>
       </c>
       <c r="J107">
-        <v>4840693.433025718</v>
+        <v>4840688.253076766</v>
       </c>
       <c r="K107">
-        <v>3980075.701835318</v>
-      </c>
-    </row>
-    <row r="108" spans="1:11">
-      <c r="A108">
-        <v>443</v>
-      </c>
-      <c r="B108" t="s">
-        <v>11</v>
-      </c>
-      <c r="C108" t="s">
-        <v>15</v>
-      </c>
-      <c r="D108" t="s">
-        <v>16</v>
-      </c>
-      <c r="E108">
-        <v>152.142</v>
-      </c>
-      <c r="F108">
-        <v>1116580.553516514</v>
-      </c>
-      <c r="G108">
-        <v>4841125.614335992</v>
-      </c>
-      <c r="H108">
-        <v>3985227.387330092</v>
-      </c>
-      <c r="I108">
-        <v>1114861.897137331</v>
-      </c>
-      <c r="J108">
-        <v>4843217.844881832</v>
-      </c>
-      <c r="K108">
-        <v>3984371.040761351</v>
-      </c>
-    </row>
-    <row r="109" spans="1:11">
-      <c r="A109">
-        <v>443</v>
-      </c>
-      <c r="B109" t="s">
-        <v>11</v>
-      </c>
-      <c r="C109" t="s">
-        <v>15</v>
-      </c>
-      <c r="D109" t="s">
-        <v>16</v>
-      </c>
-      <c r="E109">
-        <v>153.142</v>
-      </c>
-      <c r="F109">
-        <v>1116580.553516514</v>
-      </c>
-      <c r="G109">
-        <v>4841125.614335992</v>
-      </c>
-      <c r="H109">
-        <v>3985227.387330092</v>
-      </c>
-      <c r="I109">
-        <v>1114891.511148131</v>
-      </c>
-      <c r="J109">
-        <v>4843169.19334814</v>
-      </c>
-      <c r="K109">
-        <v>3984674.836808193</v>
-      </c>
-    </row>
-    <row r="110" spans="1:11">
-      <c r="A110">
-        <v>443</v>
-      </c>
-      <c r="B110" t="s">
-        <v>11</v>
-      </c>
-      <c r="C110" t="s">
-        <v>15</v>
-      </c>
-      <c r="D110" t="s">
-        <v>16</v>
-      </c>
-      <c r="E110">
-        <v>154.142</v>
-      </c>
-      <c r="F110">
-        <v>1116580.553516514</v>
-      </c>
-      <c r="G110">
-        <v>4841125.614335992</v>
-      </c>
-      <c r="H110">
-        <v>3985227.387330092</v>
-      </c>
-      <c r="I110">
-        <v>1114921.854376703</v>
-      </c>
-      <c r="J110">
-        <v>4843120.541814447</v>
-      </c>
-      <c r="K110">
-        <v>3984963.48419159</v>
-      </c>
-    </row>
-    <row r="111" spans="1:11">
-      <c r="A111">
-        <v>443</v>
-      </c>
-      <c r="B111" t="s">
-        <v>11</v>
-      </c>
-      <c r="C111" t="s">
-        <v>15</v>
-      </c>
-      <c r="D111" t="s">
-        <v>16</v>
-      </c>
-      <c r="E111">
-        <v>155.142</v>
-      </c>
-      <c r="F111">
-        <v>1116580.553516514</v>
-      </c>
-      <c r="G111">
-        <v>4841125.614335992</v>
-      </c>
-      <c r="H111">
-        <v>3985227.387330092</v>
-      </c>
-      <c r="I111">
-        <v>1114952.944779363</v>
-      </c>
-      <c r="J111">
-        <v>4843071.890280755</v>
-      </c>
-      <c r="K111">
-        <v>3985236.982911539</v>
-      </c>
-    </row>
-    <row r="112" spans="1:11">
-      <c r="A112">
-        <v>443</v>
-      </c>
-      <c r="B112" t="s">
-        <v>11</v>
-      </c>
-      <c r="C112" t="s">
-        <v>15</v>
-      </c>
-      <c r="D112" t="s">
-        <v>16</v>
-      </c>
-      <c r="E112">
-        <v>156.142</v>
-      </c>
-      <c r="F112">
-        <v>1116580.553516514</v>
-      </c>
-      <c r="G112">
-        <v>4841125.614335992</v>
-      </c>
-      <c r="H112">
-        <v>3985227.387330092</v>
-      </c>
-      <c r="I112">
-        <v>1114984.800754585</v>
-      </c>
-      <c r="J112">
-        <v>4843023.238747063</v>
-      </c>
-      <c r="K112">
-        <v>3985495.332968042</v>
-      </c>
-    </row>
-    <row r="113" spans="1:11">
-      <c r="A113">
-        <v>443</v>
-      </c>
-      <c r="B113" t="s">
-        <v>11</v>
-      </c>
-      <c r="C113" t="s">
-        <v>15</v>
-      </c>
-      <c r="D113" t="s">
-        <v>16</v>
-      </c>
-      <c r="E113">
-        <v>157.142</v>
-      </c>
-      <c r="F113">
-        <v>1116580.553516514</v>
-      </c>
-      <c r="G113">
-        <v>4841125.614335992</v>
-      </c>
-      <c r="H113">
-        <v>3985227.387330092</v>
-      </c>
-      <c r="I113">
-        <v>1115017.441153891</v>
-      </c>
-      <c r="J113">
-        <v>4842974.587213372</v>
-      </c>
-      <c r="K113">
-        <v>3985738.534361098</v>
-      </c>
-    </row>
-    <row r="114" spans="1:11">
-      <c r="A114">
-        <v>443</v>
-      </c>
-      <c r="B114" t="s">
-        <v>11</v>
-      </c>
-      <c r="C114" t="s">
-        <v>15</v>
-      </c>
-      <c r="D114" t="s">
-        <v>16</v>
-      </c>
-      <c r="E114">
-        <v>158.142</v>
-      </c>
-      <c r="F114">
-        <v>1116580.553516514</v>
-      </c>
-      <c r="G114">
-        <v>4841125.614335992</v>
-      </c>
-      <c r="H114">
-        <v>3985227.387330092</v>
-      </c>
-      <c r="I114">
-        <v>1115050.885293001</v>
-      </c>
-      <c r="J114">
-        <v>4842925.935679679</v>
-      </c>
-      <c r="K114">
-        <v>3985966.587090708</v>
-      </c>
-    </row>
-    <row r="115" spans="1:11">
-      <c r="A115">
-        <v>443</v>
-      </c>
-      <c r="B115" t="s">
-        <v>11</v>
-      </c>
-      <c r="C115" t="s">
-        <v>15</v>
-      </c>
-      <c r="D115" t="s">
-        <v>16</v>
-      </c>
-      <c r="E115">
-        <v>159.142</v>
-      </c>
-      <c r="F115">
-        <v>1116580.553516514</v>
-      </c>
-      <c r="G115">
-        <v>4841125.614335992</v>
-      </c>
-      <c r="H115">
-        <v>3985227.387330092</v>
-      </c>
-      <c r="I115">
-        <v>1115085.152963269</v>
-      </c>
-      <c r="J115">
-        <v>4842877.284145987</v>
-      </c>
-      <c r="K115">
-        <v>3986179.49115687</v>
-      </c>
-    </row>
-    <row r="116" spans="1:11">
-      <c r="A116">
-        <v>443</v>
-      </c>
-      <c r="B116" t="s">
-        <v>11</v>
-      </c>
-      <c r="C116" t="s">
-        <v>15</v>
-      </c>
-      <c r="D116" t="s">
-        <v>16</v>
-      </c>
-      <c r="E116">
-        <v>160.142</v>
-      </c>
-      <c r="F116">
-        <v>1116580.553516514</v>
-      </c>
-      <c r="G116">
-        <v>4841142.127158788</v>
-      </c>
-      <c r="H116">
-        <v>3985227.387330092</v>
-      </c>
-      <c r="I116">
-        <v>1115120.264443391</v>
-      </c>
-      <c r="J116">
-        <v>4842828.632612295</v>
-      </c>
-      <c r="K116">
-        <v>3986377.246559586</v>
-      </c>
-    </row>
-    <row r="117" spans="1:11">
-      <c r="A117">
-        <v>443</v>
-      </c>
-      <c r="B117" t="s">
-        <v>11</v>
-      </c>
-      <c r="C117" t="s">
-        <v>15</v>
-      </c>
-      <c r="D117" t="s">
-        <v>16</v>
-      </c>
-      <c r="E117">
-        <v>161.142</v>
-      </c>
-      <c r="F117">
-        <v>1116531.872863383</v>
-      </c>
-      <c r="G117">
-        <v>4841158.639981583</v>
-      </c>
-      <c r="H117">
-        <v>3985426.641689817</v>
-      </c>
-      <c r="I117">
-        <v>1115156.24051141</v>
-      </c>
-      <c r="J117">
-        <v>4842779.981078603</v>
-      </c>
-      <c r="K117">
-        <v>3986559.853298856</v>
-      </c>
-    </row>
-    <row r="118" spans="1:11">
-      <c r="A118">
-        <v>443</v>
-      </c>
-      <c r="B118" t="s">
-        <v>11</v>
-      </c>
-      <c r="C118" t="s">
-        <v>15</v>
-      </c>
-      <c r="D118" t="s">
-        <v>16</v>
-      </c>
-      <c r="E118">
-        <v>162.142</v>
-      </c>
-      <c r="F118">
-        <v>1116503.275421753</v>
-      </c>
-      <c r="G118">
-        <v>4841175.152804379</v>
-      </c>
-      <c r="H118">
-        <v>3985545.327776724</v>
-      </c>
-      <c r="I118">
-        <v>1115193.102457006</v>
-      </c>
-      <c r="J118">
-        <v>4842731.32954491</v>
-      </c>
-      <c r="K118">
-        <v>3986727.311374679</v>
-      </c>
-    </row>
-    <row r="119" spans="1:11">
-      <c r="A119">
-        <v>443</v>
-      </c>
-      <c r="B119" t="s">
-        <v>11</v>
-      </c>
-      <c r="C119" t="s">
-        <v>15</v>
-      </c>
-      <c r="D119" t="s">
-        <v>16</v>
-      </c>
-      <c r="E119">
-        <v>163.142</v>
-      </c>
-      <c r="F119">
-        <v>1116485.222618582</v>
-      </c>
-      <c r="G119">
-        <v>4841191.665627175</v>
-      </c>
-      <c r="H119">
-        <v>3985630.14470135</v>
-      </c>
-      <c r="I119">
-        <v>1115230.872094099</v>
-      </c>
-      <c r="J119">
-        <v>4842682.678011219</v>
-      </c>
-      <c r="K119">
-        <v>3986879.620787055</v>
-      </c>
-    </row>
-    <row r="120" spans="1:11">
-      <c r="A120">
-        <v>443</v>
-      </c>
-      <c r="B120" t="s">
-        <v>11</v>
-      </c>
-      <c r="C120" t="s">
-        <v>15</v>
-      </c>
-      <c r="D120" t="s">
-        <v>16</v>
-      </c>
-      <c r="E120">
-        <v>164.142</v>
-      </c>
-      <c r="F120">
-        <v>1116472.632666932</v>
-      </c>
-      <c r="G120">
-        <v>4841208.17844997</v>
-      </c>
-      <c r="H120">
-        <v>3985696.191595116</v>
-      </c>
-      <c r="I120">
-        <v>1115269.571773759</v>
-      </c>
-      <c r="J120">
-        <v>4842634.026477527</v>
-      </c>
-      <c r="K120">
-        <v>3987016.781535984</v>
-      </c>
-    </row>
-    <row r="121" spans="1:11">
-      <c r="A121">
-        <v>443</v>
-      </c>
-      <c r="B121" t="s">
-        <v>11</v>
-      </c>
-      <c r="C121" t="s">
-        <v>15</v>
-      </c>
-      <c r="D121" t="s">
-        <v>16</v>
-      </c>
-      <c r="E121">
-        <v>165.142</v>
-      </c>
-      <c r="F121">
-        <v>1116463.240185974</v>
-      </c>
-      <c r="G121">
-        <v>4841224.691272765</v>
-      </c>
-      <c r="H121">
-        <v>3985750.289124175</v>
-      </c>
-      <c r="I121">
-        <v>1115309.224397428</v>
-      </c>
-      <c r="J121">
-        <v>4842585.374943835</v>
-      </c>
-      <c r="K121">
-        <v>3987138.793621467</v>
-      </c>
-    </row>
-    <row r="122" spans="1:11">
-      <c r="A122">
-        <v>443</v>
-      </c>
-      <c r="B122" t="s">
-        <v>11</v>
-      </c>
-      <c r="C122" t="s">
-        <v>15</v>
-      </c>
-      <c r="D122" t="s">
-        <v>16</v>
-      </c>
-      <c r="E122">
-        <v>166.142</v>
-      </c>
-      <c r="F122">
-        <v>1116455.896577487</v>
-      </c>
-      <c r="G122">
-        <v>4841241.20409556</v>
-      </c>
-      <c r="H122">
-        <v>3985796.105782359</v>
-      </c>
-      <c r="I122">
-        <v>1115349.853430474</v>
-      </c>
-      <c r="J122">
-        <v>4842536.723410143</v>
-      </c>
-      <c r="K122">
-        <v>3987245.657043504</v>
-      </c>
-    </row>
-    <row r="123" spans="1:11">
-      <c r="A123">
-        <v>443</v>
-      </c>
-      <c r="B123" t="s">
-        <v>11</v>
-      </c>
-      <c r="C123" t="s">
-        <v>15</v>
-      </c>
-      <c r="D123" t="s">
-        <v>16</v>
-      </c>
-      <c r="E123">
-        <v>167.142</v>
-      </c>
-      <c r="F123">
-        <v>1116449.955063514</v>
-      </c>
-      <c r="G123">
-        <v>4841257.716918357</v>
-      </c>
-      <c r="H123">
-        <v>3985835.843388876</v>
-      </c>
-      <c r="I123">
-        <v>1115391.482916082</v>
-      </c>
-      <c r="J123">
-        <v>4842488.07187645</v>
-      </c>
-      <c r="K123">
-        <v>3987337.371802093</v>
-      </c>
-    </row>
-    <row r="124" spans="1:11">
-      <c r="A124">
-        <v>443</v>
-      </c>
-      <c r="B124" t="s">
-        <v>11</v>
-      </c>
-      <c r="C124" t="s">
-        <v>15</v>
-      </c>
-      <c r="D124" t="s">
-        <v>16</v>
-      </c>
-      <c r="E124">
-        <v>168.142</v>
-      </c>
-      <c r="F124">
-        <v>1116445.021489837</v>
-      </c>
-      <c r="G124">
-        <v>4841274.229741152</v>
-      </c>
-      <c r="H124">
-        <v>3985870.927763248</v>
-      </c>
-      <c r="I124">
-        <v>1115434.137489473</v>
-      </c>
-      <c r="J124">
-        <v>4842439.420342758</v>
-      </c>
-      <c r="K124">
-        <v>3987413.937897235</v>
-      </c>
-    </row>
-    <row r="125" spans="1:11">
-      <c r="A125">
-        <v>443</v>
-      </c>
-      <c r="B125" t="s">
-        <v>11</v>
-      </c>
-      <c r="C125" t="s">
-        <v>15</v>
-      </c>
-      <c r="D125" t="s">
-        <v>16</v>
-      </c>
-      <c r="E125">
-        <v>169.142</v>
-      </c>
-      <c r="F125">
-        <v>1116440.840657351</v>
-      </c>
-      <c r="G125">
-        <v>4841290.742563947</v>
-      </c>
-      <c r="H125">
-        <v>3985902.335338301</v>
-      </c>
-      <c r="I125">
-        <v>1115477.842392494</v>
-      </c>
-      <c r="J125">
-        <v>4842390.768809067</v>
-      </c>
-      <c r="K125">
-        <v>3987475.355328931</v>
-      </c>
-    </row>
-    <row r="126" spans="1:11">
-      <c r="A126">
-        <v>443</v>
-      </c>
-      <c r="B126" t="s">
-        <v>11</v>
-      </c>
-      <c r="C126" t="s">
-        <v>15</v>
-      </c>
-      <c r="D126" t="s">
-        <v>16</v>
-      </c>
-      <c r="E126">
-        <v>170.142</v>
-      </c>
-      <c r="F126">
-        <v>1116437.239278049</v>
-      </c>
-      <c r="G126">
-        <v>4841307.255386743</v>
-      </c>
-      <c r="H126">
-        <v>3985930.764181953</v>
-      </c>
-      <c r="I126">
-        <v>1115522.623488543</v>
-      </c>
-      <c r="J126">
-        <v>4842342.117275374</v>
-      </c>
-      <c r="K126">
-        <v>3987521.624097181</v>
-      </c>
-    </row>
-    <row r="127" spans="1:11">
-      <c r="A127">
-        <v>443</v>
-      </c>
-      <c r="B127" t="s">
-        <v>11</v>
-      </c>
-      <c r="C127" t="s">
-        <v>15</v>
-      </c>
-      <c r="D127" t="s">
-        <v>16</v>
-      </c>
-      <c r="E127">
-        <v>171.142</v>
-      </c>
-      <c r="F127">
-        <v>1116434.095087827</v>
-      </c>
-      <c r="G127">
-        <v>4841323.768209538</v>
-      </c>
-      <c r="H127">
-        <v>3985956.730684564</v>
-      </c>
-      <c r="I127">
-        <v>1115568.507277885</v>
-      </c>
-      <c r="J127">
-        <v>4842293.465741682</v>
-      </c>
-      <c r="K127">
-        <v>3987552.744201984</v>
-      </c>
-    </row>
-    <row r="128" spans="1:11">
-      <c r="A128">
-        <v>443</v>
-      </c>
-      <c r="B128" t="s">
-        <v>11</v>
-      </c>
-      <c r="C128" t="s">
-        <v>15</v>
-      </c>
-      <c r="D128" t="s">
-        <v>16</v>
-      </c>
-      <c r="E128">
-        <v>172.142</v>
-      </c>
-      <c r="F128">
-        <v>1116431.319065034</v>
-      </c>
-      <c r="G128">
-        <v>4841340.281032333</v>
-      </c>
-      <c r="H128">
-        <v>3985980.627600805</v>
-      </c>
-      <c r="I128">
-        <v>1115615.520913326</v>
-      </c>
-      <c r="J128">
-        <v>4842244.81420799</v>
-      </c>
-      <c r="K128">
-        <v>3987568.71564334</v>
-      </c>
-    </row>
-    <row r="129" spans="1:11">
-      <c r="A129">
-        <v>443</v>
-      </c>
-      <c r="B129" t="s">
-        <v>11</v>
-      </c>
-      <c r="C129" t="s">
-        <v>15</v>
-      </c>
-      <c r="D129" t="s">
-        <v>16</v>
-      </c>
-      <c r="E129">
-        <v>173.142</v>
-      </c>
-      <c r="F129">
-        <v>1116428.844665657</v>
-      </c>
-      <c r="G129">
-        <v>4841356.79385513</v>
-      </c>
-      <c r="H129">
-        <v>3986002.760617407</v>
-      </c>
-      <c r="I129">
-        <v>1115663.692216289</v>
-      </c>
-      <c r="J129">
-        <v>4842196.162674299</v>
-      </c>
-      <c r="K129">
-        <v>3987569.538421249</v>
-      </c>
-    </row>
-    <row r="130" spans="1:11">
-      <c r="A130">
-        <v>443</v>
-      </c>
-      <c r="B130" t="s">
-        <v>11</v>
-      </c>
-      <c r="C130" t="s">
-        <v>15</v>
-      </c>
-      <c r="D130" t="s">
-        <v>16</v>
-      </c>
-      <c r="E130">
-        <v>174.142</v>
-      </c>
-      <c r="F130">
-        <v>1116426.621027038</v>
-      </c>
-      <c r="G130">
-        <v>4841373.306677925</v>
-      </c>
-      <c r="H130">
-        <v>3986023.372327252</v>
-      </c>
-      <c r="I130">
-        <v>1115713.049693271</v>
-      </c>
-      <c r="J130">
-        <v>4842147.511140605</v>
-      </c>
-      <c r="K130">
-        <v>3987555.212535712</v>
-      </c>
-    </row>
-    <row r="131" spans="1:11">
-      <c r="A131">
-        <v>443</v>
-      </c>
-      <c r="B131" t="s">
-        <v>11</v>
-      </c>
-      <c r="C131" t="s">
-        <v>15</v>
-      </c>
-      <c r="D131" t="s">
-        <v>16</v>
-      </c>
-      <c r="E131">
-        <v>175.142</v>
-      </c>
-      <c r="F131">
-        <v>1116424.608521938</v>
-      </c>
-      <c r="G131">
-        <v>4841389.81950072</v>
-      </c>
-      <c r="H131">
-        <v>3986042.658480705</v>
-      </c>
-      <c r="I131">
-        <v>1115763.622552715</v>
-      </c>
-      <c r="J131">
-        <v>4842098.859606913</v>
-      </c>
-      <c r="K131">
-        <v>3987525.737986728</v>
-      </c>
-    </row>
-    <row r="132" spans="1:11">
-      <c r="A132">
-        <v>443</v>
-      </c>
-      <c r="B132" t="s">
-        <v>11</v>
-      </c>
-      <c r="C132" t="s">
-        <v>15</v>
-      </c>
-      <c r="D132" t="s">
-        <v>16</v>
-      </c>
-      <c r="E132">
-        <v>176.142</v>
-      </c>
-      <c r="F132">
-        <v>1116422.775760266</v>
-      </c>
-      <c r="G132">
-        <v>4841406.332323516</v>
-      </c>
-      <c r="H132">
-        <v>3986060.779319603</v>
-      </c>
-      <c r="I132">
-        <v>1115815.440722297</v>
-      </c>
-      <c r="J132">
-        <v>4842050.208073222</v>
-      </c>
-      <c r="K132">
-        <v>3987481.114774297</v>
-      </c>
-    </row>
-    <row r="133" spans="1:11">
-      <c r="A133">
-        <v>443</v>
-      </c>
-      <c r="B133" t="s">
-        <v>11</v>
-      </c>
-      <c r="C133" t="s">
-        <v>15</v>
-      </c>
-      <c r="D133" t="s">
-        <v>16</v>
-      </c>
-      <c r="E133">
-        <v>177.142</v>
-      </c>
-      <c r="F133">
-        <v>1116421.097513061</v>
-      </c>
-      <c r="G133">
-        <v>4841422.845146311</v>
-      </c>
-      <c r="H133">
-        <v>3986077.867677947</v>
-      </c>
-      <c r="I133">
-        <v>1115868.534866633</v>
-      </c>
-      <c r="J133">
-        <v>4842001.556539529</v>
-      </c>
-      <c r="K133">
-        <v>3987421.342898421</v>
-      </c>
-    </row>
-    <row r="134" spans="1:11">
-      <c r="A134">
-        <v>443</v>
-      </c>
-      <c r="B134" t="s">
-        <v>11</v>
-      </c>
-      <c r="C134" t="s">
-        <v>15</v>
-      </c>
-      <c r="D134" t="s">
-        <v>16</v>
-      </c>
-      <c r="E134">
-        <v>178.142</v>
-      </c>
-      <c r="F134">
-        <v>1116419.553241515</v>
-      </c>
-      <c r="G134">
-        <v>4841439.357969107</v>
-      </c>
-      <c r="H134">
-        <v>3986094.03489665</v>
-      </c>
-      <c r="I134">
-        <v>1115922.936405427</v>
-      </c>
-      <c r="J134">
-        <v>4841952.905005837</v>
-      </c>
-      <c r="K134">
-        <v>3987346.422359096</v>
-      </c>
-    </row>
-    <row r="135" spans="1:11">
-      <c r="A135">
-        <v>443</v>
-      </c>
-      <c r="B135" t="s">
-        <v>11</v>
-      </c>
-      <c r="C135" t="s">
-        <v>15</v>
-      </c>
-      <c r="D135" t="s">
-        <v>16</v>
-      </c>
-      <c r="E135">
-        <v>179.142</v>
-      </c>
-      <c r="F135">
-        <v>1116418.126033296</v>
-      </c>
-      <c r="G135">
-        <v>4841455.870791903</v>
-      </c>
-      <c r="H135">
-        <v>3986109.375224106</v>
-      </c>
-      <c r="I135">
-        <v>1115978.677532066</v>
-      </c>
-      <c r="J135">
-        <v>4841904.253472146</v>
-      </c>
-      <c r="K135">
-        <v>3987256.353156326</v>
-      </c>
-    </row>
-    <row r="136" spans="1:11">
-      <c r="A136">
-        <v>443</v>
-      </c>
-      <c r="B136" t="s">
-        <v>11</v>
-      </c>
-      <c r="C136" t="s">
-        <v>15</v>
-      </c>
-      <c r="D136" t="s">
-        <v>16</v>
-      </c>
-      <c r="E136">
-        <v>180.142</v>
-      </c>
-      <c r="F136">
-        <v>1116416.801819361</v>
-      </c>
-      <c r="G136">
-        <v>4841472.383614697</v>
-      </c>
-      <c r="H136">
-        <v>3986123.969145136</v>
-      </c>
-      <c r="I136">
-        <v>1116035.791232667</v>
-      </c>
-      <c r="J136">
-        <v>4841855.601938454</v>
-      </c>
-      <c r="K136">
-        <v>3987151.135290109</v>
-      </c>
-    </row>
-    <row r="137" spans="1:11">
-      <c r="A137">
-        <v>443</v>
-      </c>
-      <c r="B137" t="s">
-        <v>11</v>
-      </c>
-      <c r="C137" t="s">
-        <v>15</v>
-      </c>
-      <c r="D137" t="s">
-        <v>16</v>
-      </c>
-      <c r="E137">
-        <v>181.142</v>
-      </c>
-      <c r="F137">
-        <v>1116415.568787904</v>
-      </c>
-      <c r="G137">
-        <v>4841488.896437493</v>
-      </c>
-      <c r="H137">
-        <v>3986137.885937005</v>
-      </c>
-      <c r="I137">
-        <v>1116094.311305603</v>
-      </c>
-      <c r="J137">
-        <v>4841806.95040476</v>
-      </c>
-      <c r="K137">
-        <v>3987030.768760445</v>
-      </c>
-    </row>
-    <row r="138" spans="1:11">
-      <c r="A138">
-        <v>443</v>
-      </c>
-      <c r="B138" t="s">
-        <v>11</v>
-      </c>
-      <c r="C138" t="s">
-        <v>15</v>
-      </c>
-      <c r="D138" t="s">
-        <v>16</v>
-      </c>
-      <c r="E138">
-        <v>182.142</v>
-      </c>
-      <c r="F138">
-        <v>1116414.416939397</v>
-      </c>
-      <c r="G138">
-        <v>4841505.409260289</v>
-      </c>
-      <c r="H138">
-        <v>3986151.185658319</v>
-      </c>
-      <c r="I138">
-        <v>1116154.272381496</v>
-      </c>
-      <c r="J138">
-        <v>4841758.298871069</v>
-      </c>
-      <c r="K138">
-        <v>3986895.253567335</v>
-      </c>
-    </row>
-    <row r="139" spans="1:11">
-      <c r="A139">
-        <v>443</v>
-      </c>
-      <c r="B139" t="s">
-        <v>11</v>
-      </c>
-      <c r="C139" t="s">
-        <v>15</v>
-      </c>
-      <c r="D139" t="s">
-        <v>16</v>
-      </c>
-      <c r="E139">
-        <v>183.142</v>
-      </c>
-      <c r="F139">
-        <v>1116413.337744277</v>
-      </c>
-      <c r="G139">
-        <v>4841521.922083084</v>
-      </c>
-      <c r="H139">
-        <v>3986163.920715415</v>
-      </c>
-      <c r="I139">
-        <v>1116215.709943721</v>
-      </c>
-      <c r="J139">
-        <v>4841709.647337377</v>
-      </c>
-      <c r="K139">
-        <v>3986744.589710777</v>
-      </c>
-    </row>
-    <row r="140" spans="1:11">
-      <c r="A140">
-        <v>443</v>
-      </c>
-      <c r="B140" t="s">
-        <v>11</v>
-      </c>
-      <c r="C140" t="s">
-        <v>15</v>
-      </c>
-      <c r="D140" t="s">
-        <v>16</v>
-      </c>
-      <c r="E140">
-        <v>184.142</v>
-      </c>
-      <c r="F140">
-        <v>1116412.323876444</v>
-      </c>
-      <c r="G140">
-        <v>4841538.43490588</v>
-      </c>
-      <c r="H140">
-        <v>3986176.137109572</v>
-      </c>
-      <c r="I140">
-        <v>1116278.660349393</v>
-      </c>
-      <c r="J140">
-        <v>4841660.995803685</v>
-      </c>
-      <c r="K140">
-        <v>3986578.777190773</v>
-      </c>
-    </row>
-    <row r="141" spans="1:11">
-      <c r="A141">
-        <v>443</v>
-      </c>
-      <c r="B141" t="s">
-        <v>11</v>
-      </c>
-      <c r="C141" t="s">
-        <v>15</v>
-      </c>
-      <c r="D141" t="s">
-        <v>16</v>
-      </c>
-      <c r="E141">
-        <v>185.142</v>
-      </c>
-      <c r="F141">
-        <v>1116411.369003501</v>
-      </c>
-      <c r="G141">
-        <v>4841554.947728675</v>
-      </c>
-      <c r="H141">
-        <v>3986187.875440043</v>
-      </c>
-      <c r="I141">
-        <v>1116343.160850892</v>
-      </c>
-      <c r="J141">
-        <v>4841612.344269992</v>
-      </c>
-      <c r="K141">
-        <v>3986397.816007323</v>
-      </c>
-    </row>
-    <row r="142" spans="1:11">
-      <c r="A142">
-        <v>443</v>
-      </c>
-      <c r="B142" t="s">
-        <v>11</v>
-      </c>
-      <c r="C142" t="s">
-        <v>15</v>
-      </c>
-      <c r="D142" t="s">
-        <v>16</v>
-      </c>
-      <c r="E142">
-        <v>186.142</v>
-      </c>
-      <c r="F142">
-        <v>1116410.467619988</v>
-      </c>
-      <c r="G142">
-        <v>4841571.460551471</v>
-      </c>
-      <c r="H142">
-        <v>3986199.171718116</v>
-      </c>
-      <c r="I142">
-        <v>1116409.249617901</v>
-      </c>
-      <c r="J142">
-        <v>4841563.692736301</v>
-      </c>
-      <c r="K142">
-        <v>3986201.706160426</v>
-      </c>
-    </row>
-    <row r="143" spans="1:11">
-      <c r="A143">
-        <v>443</v>
-      </c>
-      <c r="B143" t="s">
-        <v>11</v>
-      </c>
-      <c r="C143" t="s">
-        <v>15</v>
-      </c>
-      <c r="D143" t="s">
-        <v>16</v>
-      </c>
-      <c r="E143">
-        <v>187.142</v>
-      </c>
-      <c r="F143">
-        <v>1116409.614913587</v>
-      </c>
-      <c r="G143">
-        <v>4841587.973374266</v>
-      </c>
-      <c r="H143">
-        <v>3986210.058033384</v>
-      </c>
-      <c r="I143">
-        <v>1116476.965759997</v>
-      </c>
-      <c r="J143">
-        <v>4841515.041202608</v>
-      </c>
-      <c r="K143">
-        <v>3985990.447650082</v>
-      </c>
-    </row>
-    <row r="144" spans="1:11">
-      <c r="A144">
-        <v>443</v>
-      </c>
-      <c r="B144" t="s">
-        <v>11</v>
-      </c>
-      <c r="C144" t="s">
-        <v>15</v>
-      </c>
-      <c r="D144" t="s">
-        <v>16</v>
-      </c>
-      <c r="E144">
-        <v>188.142</v>
-      </c>
-      <c r="F144">
-        <v>1116408.806656855</v>
-      </c>
-      <c r="G144">
-        <v>4841604.486197062</v>
-      </c>
-      <c r="H144">
-        <v>3986220.563103295</v>
-      </c>
-      <c r="I144">
-        <v>1116546.349349794</v>
-      </c>
-      <c r="J144">
-        <v>4841466.389668916</v>
-      </c>
-      <c r="K144">
-        <v>3985764.040476291</v>
-      </c>
-    </row>
-    <row r="145" spans="1:11">
-      <c r="A145">
-        <v>443</v>
-      </c>
-      <c r="B145" t="s">
-        <v>11</v>
-      </c>
-      <c r="C145" t="s">
-        <v>15</v>
-      </c>
-      <c r="D145" t="s">
-        <v>16</v>
-      </c>
-      <c r="E145">
-        <v>189.142</v>
-      </c>
-      <c r="F145">
-        <v>1116408.039118927</v>
-      </c>
-      <c r="G145">
-        <v>4841620.999019857</v>
-      </c>
-      <c r="H145">
-        <v>3986230.712729685</v>
-      </c>
-      <c r="I145">
-        <v>1116617.441446659</v>
-      </c>
-      <c r="J145">
-        <v>4841417.738135224</v>
-      </c>
-      <c r="K145">
-        <v>3985522.484639054</v>
-      </c>
-    </row>
-    <row r="146" spans="1:11">
-      <c r="A146">
-        <v>443</v>
-      </c>
-      <c r="B146" t="s">
-        <v>11</v>
-      </c>
-      <c r="C146" t="s">
-        <v>15</v>
-      </c>
-      <c r="D146" t="s">
-        <v>16</v>
-      </c>
-      <c r="E146">
-        <v>190.142</v>
-      </c>
-      <c r="F146">
-        <v>1116407.308992974</v>
-      </c>
-      <c r="G146">
-        <v>4841637.511842653</v>
-      </c>
-      <c r="H146">
-        <v>3986240.530180584</v>
-      </c>
-      <c r="I146">
-        <v>1116690.284121005</v>
-      </c>
-      <c r="J146">
-        <v>4841369.086601532</v>
-      </c>
-      <c r="K146">
-        <v>3985265.780138371</v>
-      </c>
-    </row>
-    <row r="147" spans="1:11">
-      <c r="A147">
-        <v>443</v>
-      </c>
-      <c r="B147" t="s">
-        <v>11</v>
-      </c>
-      <c r="C147" t="s">
-        <v>15</v>
-      </c>
-      <c r="D147" t="s">
-        <v>16</v>
-      </c>
-      <c r="E147">
-        <v>191.142</v>
-      </c>
-      <c r="F147">
-        <v>1116406.613336211</v>
-      </c>
-      <c r="G147">
-        <v>4841654.024665448</v>
-      </c>
-      <c r="H147">
-        <v>3986250.036511492</v>
-      </c>
-      <c r="I147">
-        <v>1116764.920479193</v>
-      </c>
-      <c r="J147">
-        <v>4841320.43506784</v>
-      </c>
-      <c r="K147">
-        <v>3984993.92697424</v>
-      </c>
-    </row>
-    <row r="148" spans="1:11">
-      <c r="A148">
-        <v>443</v>
-      </c>
-      <c r="B148" t="s">
-        <v>11</v>
-      </c>
-      <c r="C148" t="s">
-        <v>15</v>
-      </c>
-      <c r="D148" t="s">
-        <v>16</v>
-      </c>
-      <c r="E148">
-        <v>192.142</v>
-      </c>
-      <c r="F148">
-        <v>1116405.949519947</v>
-      </c>
-      <c r="G148">
-        <v>4841670.537488244</v>
-      </c>
-      <c r="H148">
-        <v>3986259.250837299</v>
-      </c>
-      <c r="I148">
-        <v>1116841.394689037</v>
-      </c>
-      <c r="J148">
-        <v>4841271.783534149</v>
-      </c>
-      <c r="K148">
-        <v>3984706.925146663</v>
-      </c>
-    </row>
-    <row r="149" spans="1:11">
-      <c r="A149">
-        <v>443</v>
-      </c>
-      <c r="B149" t="s">
-        <v>11</v>
-      </c>
-      <c r="C149" t="s">
-        <v>15</v>
-      </c>
-      <c r="D149" t="s">
-        <v>16</v>
-      </c>
-      <c r="E149">
-        <v>193.142</v>
-      </c>
-      <c r="F149">
-        <v>1116405.315187772</v>
-      </c>
-      <c r="G149">
-        <v>4841687.05031104</v>
-      </c>
-      <c r="H149">
-        <v>3986268.190563671</v>
-      </c>
-      <c r="I149">
-        <v>1116919.752005944</v>
-      </c>
-      <c r="J149">
-        <v>4841223.132000456</v>
-      </c>
-      <c r="K149">
-        <v>3984404.774655639</v>
-      </c>
-    </row>
-    <row r="150" spans="1:11">
-      <c r="A150">
-        <v>443</v>
-      </c>
-      <c r="B150" t="s">
-        <v>11</v>
-      </c>
-      <c r="C150" t="s">
-        <v>15</v>
-      </c>
-      <c r="D150" t="s">
-        <v>16</v>
-      </c>
-      <c r="E150">
-        <v>194.142</v>
-      </c>
-      <c r="F150">
-        <v>1116404.708220347</v>
-      </c>
-      <c r="G150">
-        <v>4841703.563133835</v>
-      </c>
-      <c r="H150">
-        <v>3986276.871584952</v>
-      </c>
-      <c r="I150">
-        <v>1117000.038799692</v>
-      </c>
-      <c r="J150">
-        <v>4841174.480466763</v>
-      </c>
-      <c r="K150">
-        <v>3984087.475501168</v>
-      </c>
-    </row>
-    <row r="151" spans="1:11">
-      <c r="A151">
-        <v>443</v>
-      </c>
-      <c r="B151" t="s">
-        <v>11</v>
-      </c>
-      <c r="C151" t="s">
-        <v>15</v>
-      </c>
-      <c r="D151" t="s">
-        <v>16</v>
-      </c>
-      <c r="E151">
-        <v>195.142</v>
-      </c>
-      <c r="F151">
-        <v>1116404.126705601</v>
-      </c>
-      <c r="G151">
-        <v>4841720.075956631</v>
-      </c>
-      <c r="H151">
-        <v>3986285.308454216</v>
-      </c>
-      <c r="I151">
-        <v>1117082.302581873</v>
-      </c>
-      <c r="J151">
-        <v>4841125.828933072</v>
-      </c>
-      <c r="K151">
-        <v>3983755.027683251</v>
-      </c>
-    </row>
-    <row r="152" spans="1:11">
-      <c r="A152">
-        <v>443</v>
-      </c>
-      <c r="B152" t="s">
-        <v>11</v>
-      </c>
-      <c r="C152" t="s">
-        <v>15</v>
-      </c>
-      <c r="D152" t="s">
-        <v>16</v>
-      </c>
-      <c r="E152">
-        <v>196.142</v>
-      </c>
-      <c r="F152">
-        <v>1116403.568913384</v>
-      </c>
-      <c r="G152">
-        <v>4841736.588779425</v>
-      </c>
-      <c r="H152">
-        <v>3986293.514530067</v>
-      </c>
-      <c r="I152">
-        <v>1117166.59203401</v>
-      </c>
-      <c r="J152">
-        <v>4841077.177399379</v>
-      </c>
-      <c r="K152">
-        <v>3983407.431201887</v>
-      </c>
-    </row>
-    <row r="153" spans="1:11">
-      <c r="A153">
-        <v>443</v>
-      </c>
-      <c r="B153" t="s">
-        <v>11</v>
-      </c>
-      <c r="C153" t="s">
-        <v>15</v>
-      </c>
-      <c r="D153" t="s">
-        <v>16</v>
-      </c>
-      <c r="E153">
-        <v>197.142</v>
-      </c>
-      <c r="F153">
-        <v>1116403.033273804</v>
-      </c>
-      <c r="G153">
-        <v>4841753.101602221</v>
-      </c>
-      <c r="H153">
-        <v>3986301.502103881</v>
-      </c>
-      <c r="I153">
-        <v>1117252.95703636</v>
-      </c>
-      <c r="J153">
-        <v>4841028.525865687</v>
-      </c>
-      <c r="K153">
-        <v>3983044.686057077</v>
-      </c>
-    </row>
-    <row r="154" spans="1:11">
-      <c r="A154">
-        <v>443</v>
-      </c>
-      <c r="B154" t="s">
-        <v>11</v>
-      </c>
-      <c r="C154" t="s">
-        <v>15</v>
-      </c>
-      <c r="D154" t="s">
-        <v>16</v>
-      </c>
-      <c r="E154">
-        <v>198.142</v>
-      </c>
-      <c r="F154">
-        <v>1116402.51835864</v>
-      </c>
-      <c r="G154">
-        <v>4841769.614425017</v>
-      </c>
-      <c r="H154">
-        <v>3986309.282510541</v>
-      </c>
-      <c r="I154">
-        <v>1117341.448697439</v>
-      </c>
-      <c r="J154">
-        <v>4840979.874331995</v>
-      </c>
-      <c r="K154">
-        <v>3982666.792248819</v>
-      </c>
-    </row>
-    <row r="155" spans="1:11">
-      <c r="A155">
-        <v>443</v>
-      </c>
-      <c r="B155" t="s">
-        <v>11</v>
-      </c>
-      <c r="C155" t="s">
-        <v>15</v>
-      </c>
-      <c r="D155" t="s">
-        <v>16</v>
-      </c>
-      <c r="E155">
-        <v>199.142</v>
-      </c>
-      <c r="F155">
-        <v>1116402.022865318</v>
-      </c>
-      <c r="G155">
-        <v>4841786.127247812</v>
-      </c>
-      <c r="H155">
-        <v>3986316.866225187</v>
-      </c>
-      <c r="I155">
-        <v>1117432.119384261</v>
-      </c>
-      <c r="J155">
-        <v>4840931.222798304</v>
-      </c>
-      <c r="K155">
-        <v>3982273.749777116</v>
-      </c>
-    </row>
-    <row r="156" spans="1:11">
-      <c r="A156">
-        <v>443</v>
-      </c>
-      <c r="B156" t="s">
-        <v>11</v>
-      </c>
-      <c r="C156" t="s">
-        <v>15</v>
-      </c>
-      <c r="D156" t="s">
-        <v>16</v>
-      </c>
-      <c r="E156">
-        <v>200.142</v>
-      </c>
-      <c r="F156">
-        <v>1116401.545603053</v>
-      </c>
-      <c r="G156">
-        <v>4841802.640070608</v>
-      </c>
-      <c r="H156">
-        <v>3986324.262948014</v>
-      </c>
-      <c r="I156">
-        <v>1117525.022753331</v>
-      </c>
-      <c r="J156">
-        <v>4840882.571264611</v>
-      </c>
-      <c r="K156">
-        <v>3981865.558641965</v>
-      </c>
-    </row>
-    <row r="157" spans="1:11">
-      <c r="A157">
-        <v>443</v>
-      </c>
-      <c r="B157" t="s">
-        <v>11</v>
-      </c>
-      <c r="C157" t="s">
-        <v>15</v>
-      </c>
-      <c r="D157" t="s">
-        <v>16</v>
-      </c>
-      <c r="E157">
-        <v>201.142</v>
-      </c>
-      <c r="F157">
-        <v>1116401.085480809</v>
-      </c>
-      <c r="G157">
-        <v>4841819.152893404</v>
-      </c>
-      <c r="H157">
-        <v>3986331.481678877</v>
-      </c>
-      <c r="I157">
-        <v>1117620.213782395</v>
-      </c>
-      <c r="J157">
-        <v>4840833.919730918</v>
-      </c>
-      <c r="K157">
-        <v>3981442.218843368</v>
-      </c>
-    </row>
-    <row r="158" spans="1:11">
-      <c r="A158">
-        <v>443</v>
-      </c>
-      <c r="B158" t="s">
-        <v>11</v>
-      </c>
-      <c r="C158" t="s">
-        <v>15</v>
-      </c>
-      <c r="D158" t="s">
-        <v>16</v>
-      </c>
-      <c r="E158">
-        <v>202.142</v>
-      </c>
-      <c r="F158">
-        <v>1116400.641496808</v>
-      </c>
-      <c r="G158">
-        <v>4841835.665716198</v>
-      </c>
-      <c r="H158">
-        <v>3986338.530783137</v>
-      </c>
-      <c r="I158">
-        <v>1117717.748802975</v>
-      </c>
-      <c r="J158">
-        <v>4840785.268197227</v>
-      </c>
-      <c r="K158">
-        <v>3981003.730381324</v>
-      </c>
-    </row>
-    <row r="159" spans="1:11">
-      <c r="A159">
-        <v>443</v>
-      </c>
-      <c r="B159" t="s">
-        <v>11</v>
-      </c>
-      <c r="C159" t="s">
-        <v>15</v>
-      </c>
-      <c r="D159" t="s">
-        <v>16</v>
-      </c>
-      <c r="E159">
-        <v>203.142</v>
-      </c>
-      <c r="F159">
-        <v>1116400.212729359</v>
-      </c>
-      <c r="G159">
-        <v>4841852.178538994</v>
-      </c>
-      <c r="H159">
-        <v>3986345.418049924</v>
-      </c>
-      <c r="I159">
-        <v>1117817.685533706</v>
-      </c>
-      <c r="J159">
-        <v>4840736.616663535</v>
-      </c>
-      <c r="K159">
-        <v>3980550.093255834</v>
-      </c>
-    </row>
-    <row r="160" spans="1:11">
-      <c r="A160">
-        <v>443</v>
-      </c>
-      <c r="B160" t="s">
-        <v>11</v>
-      </c>
-      <c r="C160" t="s">
-        <v>15</v>
-      </c>
-      <c r="D160" t="s">
-        <v>16</v>
-      </c>
-      <c r="E160">
-        <v>204.142</v>
-      </c>
-      <c r="F160">
-        <v>1116399.79832881</v>
-      </c>
-      <c r="G160">
-        <v>4841868.691361791</v>
-      </c>
-      <c r="H160">
-        <v>3986352.150743885</v>
-      </c>
-      <c r="I160">
-        <v>1117920.083114491</v>
-      </c>
-      <c r="J160">
-        <v>4840687.965129842</v>
-      </c>
-      <c r="K160">
-        <v>3980081.307466897</v>
+        <v>3980076.199180422</v>
       </c>
     </row>
   </sheetData>
